--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="70">
   <si>
     <t>日期</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>瓜</t>
+  </si>
+  <si>
+    <t>获奖</t>
   </si>
   <si>
     <t>周五</t>
@@ -105,6 +108,18 @@
     <t>三国谋定天下S4赛季</t>
   </si>
   <si>
+    <t>绝区零 TGA 2024最佳手游提名</t>
+  </si>
+  <si>
+    <t>鸣潮 TGA 2024最佳手游提名</t>
+  </si>
+  <si>
+    <t>崩坏星穹铁道 谷歌最佳续作奖</t>
+  </si>
+  <si>
+    <t>剑与远征2 谷歌年度最佳</t>
+  </si>
+  <si>
     <t>最终幻想14：水晶世界首爆PV</t>
   </si>
   <si>
@@ -132,6 +147,9 @@
     <t>金铲铲之战双城传说2赛季</t>
   </si>
   <si>
+    <t>崩坏星穹铁道2024金摇杆最佳持续运营移动端</t>
+  </si>
+  <si>
     <t>逆水寒2.2.2版本更新</t>
   </si>
   <si>
@@ -145,6 +163,12 @@
   </si>
   <si>
     <t>明日方舟运营Wan顽子就蚀刻章抄袭事件道歉</t>
+  </si>
+  <si>
+    <t>绝区零 IOS 2024年度游戏</t>
+  </si>
+  <si>
+    <t>剑与远征2 IOS 2024年度游戏</t>
   </si>
   <si>
     <t>地下城与勇士65版本</t>
@@ -166,6 +190,15 @@
   </si>
   <si>
     <t>无限暖暖预下载</t>
+  </si>
+  <si>
+    <t>原神 TGA 2024玩家之声提名</t>
+  </si>
+  <si>
+    <t>绝区零 TGA 2024玩家之声提名</t>
+  </si>
+  <si>
+    <t>鸣潮 TGA 2024玩家之声提名</t>
   </si>
   <si>
     <t>崩坏星穹铁道2.7版本更新</t>
@@ -893,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,15 +975,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,37 +1011,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,12 +1557,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -1534,9 +1570,9 @@
     <col min="1" max="1" width="14.625" style="15" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="15" customWidth="1"/>
     <col min="3" max="3" width="42" style="15" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="15" customWidth="1"/>
     <col min="5" max="5" width="52.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.775" customWidth="1"/>
+    <col min="6" max="6" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1555,17 +1591,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8">
         <v>45597</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1576,7 +1614,7 @@
         <v>45598</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1588,7 +1626,7 @@
         <v>45599</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1600,7 +1638,7 @@
         <v>45600</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1612,7 +1650,7 @@
         <v>45601</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1624,66 +1662,66 @@
         <v>45602</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16">
+      <c r="A8" s="10">
         <v>45603</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="18" t="s">
-        <v>17</v>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="18" t="s">
-        <v>19</v>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>45604</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1692,7 +1730,7 @@
         <v>45605</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1704,7 +1742,7 @@
         <v>45606</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1716,7 +1754,7 @@
         <v>45607</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1728,7 +1766,7 @@
         <v>45608</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1740,7 +1778,7 @@
         <v>45609</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1752,10 +1790,10 @@
         <v>45610</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1766,13 +1804,13 @@
         <v>45611</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1782,10 +1820,10 @@
         <v>45612</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1796,7 +1834,7 @@
         <v>45613</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1808,7 +1846,7 @@
         <v>45614</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1816,453 +1854,447 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8">
+      <c r="A22" s="22">
         <v>45615</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10">
         <v>45616</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="16">
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10">
         <v>45617</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10">
         <v>45618</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>7</v>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8">
-        <v>45620</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8">
-        <v>45621</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="4"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8">
-        <v>45625</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="22">
+        <v>45622</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8">
-        <v>45626</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8">
-        <v>45627</v>
+        <v>45623</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8">
-        <v>45628</v>
+        <v>45624</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16">
+      <c r="A44" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>45627</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45628</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="22">
+        <v>45629</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10">
         <v>45630</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="28">
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10">
         <v>45631</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8">
-        <v>45632</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8">
-        <v>45635</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8">
-        <v>45636</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8">
-        <v>45637</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="8">
-        <v>45638</v>
+        <v>45632</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8">
-        <v>45639</v>
+        <v>45633</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2271,10 +2303,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="8">
-        <v>45640</v>
+        <v>45634</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2283,10 +2315,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="8">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2295,10 +2327,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8">
-        <v>45642</v>
+        <v>45636</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2307,10 +2339,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="8">
-        <v>45643</v>
+        <v>45637</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2319,13 +2351,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="8">
-        <v>45644</v>
+        <v>45638</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2333,10 +2365,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="8">
-        <v>45645</v>
+        <v>45639</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2345,10 +2377,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8">
-        <v>45646</v>
+        <v>45640</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2357,10 +2389,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8">
-        <v>46012</v>
+        <v>45641</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2369,10 +2401,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="8">
-        <v>45648</v>
+        <v>45642</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2381,10 +2413,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8">
-        <v>45649</v>
+        <v>45643</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2393,22 +2425,24 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="8">
-        <v>45650</v>
+        <v>45644</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8">
-        <v>45651</v>
+        <v>45645</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2417,10 +2451,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8">
-        <v>45652</v>
+        <v>45646</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2429,10 +2463,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8">
-        <v>45653</v>
+        <v>46012</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2441,10 +2475,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <v>45654</v>
+        <v>45648</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2453,10 +2487,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8">
-        <v>45655</v>
+        <v>45649</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2465,10 +2499,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8">
-        <v>45656</v>
+        <v>45650</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2477,57 +2511,87 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8">
-        <v>45657</v>
+        <v>45651</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="13.5" spans="1:5">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" ht="13.5" spans="1:5">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" ht="13.5" spans="1:5">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" ht="13.5" spans="1:5">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" ht="13.5" spans="1:5">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-    </row>
-    <row r="82" ht="13.5" spans="1:5">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
+    <row r="77" spans="1:6">
+      <c r="A77" s="8">
+        <v>45652</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" ht="13.5" spans="1:5">
       <c r="A83"/>
@@ -2571,34 +2635,91 @@
       <c r="D88"/>
       <c r="E88"/>
     </row>
+    <row r="89" ht="13.5" spans="1:5">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" ht="13.5" spans="1:5">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+    </row>
+    <row r="91" ht="13.5" spans="1:5">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" ht="13.5" spans="1:5">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" ht="13.5" spans="1:5">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" ht="13.5" spans="1:5">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="41">
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D56"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E56"/>
     <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2634,16 +2755,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:6">
@@ -2651,7 +2772,7 @@
         <v>45658</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -2663,7 +2784,7 @@
         <v>45659</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2675,7 +2796,7 @@
         <v>45660</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2687,7 +2808,7 @@
         <v>45661</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2699,7 +2820,7 @@
         <v>45662</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2711,7 +2832,7 @@
         <v>45663</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2723,7 +2844,7 @@
         <v>45664</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2735,7 +2856,7 @@
         <v>45665</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2747,7 +2868,7 @@
         <v>45666</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2759,7 +2880,7 @@
         <v>45667</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2771,7 +2892,7 @@
         <v>45668</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2783,7 +2904,7 @@
         <v>45669</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2795,7 +2916,7 @@
         <v>45670</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2807,7 +2928,7 @@
         <v>45671</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2819,7 +2940,7 @@
         <v>45672</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2831,7 +2952,7 @@
         <v>45673</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
@@ -2843,7 +2964,7 @@
         <v>45674</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2855,7 +2976,7 @@
         <v>45675</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2867,7 +2988,7 @@
         <v>45676</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2879,7 +3000,7 @@
         <v>45677</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2891,7 +3012,7 @@
         <v>45678</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2903,7 +3024,7 @@
         <v>45679</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2915,7 +3036,7 @@
         <v>45680</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2927,7 +3048,7 @@
         <v>45681</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2939,7 +3060,7 @@
         <v>45682</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2951,7 +3072,7 @@
         <v>45683</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2963,7 +3084,7 @@
         <v>45684</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2975,7 +3096,7 @@
         <v>45685</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2987,7 +3108,7 @@
         <v>45686</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2999,7 +3120,7 @@
         <v>45687</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3011,7 +3132,7 @@
         <v>45688</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3023,7 +3144,7 @@
         <v>45689</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
@@ -3035,7 +3156,7 @@
         <v>45690</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3047,7 +3168,7 @@
         <v>45691</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3059,7 +3180,7 @@
         <v>45692</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3071,7 +3192,7 @@
         <v>45693</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3083,7 +3204,7 @@
         <v>45694</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3095,7 +3216,7 @@
         <v>45695</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3107,7 +3228,7 @@
         <v>45696</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3119,7 +3240,7 @@
         <v>45697</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3131,7 +3252,7 @@
         <v>45698</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3143,7 +3264,7 @@
         <v>45699</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3155,7 +3276,7 @@
         <v>45700</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3167,7 +3288,7 @@
         <v>45701</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3179,7 +3300,7 @@
         <v>45702</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3191,7 +3312,7 @@
         <v>45703</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3203,7 +3324,7 @@
         <v>45704</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3215,7 +3336,7 @@
         <v>45705</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3227,7 +3348,7 @@
         <v>45706</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3239,7 +3360,7 @@
         <v>45707</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3251,7 +3372,7 @@
         <v>45708</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3263,7 +3384,7 @@
         <v>45709</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3275,7 +3396,7 @@
         <v>45710</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3287,7 +3408,7 @@
         <v>45711</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3299,7 +3420,7 @@
         <v>45712</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3311,7 +3432,7 @@
         <v>45713</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3323,7 +3444,7 @@
         <v>45714</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3335,7 +3456,7 @@
         <v>45715</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3347,7 +3468,7 @@
         <v>45716</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3359,7 +3480,7 @@
         <v>45717</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3371,7 +3492,7 @@
         <v>45718</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3383,7 +3504,7 @@
         <v>45719</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3395,7 +3516,7 @@
         <v>45720</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3407,7 +3528,7 @@
         <v>45721</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3419,7 +3540,7 @@
         <v>45722</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3431,7 +3552,7 @@
         <v>45723</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3443,7 +3564,7 @@
         <v>45724</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3455,7 +3576,7 @@
         <v>45725</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3467,7 +3588,7 @@
         <v>45726</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3479,7 +3600,7 @@
         <v>45727</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3491,7 +3612,7 @@
         <v>45728</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3503,7 +3624,7 @@
         <v>45729</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3515,7 +3636,7 @@
         <v>45730</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3527,7 +3648,7 @@
         <v>45731</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3539,7 +3660,7 @@
         <v>45732</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3551,7 +3672,7 @@
         <v>45733</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3563,7 +3684,7 @@
         <v>45734</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3575,7 +3696,7 @@
         <v>45735</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3587,7 +3708,7 @@
         <v>45736</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3599,7 +3720,7 @@
         <v>45737</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3611,7 +3732,7 @@
         <v>45738</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3623,7 +3744,7 @@
         <v>45739</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3635,7 +3756,7 @@
         <v>45740</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3647,7 +3768,7 @@
         <v>45741</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3659,7 +3780,7 @@
         <v>45742</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3671,7 +3792,7 @@
         <v>45743</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3683,7 +3804,7 @@
         <v>45744</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3695,7 +3816,7 @@
         <v>45745</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3707,7 +3828,7 @@
         <v>45746</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3719,7 +3840,7 @@
         <v>45747</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3731,7 +3852,7 @@
         <v>45748</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3743,7 +3864,7 @@
         <v>45749</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3755,7 +3876,7 @@
         <v>45750</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3767,7 +3888,7 @@
         <v>45751</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3779,7 +3900,7 @@
         <v>45752</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3791,7 +3912,7 @@
         <v>45753</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3803,7 +3924,7 @@
         <v>45754</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3815,7 +3936,7 @@
         <v>45755</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3827,7 +3948,7 @@
         <v>45756</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3839,7 +3960,7 @@
         <v>45757</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3851,7 +3972,7 @@
         <v>45758</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3863,7 +3984,7 @@
         <v>45759</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3875,7 +3996,7 @@
         <v>45760</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3887,7 +4008,7 @@
         <v>45761</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3899,7 +4020,7 @@
         <v>45762</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3911,7 +4032,7 @@
         <v>45763</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3923,7 +4044,7 @@
         <v>45764</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3935,7 +4056,7 @@
         <v>45765</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3947,7 +4068,7 @@
         <v>45766</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3959,7 +4080,7 @@
         <v>45767</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3971,7 +4092,7 @@
         <v>45768</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3983,7 +4104,7 @@
         <v>45769</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -3995,7 +4116,7 @@
         <v>45770</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4007,7 +4128,7 @@
         <v>45771</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -4019,7 +4140,7 @@
         <v>45772</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -4031,7 +4152,7 @@
         <v>45773</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4043,7 +4164,7 @@
         <v>45774</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4055,7 +4176,7 @@
         <v>45775</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4067,7 +4188,7 @@
         <v>45776</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -4079,7 +4200,7 @@
         <v>45777</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4091,7 +4212,7 @@
         <v>45778</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -4103,7 +4224,7 @@
         <v>45779</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -4115,7 +4236,7 @@
         <v>45780</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4127,7 +4248,7 @@
         <v>45781</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4139,7 +4260,7 @@
         <v>45782</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4151,7 +4272,7 @@
         <v>45783</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -4163,7 +4284,7 @@
         <v>45784</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -4175,7 +4296,7 @@
         <v>45785</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -4187,7 +4308,7 @@
         <v>45786</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -4199,7 +4320,7 @@
         <v>45787</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -4211,7 +4332,7 @@
         <v>45788</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -4223,7 +4344,7 @@
         <v>45789</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -4235,7 +4356,7 @@
         <v>45790</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -4247,7 +4368,7 @@
         <v>45791</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -4259,7 +4380,7 @@
         <v>45792</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -4271,7 +4392,7 @@
         <v>45793</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -4283,7 +4404,7 @@
         <v>45794</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -4295,7 +4416,7 @@
         <v>45795</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -4307,7 +4428,7 @@
         <v>45796</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -4319,7 +4440,7 @@
         <v>45797</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -4331,7 +4452,7 @@
         <v>45798</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -4343,7 +4464,7 @@
         <v>45799</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -4355,7 +4476,7 @@
         <v>45800</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -4367,7 +4488,7 @@
         <v>45801</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -4379,7 +4500,7 @@
         <v>45802</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -4391,7 +4512,7 @@
         <v>45803</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -4403,7 +4524,7 @@
         <v>45804</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4415,7 +4536,7 @@
         <v>45805</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -4427,7 +4548,7 @@
         <v>45806</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -4439,7 +4560,7 @@
         <v>45807</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -4451,7 +4572,7 @@
         <v>45808</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -4463,7 +4584,7 @@
         <v>45809</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -4475,7 +4596,7 @@
         <v>45810</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -4487,7 +4608,7 @@
         <v>45811</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -4499,7 +4620,7 @@
         <v>45812</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -4511,7 +4632,7 @@
         <v>45813</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -4523,7 +4644,7 @@
         <v>45814</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -4535,7 +4656,7 @@
         <v>45815</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -4547,7 +4668,7 @@
         <v>45816</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -4559,7 +4680,7 @@
         <v>45817</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -4571,7 +4692,7 @@
         <v>45818</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -4583,7 +4704,7 @@
         <v>45819</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -4595,7 +4716,7 @@
         <v>45820</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -4607,7 +4728,7 @@
         <v>45821</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -4619,7 +4740,7 @@
         <v>45822</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -4631,7 +4752,7 @@
         <v>45823</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -4643,7 +4764,7 @@
         <v>45824</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -4655,7 +4776,7 @@
         <v>45825</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -4667,7 +4788,7 @@
         <v>45826</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -4679,7 +4800,7 @@
         <v>45827</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -4691,7 +4812,7 @@
         <v>45828</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -4703,7 +4824,7 @@
         <v>45829</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -4715,7 +4836,7 @@
         <v>45830</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -4727,7 +4848,7 @@
         <v>45831</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -4739,7 +4860,7 @@
         <v>45832</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -4751,7 +4872,7 @@
         <v>45833</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -4763,7 +4884,7 @@
         <v>45834</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -4775,7 +4896,7 @@
         <v>45835</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -4787,7 +4908,7 @@
         <v>45836</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -4799,7 +4920,7 @@
         <v>45837</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -4811,7 +4932,7 @@
         <v>45838</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -4823,7 +4944,7 @@
         <v>45839</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -4835,7 +4956,7 @@
         <v>45840</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -4847,7 +4968,7 @@
         <v>45841</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -4859,7 +4980,7 @@
         <v>45842</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -4871,7 +4992,7 @@
         <v>45843</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -4883,7 +5004,7 @@
         <v>45844</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -4895,7 +5016,7 @@
         <v>45845</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -4907,7 +5028,7 @@
         <v>45846</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -4919,7 +5040,7 @@
         <v>45847</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -4931,7 +5052,7 @@
         <v>45848</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -4943,7 +5064,7 @@
         <v>45849</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -4955,7 +5076,7 @@
         <v>45850</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -4967,7 +5088,7 @@
         <v>45851</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -4979,7 +5100,7 @@
         <v>45852</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -4991,7 +5112,7 @@
         <v>45853</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -5003,7 +5124,7 @@
         <v>45854</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -5015,7 +5136,7 @@
         <v>45855</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -5027,7 +5148,7 @@
         <v>45856</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -5039,7 +5160,7 @@
         <v>45857</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -5051,7 +5172,7 @@
         <v>45858</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -5063,7 +5184,7 @@
         <v>45859</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5075,7 +5196,7 @@
         <v>45860</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -5087,7 +5208,7 @@
         <v>45861</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -5099,7 +5220,7 @@
         <v>45862</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -5111,7 +5232,7 @@
         <v>45863</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -5123,7 +5244,7 @@
         <v>45864</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -5135,7 +5256,7 @@
         <v>45865</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -5147,7 +5268,7 @@
         <v>45866</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -5159,7 +5280,7 @@
         <v>45867</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -5171,7 +5292,7 @@
         <v>45868</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -5183,7 +5304,7 @@
         <v>45869</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -5195,7 +5316,7 @@
         <v>45870</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -5207,7 +5328,7 @@
         <v>45871</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -5219,7 +5340,7 @@
         <v>45872</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -5231,7 +5352,7 @@
         <v>45873</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -5243,7 +5364,7 @@
         <v>45874</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -5255,7 +5376,7 @@
         <v>45875</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -5267,7 +5388,7 @@
         <v>45876</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -5279,7 +5400,7 @@
         <v>45877</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -5291,7 +5412,7 @@
         <v>45878</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -5303,7 +5424,7 @@
         <v>45879</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -5315,7 +5436,7 @@
         <v>45880</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -5327,7 +5448,7 @@
         <v>45881</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -5339,7 +5460,7 @@
         <v>45882</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -5351,7 +5472,7 @@
         <v>45883</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -5363,7 +5484,7 @@
         <v>45884</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -5375,7 +5496,7 @@
         <v>45885</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -5387,7 +5508,7 @@
         <v>45886</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -5399,7 +5520,7 @@
         <v>45887</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -5411,7 +5532,7 @@
         <v>45888</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -5423,7 +5544,7 @@
         <v>45889</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -5435,7 +5556,7 @@
         <v>45890</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -5447,7 +5568,7 @@
         <v>45891</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -5459,7 +5580,7 @@
         <v>45892</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -5471,7 +5592,7 @@
         <v>45893</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -5483,7 +5604,7 @@
         <v>45894</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -5495,7 +5616,7 @@
         <v>45895</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -5507,7 +5628,7 @@
         <v>45896</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -5519,7 +5640,7 @@
         <v>45897</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -5531,7 +5652,7 @@
         <v>45898</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -5543,7 +5664,7 @@
         <v>45899</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -5555,7 +5676,7 @@
         <v>45900</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -5567,7 +5688,7 @@
         <v>45901</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -5579,7 +5700,7 @@
         <v>45902</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -5591,7 +5712,7 @@
         <v>45903</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -5603,7 +5724,7 @@
         <v>45904</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -5615,7 +5736,7 @@
         <v>45905</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -5627,7 +5748,7 @@
         <v>45906</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -5639,7 +5760,7 @@
         <v>45907</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -5651,7 +5772,7 @@
         <v>45908</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -5663,7 +5784,7 @@
         <v>45909</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -5675,7 +5796,7 @@
         <v>45910</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -5687,7 +5808,7 @@
         <v>45911</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -5699,7 +5820,7 @@
         <v>45912</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -5711,7 +5832,7 @@
         <v>45913</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -5723,7 +5844,7 @@
         <v>45914</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -5735,7 +5856,7 @@
         <v>45915</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -5747,7 +5868,7 @@
         <v>45916</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -5759,7 +5880,7 @@
         <v>45917</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -5771,7 +5892,7 @@
         <v>45918</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -5783,7 +5904,7 @@
         <v>45919</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -5795,7 +5916,7 @@
         <v>45920</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -5807,7 +5928,7 @@
         <v>45921</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -5819,7 +5940,7 @@
         <v>45922</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -5831,7 +5952,7 @@
         <v>45923</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -5843,7 +5964,7 @@
         <v>45924</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -5855,7 +5976,7 @@
         <v>45925</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -5867,7 +5988,7 @@
         <v>45926</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -5879,7 +6000,7 @@
         <v>45927</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -5891,7 +6012,7 @@
         <v>45928</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -5903,7 +6024,7 @@
         <v>45929</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -5915,7 +6036,7 @@
         <v>45930</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -5927,7 +6048,7 @@
         <v>45931</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -5939,7 +6060,7 @@
         <v>45932</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -5951,7 +6072,7 @@
         <v>45933</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -5963,7 +6084,7 @@
         <v>45934</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -5975,7 +6096,7 @@
         <v>45935</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -5987,7 +6108,7 @@
         <v>45936</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -5999,7 +6120,7 @@
         <v>45937</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -6011,7 +6132,7 @@
         <v>45938</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -6023,7 +6144,7 @@
         <v>45939</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -6035,7 +6156,7 @@
         <v>45940</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -6047,7 +6168,7 @@
         <v>45941</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -6059,7 +6180,7 @@
         <v>45942</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -6071,7 +6192,7 @@
         <v>45943</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -6083,7 +6204,7 @@
         <v>45944</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -6095,7 +6216,7 @@
         <v>45945</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -6107,7 +6228,7 @@
         <v>45946</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -6119,7 +6240,7 @@
         <v>45947</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -6131,7 +6252,7 @@
         <v>45948</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -6143,7 +6264,7 @@
         <v>45949</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -6155,7 +6276,7 @@
         <v>45950</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -6167,7 +6288,7 @@
         <v>45951</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -6179,7 +6300,7 @@
         <v>45952</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -6191,7 +6312,7 @@
         <v>45953</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -6203,7 +6324,7 @@
         <v>45954</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -6215,7 +6336,7 @@
         <v>45955</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -6227,7 +6348,7 @@
         <v>45956</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -6239,7 +6360,7 @@
         <v>45957</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -6251,7 +6372,7 @@
         <v>45958</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -6263,7 +6384,7 @@
         <v>45959</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -6275,7 +6396,7 @@
         <v>45960</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -6287,7 +6408,7 @@
         <v>45961</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -6299,7 +6420,7 @@
         <v>45962</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -6311,7 +6432,7 @@
         <v>45963</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -6323,7 +6444,7 @@
         <v>45964</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -6335,7 +6456,7 @@
         <v>45965</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -6347,7 +6468,7 @@
         <v>45966</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -6359,7 +6480,7 @@
         <v>45967</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -6371,7 +6492,7 @@
         <v>45968</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -6383,7 +6504,7 @@
         <v>45969</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -6395,7 +6516,7 @@
         <v>45970</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -6407,7 +6528,7 @@
         <v>45971</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -6419,7 +6540,7 @@
         <v>45972</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -6431,7 +6552,7 @@
         <v>45973</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -6443,7 +6564,7 @@
         <v>45974</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -6455,7 +6576,7 @@
         <v>45975</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -6467,7 +6588,7 @@
         <v>45976</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -6479,7 +6600,7 @@
         <v>45977</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -6491,7 +6612,7 @@
         <v>45978</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -6503,7 +6624,7 @@
         <v>45979</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -6515,7 +6636,7 @@
         <v>45980</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -6527,7 +6648,7 @@
         <v>45981</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -6539,7 +6660,7 @@
         <v>45982</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -6551,7 +6672,7 @@
         <v>45983</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -6563,7 +6684,7 @@
         <v>45984</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -6575,7 +6696,7 @@
         <v>45985</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -6587,7 +6708,7 @@
         <v>45986</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -6599,7 +6720,7 @@
         <v>45987</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -6611,7 +6732,7 @@
         <v>45988</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -6623,7 +6744,7 @@
         <v>45989</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -6635,7 +6756,7 @@
         <v>45990</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -6647,7 +6768,7 @@
         <v>45991</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -6659,7 +6780,7 @@
         <v>45992</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -6671,7 +6792,7 @@
         <v>45993</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -6683,7 +6804,7 @@
         <v>45994</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -6695,7 +6816,7 @@
         <v>45995</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -6707,7 +6828,7 @@
         <v>45996</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -6719,7 +6840,7 @@
         <v>45997</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -6731,7 +6852,7 @@
         <v>45998</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -6743,7 +6864,7 @@
         <v>45999</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -6755,7 +6876,7 @@
         <v>46000</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -6767,7 +6888,7 @@
         <v>46001</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -6779,7 +6900,7 @@
         <v>46002</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -6791,7 +6912,7 @@
         <v>46003</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -6803,7 +6924,7 @@
         <v>46004</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -6815,7 +6936,7 @@
         <v>46005</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -6827,7 +6948,7 @@
         <v>46006</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -6839,7 +6960,7 @@
         <v>46007</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -6851,7 +6972,7 @@
         <v>46008</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -6863,7 +6984,7 @@
         <v>46009</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -6875,7 +6996,7 @@
         <v>46010</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -6887,7 +7008,7 @@
         <v>46011</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -6899,7 +7020,7 @@
         <v>46012</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -6911,7 +7032,7 @@
         <v>46013</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -6923,7 +7044,7 @@
         <v>46014</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -6935,7 +7056,7 @@
         <v>46015</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -6947,7 +7068,7 @@
         <v>46016</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -6959,7 +7080,7 @@
         <v>46017</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -6971,7 +7092,7 @@
         <v>46018</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -6983,7 +7104,7 @@
         <v>46019</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -6995,7 +7116,7 @@
         <v>46020</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -7007,7 +7128,7 @@
         <v>46021</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -7019,7 +7140,7 @@
         <v>46022</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="81">
   <si>
     <t>日期</t>
   </si>
@@ -36,7 +36,7 @@
     <t>星期</t>
   </si>
   <si>
-    <t>曝光/测试/开服/大版本更新</t>
+    <t>曝光/测试/开服/大版本更新/停服</t>
   </si>
   <si>
     <t>联动/重要卡池</t>
@@ -45,7 +45,13 @@
     <t>瓜</t>
   </si>
   <si>
-    <t>获奖</t>
+    <t>提名/获奖</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>少女前线停服公告</t>
   </si>
   <si>
     <t>周五</t>
@@ -63,6 +69,9 @@
     <t>周一</t>
   </si>
   <si>
+    <t>异人之下「入世测试」招募开启</t>
+  </si>
+  <si>
     <t>周二</t>
   </si>
   <si>
@@ -75,9 +84,6 @@
     <t>阴阳师鬼金羊卡池</t>
   </si>
   <si>
-    <t>周四</t>
-  </si>
-  <si>
     <t>尘白禁区2.3版本更新</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>光遇 绊爱联动</t>
   </si>
   <si>
+    <t>白夜极光停服公告</t>
+  </si>
+  <si>
     <t>明日方舟运营Wan顽子就蚀刻章抄袭事件道歉</t>
   </si>
   <si>
@@ -189,7 +198,13 @@
     <t>恋与深空秦彻「龙影陨落处」</t>
   </si>
   <si>
-    <t>无限暖暖预下载</t>
+    <t>原神瑞幸联动</t>
+  </si>
+  <si>
+    <t>绝区零麦当劳联动</t>
+  </si>
+  <si>
+    <t>无限暖暖公测预下载</t>
   </si>
   <si>
     <t>原神 TGA 2024玩家之声提名</t>
@@ -198,9 +213,24 @@
     <t>绝区零 TGA 2024玩家之声提名</t>
   </si>
   <si>
+    <t>王者荣耀星之破晓先遣测试停服公告</t>
+  </si>
+  <si>
     <t>鸣潮 TGA 2024玩家之声提名</t>
   </si>
   <si>
+    <t>绝区零 PS blog 最佳PS5游戏提名</t>
+  </si>
+  <si>
+    <t>千年之旅停服公告</t>
+  </si>
+  <si>
+    <t>绝区零 PS blog 最佳艺术指导</t>
+  </si>
+  <si>
+    <t>原神 PS blog 最佳持续运营</t>
+  </si>
+  <si>
     <t>崩坏星穹铁道2.7版本更新</t>
   </si>
   <si>
@@ -222,22 +252,25 @@
     <t>新月同行1.0.2版本更新</t>
   </si>
   <si>
+    <t>王者荣耀星之破晓先遣测试正式停服</t>
+  </si>
+  <si>
+    <t>异人之下「入世测试」</t>
+  </si>
+  <si>
     <t>重返未来1999 2.4版本更新</t>
   </si>
   <si>
     <t>绝区零1.4版本更新</t>
   </si>
   <si>
-    <t>活动/卡池</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>版本前瞻/新角色展示</t>
-  </si>
-  <si>
-    <t>角色生日</t>
+    <t>少女前线正式停服</t>
+  </si>
+  <si>
+    <t>白夜极光正式停服</t>
+  </si>
+  <si>
+    <t>千年之旅正式停服</t>
   </si>
 </sst>
 </file>
@@ -926,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +1026,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1011,26 +1047,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1557,22 +1605,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="42" style="15" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="52.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="53.75" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
+    <col min="3" max="3" width="46.6666666666667" style="15" customWidth="1"/>
+    <col min="4" max="4" width="38.1111111111111" style="15" customWidth="1"/>
+    <col min="5" max="5" width="56.8888888888889" style="15" customWidth="1"/>
+    <col min="6" max="6" width="58.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1597,7 +1645,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1611,22 +1659,24 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1635,10 +1685,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1647,102 +1697,104 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10">
-        <v>45603</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="8">
+        <v>45602</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="10">
+        <v>45603</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
-        <v>45604</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1751,10 +1803,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1763,10 +1815,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1775,10 +1827,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1787,37 +1839,33 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8">
-        <v>45611</v>
+        <v>45610</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8">
-        <v>45612</v>
+        <v>45611</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>8</v>
@@ -1825,28 +1873,32 @@
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1854,270 +1906,270 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22">
+      <c r="A22" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10">
         <v>45615</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
         <v>45616</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10">
         <v>45617</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="18"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10">
         <v>45618</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="29"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="29"/>
+        <v>42</v>
+      </c>
+      <c r="D35" s="22"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="29"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22">
+      <c r="A39" s="8">
+        <v>45621</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="10">
         <v>45622</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8">
-        <v>45623</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="4"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2125,239 +2177,235 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="22">
+      <c r="A47" s="23">
+        <v>45628</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="31">
         <v>45629</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="10">
+      <c r="B50" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10">
         <v>45630</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="10">
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="10">
         <v>45631</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="8">
-        <v>45632</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="B58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="8">
-        <v>45635</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="8">
-        <v>45636</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="8">
-        <v>45637</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="8">
-        <v>45638</v>
+        <v>45632</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2365,10 +2413,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="8">
-        <v>45639</v>
+        <v>45633</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2377,10 +2425,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8">
-        <v>45640</v>
+        <v>45634</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2389,22 +2437,24 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="8">
-        <v>45642</v>
+        <v>45636</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2413,10 +2463,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8">
-        <v>45643</v>
+        <v>45637</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2425,13 +2475,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="8">
-        <v>45644</v>
+        <v>45638</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2439,10 +2489,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8">
-        <v>45645</v>
+        <v>45639</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2451,10 +2501,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8">
-        <v>45646</v>
+        <v>45640</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2463,10 +2513,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8">
-        <v>46012</v>
+        <v>45641</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2475,10 +2525,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <v>45648</v>
+        <v>45642</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2487,10 +2537,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8">
-        <v>45649</v>
+        <v>45643</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2499,22 +2549,24 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8">
-        <v>45650</v>
+        <v>45644</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8">
-        <v>45651</v>
+        <v>45645</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2523,10 +2575,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="8">
-        <v>45652</v>
+        <v>45646</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2535,10 +2587,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8">
-        <v>45653</v>
+        <v>46012</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2547,10 +2599,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8">
-        <v>45654</v>
+        <v>45648</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2559,10 +2611,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8">
-        <v>45655</v>
+        <v>45649</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2571,10 +2623,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8">
-        <v>45656</v>
+        <v>45650</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2583,143 +2635,224 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8">
-        <v>45657</v>
+        <v>45651</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="13.5" spans="1:5">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-    </row>
-    <row r="84" ht="13.5" spans="1:5">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-    </row>
-    <row r="85" ht="13.5" spans="1:5">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-    </row>
-    <row r="86" ht="13.5" spans="1:5">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-    </row>
-    <row r="87" ht="13.5" spans="1:5">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-    </row>
-    <row r="88" ht="13.5" spans="1:5">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-    </row>
-    <row r="89" ht="13.5" spans="1:5">
+    <row r="83" spans="1:6">
+      <c r="A83" s="8">
+        <v>45652</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" ht="14.4" spans="1:5">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
     </row>
-    <row r="90" ht="13.5" spans="1:5">
+    <row r="90" ht="14.4" spans="1:5">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
     </row>
-    <row r="91" ht="13.5" spans="1:5">
+    <row r="91" ht="14.4" spans="1:5">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
     </row>
-    <row r="92" ht="13.5" spans="1:5">
+    <row r="92" ht="14.4" spans="1:5">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
     </row>
-    <row r="93" ht="13.5" spans="1:5">
+    <row r="93" ht="14.4" spans="1:5">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
     </row>
-    <row r="94" ht="13.5" spans="1:5">
+    <row r="94" ht="14.4" spans="1:5">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
     </row>
+    <row r="95" ht="14.4" spans="1:5">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" ht="14.4" spans="1:5">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+    </row>
+    <row r="97" ht="14.4" spans="1:5">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" ht="14.4" spans="1:5">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+    </row>
+    <row r="99" ht="14.4" spans="1:5">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" ht="14.4" spans="1:5">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A39:A40"/>
+  <mergeCells count="48">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2732,22 +2865,22 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.225" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="4.775" customWidth="1"/>
-    <col min="5" max="5" width="29.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2755,4392 +2888,4396 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="17.4" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="17.4" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="17.4" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="17.4" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" ht="17.4" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" ht="17.4" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" ht="17.4" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" ht="17.4" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" ht="17.4" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" ht="17.4" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" ht="17.4" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" ht="17.4" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" ht="17.4" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" ht="17.4" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" ht="17.4" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" ht="17.4" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" ht="17.4" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" ht="17.4" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="18.75" spans="1:6">
+    <row r="24" ht="17.4" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:6">
+    <row r="25" ht="17.4" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="18.75" spans="1:6">
+    <row r="26" ht="17.4" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:6">
+    <row r="27" ht="17.4" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="1:6">
+    <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="17.4" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="17.4" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="17.4" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="17.4" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:6">
+    <row r="33" ht="17.4" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="18.75" spans="1:6">
+    <row r="34" ht="17.4" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="18.75" spans="1:6">
+    <row r="35" ht="17.4" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="18.75" spans="1:6">
+    <row r="36" ht="17.4" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="18.75" spans="1:6">
+    <row r="37" ht="17.4" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="18.75" spans="1:6">
+    <row r="38" ht="17.4" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="18.75" spans="1:6">
+    <row r="39" ht="17.4" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18.75" spans="1:6">
+    <row r="40" ht="17.4" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="18.75" spans="1:6">
+    <row r="41" ht="17.4" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="18.75" spans="1:6">
+    <row r="42" ht="17.4" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="18.75" spans="1:6">
+    <row r="43" ht="17.4" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="18.75" spans="1:6">
+    <row r="44" ht="17.4" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="18.75" spans="1:6">
+    <row r="45" ht="17.4" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="18.75" spans="1:6">
+    <row r="46" ht="17.4" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="18.75" spans="1:6">
+    <row r="47" ht="17.4" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="18.75" spans="1:6">
+    <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="18.75" spans="1:6">
+    <row r="49" ht="17.4" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="18.75" spans="1:6">
+    <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="17.4" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="17.4" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="17.4" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="18.75" spans="1:6">
+    <row r="54" ht="17.4" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="18.75" spans="1:6">
+    <row r="55" ht="17.4" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="18.75" spans="1:6">
+    <row r="56" ht="17.4" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="18.75" spans="1:6">
+    <row r="57" ht="17.4" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="18.75" spans="1:6">
+    <row r="58" ht="17.4" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="18.75" spans="1:6">
+    <row r="59" ht="17.4" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18.75" spans="1:6">
+    <row r="60" ht="17.4" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18.75" spans="1:6">
+    <row r="61" ht="17.4" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="18.75" spans="1:6">
+    <row r="62" ht="17.4" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="18.75" spans="1:6">
+    <row r="63" ht="17.4" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="18.75" spans="1:6">
+    <row r="64" ht="17.4" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="18.75" spans="1:6">
+    <row r="65" ht="17.4" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="18.75" spans="1:6">
+    <row r="66" ht="17.4" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="18.75" spans="1:6">
+    <row r="67" ht="17.4" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="18.75" spans="1:6">
+    <row r="68" ht="17.4" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="18.75" spans="1:6">
+    <row r="69" ht="17.4" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="17.4" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="17.4" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="17.4" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="17.4" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="18.75" spans="1:6">
+    <row r="74" ht="17.4" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="18.75" spans="1:6">
+    <row r="75" ht="17.4" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="18.75" spans="1:6">
+    <row r="76" ht="17.4" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="18.75" spans="1:6">
+    <row r="77" ht="17.4" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="18.75" spans="1:6">
+    <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="18.75" spans="1:6">
+    <row r="79" ht="17.4" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="18.75" spans="1:6">
+    <row r="80" ht="17.4" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="18.75" spans="1:6">
+    <row r="81" ht="17.4" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="18.75" spans="1:6">
+    <row r="82" ht="17.4" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="18.75" spans="1:6">
+    <row r="83" ht="17.4" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="18.75" spans="1:6">
+    <row r="84" ht="17.4" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="18.75" spans="1:6">
+    <row r="85" ht="17.4" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="18.75" spans="1:6">
+    <row r="86" ht="17.4" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="18.75" spans="1:6">
+    <row r="87" ht="17.4" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="18.75" spans="1:6">
+    <row r="88" ht="17.4" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="18.75" spans="1:6">
+    <row r="89" ht="17.4" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="17.4" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="17.4" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="17.4" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="17.4" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="18.75" spans="1:6">
+    <row r="94" ht="17.4" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="18.75" spans="1:6">
+    <row r="95" ht="17.4" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="18.75" spans="1:6">
+    <row r="96" ht="17.4" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="18.75" spans="1:6">
+    <row r="97" ht="17.4" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="18.75" spans="1:6">
+    <row r="98" ht="17.4" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="18.75" spans="1:6">
+    <row r="99" ht="17.4" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="18.75" spans="1:6">
+    <row r="100" ht="17.4" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="18.75" spans="1:6">
+    <row r="101" ht="17.4" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="18.75" spans="1:6">
+    <row r="102" ht="17.4" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="18.75" spans="1:6">
+    <row r="103" ht="17.4" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="18.75" spans="1:6">
+    <row r="104" ht="17.4" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="18.75" spans="1:6">
+    <row r="105" ht="17.4" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="18.75" spans="1:6">
+    <row r="106" ht="17.4" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="18.75" spans="1:6">
+    <row r="107" ht="17.4" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="17.4" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="17.4" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="17.4" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="17.4" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="18.75" spans="1:6">
+    <row r="112" ht="17.4" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="18.75" spans="1:6">
+    <row r="113" ht="17.4" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="18.75" spans="1:6">
+    <row r="114" ht="17.4" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="18.75" spans="1:6">
+    <row r="115" ht="17.4" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="18.75" spans="1:6">
+    <row r="116" ht="17.4" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="18.75" spans="1:6">
+    <row r="117" ht="17.4" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="18.75" spans="1:6">
+    <row r="118" ht="17.4" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="18.75" spans="1:6">
+    <row r="119" ht="17.4" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="18.75" spans="1:6">
+    <row r="120" ht="17.4" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="18.75" spans="1:6">
+    <row r="121" ht="17.4" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="18.75" spans="1:6">
+    <row r="122" ht="17.4" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18.75" spans="1:6">
+    <row r="123" ht="17.4" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18.75" spans="1:6">
+    <row r="124" ht="17.4" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="18.75" spans="1:6">
+    <row r="125" ht="17.4" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18.75" spans="1:6">
+    <row r="126" ht="17.4" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="18.75" spans="1:6">
+    <row r="127" ht="17.4" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="18.75" spans="1:6">
+    <row r="128" ht="17.4" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18.75" spans="1:6">
+    <row r="129" ht="17.4" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="18.75" spans="1:6">
+    <row r="130" ht="17.4" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="18.75" spans="1:6">
+    <row r="131" ht="17.4" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="18.75" spans="1:6">
+    <row r="132" ht="17.4" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="18.75" spans="1:6">
+    <row r="133" ht="17.4" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="18.75" spans="1:6">
+    <row r="134" ht="17.4" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="18.75" spans="1:6">
+    <row r="135" ht="17.4" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="18.75" spans="1:6">
+    <row r="136" ht="17.4" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="18.75" spans="1:6">
+    <row r="137" ht="17.4" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="18.75" spans="1:6">
+    <row r="138" ht="17.4" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="17.4" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="17.4" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="17.4" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="17.4" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="17.4" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="17.4" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="17.4" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="17.4" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="17.4" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="17.4" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="17.4" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="18.75" spans="1:6">
+    <row r="150" ht="17.4" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="18.75" spans="1:6">
+    <row r="151" ht="17.4" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="18.75" spans="1:6">
+    <row r="152" ht="17.4" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="18.75" spans="1:6">
+    <row r="153" ht="17.4" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="18.75" spans="1:6">
+    <row r="154" ht="17.4" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="18.75" spans="1:6">
+    <row r="155" ht="17.4" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="18.75" spans="1:6">
+    <row r="156" ht="17.4" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="18.75" spans="1:6">
+    <row r="157" ht="17.4" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="18.75" spans="1:6">
+    <row r="158" ht="17.4" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="18.75" spans="1:6">
+    <row r="159" ht="17.4" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="18.75" spans="1:6">
+    <row r="160" ht="17.4" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="18.75" spans="1:6">
+    <row r="161" ht="17.4" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="18.75" spans="1:6">
+    <row r="162" ht="17.4" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="18.75" spans="1:6">
+    <row r="163" ht="17.4" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="18.75" spans="1:6">
+    <row r="164" ht="17.4" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="18.75" spans="1:6">
+    <row r="165" ht="17.4" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="18.75" spans="1:6">
+    <row r="166" ht="17.4" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="18.75" spans="1:6">
+    <row r="167" ht="17.4" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="18.75" spans="1:6">
+    <row r="168" ht="17.4" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="18.75" spans="1:6">
+    <row r="169" ht="17.4" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="18.75" spans="1:6">
+    <row r="170" ht="17.4" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="18.75" spans="1:6">
+    <row r="171" ht="17.4" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="18.75" spans="1:6">
+    <row r="172" ht="17.4" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="18.75" spans="1:6">
+    <row r="173" ht="17.4" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="18.75" spans="1:6">
+    <row r="174" ht="17.4" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="18.75" spans="1:6">
+    <row r="175" ht="17.4" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="18.75" spans="1:6">
+    <row r="176" ht="17.4" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="18.75" spans="1:6">
+    <row r="177" ht="17.4" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="18.75" spans="1:6">
+    <row r="178" ht="17.4" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="18.75" spans="1:6">
+    <row r="179" ht="17.4" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="18.75" spans="1:6">
+    <row r="180" ht="17.4" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="18.75" spans="1:6">
+    <row r="181" ht="17.4" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="18.75" spans="1:6">
+    <row r="182" ht="17.4" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="18.75" spans="1:6">
+    <row r="183" ht="17.4" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="18.75" spans="1:6">
+    <row r="184" ht="17.4" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="18.75" spans="1:6">
+    <row r="185" ht="17.4" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="18.75" spans="1:6">
+    <row r="186" ht="17.4" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="18.75" spans="1:6">
+    <row r="187" ht="17.4" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="18.75" spans="1:6">
+    <row r="188" ht="17.4" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="18.75" spans="1:6">
+    <row r="189" ht="17.4" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="18.75" spans="1:6">
+    <row r="190" ht="17.4" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="18.75" spans="1:6">
+    <row r="191" ht="17.4" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="18.75" spans="1:6">
+    <row r="192" ht="17.4" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="18.75" spans="1:6">
+    <row r="193" ht="17.4" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="18.75" spans="1:6">
+    <row r="194" ht="17.4" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="18.75" spans="1:6">
+    <row r="195" ht="17.4" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="18.75" spans="1:6">
+    <row r="196" ht="17.4" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="18.75" spans="1:6">
+    <row r="197" ht="17.4" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="18.75" spans="1:6">
+    <row r="198" ht="17.4" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="18.75" spans="1:6">
+    <row r="199" ht="17.4" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="18.75" spans="1:6">
+    <row r="200" ht="17.4" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="18.75" spans="1:6">
+    <row r="201" ht="17.4" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="18.75" spans="1:6">
+    <row r="202" ht="17.4" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="18.75" spans="1:6">
+    <row r="203" ht="17.4" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="18.75" spans="1:6">
+    <row r="204" ht="17.4" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="18.75" spans="1:6">
+    <row r="205" ht="17.4" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="18.75" spans="1:6">
+    <row r="206" ht="17.4" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="18.75" spans="1:6">
+    <row r="207" ht="17.4" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="18.75" spans="1:6">
+    <row r="208" ht="17.4" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="18.75" spans="1:6">
+    <row r="209" ht="17.4" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="18.75" spans="1:6">
+    <row r="210" ht="17.4" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="18.75" spans="1:6">
+    <row r="211" ht="17.4" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="18.75" spans="1:6">
+    <row r="212" ht="17.4" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="18.75" spans="1:6">
+    <row r="213" ht="17.4" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="18.75" spans="1:6">
+    <row r="214" ht="17.4" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="18.75" spans="1:6">
+    <row r="215" ht="17.4" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="18.75" spans="1:6">
+    <row r="216" ht="17.4" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="18.75" spans="1:6">
+    <row r="217" ht="17.4" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="18.75" spans="1:6">
+    <row r="218" ht="17.4" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="18.75" spans="1:6">
+    <row r="219" ht="17.4" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="18.75" spans="1:6">
+    <row r="220" ht="17.4" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="18.75" spans="1:6">
+    <row r="221" ht="17.4" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="18.75" spans="1:6">
+    <row r="222" ht="17.4" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="18.75" spans="1:6">
+    <row r="223" ht="17.4" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="18.75" spans="1:6">
+    <row r="224" ht="17.4" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="18.75" spans="1:6">
+    <row r="225" ht="17.4" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="18.75" spans="1:6">
+    <row r="226" ht="17.4" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="18.75" spans="1:6">
+    <row r="227" ht="17.4" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="18.75" spans="1:6">
+    <row r="228" ht="17.4" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="18.75" spans="1:6">
+    <row r="229" ht="17.4" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="18.75" spans="1:6">
+    <row r="230" ht="17.4" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="18.75" spans="1:6">
+    <row r="231" ht="17.4" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="18.75" spans="1:6">
+    <row r="232" ht="17.4" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="18.75" spans="1:6">
+    <row r="233" ht="17.4" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="18.75" spans="1:6">
+    <row r="234" ht="17.4" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="18.75" spans="1:6">
+    <row r="235" ht="17.4" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="18.75" spans="1:6">
+    <row r="236" ht="17.4" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="18.75" spans="1:6">
+    <row r="237" ht="17.4" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="18.75" spans="1:6">
+    <row r="238" ht="17.4" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="18.75" spans="1:6">
+    <row r="239" ht="17.4" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="18.75" spans="1:6">
+    <row r="240" ht="17.4" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="18.75" spans="1:6">
+    <row r="241" ht="17.4" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="18.75" spans="1:6">
+    <row r="242" ht="17.4" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="18.75" spans="1:6">
+    <row r="243" ht="17.4" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="18.75" spans="1:6">
+    <row r="244" ht="17.4" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="18.75" spans="1:6">
+    <row r="245" ht="17.4" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="18.75" spans="1:6">
+    <row r="246" ht="17.4" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="18.75" spans="1:6">
+    <row r="247" ht="17.4" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="18.75" spans="1:6">
+    <row r="248" ht="17.4" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="18.75" spans="1:6">
+    <row r="249" ht="17.4" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="18.75" spans="1:6">
+    <row r="250" ht="17.4" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="18.75" spans="1:6">
+    <row r="251" ht="17.4" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="18.75" spans="1:6">
+    <row r="252" ht="17.4" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="18.75" spans="1:6">
+    <row r="253" ht="17.4" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="18.75" spans="1:6">
+    <row r="254" ht="17.4" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="18.75" spans="1:6">
+    <row r="255" ht="17.4" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="18.75" spans="1:6">
+    <row r="256" ht="17.4" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="18.75" spans="1:6">
+    <row r="257" ht="17.4" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="18.75" spans="1:6">
+    <row r="258" ht="17.4" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="18.75" spans="1:6">
+    <row r="259" ht="17.4" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="18.75" spans="1:6">
+    <row r="260" ht="17.4" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="18.75" spans="1:6">
+    <row r="261" ht="17.4" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="18.75" spans="1:6">
+    <row r="262" ht="17.4" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="18.75" spans="1:6">
+    <row r="263" ht="17.4" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="18.75" spans="1:6">
+    <row r="264" ht="17.4" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="18.75" spans="1:6">
+    <row r="265" ht="17.4" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="18.75" spans="1:6">
+    <row r="266" ht="17.4" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="18.75" spans="1:6">
+    <row r="267" ht="17.4" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="18.75" spans="1:6">
+    <row r="268" ht="17.4" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="18.75" spans="1:6">
+    <row r="269" ht="17.4" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="18.75" spans="1:6">
+    <row r="270" ht="17.4" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="18.75" spans="1:6">
+    <row r="271" ht="17.4" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="18.75" spans="1:6">
+    <row r="272" ht="17.4" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="18.75" spans="1:6">
+    <row r="273" ht="17.4" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="18.75" spans="1:6">
+    <row r="274" ht="17.4" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="18.75" spans="1:6">
+    <row r="275" ht="17.4" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="18.75" spans="1:6">
+    <row r="276" ht="17.4" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="18.75" spans="1:6">
+    <row r="277" ht="17.4" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="18.75" spans="1:6">
+    <row r="278" ht="17.4" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="18.75" spans="1:6">
+    <row r="279" ht="17.4" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="18.75" spans="1:6">
+    <row r="280" ht="17.4" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="18.75" spans="1:6">
+    <row r="281" ht="17.4" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="18.75" spans="1:6">
+    <row r="282" ht="17.4" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="18.75" spans="1:6">
+    <row r="283" ht="17.4" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="18.75" spans="1:6">
+    <row r="284" ht="17.4" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="18.75" spans="1:6">
+    <row r="285" ht="17.4" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="18.75" spans="1:6">
+    <row r="286" ht="17.4" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="18.75" spans="1:6">
+    <row r="287" ht="17.4" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="18.75" spans="1:6">
+    <row r="288" ht="17.4" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="18.75" spans="1:6">
+    <row r="289" ht="17.4" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="18.75" spans="1:6">
+    <row r="290" ht="17.4" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="18.75" spans="1:6">
+    <row r="291" ht="17.4" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="18.75" spans="1:6">
+    <row r="292" ht="17.4" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="18.75" spans="1:6">
+    <row r="293" ht="17.4" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="18.75" spans="1:6">
+    <row r="294" ht="17.4" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="18.75" spans="1:6">
+    <row r="295" ht="17.4" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="18.75" spans="1:6">
+    <row r="296" ht="17.4" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="18.75" spans="1:6">
+    <row r="297" ht="17.4" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="18.75" spans="1:6">
+    <row r="298" ht="17.4" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="18.75" spans="1:6">
+    <row r="299" ht="17.4" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="18.75" spans="1:6">
+    <row r="300" ht="17.4" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="18.75" spans="1:6">
+    <row r="301" ht="17.4" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="18.75" spans="1:6">
+    <row r="302" ht="17.4" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="18.75" spans="1:6">
+    <row r="303" ht="17.4" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="18.75" spans="1:6">
+    <row r="304" ht="17.4" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="18.75" spans="1:6">
+    <row r="305" ht="17.4" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="18.75" spans="1:6">
+    <row r="306" ht="17.4" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="18.75" spans="1:6">
+    <row r="307" ht="17.4" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="18.75" spans="1:6">
+    <row r="308" ht="17.4" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="18.75" spans="1:6">
+    <row r="309" ht="17.4" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="18.75" spans="1:6">
+    <row r="310" ht="17.4" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="18.75" spans="1:6">
+    <row r="311" ht="17.4" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="18.75" spans="1:6">
+    <row r="312" ht="17.4" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="18.75" spans="1:6">
+    <row r="313" ht="17.4" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="18.75" spans="1:6">
+    <row r="314" ht="17.4" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="18.75" spans="1:6">
+    <row r="315" ht="17.4" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="18.75" spans="1:6">
+    <row r="316" ht="17.4" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="18.75" spans="1:6">
+    <row r="317" ht="17.4" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="18.75" spans="1:6">
+    <row r="318" ht="17.4" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="18.75" spans="1:6">
+    <row r="319" ht="17.4" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="18.75" spans="1:6">
+    <row r="320" ht="17.4" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="18.75" spans="1:6">
+    <row r="321" ht="17.4" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="18.75" spans="1:6">
+    <row r="322" ht="17.4" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="18.75" spans="1:6">
+    <row r="323" ht="17.4" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="18.75" spans="1:6">
+    <row r="324" ht="17.4" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="18.75" spans="1:6">
+    <row r="325" ht="17.4" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="18.75" spans="1:6">
+    <row r="326" ht="17.4" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="18.75" spans="1:6">
+    <row r="327" ht="17.4" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="18.75" spans="1:6">
+    <row r="328" ht="17.4" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="18.75" spans="1:6">
+    <row r="329" ht="17.4" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="18.75" spans="1:6">
+    <row r="330" ht="17.4" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="18.75" spans="1:6">
+    <row r="331" ht="17.4" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="18.75" spans="1:6">
+    <row r="332" ht="17.4" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="18.75" spans="1:6">
+    <row r="333" ht="17.4" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="18.75" spans="1:6">
+    <row r="334" ht="17.4" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="18.75" spans="1:6">
+    <row r="335" ht="17.4" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="18.75" spans="1:6">
+    <row r="336" ht="17.4" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="18.75" spans="1:6">
+    <row r="337" ht="17.4" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="18.75" spans="1:6">
+    <row r="338" ht="17.4" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="18.75" spans="1:6">
+    <row r="339" ht="17.4" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="18.75" spans="1:6">
+    <row r="340" ht="17.4" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="18.75" spans="1:6">
+    <row r="341" ht="17.4" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="18.75" spans="1:6">
+    <row r="342" ht="17.4" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="18.75" spans="1:6">
+    <row r="343" ht="17.4" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="18.75" spans="1:6">
+    <row r="344" ht="17.4" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="18.75" spans="1:6">
+    <row r="345" ht="17.4" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="18.75" spans="1:6">
+    <row r="346" ht="17.4" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="18.75" spans="1:6">
+    <row r="347" ht="17.4" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="18.75" spans="1:6">
+    <row r="348" ht="17.4" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="18.75" spans="1:6">
+    <row r="349" ht="17.4" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="18.75" spans="1:6">
+    <row r="350" ht="17.4" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="18.75" spans="1:6">
+    <row r="351" ht="17.4" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="18.75" spans="1:6">
+    <row r="352" ht="17.4" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="18.75" spans="1:6">
+    <row r="353" ht="17.4" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="18.75" spans="1:6">
+    <row r="354" ht="17.4" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="18.75" spans="1:6">
+    <row r="355" ht="17.4" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="18.75" spans="1:6">
+    <row r="356" ht="17.4" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="18.75" spans="1:6">
+    <row r="357" ht="17.4" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="18.75" spans="1:6">
+    <row r="358" ht="17.4" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="18.75" spans="1:6">
+    <row r="359" ht="17.4" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="18.75" spans="1:6">
+    <row r="360" ht="17.4" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="18.75" spans="1:6">
+    <row r="361" ht="17.4" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="18.75" spans="1:6">
+    <row r="362" ht="17.4" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="18.75" spans="1:6">
+    <row r="363" ht="17.4" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="18.75" spans="1:6">
+    <row r="364" ht="17.4" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="18.75" spans="1:6">
+    <row r="365" ht="17.4" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="18.75" spans="1:6">
+    <row r="366" ht="17.4" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="87">
   <si>
     <t>日期</t>
   </si>
@@ -48,6 +48,12 @@
     <t>提名/获奖</t>
   </si>
   <si>
+    <t>周三</t>
+  </si>
+  <si>
+    <t>火环焕火测试</t>
+  </si>
+  <si>
     <t>周四</t>
   </si>
   <si>
@@ -75,15 +81,15 @@
     <t>周二</t>
   </si>
   <si>
-    <t>周三</t>
-  </si>
-  <si>
     <t>绝区零1.3版本更新</t>
   </si>
   <si>
     <t>阴阳师鬼金羊卡池</t>
   </si>
   <si>
+    <t>火环焕火测试结束</t>
+  </si>
+  <si>
     <t>尘白禁区2.3版本更新</t>
   </si>
   <si>
@@ -213,22 +219,31 @@
     <t>绝区零 TGA 2024玩家之声提名</t>
   </si>
   <si>
+    <t>鸣潮 TGA 2024玩家之声提名</t>
+  </si>
+  <si>
     <t>王者荣耀星之破晓先遣测试停服公告</t>
   </si>
   <si>
-    <t>鸣潮 TGA 2024玩家之声提名</t>
-  </si>
-  <si>
     <t>绝区零 PS blog 最佳PS5游戏提名</t>
   </si>
   <si>
+    <t>绝区零 PS blog 最佳艺术指导提名</t>
+  </si>
+  <si>
     <t>千年之旅停服公告</t>
   </si>
   <si>
-    <t>绝区零 PS blog 最佳艺术指导</t>
-  </si>
-  <si>
-    <t>原神 PS blog 最佳持续运营</t>
+    <t>原神 PS blog 最佳持续运营提名</t>
+  </si>
+  <si>
+    <t>原神 PS合作伙伴奖 2024 EXCELLENCE AWARD</t>
+  </si>
+  <si>
+    <t>少女前线2外服公测</t>
+  </si>
+  <si>
+    <t>原神 PS合作伙伴奖 2024 PARTNER AWARD</t>
   </si>
   <si>
     <t>崩坏星穹铁道2.7版本更新</t>
@@ -240,12 +255,12 @@
     <t>无限暖暖公测</t>
   </si>
   <si>
-    <t>少女前线2外服公测</t>
-  </si>
-  <si>
     <t>无限大一测/预告</t>
   </si>
   <si>
+    <t>第五人格模仿者新增角色</t>
+  </si>
+  <si>
     <t>女神异闻录夜幕魅影3.0.2版本更新</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
   </si>
   <si>
     <t>重返未来1999 2.4版本更新</t>
+  </si>
+  <si>
+    <t>第五人格第36赛季</t>
   </si>
   <si>
     <t>绝区零1.4版本更新</t>
@@ -651,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -709,6 +727,46 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -835,7 +893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,34 +905,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,15 +1066,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1029,56 +1111,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1605,22 +1678,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
     <col min="3" max="3" width="46.6666666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.1111111111111" style="15" customWidth="1"/>
-    <col min="5" max="5" width="56.8888888888889" style="15" customWidth="1"/>
-    <col min="6" max="6" width="58.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="38.1083333333333" style="15" customWidth="1"/>
+    <col min="5" max="5" width="56.8916666666667" style="15" customWidth="1"/>
+    <col min="6" max="6" width="58.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1645,7 +1718,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8">
-        <v>45596</v>
+        <v>45595</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1659,7 +1732,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -1673,22 +1746,24 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1697,125 +1772,123 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10">
+      <c r="A9" s="16">
+        <v>45602</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10">
         <v>45603</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
-        <v>45604</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8">
-        <v>45605</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
-        <v>45607</v>
+        <v>45605</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1827,10 +1900,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
-        <v>45608</v>
+        <v>45606</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1839,10 +1912,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1851,43 +1924,37 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8">
-        <v>45612</v>
+        <v>45610</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1895,99 +1962,105 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8">
-        <v>45613</v>
+        <v>45611</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8">
-        <v>45614</v>
+        <v>45612</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
+        <v>45613</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10">
         <v>45615</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
-        <v>45616</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>6</v>
@@ -1995,119 +2068,115 @@
       <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10">
+        <v>45617</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="18"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="18"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10">
-        <v>45618</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8">
-        <v>45620</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>12</v>
@@ -2115,384 +2184,380 @@
       <c r="C39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
+        <v>45620</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>45621</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10">
         <v>45622</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8">
-        <v>45623</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8">
-        <v>45624</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="23">
+      <c r="A47" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8">
+        <v>45627</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10">
         <v>45628</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29" t="s">
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="31">
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="32">
         <v>45629</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="4" t="s">
+      <c r="B52" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="33" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="4" t="s">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="33" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39" t="s">
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="10">
+    <row r="57" spans="1:6">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="10">
         <v>45630</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="10">
-        <v>45631</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
       <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="8">
-        <v>45632</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="10">
+        <v>45631</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8">
-        <v>45635</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8">
-        <v>45636</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8">
-        <v>45637</v>
+        <v>45632</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="8">
-        <v>45638</v>
+        <v>45633</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8">
-        <v>45639</v>
+        <v>45634</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2501,22 +2566,24 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2525,10 +2592,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <v>45642</v>
+        <v>45637</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2536,37 +2603,35 @@
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8">
-        <v>45643</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="A74" s="16">
+        <v>45638</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8">
-        <v>45644</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8">
-        <v>45645</v>
+        <v>45639</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2575,10 +2640,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="8">
-        <v>45646</v>
+        <v>45640</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2587,10 +2652,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8">
-        <v>46012</v>
+        <v>45641</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2599,10 +2664,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8">
-        <v>45648</v>
+        <v>45642</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2611,10 +2676,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8">
-        <v>45649</v>
+        <v>45643</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2623,22 +2688,24 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8">
-        <v>45650</v>
+        <v>45644</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8">
-        <v>45651</v>
+        <v>45645</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2647,10 +2714,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8">
-        <v>45652</v>
+        <v>45646</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2659,10 +2726,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8">
-        <v>45653</v>
+        <v>46012</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2671,10 +2738,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <v>45654</v>
+        <v>45648</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2683,10 +2750,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <v>45655</v>
+        <v>45649</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2695,10 +2762,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <v>45656</v>
+        <v>45650</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2707,152 +2774,235 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="8">
-        <v>45657</v>
+        <v>45651</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="14.4" spans="1:5">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-    </row>
-    <row r="90" ht="14.4" spans="1:5">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-    </row>
-    <row r="91" ht="14.4" spans="1:5">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-    </row>
-    <row r="92" ht="14.4" spans="1:5">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-    </row>
-    <row r="93" ht="14.4" spans="1:5">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-    </row>
-    <row r="94" ht="14.4" spans="1:5">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-    </row>
-    <row r="95" ht="14.4" spans="1:5">
+    <row r="89" spans="1:6">
+      <c r="A89" s="8">
+        <v>45652</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" ht="13.5" spans="1:5">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
     </row>
-    <row r="96" ht="14.4" spans="1:5">
+    <row r="96" ht="13.5" spans="1:5">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
     </row>
-    <row r="97" ht="14.4" spans="1:5">
+    <row r="97" ht="13.5" spans="1:5">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" ht="14.4" spans="1:5">
+    <row r="98" ht="13.5" spans="1:5">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" ht="14.4" spans="1:5">
+    <row r="99" ht="13.5" spans="1:5">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
     </row>
-    <row r="100" ht="14.4" spans="1:5">
+    <row r="100" ht="13.5" spans="1:5">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
+    <row r="101" ht="13.5" spans="1:5">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" ht="13.5" spans="1:5">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+    </row>
+    <row r="103" ht="13.5" spans="1:5">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" ht="13.5" spans="1:5">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" ht="13.5" spans="1:5">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" ht="13.5" spans="1:5">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F62"/>
+  <mergeCells count="59">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D52:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="F74:F75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2870,17 +3020,17 @@
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
-    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="7.225" customWidth="1"/>
+    <col min="3" max="3" width="46.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2900,4384 +3050,4384 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="17.4" spans="1:6">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="17.4" spans="1:6">
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="17.4" spans="1:6">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:6">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="17.4" spans="1:6">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="17.4" spans="1:6">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="17.4" spans="1:6">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="17.4" spans="1:6">
+    <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="17.4" spans="1:6">
+    <row r="25" ht="18.75" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" ht="18.75" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" ht="18.75" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" ht="18.75" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
+    <row r="30" ht="18.75" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
+    <row r="31" ht="18.75" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
+    <row r="32" ht="18.75" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
+    <row r="33" ht="18.75" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="17.4" spans="1:6">
+    <row r="34" ht="18.75" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="17.4" spans="1:6">
+    <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="17.4" spans="1:6">
+    <row r="36" ht="18.75" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
+    <row r="37" ht="18.75" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
+    <row r="38" ht="18.75" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
+    <row r="39" ht="18.75" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
+    <row r="40" ht="18.75" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
+    <row r="41" ht="18.75" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" ht="18.75" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" ht="18.75" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" ht="18.75" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" ht="18.75" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" ht="18.75" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" ht="18.75" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" ht="18.75" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" ht="18.75" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" ht="18.75" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" ht="18.75" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18.75" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18.75" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" ht="18.75" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
+    <row r="55" ht="18.75" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" ht="18.75" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" ht="18.75" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
+    <row r="58" ht="18.75" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
+    <row r="59" ht="18.75" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
+    <row r="60" ht="18.75" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
+    <row r="61" ht="18.75" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
+    <row r="62" ht="18.75" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
+    <row r="63" ht="18.75" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="17.4" spans="1:6">
+    <row r="64" ht="18.75" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="17.4" spans="1:6">
+    <row r="65" ht="18.75" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
+    <row r="66" ht="18.75" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="17.4" spans="1:6">
+    <row r="67" ht="18.75" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="17.4" spans="1:6">
+    <row r="68" ht="18.75" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" ht="18.75" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" ht="18.75" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" ht="18.75" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" ht="18.75" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" ht="18.75" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" ht="18.75" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" ht="18.75" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" ht="18.75" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" ht="18.75" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" ht="18.75" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" ht="18.75" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
+    <row r="80" ht="18.75" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
+    <row r="81" ht="18.75" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="17.4" spans="1:6">
+    <row r="82" ht="18.75" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="17.4" spans="1:6">
+    <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
+    <row r="84" ht="18.75" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="17.4" spans="1:6">
+    <row r="85" ht="18.75" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="17.4" spans="1:6">
+    <row r="86" ht="18.75" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="17.4" spans="1:6">
+    <row r="87" ht="18.75" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="17.4" spans="1:6">
+    <row r="88" ht="18.75" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="17.4" spans="1:6">
+    <row r="89" ht="18.75" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="17.4" spans="1:6">
+    <row r="90" ht="18.75" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="17.4" spans="1:6">
+    <row r="91" ht="18.75" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="17.4" spans="1:6">
+    <row r="92" ht="18.75" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
+    <row r="93" ht="18.75" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="17.4" spans="1:6">
+    <row r="94" ht="18.75" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="17.4" spans="1:6">
+    <row r="95" ht="18.75" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="17.4" spans="1:6">
+    <row r="96" ht="18.75" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17.4" spans="1:6">
+    <row r="97" ht="18.75" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
+    <row r="98" ht="18.75" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="17.4" spans="1:6">
+    <row r="99" ht="18.75" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="17.4" spans="1:6">
+    <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
+    <row r="101" ht="18.75" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="17.4" spans="1:6">
+    <row r="102" ht="18.75" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="17.4" spans="1:6">
+    <row r="103" ht="18.75" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="17.4" spans="1:6">
+    <row r="104" ht="18.75" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="17.4" spans="1:6">
+    <row r="105" ht="18.75" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
+    <row r="106" ht="18.75" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="17.4" spans="1:6">
+    <row r="107" ht="18.75" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
+    <row r="108" ht="18.75" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="17.4" spans="1:6">
+    <row r="109" ht="18.75" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="17.4" spans="1:6">
+    <row r="110" ht="18.75" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="17.4" spans="1:6">
+    <row r="111" ht="18.75" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="17.4" spans="1:6">
+    <row r="112" ht="18.75" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="17.4" spans="1:6">
+    <row r="113" ht="18.75" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="17.4" spans="1:6">
+    <row r="114" ht="18.75" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="17.4" spans="1:6">
+    <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
+    <row r="116" ht="18.75" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="17.4" spans="1:6">
+    <row r="117" ht="18.75" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="17.4" spans="1:6">
+    <row r="118" ht="18.75" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="17.4" spans="1:6">
+    <row r="119" ht="18.75" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="17.4" spans="1:6">
+    <row r="120" ht="18.75" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18.75" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="17.4" spans="1:6">
+    <row r="122" ht="18.75" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="17.4" spans="1:6">
+    <row r="123" ht="18.75" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
+    <row r="124" ht="18.75" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="17.4" spans="1:6">
+    <row r="125" ht="18.75" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="17.4" spans="1:6">
+    <row r="126" ht="18.75" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="17.4" spans="1:6">
+    <row r="127" ht="18.75" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="17.4" spans="1:6">
+    <row r="128" ht="18.75" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="17.4" spans="1:6">
+    <row r="129" ht="18.75" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="17.4" spans="1:6">
+    <row r="130" ht="18.75" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="17.4" spans="1:6">
+    <row r="131" ht="18.75" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
+    <row r="132" ht="18.75" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
+    <row r="133" ht="18.75" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
+    <row r="134" ht="18.75" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
+    <row r="135" ht="18.75" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
+    <row r="136" ht="18.75" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18.75" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18.75" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18.75" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18.75" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18.75" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
+    <row r="142" ht="18.75" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18.75" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="17.4" spans="1:6">
+    <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
+    <row r="145" ht="18.75" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="17.4" spans="1:6">
+    <row r="146" ht="18.75" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="17.4" spans="1:6">
+    <row r="147" ht="18.75" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="17.4" spans="1:6">
+    <row r="148" ht="18.75" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="17.4" spans="1:6">
+    <row r="149" ht="18.75" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="17.4" spans="1:6">
+    <row r="150" ht="18.75" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="17.4" spans="1:6">
+    <row r="151" ht="18.75" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="17.4" spans="1:6">
+    <row r="152" ht="18.75" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="17.4" spans="1:6">
+    <row r="153" ht="18.75" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="17.4" spans="1:6">
+    <row r="154" ht="18.75" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="17.4" spans="1:6">
+    <row r="155" ht="18.75" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="17.4" spans="1:6">
+    <row r="156" ht="18.75" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
+    <row r="157" ht="18.75" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
+    <row r="158" ht="18.75" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="17.4" spans="1:6">
+    <row r="159" ht="18.75" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="17.4" spans="1:6">
+    <row r="160" ht="18.75" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
+    <row r="161" ht="18.75" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="17.4" spans="1:6">
+    <row r="162" ht="18.75" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="17.4" spans="1:6">
+    <row r="163" ht="18.75" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="17.4" spans="1:6">
+    <row r="164" ht="18.75" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="17.4" spans="1:6">
+    <row r="165" ht="18.75" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="17.4" spans="1:6">
+    <row r="166" ht="18.75" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="17.4" spans="1:6">
+    <row r="167" ht="18.75" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="17.4" spans="1:6">
+    <row r="168" ht="18.75" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="17.4" spans="1:6">
+    <row r="169" ht="18.75" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="17.4" spans="1:6">
+    <row r="170" ht="18.75" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="17.4" spans="1:6">
+    <row r="171" ht="18.75" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="17.4" spans="1:6">
+    <row r="172" ht="18.75" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="17.4" spans="1:6">
+    <row r="173" ht="18.75" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="17.4" spans="1:6">
+    <row r="174" ht="18.75" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="17.4" spans="1:6">
+    <row r="175" ht="18.75" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="17.4" spans="1:6">
+    <row r="176" ht="18.75" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="17.4" spans="1:6">
+    <row r="177" ht="18.75" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="17.4" spans="1:6">
+    <row r="178" ht="18.75" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="17.4" spans="1:6">
+    <row r="179" ht="18.75" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="17.4" spans="1:6">
+    <row r="180" ht="18.75" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="17.4" spans="1:6">
+    <row r="181" ht="18.75" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="17.4" spans="1:6">
+    <row r="182" ht="18.75" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="17.4" spans="1:6">
+    <row r="183" ht="18.75" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="17.4" spans="1:6">
+    <row r="184" ht="18.75" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="17.4" spans="1:6">
+    <row r="185" ht="18.75" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="17.4" spans="1:6">
+    <row r="186" ht="18.75" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="17.4" spans="1:6">
+    <row r="187" ht="18.75" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="17.4" spans="1:6">
+    <row r="188" ht="18.75" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="17.4" spans="1:6">
+    <row r="189" ht="18.75" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="17.4" spans="1:6">
+    <row r="190" ht="18.75" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="17.4" spans="1:6">
+    <row r="191" ht="18.75" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="17.4" spans="1:6">
+    <row r="192" ht="18.75" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="17.4" spans="1:6">
+    <row r="193" ht="18.75" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="17.4" spans="1:6">
+    <row r="194" ht="18.75" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="17.4" spans="1:6">
+    <row r="195" ht="18.75" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="17.4" spans="1:6">
+    <row r="196" ht="18.75" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="17.4" spans="1:6">
+    <row r="197" ht="18.75" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="17.4" spans="1:6">
+    <row r="198" ht="18.75" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="17.4" spans="1:6">
+    <row r="199" ht="18.75" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="17.4" spans="1:6">
+    <row r="200" ht="18.75" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="17.4" spans="1:6">
+    <row r="201" ht="18.75" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="17.4" spans="1:6">
+    <row r="202" ht="18.75" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="17.4" spans="1:6">
+    <row r="203" ht="18.75" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="17.4" spans="1:6">
+    <row r="204" ht="18.75" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="17.4" spans="1:6">
+    <row r="205" ht="18.75" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="17.4" spans="1:6">
+    <row r="206" ht="18.75" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="17.4" spans="1:6">
+    <row r="207" ht="18.75" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="17.4" spans="1:6">
+    <row r="208" ht="18.75" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="17.4" spans="1:6">
+    <row r="209" ht="18.75" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="17.4" spans="1:6">
+    <row r="210" ht="18.75" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="17.4" spans="1:6">
+    <row r="211" ht="18.75" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="17.4" spans="1:6">
+    <row r="212" ht="18.75" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="17.4" spans="1:6">
+    <row r="213" ht="18.75" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="17.4" spans="1:6">
+    <row r="214" ht="18.75" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="17.4" spans="1:6">
+    <row r="215" ht="18.75" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="17.4" spans="1:6">
+    <row r="216" ht="18.75" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="17.4" spans="1:6">
+    <row r="217" ht="18.75" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="17.4" spans="1:6">
+    <row r="218" ht="18.75" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="17.4" spans="1:6">
+    <row r="219" ht="18.75" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="17.4" spans="1:6">
+    <row r="220" ht="18.75" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="17.4" spans="1:6">
+    <row r="221" ht="18.75" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="17.4" spans="1:6">
+    <row r="222" ht="18.75" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="17.4" spans="1:6">
+    <row r="223" ht="18.75" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="17.4" spans="1:6">
+    <row r="224" ht="18.75" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="17.4" spans="1:6">
+    <row r="225" ht="18.75" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="17.4" spans="1:6">
+    <row r="226" ht="18.75" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="17.4" spans="1:6">
+    <row r="227" ht="18.75" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="17.4" spans="1:6">
+    <row r="228" ht="18.75" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="17.4" spans="1:6">
+    <row r="229" ht="18.75" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="17.4" spans="1:6">
+    <row r="230" ht="18.75" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="17.4" spans="1:6">
+    <row r="231" ht="18.75" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="17.4" spans="1:6">
+    <row r="232" ht="18.75" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="17.4" spans="1:6">
+    <row r="233" ht="18.75" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="17.4" spans="1:6">
+    <row r="234" ht="18.75" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="17.4" spans="1:6">
+    <row r="235" ht="18.75" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="17.4" spans="1:6">
+    <row r="236" ht="18.75" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="17.4" spans="1:6">
+    <row r="237" ht="18.75" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="17.4" spans="1:6">
+    <row r="238" ht="18.75" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="17.4" spans="1:6">
+    <row r="239" ht="18.75" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="17.4" spans="1:6">
+    <row r="240" ht="18.75" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="17.4" spans="1:6">
+    <row r="241" ht="18.75" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="17.4" spans="1:6">
+    <row r="242" ht="18.75" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="17.4" spans="1:6">
+    <row r="243" ht="18.75" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="17.4" spans="1:6">
+    <row r="244" ht="18.75" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="17.4" spans="1:6">
+    <row r="245" ht="18.75" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="17.4" spans="1:6">
+    <row r="246" ht="18.75" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="17.4" spans="1:6">
+    <row r="247" ht="18.75" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="17.4" spans="1:6">
+    <row r="248" ht="18.75" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="17.4" spans="1:6">
+    <row r="249" ht="18.75" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="17.4" spans="1:6">
+    <row r="250" ht="18.75" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="17.4" spans="1:6">
+    <row r="251" ht="18.75" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="17.4" spans="1:6">
+    <row r="252" ht="18.75" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="17.4" spans="1:6">
+    <row r="253" ht="18.75" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="17.4" spans="1:6">
+    <row r="254" ht="18.75" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="17.4" spans="1:6">
+    <row r="255" ht="18.75" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="17.4" spans="1:6">
+    <row r="256" ht="18.75" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="17.4" spans="1:6">
+    <row r="257" ht="18.75" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="17.4" spans="1:6">
+    <row r="258" ht="18.75" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="17.4" spans="1:6">
+    <row r="259" ht="18.75" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="17.4" spans="1:6">
+    <row r="260" ht="18.75" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="17.4" spans="1:6">
+    <row r="261" ht="18.75" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="17.4" spans="1:6">
+    <row r="262" ht="18.75" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="17.4" spans="1:6">
+    <row r="263" ht="18.75" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="17.4" spans="1:6">
+    <row r="264" ht="18.75" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="17.4" spans="1:6">
+    <row r="265" ht="18.75" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="17.4" spans="1:6">
+    <row r="266" ht="18.75" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="17.4" spans="1:6">
+    <row r="267" ht="18.75" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="17.4" spans="1:6">
+    <row r="268" ht="18.75" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="17.4" spans="1:6">
+    <row r="269" ht="18.75" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="17.4" spans="1:6">
+    <row r="270" ht="18.75" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="17.4" spans="1:6">
+    <row r="271" ht="18.75" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="17.4" spans="1:6">
+    <row r="272" ht="18.75" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="17.4" spans="1:6">
+    <row r="273" ht="18.75" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="17.4" spans="1:6">
+    <row r="274" ht="18.75" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="17.4" spans="1:6">
+    <row r="275" ht="18.75" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="17.4" spans="1:6">
+    <row r="276" ht="18.75" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="17.4" spans="1:6">
+    <row r="277" ht="18.75" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="17.4" spans="1:6">
+    <row r="278" ht="18.75" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="17.4" spans="1:6">
+    <row r="279" ht="18.75" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="17.4" spans="1:6">
+    <row r="280" ht="18.75" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="17.4" spans="1:6">
+    <row r="281" ht="18.75" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="17.4" spans="1:6">
+    <row r="282" ht="18.75" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="17.4" spans="1:6">
+    <row r="283" ht="18.75" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="17.4" spans="1:6">
+    <row r="284" ht="18.75" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="17.4" spans="1:6">
+    <row r="285" ht="18.75" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="17.4" spans="1:6">
+    <row r="286" ht="18.75" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="17.4" spans="1:6">
+    <row r="287" ht="18.75" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="17.4" spans="1:6">
+    <row r="288" ht="18.75" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="17.4" spans="1:6">
+    <row r="289" ht="18.75" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="17.4" spans="1:6">
+    <row r="290" ht="18.75" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="17.4" spans="1:6">
+    <row r="291" ht="18.75" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="17.4" spans="1:6">
+    <row r="292" ht="18.75" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="17.4" spans="1:6">
+    <row r="293" ht="18.75" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="17.4" spans="1:6">
+    <row r="294" ht="18.75" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="17.4" spans="1:6">
+    <row r="295" ht="18.75" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="17.4" spans="1:6">
+    <row r="296" ht="18.75" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="17.4" spans="1:6">
+    <row r="297" ht="18.75" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="17.4" spans="1:6">
+    <row r="298" ht="18.75" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="17.4" spans="1:6">
+    <row r="299" ht="18.75" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="17.4" spans="1:6">
+    <row r="300" ht="18.75" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="17.4" spans="1:6">
+    <row r="301" ht="18.75" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="17.4" spans="1:6">
+    <row r="302" ht="18.75" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="17.4" spans="1:6">
+    <row r="303" ht="18.75" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="17.4" spans="1:6">
+    <row r="304" ht="18.75" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="17.4" spans="1:6">
+    <row r="305" ht="18.75" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="17.4" spans="1:6">
+    <row r="306" ht="18.75" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="17.4" spans="1:6">
+    <row r="307" ht="18.75" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="17.4" spans="1:6">
+    <row r="308" ht="18.75" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="17.4" spans="1:6">
+    <row r="309" ht="18.75" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="17.4" spans="1:6">
+    <row r="310" ht="18.75" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="17.4" spans="1:6">
+    <row r="311" ht="18.75" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="17.4" spans="1:6">
+    <row r="312" ht="18.75" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="17.4" spans="1:6">
+    <row r="313" ht="18.75" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="17.4" spans="1:6">
+    <row r="314" ht="18.75" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="17.4" spans="1:6">
+    <row r="315" ht="18.75" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="17.4" spans="1:6">
+    <row r="316" ht="18.75" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="17.4" spans="1:6">
+    <row r="317" ht="18.75" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="17.4" spans="1:6">
+    <row r="318" ht="18.75" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="17.4" spans="1:6">
+    <row r="319" ht="18.75" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="17.4" spans="1:6">
+    <row r="320" ht="18.75" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="17.4" spans="1:6">
+    <row r="321" ht="18.75" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="17.4" spans="1:6">
+    <row r="322" ht="18.75" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="17.4" spans="1:6">
+    <row r="323" ht="18.75" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="17.4" spans="1:6">
+    <row r="324" ht="18.75" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="17.4" spans="1:6">
+    <row r="325" ht="18.75" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="17.4" spans="1:6">
+    <row r="326" ht="18.75" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="17.4" spans="1:6">
+    <row r="327" ht="18.75" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="17.4" spans="1:6">
+    <row r="328" ht="18.75" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="17.4" spans="1:6">
+    <row r="329" ht="18.75" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="17.4" spans="1:6">
+    <row r="330" ht="18.75" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="17.4" spans="1:6">
+    <row r="331" ht="18.75" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="17.4" spans="1:6">
+    <row r="332" ht="18.75" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="17.4" spans="1:6">
+    <row r="333" ht="18.75" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="17.4" spans="1:6">
+    <row r="334" ht="18.75" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="17.4" spans="1:6">
+    <row r="335" ht="18.75" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="17.4" spans="1:6">
+    <row r="336" ht="18.75" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="17.4" spans="1:6">
+    <row r="337" ht="18.75" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="17.4" spans="1:6">
+    <row r="338" ht="18.75" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="17.4" spans="1:6">
+    <row r="339" ht="18.75" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="17.4" spans="1:6">
+    <row r="340" ht="18.75" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="17.4" spans="1:6">
+    <row r="341" ht="18.75" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="17.4" spans="1:6">
+    <row r="342" ht="18.75" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="17.4" spans="1:6">
+    <row r="343" ht="18.75" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="17.4" spans="1:6">
+    <row r="344" ht="18.75" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="17.4" spans="1:6">
+    <row r="345" ht="18.75" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="17.4" spans="1:6">
+    <row r="346" ht="18.75" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="17.4" spans="1:6">
+    <row r="347" ht="18.75" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="17.4" spans="1:6">
+    <row r="348" ht="18.75" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="17.4" spans="1:6">
+    <row r="349" ht="18.75" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="17.4" spans="1:6">
+    <row r="350" ht="18.75" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="17.4" spans="1:6">
+    <row r="351" ht="18.75" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="17.4" spans="1:6">
+    <row r="352" ht="18.75" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="17.4" spans="1:6">
+    <row r="353" ht="18.75" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="17.4" spans="1:6">
+    <row r="354" ht="18.75" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="17.4" spans="1:6">
+    <row r="355" ht="18.75" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="17.4" spans="1:6">
+    <row r="356" ht="18.75" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="17.4" spans="1:6">
+    <row r="357" ht="18.75" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="17.4" spans="1:6">
+    <row r="358" ht="18.75" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="17.4" spans="1:6">
+    <row r="359" ht="18.75" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="17.4" spans="1:6">
+    <row r="360" ht="18.75" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="17.4" spans="1:6">
+    <row r="361" ht="18.75" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="17.4" spans="1:6">
+    <row r="362" ht="18.75" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="17.4" spans="1:6">
+    <row r="363" ht="18.75" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="17.4" spans="1:6">
+    <row r="364" ht="18.75" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="17.4" spans="1:6">
+    <row r="365" ht="18.75" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="17.4" spans="1:6">
+    <row r="366" ht="18.75" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="97">
   <si>
     <t>日期</t>
   </si>
@@ -51,19 +51,22 @@
     <t>周三</t>
   </si>
   <si>
-    <t>火环焕火测试</t>
+    <t>《火环》焕火测试</t>
   </si>
   <si>
     <t>周四</t>
   </si>
   <si>
-    <t>少女前线停服公告</t>
+    <t>《少女前线》停服公告</t>
   </si>
   <si>
     <t>周五</t>
   </si>
   <si>
-    <t>明日方舟2024感谢庆典</t>
+    <t>《明日方舟》2024感谢庆典版本更新</t>
+  </si>
+  <si>
+    <t>《代号二杠三》首爆PV</t>
   </si>
   <si>
     <t>周六</t>
@@ -75,220 +78,247 @@
     <t>周一</t>
   </si>
   <si>
-    <t>异人之下「入世测试」招募开启</t>
+    <t>《异人之下》「入世测试」招募开启</t>
   </si>
   <si>
     <t>周二</t>
   </si>
   <si>
-    <t>绝区零1.3版本更新</t>
-  </si>
-  <si>
-    <t>阴阳师鬼金羊卡池</t>
-  </si>
-  <si>
-    <t>火环焕火测试结束</t>
-  </si>
-  <si>
-    <t>尘白禁区2.3版本更新</t>
-  </si>
-  <si>
-    <t>第五人格x女神异闻录5第二弹</t>
-  </si>
-  <si>
-    <t>战双帕弥什五周年版本更新</t>
-  </si>
-  <si>
-    <t>碧蓝档案未花卡池</t>
-  </si>
-  <si>
-    <t>宝可梦大集结公测</t>
-  </si>
-  <si>
-    <t>尘白禁区2.3版本就剧情角色等问题直播道歉</t>
-  </si>
-  <si>
-    <t>鸣潮1.4版本更新</t>
-  </si>
-  <si>
-    <t>一梦江湖平行服开服</t>
-  </si>
-  <si>
-    <t>王者荣耀柯南联动</t>
-  </si>
-  <si>
-    <t>三国谋定天下S4赛季</t>
-  </si>
-  <si>
-    <t>绝区零 TGA 2024最佳手游提名</t>
-  </si>
-  <si>
-    <t>鸣潮 TGA 2024最佳手游提名</t>
-  </si>
-  <si>
-    <t>崩坏星穹铁道 谷歌最佳续作奖</t>
-  </si>
-  <si>
-    <t>剑与远征2 谷歌年度最佳</t>
-  </si>
-  <si>
-    <t>最终幻想14：水晶世界首爆PV</t>
-  </si>
-  <si>
-    <t>原神5.2版本更新</t>
-  </si>
-  <si>
-    <t>无尽梦回公测</t>
-  </si>
-  <si>
-    <t>三角洲行动更新弹窗中盗用战地素材道歉</t>
-  </si>
-  <si>
-    <t>三角洲行动新赛季：聚变</t>
-  </si>
-  <si>
-    <t>深空之眼3.8版本更新</t>
-  </si>
-  <si>
-    <t>女神异闻录夜幕魅影3.0.1版本更新</t>
-  </si>
-  <si>
-    <t>重返未来1999 2.3版本更新</t>
-  </si>
-  <si>
-    <t>金铲铲之战双城传说2赛季</t>
-  </si>
-  <si>
-    <t>崩坏星穹铁道2024金摇杆最佳持续运营移动端</t>
-  </si>
-  <si>
-    <t>逆水寒2.2.2版本更新</t>
-  </si>
-  <si>
-    <t>鸣潮2.0预告</t>
-  </si>
-  <si>
-    <t>永劫无间S3赛季</t>
-  </si>
-  <si>
-    <t>光遇 绊爱联动</t>
-  </si>
-  <si>
-    <t>白夜极光停服公告</t>
-  </si>
-  <si>
-    <t>明日方舟运营Wan顽子就蚀刻章抄袭事件道歉</t>
-  </si>
-  <si>
-    <t>绝区零 IOS 2024年度游戏</t>
-  </si>
-  <si>
-    <t>剑与远征2 IOS 2024年度游戏</t>
-  </si>
-  <si>
-    <t>地下城与勇士65版本</t>
-  </si>
-  <si>
-    <t>雷索纳斯IOS黑卡充值140万</t>
-  </si>
-  <si>
-    <t>异环奇点测试</t>
-  </si>
-  <si>
-    <t>荒野起源首爆PV</t>
-  </si>
-  <si>
-    <t>异环奇点测试结束</t>
-  </si>
-  <si>
-    <t>恋与深空秦彻「龙影陨落处」</t>
-  </si>
-  <si>
-    <t>原神瑞幸联动</t>
-  </si>
-  <si>
-    <t>绝区零麦当劳联动</t>
-  </si>
-  <si>
-    <t>无限暖暖公测预下载</t>
-  </si>
-  <si>
-    <t>原神 TGA 2024玩家之声提名</t>
-  </si>
-  <si>
-    <t>绝区零 TGA 2024玩家之声提名</t>
-  </si>
-  <si>
-    <t>鸣潮 TGA 2024玩家之声提名</t>
-  </si>
-  <si>
-    <t>王者荣耀星之破晓先遣测试停服公告</t>
-  </si>
-  <si>
-    <t>绝区零 PS blog 最佳PS5游戏提名</t>
-  </si>
-  <si>
-    <t>绝区零 PS blog 最佳艺术指导提名</t>
-  </si>
-  <si>
-    <t>千年之旅停服公告</t>
-  </si>
-  <si>
-    <t>原神 PS blog 最佳持续运营提名</t>
-  </si>
-  <si>
-    <t>原神 PS合作伙伴奖 2024 EXCELLENCE AWARD</t>
-  </si>
-  <si>
-    <t>少女前线2外服公测</t>
-  </si>
-  <si>
-    <t>原神 PS合作伙伴奖 2024 PARTNER AWARD</t>
-  </si>
-  <si>
-    <t>崩坏星穹铁道2.7版本更新</t>
-  </si>
-  <si>
-    <t>炉石传说酒馆战旗第9赛季</t>
-  </si>
-  <si>
-    <t>无限暖暖公测</t>
-  </si>
-  <si>
-    <t>无限大一测/预告</t>
-  </si>
-  <si>
-    <t>第五人格模仿者新增角色</t>
-  </si>
-  <si>
-    <t>女神异闻录夜幕魅影3.0.2版本更新</t>
-  </si>
-  <si>
-    <t>新月同行1.0.2版本更新</t>
-  </si>
-  <si>
-    <t>王者荣耀星之破晓先遣测试正式停服</t>
-  </si>
-  <si>
-    <t>异人之下「入世测试」</t>
-  </si>
-  <si>
-    <t>重返未来1999 2.4版本更新</t>
-  </si>
-  <si>
-    <t>第五人格第36赛季</t>
-  </si>
-  <si>
-    <t>绝区零1.4版本更新</t>
-  </si>
-  <si>
-    <t>少女前线正式停服</t>
-  </si>
-  <si>
-    <t>白夜极光正式停服</t>
-  </si>
-  <si>
-    <t>千年之旅正式停服</t>
+    <t>《绝区零》1.3版本更新</t>
+  </si>
+  <si>
+    <t>《阴阳师》鬼金羊卡池</t>
+  </si>
+  <si>
+    <t>《火环》焕火测试结束</t>
+  </si>
+  <si>
+    <t>《尘白禁区》2.3版本更新</t>
+  </si>
+  <si>
+    <t>《第五人格》联动女神异闻录5第二弹</t>
+  </si>
+  <si>
+    <t>《战双帕弥什》五周年版本更新</t>
+  </si>
+  <si>
+    <t>《碧蓝档案》未花卡池</t>
+  </si>
+  <si>
+    <t>《宝可梦大集结》公测</t>
+  </si>
+  <si>
+    <t>《尘白禁区》2.3版本就剧情角色等问题直播道歉</t>
+  </si>
+  <si>
+    <t>《鸣潮》1.4版本更新</t>
+  </si>
+  <si>
+    <t>《一梦江湖》平行服开服</t>
+  </si>
+  <si>
+    <t>《王者荣耀》柯南联动</t>
+  </si>
+  <si>
+    <t>《三国谋定天下》S4赛季</t>
+  </si>
+  <si>
+    <t>《绝区零》TGA 2024最佳手游提名</t>
+  </si>
+  <si>
+    <t>《鸣潮》TGA 2024最佳手游提名</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》谷歌最佳续作奖</t>
+  </si>
+  <si>
+    <t>《剑与远征2》谷歌年度最佳</t>
+  </si>
+  <si>
+    <t>《最终幻想14：水晶世界》首爆PV</t>
+  </si>
+  <si>
+    <t>《原神》5.2版本更新</t>
+  </si>
+  <si>
+    <t>《无尽梦回》公测</t>
+  </si>
+  <si>
+    <t>《三角洲行动》更新弹窗中盗用战地素材道歉</t>
+  </si>
+  <si>
+    <t>《三角洲行动》新赛季：聚变</t>
+  </si>
+  <si>
+    <t>《深空之眼》3.8版本更新</t>
+  </si>
+  <si>
+    <t>《女神异闻录夜幕魅影》3.0.1版本更新</t>
+  </si>
+  <si>
+    <t>《重返未来1999》2.3版本更新</t>
+  </si>
+  <si>
+    <t>《金铲铲之战》双城传说2赛季</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》2024金摇杆最佳持续运营移动端</t>
+  </si>
+  <si>
+    <t>《逆水寒》2.2.2版本更新</t>
+  </si>
+  <si>
+    <t>《鸣潮》2.0预告</t>
+  </si>
+  <si>
+    <t>《永劫无间》S3赛季</t>
+  </si>
+  <si>
+    <t>《光遇》绊爱联动</t>
+  </si>
+  <si>
+    <t>《白夜极光》停服公告</t>
+  </si>
+  <si>
+    <t>《明日方舟》运营Wan顽子就蚀刻章抄袭事件道歉</t>
+  </si>
+  <si>
+    <t>《绝区零》IOS 2024年度游戏</t>
+  </si>
+  <si>
+    <t>《剑与远征2》IOS 2024年度游戏</t>
+  </si>
+  <si>
+    <t>《地下城与勇士》65版本</t>
+  </si>
+  <si>
+    <t>《雷索纳斯》IOS黑卡充值140万</t>
+  </si>
+  <si>
+    <t>《异环》奇点测试</t>
+  </si>
+  <si>
+    <t>《荒野起源》首爆PV</t>
+  </si>
+  <si>
+    <t>《归龙潮》网传项目组大裁员</t>
+  </si>
+  <si>
+    <t>《异环》奇点测试结束</t>
+  </si>
+  <si>
+    <t>《鸣潮》库洛公司股权变更腾讯完成51%控股</t>
+  </si>
+  <si>
+    <t>《恋与深空》秦彻「龙影陨落处」</t>
+  </si>
+  <si>
+    <t>《原神》瑞幸联动</t>
+  </si>
+  <si>
+    <t>《无限暖暖》公测预下载</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》星期日角色PV部分分镜疑似抄袭阴阳师PV，阴阳师官方微博阴阳铁道</t>
+  </si>
+  <si>
+    <t>《原神》TGA 2024玩家之声提名</t>
+  </si>
+  <si>
+    <t>《绝区零》TGA 2024玩家之声提名</t>
+  </si>
+  <si>
+    <t>《王者荣耀》星之破晓先遣测试停服公告</t>
+  </si>
+  <si>
+    <t>《鸣潮》TGA 2024玩家之声提名</t>
+  </si>
+  <si>
+    <t>《绝区零》PS blog 最佳PS5游戏提名</t>
+  </si>
+  <si>
+    <t>《千年之旅》停服公告</t>
+  </si>
+  <si>
+    <t>《绝区零》PS blog 最佳艺术指导提名</t>
+  </si>
+  <si>
+    <t>《原神》PS blog 最佳持续运营提名</t>
+  </si>
+  <si>
+    <t>《少女前线2》外服公测</t>
+  </si>
+  <si>
+    <t>《原神》PS合作伙伴奖 2024 EXCELLENCE AWARD</t>
+  </si>
+  <si>
+    <t>《原神》PS合作伙伴奖 2024 PARTNER AWARD</t>
+  </si>
+  <si>
+    <t>《洛克王国：世界》二测爆料</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》2.7版本更新</t>
+  </si>
+  <si>
+    <t>《绝区零》麦当劳联动</t>
+  </si>
+  <si>
+    <t>《炉石传说》酒馆战旗第9赛季</t>
+  </si>
+  <si>
+    <t>《无限暖暖》公测</t>
+  </si>
+  <si>
+    <t>《无限大》一测/预告</t>
+  </si>
+  <si>
+    <t>《第五人格》模仿者新增角色</t>
+  </si>
+  <si>
+    <t>《女神异闻录夜幕魅影》3.0.2版本更新</t>
+  </si>
+  <si>
+    <t>《新月同行》1.0.2版本更新</t>
+  </si>
+  <si>
+    <t>《王者荣耀星之破晓》先遣测试正式停服</t>
+  </si>
+  <si>
+    <t>《归龙潮》1.2版本更新</t>
+  </si>
+  <si>
+    <t>《雪松》台架测试</t>
+  </si>
+  <si>
+    <t>《异人之下》「入世测试」</t>
+  </si>
+  <si>
+    <t>《重返未来1999》2.4版本更新</t>
+  </si>
+  <si>
+    <t>《第五人格》第36赛季</t>
+  </si>
+  <si>
+    <t>《幻塔》4.6版本更新</t>
+  </si>
+  <si>
+    <t>《雪松》台架测试结束</t>
+  </si>
+  <si>
+    <t>《绝区零》1.4版本更新</t>
+  </si>
+  <si>
+    <t>《绝区零》韩服联动iphone</t>
+  </si>
+  <si>
+    <t>《少女前线》正式停服</t>
+  </si>
+  <si>
+    <t>《白夜极光》正式停服</t>
+  </si>
+  <si>
+    <t>《千年之旅》正式停服</t>
   </si>
 </sst>
 </file>
@@ -713,7 +743,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,9 +756,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1017,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,84 +1103,99 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,22 +1723,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
     <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
-    <col min="3" max="3" width="46.6666666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.1083333333333" style="15" customWidth="1"/>
-    <col min="5" max="5" width="56.8916666666667" style="15" customWidth="1"/>
-    <col min="6" max="6" width="58.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="54.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1745,34 +1790,32 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="A4" s="16">
         <v>45597</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
-        <v>45598</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -1784,123 +1827,123 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16">
+      <c r="A9" s="8">
+        <v>45601</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
         <v>45602</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10">
         <v>45603</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8">
-        <v>45604</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>13</v>
@@ -1912,7 +1955,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -1924,10 +1967,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1936,10 +1979,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1948,63 +1991,63 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8">
-        <v>45611</v>
+        <v>45610</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8">
-        <v>45612</v>
+        <v>45611</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>14</v>
@@ -2015,66 +2058,68 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10">
         <v>45615</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10">
         <v>45616</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
       <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
@@ -2083,201 +2128,197 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10">
-        <v>45617</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10">
+        <v>45617</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="26"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10">
-        <v>45618</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="30"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>45621</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="10">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10">
         <v>45622</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8">
-        <v>45623</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
@@ -2288,164 +2329,176 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="10">
+      <c r="A49" s="8">
+        <v>45627</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10">
         <v>45628</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="29"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>45629</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
+      <c r="B52" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="F52" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="31" t="s">
-        <v>65</v>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="31" t="s">
-        <v>66</v>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="31" t="s">
-        <v>68</v>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="31" t="s">
-        <v>69</v>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="31" t="s">
-        <v>71</v>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="31" t="s">
-        <v>71</v>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2456,21 +2509,23 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10">
@@ -2480,122 +2535,122 @@
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="8">
+      <c r="A68" s="16">
         <v>45632</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2603,71 +2658,71 @@
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="16">
+      <c r="A74" s="8">
+        <v>45637</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="41">
         <v>45638</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B75" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
       <c r="C75" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
+        <v>88</v>
+      </c>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8">
-        <v>45639</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8">
-        <v>45640</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8">
-        <v>45642</v>
+        <v>45640</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2676,10 +2731,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8">
-        <v>45643</v>
+        <v>45641</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2688,24 +2743,22 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8">
-        <v>45644</v>
+        <v>45642</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8">
-        <v>45645</v>
+        <v>45643</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2714,34 +2767,38 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8">
-        <v>45646</v>
+        <v>45644</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8">
-        <v>46012</v>
+        <v>45645</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <v>45648</v>
+        <v>45646</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2750,10 +2807,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <v>45649</v>
+        <v>46012</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2762,10 +2819,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <v>45650</v>
+        <v>45648</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2774,10 +2831,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="8">
-        <v>45651</v>
+        <v>45649</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2786,10 +2843,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="8">
-        <v>45652</v>
+        <v>45650</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2798,10 +2855,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="8">
-        <v>45653</v>
+        <v>45651</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -2810,10 +2867,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8">
-        <v>45654</v>
+        <v>45652</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2822,10 +2879,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2834,10 +2891,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2846,31 +2903,41 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="13.5" spans="1:5">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-    </row>
-    <row r="96" ht="13.5" spans="1:5">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
+    <row r="95" spans="1:6">
+      <c r="A95" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" ht="13.5" spans="1:5">
       <c r="A97"/>
@@ -2942,67 +3009,91 @@
       <c r="D106"/>
       <c r="E106"/>
     </row>
+    <row r="107" ht="13.5" spans="1:5">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" ht="13.5" spans="1:5">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A49:A51"/>
+  <mergeCells count="69">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B60"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="D52:D60"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="E52:E60"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F63:F67"/>
-    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F75:F77"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3015,9 +3106,9 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3091,7 +3182,7 @@
         <v>45661</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3103,7 +3194,7 @@
         <v>45662</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3115,7 +3206,7 @@
         <v>45663</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3127,7 +3218,7 @@
         <v>45664</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3175,7 +3266,7 @@
         <v>45668</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3187,7 +3278,7 @@
         <v>45669</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3199,7 +3290,7 @@
         <v>45670</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3211,7 +3302,7 @@
         <v>45671</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3259,7 +3350,7 @@
         <v>45675</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3271,7 +3362,7 @@
         <v>45676</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3283,7 +3374,7 @@
         <v>45677</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3295,7 +3386,7 @@
         <v>45678</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3334,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3345,7 +3436,7 @@
         <v>45682</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3357,7 +3448,7 @@
         <v>45683</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3369,7 +3460,7 @@
         <v>45684</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3381,7 +3472,7 @@
         <v>45685</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3429,7 +3520,7 @@
         <v>45689</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
@@ -3441,7 +3532,7 @@
         <v>45690</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3453,7 +3544,7 @@
         <v>45691</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3465,7 +3556,7 @@
         <v>45692</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3513,7 +3604,7 @@
         <v>45696</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3525,7 +3616,7 @@
         <v>45697</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3537,7 +3628,7 @@
         <v>45698</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3549,7 +3640,7 @@
         <v>45699</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3597,7 +3688,7 @@
         <v>45703</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3609,7 +3700,7 @@
         <v>45704</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3621,7 +3712,7 @@
         <v>45705</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3633,7 +3724,7 @@
         <v>45706</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3681,7 +3772,7 @@
         <v>45710</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3693,7 +3784,7 @@
         <v>45711</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3705,7 +3796,7 @@
         <v>45712</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3717,10 +3808,10 @@
         <v>45713</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3767,7 +3858,7 @@
         <v>45717</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3779,7 +3870,7 @@
         <v>45718</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3791,7 +3882,7 @@
         <v>45719</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3803,7 +3894,7 @@
         <v>45720</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3851,7 +3942,7 @@
         <v>45724</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3863,7 +3954,7 @@
         <v>45725</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3875,7 +3966,7 @@
         <v>45726</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3887,7 +3978,7 @@
         <v>45727</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3935,7 +4026,7 @@
         <v>45731</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3947,7 +4038,7 @@
         <v>45732</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3959,7 +4050,7 @@
         <v>45733</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3971,7 +4062,7 @@
         <v>45734</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -4019,7 +4110,7 @@
         <v>45738</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -4031,7 +4122,7 @@
         <v>45739</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -4043,7 +4134,7 @@
         <v>45740</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -4055,7 +4146,7 @@
         <v>45741</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -4103,7 +4194,7 @@
         <v>45745</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -4115,7 +4206,7 @@
         <v>45746</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -4127,7 +4218,7 @@
         <v>45747</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -4139,7 +4230,7 @@
         <v>45748</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -4187,7 +4278,7 @@
         <v>45752</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -4199,7 +4290,7 @@
         <v>45753</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -4211,7 +4302,7 @@
         <v>45754</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -4223,7 +4314,7 @@
         <v>45755</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -4271,7 +4362,7 @@
         <v>45759</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -4283,7 +4374,7 @@
         <v>45760</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -4295,7 +4386,7 @@
         <v>45761</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -4307,7 +4398,7 @@
         <v>45762</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4355,7 +4446,7 @@
         <v>45766</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4367,7 +4458,7 @@
         <v>45767</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -4379,7 +4470,7 @@
         <v>45768</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4391,7 +4482,7 @@
         <v>45769</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -4439,7 +4530,7 @@
         <v>45773</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4451,7 +4542,7 @@
         <v>45774</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4463,7 +4554,7 @@
         <v>45775</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4475,7 +4566,7 @@
         <v>45776</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -4523,7 +4614,7 @@
         <v>45780</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4535,7 +4626,7 @@
         <v>45781</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4547,7 +4638,7 @@
         <v>45782</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4559,7 +4650,7 @@
         <v>45783</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -4607,7 +4698,7 @@
         <v>45787</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -4619,7 +4710,7 @@
         <v>45788</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -4631,7 +4722,7 @@
         <v>45789</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -4643,7 +4734,7 @@
         <v>45790</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -4691,7 +4782,7 @@
         <v>45794</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -4703,7 +4794,7 @@
         <v>45795</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -4715,7 +4806,7 @@
         <v>45796</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -4727,7 +4818,7 @@
         <v>45797</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -4775,7 +4866,7 @@
         <v>45801</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -4787,7 +4878,7 @@
         <v>45802</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -4799,7 +4890,7 @@
         <v>45803</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -4811,7 +4902,7 @@
         <v>45804</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4859,7 +4950,7 @@
         <v>45808</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -4871,7 +4962,7 @@
         <v>45809</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -4883,7 +4974,7 @@
         <v>45810</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -4895,7 +4986,7 @@
         <v>45811</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -4943,7 +5034,7 @@
         <v>45815</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -4955,7 +5046,7 @@
         <v>45816</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -4967,7 +5058,7 @@
         <v>45817</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -4979,7 +5070,7 @@
         <v>45818</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -5027,7 +5118,7 @@
         <v>45822</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -5039,7 +5130,7 @@
         <v>45823</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -5051,7 +5142,7 @@
         <v>45824</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -5063,7 +5154,7 @@
         <v>45825</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -5111,7 +5202,7 @@
         <v>45829</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -5123,7 +5214,7 @@
         <v>45830</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -5135,7 +5226,7 @@
         <v>45831</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -5147,7 +5238,7 @@
         <v>45832</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -5195,7 +5286,7 @@
         <v>45836</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -5207,7 +5298,7 @@
         <v>45837</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -5219,7 +5310,7 @@
         <v>45838</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -5231,7 +5322,7 @@
         <v>45839</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -5279,7 +5370,7 @@
         <v>45843</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -5291,7 +5382,7 @@
         <v>45844</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -5303,7 +5394,7 @@
         <v>45845</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -5315,7 +5406,7 @@
         <v>45846</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -5363,7 +5454,7 @@
         <v>45850</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -5375,7 +5466,7 @@
         <v>45851</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -5387,7 +5478,7 @@
         <v>45852</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -5399,7 +5490,7 @@
         <v>45853</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -5447,7 +5538,7 @@
         <v>45857</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -5459,7 +5550,7 @@
         <v>45858</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -5471,7 +5562,7 @@
         <v>45859</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5483,7 +5574,7 @@
         <v>45860</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -5531,7 +5622,7 @@
         <v>45864</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -5543,7 +5634,7 @@
         <v>45865</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -5555,7 +5646,7 @@
         <v>45866</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -5567,7 +5658,7 @@
         <v>45867</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -5615,7 +5706,7 @@
         <v>45871</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -5627,7 +5718,7 @@
         <v>45872</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -5639,7 +5730,7 @@
         <v>45873</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -5651,7 +5742,7 @@
         <v>45874</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -5699,7 +5790,7 @@
         <v>45878</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -5711,7 +5802,7 @@
         <v>45879</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -5723,7 +5814,7 @@
         <v>45880</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -5735,7 +5826,7 @@
         <v>45881</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -5783,7 +5874,7 @@
         <v>45885</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -5795,7 +5886,7 @@
         <v>45886</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -5807,7 +5898,7 @@
         <v>45887</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -5819,7 +5910,7 @@
         <v>45888</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -5867,7 +5958,7 @@
         <v>45892</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -5879,7 +5970,7 @@
         <v>45893</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -5891,7 +5982,7 @@
         <v>45894</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -5903,7 +5994,7 @@
         <v>45895</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -5951,7 +6042,7 @@
         <v>45899</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -5963,7 +6054,7 @@
         <v>45900</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -5975,7 +6066,7 @@
         <v>45901</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -5987,7 +6078,7 @@
         <v>45902</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -6035,7 +6126,7 @@
         <v>45906</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -6047,7 +6138,7 @@
         <v>45907</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -6059,7 +6150,7 @@
         <v>45908</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -6071,7 +6162,7 @@
         <v>45909</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -6119,7 +6210,7 @@
         <v>45913</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -6131,7 +6222,7 @@
         <v>45914</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -6143,7 +6234,7 @@
         <v>45915</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -6155,7 +6246,7 @@
         <v>45916</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -6203,7 +6294,7 @@
         <v>45920</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -6215,7 +6306,7 @@
         <v>45921</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -6227,7 +6318,7 @@
         <v>45922</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -6239,7 +6330,7 @@
         <v>45923</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -6287,7 +6378,7 @@
         <v>45927</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -6299,7 +6390,7 @@
         <v>45928</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -6311,7 +6402,7 @@
         <v>45929</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -6323,7 +6414,7 @@
         <v>45930</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -6371,7 +6462,7 @@
         <v>45934</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -6383,7 +6474,7 @@
         <v>45935</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -6395,7 +6486,7 @@
         <v>45936</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -6407,7 +6498,7 @@
         <v>45937</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -6455,7 +6546,7 @@
         <v>45941</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -6467,7 +6558,7 @@
         <v>45942</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -6479,7 +6570,7 @@
         <v>45943</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -6491,7 +6582,7 @@
         <v>45944</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -6539,7 +6630,7 @@
         <v>45948</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -6551,7 +6642,7 @@
         <v>45949</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -6563,7 +6654,7 @@
         <v>45950</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -6575,7 +6666,7 @@
         <v>45951</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -6623,7 +6714,7 @@
         <v>45955</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -6635,7 +6726,7 @@
         <v>45956</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -6647,7 +6738,7 @@
         <v>45957</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -6659,7 +6750,7 @@
         <v>45958</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -6707,7 +6798,7 @@
         <v>45962</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -6719,7 +6810,7 @@
         <v>45963</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -6731,7 +6822,7 @@
         <v>45964</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -6743,7 +6834,7 @@
         <v>45965</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -6791,7 +6882,7 @@
         <v>45969</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -6803,7 +6894,7 @@
         <v>45970</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -6815,7 +6906,7 @@
         <v>45971</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -6827,7 +6918,7 @@
         <v>45972</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -6875,7 +6966,7 @@
         <v>45976</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -6887,7 +6978,7 @@
         <v>45977</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -6899,7 +6990,7 @@
         <v>45978</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -6911,7 +7002,7 @@
         <v>45979</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -6959,7 +7050,7 @@
         <v>45983</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -6971,7 +7062,7 @@
         <v>45984</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -6983,7 +7074,7 @@
         <v>45985</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -6995,7 +7086,7 @@
         <v>45986</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -7043,7 +7134,7 @@
         <v>45990</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -7055,7 +7146,7 @@
         <v>45991</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -7067,7 +7158,7 @@
         <v>45992</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -7079,7 +7170,7 @@
         <v>45993</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -7127,7 +7218,7 @@
         <v>45997</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -7139,7 +7230,7 @@
         <v>45998</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -7151,7 +7242,7 @@
         <v>45999</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -7163,7 +7254,7 @@
         <v>46000</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -7211,7 +7302,7 @@
         <v>46004</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -7223,7 +7314,7 @@
         <v>46005</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -7235,7 +7326,7 @@
         <v>46006</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -7247,7 +7338,7 @@
         <v>46007</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -7295,7 +7386,7 @@
         <v>46011</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -7307,7 +7398,7 @@
         <v>46012</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -7319,7 +7410,7 @@
         <v>46013</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -7331,7 +7422,7 @@
         <v>46014</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -7379,7 +7470,7 @@
         <v>46018</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -7391,7 +7482,7 @@
         <v>46019</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -7403,7 +7494,7 @@
         <v>46020</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -7415,7 +7506,7 @@
         <v>46021</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="98">
   <si>
     <t>日期</t>
   </si>
@@ -246,7 +246,7 @@
     <t>《原神》PS blog 最佳持续运营提名</t>
   </si>
   <si>
-    <t>《少女前线2》外服公测</t>
+    <t>《少女前线2》美服公测</t>
   </si>
   <si>
     <t>《原神》PS合作伙伴奖 2024 EXCELLENCE AWARD</t>
@@ -267,6 +267,9 @@
     <t>《炉石传说》酒馆战旗第9赛季</t>
   </si>
   <si>
+    <t>《猫之城》猫娘乐园联动</t>
+  </si>
+  <si>
     <t>《无限暖暖》公测</t>
   </si>
   <si>
@@ -309,7 +312,7 @@
     <t>《绝区零》1.4版本更新</t>
   </si>
   <si>
-    <t>《绝区零》韩服联动iphone</t>
+    <t>《绝区零》韩服iphone联动</t>
   </si>
   <si>
     <t>《少女前线》正式停服</t>
@@ -1047,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,15 +1099,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1126,15 +1120,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,33 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1726,18 +1684,18 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
     <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="54.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="44.3796296296296" style="15" customWidth="1"/>
+    <col min="5" max="5" width="54.1296296296296" style="15" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1790,28 +1748,28 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16">
+      <c r="A4" s="10">
         <v>45597</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8">
@@ -1880,14 +1838,14 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10">
@@ -1906,26 +1864,26 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
@@ -2084,31 +2042,31 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
@@ -2128,8 +2086,8 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
@@ -2154,44 +2112,44 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="25"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="25"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="25"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10">
@@ -2210,24 +2168,24 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="29"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="29"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8">
@@ -2288,11 +2246,11 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="4" t="s">
         <v>52</v>
       </c>
@@ -2386,27 +2344,27 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="30" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="31">
+      <c r="A52" s="25">
         <v>45629</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35" t="s">
+      <c r="D52" s="28"/>
+      <c r="E52" s="29" t="s">
         <v>63</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -2414,90 +2372,90 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="33" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="30" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="33" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="30" t="s">
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="30" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="33" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="30" t="s">
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="30" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="40" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="30" t="s">
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="24" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2511,21 +2469,23 @@
       <c r="C61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
+      <c r="D62" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10">
@@ -2535,75 +2495,75 @@
         <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
+        <v>81</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+        <v>84</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="16">
+      <c r="A68" s="10">
         <v>45632</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8">
@@ -2613,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2639,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2670,38 +2630,38 @@
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="41">
+      <c r="A75" s="10">
         <v>45638</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
+        <v>89</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="44"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
+        <v>90</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="47"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
+        <v>91</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8">
@@ -2711,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -2773,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2788,7 +2748,7 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -2933,90 +2893,90 @@
         <v>17</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="13.5" spans="1:5">
+    <row r="97" ht="14.4" spans="1:5">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" ht="13.5" spans="1:5">
+    <row r="98" ht="14.4" spans="1:5">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" ht="13.5" spans="1:5">
+    <row r="99" ht="14.4" spans="1:5">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
     </row>
-    <row r="100" ht="13.5" spans="1:5">
+    <row r="100" ht="14.4" spans="1:5">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" ht="13.5" spans="1:5">
+    <row r="101" ht="14.4" spans="1:5">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" ht="13.5" spans="1:5">
+    <row r="102" ht="14.4" spans="1:5">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" ht="13.5" spans="1:5">
+    <row r="103" ht="14.4" spans="1:5">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" ht="13.5" spans="1:5">
+    <row r="104" ht="14.4" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" ht="13.5" spans="1:5">
+    <row r="105" ht="14.4" spans="1:5">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" ht="13.5" spans="1:5">
+    <row r="106" ht="14.4" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" ht="13.5" spans="1:5">
+    <row r="107" ht="14.4" spans="1:5">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" ht="13.5" spans="1:5">
+    <row r="108" ht="14.4" spans="1:5">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -3024,7 +2984,7 @@
       <c r="E108"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="68">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3067,7 +3027,6 @@
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D52:D60"/>
-    <mergeCell ref="D61:D62"/>
     <mergeCell ref="D63:D67"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="D75:D77"/>
@@ -3111,17 +3070,17 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.225" customWidth="1"/>
-    <col min="3" max="3" width="46.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3153,7 +3112,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="17.4" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3165,7 +3124,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="17.4" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3177,7 +3136,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="17.4" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3189,7 +3148,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="17.4" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3201,7 +3160,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" ht="17.4" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3213,7 +3172,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" ht="17.4" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3225,7 +3184,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" ht="17.4" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3237,7 +3196,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3249,7 +3208,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3261,7 +3220,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" ht="17.4" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3273,7 +3232,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3285,7 +3244,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" ht="17.4" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3297,7 +3256,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" ht="17.4" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3309,7 +3268,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" ht="17.4" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3321,7 +3280,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" ht="17.4" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3333,7 +3292,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" ht="17.4" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3345,7 +3304,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" ht="17.4" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3357,7 +3316,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" ht="17.4" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3369,7 +3328,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" ht="17.4" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3381,7 +3340,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" ht="17.4" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3393,7 +3352,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" ht="17.4" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3405,7 +3364,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="18.75" spans="1:6">
+    <row r="24" ht="17.4" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3417,7 +3376,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:6">
+    <row r="25" ht="17.4" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3425,13 +3384,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="18.75" spans="1:6">
+    <row r="26" ht="17.4" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3443,7 +3402,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:6">
+    <row r="27" ht="17.4" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3455,7 +3414,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="1:6">
+    <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3467,7 +3426,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="17.4" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3479,7 +3438,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="17.4" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3491,7 +3450,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="17.4" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3503,7 +3462,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="17.4" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3515,7 +3474,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:6">
+    <row r="33" ht="17.4" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3527,7 +3486,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="18.75" spans="1:6">
+    <row r="34" ht="17.4" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3539,7 +3498,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="18.75" spans="1:6">
+    <row r="35" ht="17.4" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3551,7 +3510,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="18.75" spans="1:6">
+    <row r="36" ht="17.4" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3563,7 +3522,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="18.75" spans="1:6">
+    <row r="37" ht="17.4" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3575,7 +3534,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="18.75" spans="1:6">
+    <row r="38" ht="17.4" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3587,7 +3546,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="18.75" spans="1:6">
+    <row r="39" ht="17.4" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3599,7 +3558,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18.75" spans="1:6">
+    <row r="40" ht="17.4" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3611,7 +3570,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="18.75" spans="1:6">
+    <row r="41" ht="17.4" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3623,7 +3582,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="18.75" spans="1:6">
+    <row r="42" ht="17.4" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3635,7 +3594,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="18.75" spans="1:6">
+    <row r="43" ht="17.4" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3647,7 +3606,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="18.75" spans="1:6">
+    <row r="44" ht="17.4" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3659,7 +3618,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="18.75" spans="1:6">
+    <row r="45" ht="17.4" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3671,7 +3630,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="18.75" spans="1:6">
+    <row r="46" ht="17.4" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3683,7 +3642,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="18.75" spans="1:6">
+    <row r="47" ht="17.4" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3695,7 +3654,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="18.75" spans="1:6">
+    <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3707,7 +3666,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="18.75" spans="1:6">
+    <row r="49" ht="17.4" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -3719,7 +3678,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="18.75" spans="1:6">
+    <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -3731,7 +3690,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="17.4" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -3743,7 +3702,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="17.4" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -3755,7 +3714,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="17.4" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -3767,7 +3726,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="18.75" spans="1:6">
+    <row r="54" ht="17.4" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -3779,7 +3738,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="18.75" spans="1:6">
+    <row r="55" ht="17.4" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -3791,7 +3750,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="18.75" spans="1:6">
+    <row r="56" ht="17.4" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -3803,7 +3762,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="18.75" spans="1:6">
+    <row r="57" ht="17.4" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -3811,13 +3770,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="18.75" spans="1:6">
+    <row r="58" ht="17.4" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -3829,7 +3788,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="18.75" spans="1:6">
+    <row r="59" ht="17.4" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -3841,7 +3800,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18.75" spans="1:6">
+    <row r="60" ht="17.4" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -3853,7 +3812,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18.75" spans="1:6">
+    <row r="61" ht="17.4" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -3865,7 +3824,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="18.75" spans="1:6">
+    <row r="62" ht="17.4" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -3877,7 +3836,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="18.75" spans="1:6">
+    <row r="63" ht="17.4" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -3889,7 +3848,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="18.75" spans="1:6">
+    <row r="64" ht="17.4" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -3901,7 +3860,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="18.75" spans="1:6">
+    <row r="65" ht="17.4" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -3913,7 +3872,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="18.75" spans="1:6">
+    <row r="66" ht="17.4" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -3925,7 +3884,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="18.75" spans="1:6">
+    <row r="67" ht="17.4" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -3937,7 +3896,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="18.75" spans="1:6">
+    <row r="68" ht="17.4" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -3949,7 +3908,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="18.75" spans="1:6">
+    <row r="69" ht="17.4" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -3961,7 +3920,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="17.4" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -3973,7 +3932,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="17.4" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -3985,7 +3944,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="17.4" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -3997,7 +3956,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="17.4" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4009,7 +3968,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="18.75" spans="1:6">
+    <row r="74" ht="17.4" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4021,7 +3980,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="18.75" spans="1:6">
+    <row r="75" ht="17.4" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4033,7 +3992,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="18.75" spans="1:6">
+    <row r="76" ht="17.4" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4045,7 +4004,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="18.75" spans="1:6">
+    <row r="77" ht="17.4" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4057,7 +4016,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="18.75" spans="1:6">
+    <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4069,7 +4028,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="18.75" spans="1:6">
+    <row r="79" ht="17.4" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4081,7 +4040,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="18.75" spans="1:6">
+    <row r="80" ht="17.4" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4093,7 +4052,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="18.75" spans="1:6">
+    <row r="81" ht="17.4" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4105,7 +4064,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="18.75" spans="1:6">
+    <row r="82" ht="17.4" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4117,7 +4076,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="18.75" spans="1:6">
+    <row r="83" ht="17.4" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4129,7 +4088,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="18.75" spans="1:6">
+    <row r="84" ht="17.4" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4141,7 +4100,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="18.75" spans="1:6">
+    <row r="85" ht="17.4" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4153,7 +4112,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="18.75" spans="1:6">
+    <row r="86" ht="17.4" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4165,7 +4124,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="18.75" spans="1:6">
+    <row r="87" ht="17.4" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4177,7 +4136,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="18.75" spans="1:6">
+    <row r="88" ht="17.4" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4189,7 +4148,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="18.75" spans="1:6">
+    <row r="89" ht="17.4" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4201,7 +4160,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="17.4" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4213,7 +4172,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="17.4" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4225,7 +4184,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="17.4" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4237,7 +4196,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="17.4" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4249,7 +4208,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="18.75" spans="1:6">
+    <row r="94" ht="17.4" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4261,7 +4220,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="18.75" spans="1:6">
+    <row r="95" ht="17.4" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4273,7 +4232,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="18.75" spans="1:6">
+    <row r="96" ht="17.4" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4285,7 +4244,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="18.75" spans="1:6">
+    <row r="97" ht="17.4" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4297,7 +4256,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="18.75" spans="1:6">
+    <row r="98" ht="17.4" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4309,7 +4268,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="18.75" spans="1:6">
+    <row r="99" ht="17.4" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4321,7 +4280,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="18.75" spans="1:6">
+    <row r="100" ht="17.4" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4333,7 +4292,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="18.75" spans="1:6">
+    <row r="101" ht="17.4" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4345,7 +4304,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="18.75" spans="1:6">
+    <row r="102" ht="17.4" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4357,7 +4316,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="18.75" spans="1:6">
+    <row r="103" ht="17.4" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4369,7 +4328,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="18.75" spans="1:6">
+    <row r="104" ht="17.4" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4381,7 +4340,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="18.75" spans="1:6">
+    <row r="105" ht="17.4" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4393,7 +4352,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="18.75" spans="1:6">
+    <row r="106" ht="17.4" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4405,7 +4364,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="18.75" spans="1:6">
+    <row r="107" ht="17.4" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4417,7 +4376,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="17.4" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4429,7 +4388,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="17.4" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4441,7 +4400,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="17.4" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4453,7 +4412,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="17.4" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4465,7 +4424,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="18.75" spans="1:6">
+    <row r="112" ht="17.4" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4477,7 +4436,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="18.75" spans="1:6">
+    <row r="113" ht="17.4" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4489,7 +4448,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="18.75" spans="1:6">
+    <row r="114" ht="17.4" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4501,7 +4460,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="18.75" spans="1:6">
+    <row r="115" ht="17.4" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4513,7 +4472,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="18.75" spans="1:6">
+    <row r="116" ht="17.4" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4525,7 +4484,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="18.75" spans="1:6">
+    <row r="117" ht="17.4" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4537,7 +4496,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="18.75" spans="1:6">
+    <row r="118" ht="17.4" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4549,7 +4508,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="18.75" spans="1:6">
+    <row r="119" ht="17.4" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4561,7 +4520,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="18.75" spans="1:6">
+    <row r="120" ht="17.4" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4573,7 +4532,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="18.75" spans="1:6">
+    <row r="121" ht="17.4" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4585,7 +4544,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="18.75" spans="1:6">
+    <row r="122" ht="17.4" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4597,7 +4556,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18.75" spans="1:6">
+    <row r="123" ht="17.4" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4609,7 +4568,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18.75" spans="1:6">
+    <row r="124" ht="17.4" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4621,7 +4580,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="18.75" spans="1:6">
+    <row r="125" ht="17.4" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4633,7 +4592,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18.75" spans="1:6">
+    <row r="126" ht="17.4" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4645,7 +4604,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="18.75" spans="1:6">
+    <row r="127" ht="17.4" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4657,7 +4616,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="18.75" spans="1:6">
+    <row r="128" ht="17.4" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4669,7 +4628,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18.75" spans="1:6">
+    <row r="129" ht="17.4" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4681,7 +4640,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="18.75" spans="1:6">
+    <row r="130" ht="17.4" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4693,7 +4652,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="18.75" spans="1:6">
+    <row r="131" ht="17.4" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4705,7 +4664,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="18.75" spans="1:6">
+    <row r="132" ht="17.4" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -4717,7 +4676,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="18.75" spans="1:6">
+    <row r="133" ht="17.4" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -4729,7 +4688,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="18.75" spans="1:6">
+    <row r="134" ht="17.4" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -4741,7 +4700,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="18.75" spans="1:6">
+    <row r="135" ht="17.4" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -4753,7 +4712,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="18.75" spans="1:6">
+    <row r="136" ht="17.4" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -4765,7 +4724,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="18.75" spans="1:6">
+    <row r="137" ht="17.4" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -4777,7 +4736,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="18.75" spans="1:6">
+    <row r="138" ht="17.4" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -4789,7 +4748,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="17.4" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -4801,7 +4760,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="17.4" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -4813,7 +4772,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="17.4" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -4825,7 +4784,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="17.4" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -4837,7 +4796,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="17.4" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -4849,7 +4808,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="17.4" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -4861,7 +4820,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="17.4" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -4873,7 +4832,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="17.4" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -4885,7 +4844,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="17.4" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -4897,7 +4856,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="17.4" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -4909,7 +4868,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="17.4" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -4921,7 +4880,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="18.75" spans="1:6">
+    <row r="150" ht="17.4" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -4933,7 +4892,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="18.75" spans="1:6">
+    <row r="151" ht="17.4" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -4945,7 +4904,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="18.75" spans="1:6">
+    <row r="152" ht="17.4" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -4957,7 +4916,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="18.75" spans="1:6">
+    <row r="153" ht="17.4" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -4969,7 +4928,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="18.75" spans="1:6">
+    <row r="154" ht="17.4" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -4981,7 +4940,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="18.75" spans="1:6">
+    <row r="155" ht="17.4" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -4993,7 +4952,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="18.75" spans="1:6">
+    <row r="156" ht="17.4" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5005,7 +4964,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="18.75" spans="1:6">
+    <row r="157" ht="17.4" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5017,7 +4976,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="18.75" spans="1:6">
+    <row r="158" ht="17.4" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5029,7 +4988,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="18.75" spans="1:6">
+    <row r="159" ht="17.4" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5041,7 +5000,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="18.75" spans="1:6">
+    <row r="160" ht="17.4" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5053,7 +5012,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="18.75" spans="1:6">
+    <row r="161" ht="17.4" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5065,7 +5024,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="18.75" spans="1:6">
+    <row r="162" ht="17.4" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5077,7 +5036,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="18.75" spans="1:6">
+    <row r="163" ht="17.4" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5089,7 +5048,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="18.75" spans="1:6">
+    <row r="164" ht="17.4" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5101,7 +5060,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="18.75" spans="1:6">
+    <row r="165" ht="17.4" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5113,7 +5072,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="18.75" spans="1:6">
+    <row r="166" ht="17.4" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5125,7 +5084,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="18.75" spans="1:6">
+    <row r="167" ht="17.4" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5137,7 +5096,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="18.75" spans="1:6">
+    <row r="168" ht="17.4" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5149,7 +5108,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="18.75" spans="1:6">
+    <row r="169" ht="17.4" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5161,7 +5120,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="18.75" spans="1:6">
+    <row r="170" ht="17.4" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5173,7 +5132,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="18.75" spans="1:6">
+    <row r="171" ht="17.4" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5185,7 +5144,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="18.75" spans="1:6">
+    <row r="172" ht="17.4" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5197,7 +5156,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="18.75" spans="1:6">
+    <row r="173" ht="17.4" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5209,7 +5168,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="18.75" spans="1:6">
+    <row r="174" ht="17.4" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5221,7 +5180,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="18.75" spans="1:6">
+    <row r="175" ht="17.4" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5233,7 +5192,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="18.75" spans="1:6">
+    <row r="176" ht="17.4" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5245,7 +5204,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="18.75" spans="1:6">
+    <row r="177" ht="17.4" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5257,7 +5216,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="18.75" spans="1:6">
+    <row r="178" ht="17.4" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5269,7 +5228,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="18.75" spans="1:6">
+    <row r="179" ht="17.4" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5281,7 +5240,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="18.75" spans="1:6">
+    <row r="180" ht="17.4" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5293,7 +5252,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="18.75" spans="1:6">
+    <row r="181" ht="17.4" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5305,7 +5264,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="18.75" spans="1:6">
+    <row r="182" ht="17.4" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5317,7 +5276,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="18.75" spans="1:6">
+    <row r="183" ht="17.4" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5329,7 +5288,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="18.75" spans="1:6">
+    <row r="184" ht="17.4" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5341,7 +5300,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="18.75" spans="1:6">
+    <row r="185" ht="17.4" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5353,7 +5312,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="18.75" spans="1:6">
+    <row r="186" ht="17.4" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5365,7 +5324,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="18.75" spans="1:6">
+    <row r="187" ht="17.4" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5377,7 +5336,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="18.75" spans="1:6">
+    <row r="188" ht="17.4" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5389,7 +5348,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="18.75" spans="1:6">
+    <row r="189" ht="17.4" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5401,7 +5360,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="18.75" spans="1:6">
+    <row r="190" ht="17.4" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5413,7 +5372,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="18.75" spans="1:6">
+    <row r="191" ht="17.4" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5425,7 +5384,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="18.75" spans="1:6">
+    <row r="192" ht="17.4" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5437,7 +5396,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="18.75" spans="1:6">
+    <row r="193" ht="17.4" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5449,7 +5408,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="18.75" spans="1:6">
+    <row r="194" ht="17.4" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5461,7 +5420,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="18.75" spans="1:6">
+    <row r="195" ht="17.4" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5473,7 +5432,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="18.75" spans="1:6">
+    <row r="196" ht="17.4" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5485,7 +5444,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="18.75" spans="1:6">
+    <row r="197" ht="17.4" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5497,7 +5456,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="18.75" spans="1:6">
+    <row r="198" ht="17.4" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5509,7 +5468,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="18.75" spans="1:6">
+    <row r="199" ht="17.4" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5521,7 +5480,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="18.75" spans="1:6">
+    <row r="200" ht="17.4" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5533,7 +5492,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="18.75" spans="1:6">
+    <row r="201" ht="17.4" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5545,7 +5504,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="18.75" spans="1:6">
+    <row r="202" ht="17.4" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5557,7 +5516,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="18.75" spans="1:6">
+    <row r="203" ht="17.4" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5569,7 +5528,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="18.75" spans="1:6">
+    <row r="204" ht="17.4" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5581,7 +5540,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="18.75" spans="1:6">
+    <row r="205" ht="17.4" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5593,7 +5552,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="18.75" spans="1:6">
+    <row r="206" ht="17.4" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5605,7 +5564,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="18.75" spans="1:6">
+    <row r="207" ht="17.4" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5617,7 +5576,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="18.75" spans="1:6">
+    <row r="208" ht="17.4" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5629,7 +5588,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="18.75" spans="1:6">
+    <row r="209" ht="17.4" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5641,7 +5600,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="18.75" spans="1:6">
+    <row r="210" ht="17.4" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5653,7 +5612,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="18.75" spans="1:6">
+    <row r="211" ht="17.4" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5665,7 +5624,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="18.75" spans="1:6">
+    <row r="212" ht="17.4" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5677,7 +5636,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="18.75" spans="1:6">
+    <row r="213" ht="17.4" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5689,7 +5648,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="18.75" spans="1:6">
+    <row r="214" ht="17.4" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5701,7 +5660,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="18.75" spans="1:6">
+    <row r="215" ht="17.4" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -5713,7 +5672,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="18.75" spans="1:6">
+    <row r="216" ht="17.4" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -5725,7 +5684,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="18.75" spans="1:6">
+    <row r="217" ht="17.4" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -5737,7 +5696,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="18.75" spans="1:6">
+    <row r="218" ht="17.4" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -5749,7 +5708,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="18.75" spans="1:6">
+    <row r="219" ht="17.4" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -5761,7 +5720,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="18.75" spans="1:6">
+    <row r="220" ht="17.4" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -5773,7 +5732,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="18.75" spans="1:6">
+    <row r="221" ht="17.4" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -5785,7 +5744,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="18.75" spans="1:6">
+    <row r="222" ht="17.4" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -5797,7 +5756,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="18.75" spans="1:6">
+    <row r="223" ht="17.4" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -5809,7 +5768,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="18.75" spans="1:6">
+    <row r="224" ht="17.4" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -5821,7 +5780,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="18.75" spans="1:6">
+    <row r="225" ht="17.4" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -5833,7 +5792,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="18.75" spans="1:6">
+    <row r="226" ht="17.4" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -5845,7 +5804,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="18.75" spans="1:6">
+    <row r="227" ht="17.4" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -5857,7 +5816,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="18.75" spans="1:6">
+    <row r="228" ht="17.4" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -5869,7 +5828,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="18.75" spans="1:6">
+    <row r="229" ht="17.4" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -5881,7 +5840,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="18.75" spans="1:6">
+    <row r="230" ht="17.4" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -5893,7 +5852,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="18.75" spans="1:6">
+    <row r="231" ht="17.4" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -5905,7 +5864,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="18.75" spans="1:6">
+    <row r="232" ht="17.4" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -5917,7 +5876,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="18.75" spans="1:6">
+    <row r="233" ht="17.4" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -5929,7 +5888,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="18.75" spans="1:6">
+    <row r="234" ht="17.4" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -5941,7 +5900,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="18.75" spans="1:6">
+    <row r="235" ht="17.4" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -5953,7 +5912,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="18.75" spans="1:6">
+    <row r="236" ht="17.4" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -5965,7 +5924,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="18.75" spans="1:6">
+    <row r="237" ht="17.4" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -5977,7 +5936,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="18.75" spans="1:6">
+    <row r="238" ht="17.4" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -5989,7 +5948,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="18.75" spans="1:6">
+    <row r="239" ht="17.4" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6001,7 +5960,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="18.75" spans="1:6">
+    <row r="240" ht="17.4" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6013,7 +5972,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="18.75" spans="1:6">
+    <row r="241" ht="17.4" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6025,7 +5984,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="18.75" spans="1:6">
+    <row r="242" ht="17.4" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6037,7 +5996,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="18.75" spans="1:6">
+    <row r="243" ht="17.4" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6049,7 +6008,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="18.75" spans="1:6">
+    <row r="244" ht="17.4" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6061,7 +6020,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="18.75" spans="1:6">
+    <row r="245" ht="17.4" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6073,7 +6032,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="18.75" spans="1:6">
+    <row r="246" ht="17.4" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6085,7 +6044,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="18.75" spans="1:6">
+    <row r="247" ht="17.4" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6097,7 +6056,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="18.75" spans="1:6">
+    <row r="248" ht="17.4" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6109,7 +6068,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="18.75" spans="1:6">
+    <row r="249" ht="17.4" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6121,7 +6080,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="18.75" spans="1:6">
+    <row r="250" ht="17.4" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6133,7 +6092,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="18.75" spans="1:6">
+    <row r="251" ht="17.4" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6145,7 +6104,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="18.75" spans="1:6">
+    <row r="252" ht="17.4" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6157,7 +6116,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="18.75" spans="1:6">
+    <row r="253" ht="17.4" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6169,7 +6128,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="18.75" spans="1:6">
+    <row r="254" ht="17.4" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6181,7 +6140,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="18.75" spans="1:6">
+    <row r="255" ht="17.4" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6193,7 +6152,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="18.75" spans="1:6">
+    <row r="256" ht="17.4" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6205,7 +6164,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="18.75" spans="1:6">
+    <row r="257" ht="17.4" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6217,7 +6176,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="18.75" spans="1:6">
+    <row r="258" ht="17.4" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6229,7 +6188,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="18.75" spans="1:6">
+    <row r="259" ht="17.4" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6241,7 +6200,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="18.75" spans="1:6">
+    <row r="260" ht="17.4" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6253,7 +6212,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="18.75" spans="1:6">
+    <row r="261" ht="17.4" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6265,7 +6224,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="18.75" spans="1:6">
+    <row r="262" ht="17.4" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6277,7 +6236,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="18.75" spans="1:6">
+    <row r="263" ht="17.4" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6289,7 +6248,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="18.75" spans="1:6">
+    <row r="264" ht="17.4" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6301,7 +6260,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="18.75" spans="1:6">
+    <row r="265" ht="17.4" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6313,7 +6272,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="18.75" spans="1:6">
+    <row r="266" ht="17.4" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6325,7 +6284,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="18.75" spans="1:6">
+    <row r="267" ht="17.4" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6337,7 +6296,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="18.75" spans="1:6">
+    <row r="268" ht="17.4" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6349,7 +6308,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="18.75" spans="1:6">
+    <row r="269" ht="17.4" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6361,7 +6320,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="18.75" spans="1:6">
+    <row r="270" ht="17.4" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6373,7 +6332,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="18.75" spans="1:6">
+    <row r="271" ht="17.4" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6385,7 +6344,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="18.75" spans="1:6">
+    <row r="272" ht="17.4" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6397,7 +6356,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="18.75" spans="1:6">
+    <row r="273" ht="17.4" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6409,7 +6368,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="18.75" spans="1:6">
+    <row r="274" ht="17.4" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6421,7 +6380,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="18.75" spans="1:6">
+    <row r="275" ht="17.4" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6433,7 +6392,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="18.75" spans="1:6">
+    <row r="276" ht="17.4" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6445,7 +6404,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="18.75" spans="1:6">
+    <row r="277" ht="17.4" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6457,7 +6416,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="18.75" spans="1:6">
+    <row r="278" ht="17.4" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6469,7 +6428,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="18.75" spans="1:6">
+    <row r="279" ht="17.4" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6481,7 +6440,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="18.75" spans="1:6">
+    <row r="280" ht="17.4" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6493,7 +6452,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="18.75" spans="1:6">
+    <row r="281" ht="17.4" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6505,7 +6464,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="18.75" spans="1:6">
+    <row r="282" ht="17.4" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6517,7 +6476,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="18.75" spans="1:6">
+    <row r="283" ht="17.4" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6529,7 +6488,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="18.75" spans="1:6">
+    <row r="284" ht="17.4" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6541,7 +6500,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="18.75" spans="1:6">
+    <row r="285" ht="17.4" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6553,7 +6512,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="18.75" spans="1:6">
+    <row r="286" ht="17.4" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6565,7 +6524,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="18.75" spans="1:6">
+    <row r="287" ht="17.4" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6577,7 +6536,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="18.75" spans="1:6">
+    <row r="288" ht="17.4" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6589,7 +6548,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="18.75" spans="1:6">
+    <row r="289" ht="17.4" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6601,7 +6560,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="18.75" spans="1:6">
+    <row r="290" ht="17.4" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6613,7 +6572,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="18.75" spans="1:6">
+    <row r="291" ht="17.4" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6625,7 +6584,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="18.75" spans="1:6">
+    <row r="292" ht="17.4" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6637,7 +6596,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="18.75" spans="1:6">
+    <row r="293" ht="17.4" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6649,7 +6608,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="18.75" spans="1:6">
+    <row r="294" ht="17.4" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6661,7 +6620,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="18.75" spans="1:6">
+    <row r="295" ht="17.4" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6673,7 +6632,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="18.75" spans="1:6">
+    <row r="296" ht="17.4" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6685,7 +6644,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="18.75" spans="1:6">
+    <row r="297" ht="17.4" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6697,7 +6656,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="18.75" spans="1:6">
+    <row r="298" ht="17.4" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -6709,7 +6668,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="18.75" spans="1:6">
+    <row r="299" ht="17.4" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -6721,7 +6680,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="18.75" spans="1:6">
+    <row r="300" ht="17.4" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -6733,7 +6692,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="18.75" spans="1:6">
+    <row r="301" ht="17.4" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -6745,7 +6704,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="18.75" spans="1:6">
+    <row r="302" ht="17.4" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -6757,7 +6716,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="18.75" spans="1:6">
+    <row r="303" ht="17.4" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -6769,7 +6728,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="18.75" spans="1:6">
+    <row r="304" ht="17.4" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -6781,7 +6740,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="18.75" spans="1:6">
+    <row r="305" ht="17.4" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -6793,7 +6752,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="18.75" spans="1:6">
+    <row r="306" ht="17.4" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -6805,7 +6764,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="18.75" spans="1:6">
+    <row r="307" ht="17.4" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -6817,7 +6776,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="18.75" spans="1:6">
+    <row r="308" ht="17.4" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -6829,7 +6788,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="18.75" spans="1:6">
+    <row r="309" ht="17.4" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -6841,7 +6800,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="18.75" spans="1:6">
+    <row r="310" ht="17.4" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -6853,7 +6812,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="18.75" spans="1:6">
+    <row r="311" ht="17.4" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -6865,7 +6824,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="18.75" spans="1:6">
+    <row r="312" ht="17.4" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -6877,7 +6836,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="18.75" spans="1:6">
+    <row r="313" ht="17.4" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -6889,7 +6848,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="18.75" spans="1:6">
+    <row r="314" ht="17.4" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -6901,7 +6860,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="18.75" spans="1:6">
+    <row r="315" ht="17.4" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -6913,7 +6872,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="18.75" spans="1:6">
+    <row r="316" ht="17.4" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -6925,7 +6884,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="18.75" spans="1:6">
+    <row r="317" ht="17.4" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -6937,7 +6896,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="18.75" spans="1:6">
+    <row r="318" ht="17.4" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -6949,7 +6908,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="18.75" spans="1:6">
+    <row r="319" ht="17.4" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -6961,7 +6920,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="18.75" spans="1:6">
+    <row r="320" ht="17.4" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -6973,7 +6932,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="18.75" spans="1:6">
+    <row r="321" ht="17.4" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -6985,7 +6944,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="18.75" spans="1:6">
+    <row r="322" ht="17.4" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -6997,7 +6956,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="18.75" spans="1:6">
+    <row r="323" ht="17.4" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7009,7 +6968,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="18.75" spans="1:6">
+    <row r="324" ht="17.4" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7021,7 +6980,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="18.75" spans="1:6">
+    <row r="325" ht="17.4" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7033,7 +6992,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="18.75" spans="1:6">
+    <row r="326" ht="17.4" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7045,7 +7004,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="18.75" spans="1:6">
+    <row r="327" ht="17.4" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7057,7 +7016,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="18.75" spans="1:6">
+    <row r="328" ht="17.4" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7069,7 +7028,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="18.75" spans="1:6">
+    <row r="329" ht="17.4" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7081,7 +7040,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="18.75" spans="1:6">
+    <row r="330" ht="17.4" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7093,7 +7052,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="18.75" spans="1:6">
+    <row r="331" ht="17.4" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7105,7 +7064,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="18.75" spans="1:6">
+    <row r="332" ht="17.4" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7117,7 +7076,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="18.75" spans="1:6">
+    <row r="333" ht="17.4" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7129,7 +7088,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="18.75" spans="1:6">
+    <row r="334" ht="17.4" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7141,7 +7100,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="18.75" spans="1:6">
+    <row r="335" ht="17.4" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7153,7 +7112,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="18.75" spans="1:6">
+    <row r="336" ht="17.4" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7165,7 +7124,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="18.75" spans="1:6">
+    <row r="337" ht="17.4" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7177,7 +7136,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="18.75" spans="1:6">
+    <row r="338" ht="17.4" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7189,7 +7148,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="18.75" spans="1:6">
+    <row r="339" ht="17.4" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7201,7 +7160,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="18.75" spans="1:6">
+    <row r="340" ht="17.4" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7213,7 +7172,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="18.75" spans="1:6">
+    <row r="341" ht="17.4" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7225,7 +7184,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="18.75" spans="1:6">
+    <row r="342" ht="17.4" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7237,7 +7196,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="18.75" spans="1:6">
+    <row r="343" ht="17.4" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7249,7 +7208,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="18.75" spans="1:6">
+    <row r="344" ht="17.4" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7261,7 +7220,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="18.75" spans="1:6">
+    <row r="345" ht="17.4" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7273,7 +7232,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="18.75" spans="1:6">
+    <row r="346" ht="17.4" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7285,7 +7244,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="18.75" spans="1:6">
+    <row r="347" ht="17.4" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7297,7 +7256,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="18.75" spans="1:6">
+    <row r="348" ht="17.4" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7309,7 +7268,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="18.75" spans="1:6">
+    <row r="349" ht="17.4" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7321,7 +7280,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="18.75" spans="1:6">
+    <row r="350" ht="17.4" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7333,7 +7292,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="18.75" spans="1:6">
+    <row r="351" ht="17.4" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7345,7 +7304,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="18.75" spans="1:6">
+    <row r="352" ht="17.4" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7357,7 +7316,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="18.75" spans="1:6">
+    <row r="353" ht="17.4" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7369,7 +7328,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="18.75" spans="1:6">
+    <row r="354" ht="17.4" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7381,7 +7340,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="18.75" spans="1:6">
+    <row r="355" ht="17.4" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7393,7 +7352,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="18.75" spans="1:6">
+    <row r="356" ht="17.4" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7405,7 +7364,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="18.75" spans="1:6">
+    <row r="357" ht="17.4" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7417,7 +7376,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="18.75" spans="1:6">
+    <row r="358" ht="17.4" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7429,7 +7388,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="18.75" spans="1:6">
+    <row r="359" ht="17.4" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7441,7 +7400,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="18.75" spans="1:6">
+    <row r="360" ht="17.4" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7453,7 +7412,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="18.75" spans="1:6">
+    <row r="361" ht="17.4" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7465,7 +7424,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="18.75" spans="1:6">
+    <row r="362" ht="17.4" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7477,7 +7436,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="18.75" spans="1:6">
+    <row r="363" ht="17.4" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7489,7 +7448,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="18.75" spans="1:6">
+    <row r="364" ht="17.4" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7501,7 +7460,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="18.75" spans="1:6">
+    <row r="365" ht="17.4" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7513,7 +7472,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="18.75" spans="1:6">
+    <row r="366" ht="17.4" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="102">
   <si>
     <t>日期</t>
   </si>
@@ -168,6 +168,9 @@
     <t>《逆水寒》2.2.2版本更新</t>
   </si>
   <si>
+    <t>《航海王壮志雄心》公测定档</t>
+  </si>
+  <si>
     <t>《鸣潮》2.0预告</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
     <t>《绝区零》麦当劳联动</t>
   </si>
   <si>
+    <t>《炽焰天堂》半周年版本更新</t>
+  </si>
+  <si>
     <t>《炉石传说》酒馆战旗第9赛季</t>
   </si>
   <si>
@@ -273,7 +279,10 @@
     <t>《无限暖暖》公测</t>
   </si>
   <si>
-    <t>《无限大》一测/预告</t>
+    <t>《无限大》技术性测试预告</t>
+  </si>
+  <si>
+    <t>《少女前线2》日韩服公测</t>
   </si>
   <si>
     <t>《第五人格》模仿者新增角色</t>
@@ -310,6 +319,9 @@
   </si>
   <si>
     <t>《绝区零》1.4版本更新</t>
+  </si>
+  <si>
+    <t>《航海王壮志雄心》公测</t>
   </si>
   <si>
     <t>《绝区零》韩服iphone联动</t>
@@ -1050,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1167,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1681,21 +1708,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
     <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.3796296296296" style="15" customWidth="1"/>
-    <col min="5" max="5" width="54.1296296296296" style="15" customWidth="1"/>
+    <col min="4" max="4" width="44.3833333333333" style="15" customWidth="1"/>
+    <col min="5" max="5" width="54.1333333333333" style="15" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2188,195 +2215,195 @@
       <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8">
+        <v>45620</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
         <v>45621</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="10">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10">
         <v>45622</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="8">
-        <v>45623</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
         <v>45627</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="10">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10">
         <v>45628</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="25">
         <v>45629</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B53" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29" t="s">
+      <c r="C53" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
       <c r="F53" s="4" t="s">
         <v>65</v>
       </c>
@@ -2384,41 +2411,41 @@
     <row r="54" spans="1:6">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
-      <c r="C54" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="C54" s="27"/>
       <c r="D54" s="32"/>
       <c r="E54" s="33"/>
       <c r="F54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
-      <c r="C55" s="27"/>
+      <c r="C55" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="D55" s="32"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="27" t="s">
-        <v>69</v>
-      </c>
+      <c r="C56" s="27"/>
       <c r="D56" s="32"/>
       <c r="E56" s="33"/>
       <c r="F56" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="D57" s="32"/>
       <c r="E57" s="33"/>
       <c r="F57" s="24" t="s">
@@ -2428,19 +2455,19 @@
     <row r="58" spans="1:6">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="27" t="s">
-        <v>72</v>
-      </c>
+      <c r="C58" s="27"/>
       <c r="D58" s="32"/>
       <c r="E58" s="33"/>
       <c r="F58" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="27" t="s">
+        <v>73</v>
+      </c>
       <c r="D59" s="32"/>
       <c r="E59" s="33"/>
       <c r="F59" s="24" t="s">
@@ -2450,76 +2477,76 @@
     <row r="60" spans="1:6">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
-      <c r="C60" s="34" t="s">
-        <v>75</v>
-      </c>
+      <c r="C60" s="27"/>
       <c r="D60" s="32"/>
       <c r="E60" s="33"/>
       <c r="F60" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="10">
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="10">
         <v>45630</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="11" t="s">
+      <c r="C62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="10">
-        <v>45631</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="10">
+        <v>45631</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="19"/>
@@ -2532,97 +2559,89 @@
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="10">
-        <v>45632</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="A71" s="10">
+        <v>45632</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="8">
-        <v>45635</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <v>45636</v>
+        <v>45633</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8">
-        <v>45637</v>
+        <v>45634</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2630,95 +2649,97 @@
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="10">
+      <c r="A75" s="8">
+        <v>45635</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="8">
+        <v>45636</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="8">
+        <v>45637</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="10">
         <v>45638</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="8">
-        <v>45639</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8">
-        <v>45640</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8">
-        <v>45641</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8">
-        <v>45642</v>
+        <v>45639</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8">
-        <v>45643</v>
+        <v>45640</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2727,38 +2748,34 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8">
-        <v>45644</v>
+        <v>45641</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8">
-        <v>45645</v>
+        <v>45642</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2767,34 +2784,40 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <v>46012</v>
+        <v>45644</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <v>45648</v>
+        <v>45645</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="8">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2803,10 +2826,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="8">
-        <v>45650</v>
+        <v>46012</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2815,10 +2838,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="8">
-        <v>45651</v>
+        <v>45648</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -2827,10 +2850,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2839,10 +2862,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <v>45653</v>
+        <v>45650</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2851,10 +2874,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <v>45654</v>
+        <v>45651</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2863,10 +2886,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>45655</v>
+        <v>45652</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2875,10 +2898,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="8">
-        <v>45656</v>
+        <v>45653</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2887,172 +2910,209 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="8">
-        <v>45657</v>
+        <v>45654</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="14.4" spans="1:5">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-    </row>
-    <row r="98" ht="14.4" spans="1:5">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-    </row>
-    <row r="99" ht="14.4" spans="1:5">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-    </row>
-    <row r="100" ht="14.4" spans="1:5">
+    <row r="97" spans="1:6">
+      <c r="A97" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" ht="13.5" spans="1:5">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" ht="14.4" spans="1:5">
+    <row r="101" ht="13.5" spans="1:5">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" ht="14.4" spans="1:5">
+    <row r="102" ht="13.5" spans="1:5">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" ht="14.4" spans="1:5">
+    <row r="103" ht="13.5" spans="1:5">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" ht="14.4" spans="1:5">
+    <row r="104" ht="13.5" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" ht="14.4" spans="1:5">
+    <row r="105" ht="13.5" spans="1:5">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" ht="14.4" spans="1:5">
+    <row r="106" ht="13.5" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" ht="14.4" spans="1:5">
+    <row r="107" ht="13.5" spans="1:5">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" ht="14.4" spans="1:5">
+    <row r="108" ht="13.5" spans="1:5">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
     </row>
+    <row r="109" ht="13.5" spans="1:5">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" ht="13.5" spans="1:5">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" ht="13.5" spans="1:5">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="69">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A78:A80"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B78:B80"/>
     <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D52:D60"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D53:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D78:D80"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E78:E80"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F78:F80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3070,17 +3130,17 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
-    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="7.225" customWidth="1"/>
+    <col min="3" max="3" width="46.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3112,7 +3172,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3124,7 +3184,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="17.4" spans="1:6">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3136,7 +3196,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="17.4" spans="1:6">
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3148,7 +3208,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3160,7 +3220,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3172,7 +3232,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3184,7 +3244,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3196,7 +3256,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3208,7 +3268,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3220,7 +3280,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="17.4" spans="1:6">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3232,7 +3292,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3244,7 +3304,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3256,7 +3316,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3268,7 +3328,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3280,7 +3340,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3292,7 +3352,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:6">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3304,7 +3364,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="17.4" spans="1:6">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3316,7 +3376,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="17.4" spans="1:6">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3328,7 +3388,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="17.4" spans="1:6">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3340,7 +3400,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3352,7 +3412,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3364,7 +3424,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="17.4" spans="1:6">
+    <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3376,7 +3436,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="17.4" spans="1:6">
+    <row r="25" ht="18.75" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3384,13 +3444,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" ht="18.75" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3402,7 +3462,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3414,7 +3474,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" ht="18.75" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3426,7 +3486,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" ht="18.75" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3438,7 +3498,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
+    <row r="30" ht="18.75" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3450,7 +3510,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
+    <row r="31" ht="18.75" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3462,7 +3522,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
+    <row r="32" ht="18.75" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3474,7 +3534,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
+    <row r="33" ht="18.75" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3486,7 +3546,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="17.4" spans="1:6">
+    <row r="34" ht="18.75" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3498,7 +3558,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="17.4" spans="1:6">
+    <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3510,7 +3570,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="17.4" spans="1:6">
+    <row r="36" ht="18.75" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3522,7 +3582,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
+    <row r="37" ht="18.75" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3534,7 +3594,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
+    <row r="38" ht="18.75" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3546,7 +3606,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
+    <row r="39" ht="18.75" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3558,7 +3618,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
+    <row r="40" ht="18.75" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3570,7 +3630,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
+    <row r="41" ht="18.75" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3582,7 +3642,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" ht="18.75" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3594,7 +3654,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" ht="18.75" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3606,7 +3666,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" ht="18.75" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3618,7 +3678,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" ht="18.75" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3630,7 +3690,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" ht="18.75" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3642,7 +3702,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" ht="18.75" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3654,7 +3714,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" ht="18.75" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3666,7 +3726,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" ht="18.75" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -3678,7 +3738,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" ht="18.75" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -3690,7 +3750,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" ht="18.75" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -3702,7 +3762,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18.75" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -3714,7 +3774,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18.75" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -3726,7 +3786,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" ht="18.75" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -3738,7 +3798,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
+    <row r="55" ht="18.75" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -3750,7 +3810,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" ht="18.75" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -3762,7 +3822,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" ht="18.75" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -3770,13 +3830,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
+    <row r="58" ht="18.75" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -3788,7 +3848,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
+    <row r="59" ht="18.75" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -3800,7 +3860,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
+    <row r="60" ht="18.75" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -3812,7 +3872,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
+    <row r="61" ht="18.75" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -3824,7 +3884,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
+    <row r="62" ht="18.75" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -3836,7 +3896,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
+    <row r="63" ht="18.75" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -3848,7 +3908,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="17.4" spans="1:6">
+    <row r="64" ht="18.75" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -3860,7 +3920,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="17.4" spans="1:6">
+    <row r="65" ht="18.75" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -3872,7 +3932,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
+    <row r="66" ht="18.75" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -3884,7 +3944,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="17.4" spans="1:6">
+    <row r="67" ht="18.75" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -3896,7 +3956,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="17.4" spans="1:6">
+    <row r="68" ht="18.75" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -3908,7 +3968,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" ht="18.75" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -3920,7 +3980,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" ht="18.75" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -3932,7 +3992,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" ht="18.75" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -3944,7 +4004,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" ht="18.75" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -3956,7 +4016,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" ht="18.75" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -3968,7 +4028,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" ht="18.75" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -3980,7 +4040,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" ht="18.75" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -3992,7 +4052,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" ht="18.75" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4004,7 +4064,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" ht="18.75" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4016,7 +4076,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" ht="18.75" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4028,7 +4088,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" ht="18.75" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4040,7 +4100,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
+    <row r="80" ht="18.75" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4052,7 +4112,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
+    <row r="81" ht="18.75" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4064,7 +4124,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="17.4" spans="1:6">
+    <row r="82" ht="18.75" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4076,7 +4136,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="17.4" spans="1:6">
+    <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4088,7 +4148,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
+    <row r="84" ht="18.75" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4100,7 +4160,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="17.4" spans="1:6">
+    <row r="85" ht="18.75" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4112,7 +4172,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="17.4" spans="1:6">
+    <row r="86" ht="18.75" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4124,7 +4184,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="17.4" spans="1:6">
+    <row r="87" ht="18.75" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4136,7 +4196,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="17.4" spans="1:6">
+    <row r="88" ht="18.75" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4148,7 +4208,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="17.4" spans="1:6">
+    <row r="89" ht="18.75" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4160,7 +4220,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="17.4" spans="1:6">
+    <row r="90" ht="18.75" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4172,7 +4232,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="17.4" spans="1:6">
+    <row r="91" ht="18.75" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4184,7 +4244,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="17.4" spans="1:6">
+    <row r="92" ht="18.75" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4196,7 +4256,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
+    <row r="93" ht="18.75" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4208,7 +4268,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="17.4" spans="1:6">
+    <row r="94" ht="18.75" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4220,7 +4280,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="17.4" spans="1:6">
+    <row r="95" ht="18.75" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4232,7 +4292,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="17.4" spans="1:6">
+    <row r="96" ht="18.75" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4244,7 +4304,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17.4" spans="1:6">
+    <row r="97" ht="18.75" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4256,7 +4316,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
+    <row r="98" ht="18.75" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4268,7 +4328,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="17.4" spans="1:6">
+    <row r="99" ht="18.75" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4280,7 +4340,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="17.4" spans="1:6">
+    <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4292,7 +4352,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
+    <row r="101" ht="18.75" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4304,7 +4364,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="17.4" spans="1:6">
+    <row r="102" ht="18.75" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4316,7 +4376,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="17.4" spans="1:6">
+    <row r="103" ht="18.75" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4328,7 +4388,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="17.4" spans="1:6">
+    <row r="104" ht="18.75" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4340,7 +4400,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="17.4" spans="1:6">
+    <row r="105" ht="18.75" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4352,7 +4412,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
+    <row r="106" ht="18.75" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4364,7 +4424,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="17.4" spans="1:6">
+    <row r="107" ht="18.75" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4376,7 +4436,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
+    <row r="108" ht="18.75" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4388,7 +4448,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="17.4" spans="1:6">
+    <row r="109" ht="18.75" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4400,7 +4460,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="17.4" spans="1:6">
+    <row r="110" ht="18.75" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4412,7 +4472,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="17.4" spans="1:6">
+    <row r="111" ht="18.75" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4424,7 +4484,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="17.4" spans="1:6">
+    <row r="112" ht="18.75" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4436,7 +4496,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="17.4" spans="1:6">
+    <row r="113" ht="18.75" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4448,7 +4508,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="17.4" spans="1:6">
+    <row r="114" ht="18.75" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4460,7 +4520,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="17.4" spans="1:6">
+    <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4472,7 +4532,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
+    <row r="116" ht="18.75" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4484,7 +4544,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="17.4" spans="1:6">
+    <row r="117" ht="18.75" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4496,7 +4556,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="17.4" spans="1:6">
+    <row r="118" ht="18.75" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4508,7 +4568,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="17.4" spans="1:6">
+    <row r="119" ht="18.75" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4520,7 +4580,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="17.4" spans="1:6">
+    <row r="120" ht="18.75" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4532,7 +4592,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18.75" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4544,7 +4604,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="17.4" spans="1:6">
+    <row r="122" ht="18.75" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4556,7 +4616,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="17.4" spans="1:6">
+    <row r="123" ht="18.75" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4568,7 +4628,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
+    <row r="124" ht="18.75" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4580,7 +4640,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="17.4" spans="1:6">
+    <row r="125" ht="18.75" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4592,7 +4652,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="17.4" spans="1:6">
+    <row r="126" ht="18.75" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4604,7 +4664,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="17.4" spans="1:6">
+    <row r="127" ht="18.75" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4616,7 +4676,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="17.4" spans="1:6">
+    <row r="128" ht="18.75" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4628,7 +4688,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="17.4" spans="1:6">
+    <row r="129" ht="18.75" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4640,7 +4700,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="17.4" spans="1:6">
+    <row r="130" ht="18.75" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4652,7 +4712,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="17.4" spans="1:6">
+    <row r="131" ht="18.75" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4664,7 +4724,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
+    <row r="132" ht="18.75" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -4676,7 +4736,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
+    <row r="133" ht="18.75" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -4688,7 +4748,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
+    <row r="134" ht="18.75" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -4700,7 +4760,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
+    <row r="135" ht="18.75" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -4712,7 +4772,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
+    <row r="136" ht="18.75" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -4724,7 +4784,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18.75" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -4736,7 +4796,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18.75" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -4748,7 +4808,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18.75" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -4760,7 +4820,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18.75" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -4772,7 +4832,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18.75" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -4784,7 +4844,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
+    <row r="142" ht="18.75" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -4796,7 +4856,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18.75" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -4808,7 +4868,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="17.4" spans="1:6">
+    <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -4820,7 +4880,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
+    <row r="145" ht="18.75" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -4832,7 +4892,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="17.4" spans="1:6">
+    <row r="146" ht="18.75" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -4844,7 +4904,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="17.4" spans="1:6">
+    <row r="147" ht="18.75" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -4856,7 +4916,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="17.4" spans="1:6">
+    <row r="148" ht="18.75" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -4868,7 +4928,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="17.4" spans="1:6">
+    <row r="149" ht="18.75" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -4880,7 +4940,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="17.4" spans="1:6">
+    <row r="150" ht="18.75" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -4892,7 +4952,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="17.4" spans="1:6">
+    <row r="151" ht="18.75" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -4904,7 +4964,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="17.4" spans="1:6">
+    <row r="152" ht="18.75" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -4916,7 +4976,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="17.4" spans="1:6">
+    <row r="153" ht="18.75" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -4928,7 +4988,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="17.4" spans="1:6">
+    <row r="154" ht="18.75" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -4940,7 +5000,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="17.4" spans="1:6">
+    <row r="155" ht="18.75" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -4952,7 +5012,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="17.4" spans="1:6">
+    <row r="156" ht="18.75" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -4964,7 +5024,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
+    <row r="157" ht="18.75" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -4976,7 +5036,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
+    <row r="158" ht="18.75" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -4988,7 +5048,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="17.4" spans="1:6">
+    <row r="159" ht="18.75" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5000,7 +5060,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="17.4" spans="1:6">
+    <row r="160" ht="18.75" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5012,7 +5072,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
+    <row r="161" ht="18.75" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5024,7 +5084,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="17.4" spans="1:6">
+    <row r="162" ht="18.75" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5036,7 +5096,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="17.4" spans="1:6">
+    <row r="163" ht="18.75" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5048,7 +5108,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="17.4" spans="1:6">
+    <row r="164" ht="18.75" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5060,7 +5120,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="17.4" spans="1:6">
+    <row r="165" ht="18.75" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5072,7 +5132,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="17.4" spans="1:6">
+    <row r="166" ht="18.75" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5084,7 +5144,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="17.4" spans="1:6">
+    <row r="167" ht="18.75" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5096,7 +5156,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="17.4" spans="1:6">
+    <row r="168" ht="18.75" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5108,7 +5168,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="17.4" spans="1:6">
+    <row r="169" ht="18.75" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5120,7 +5180,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="17.4" spans="1:6">
+    <row r="170" ht="18.75" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5132,7 +5192,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="17.4" spans="1:6">
+    <row r="171" ht="18.75" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5144,7 +5204,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="17.4" spans="1:6">
+    <row r="172" ht="18.75" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5156,7 +5216,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="17.4" spans="1:6">
+    <row r="173" ht="18.75" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5168,7 +5228,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="17.4" spans="1:6">
+    <row r="174" ht="18.75" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5180,7 +5240,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="17.4" spans="1:6">
+    <row r="175" ht="18.75" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5192,7 +5252,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="17.4" spans="1:6">
+    <row r="176" ht="18.75" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5204,7 +5264,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="17.4" spans="1:6">
+    <row r="177" ht="18.75" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5216,7 +5276,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="17.4" spans="1:6">
+    <row r="178" ht="18.75" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5228,7 +5288,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="17.4" spans="1:6">
+    <row r="179" ht="18.75" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5240,7 +5300,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="17.4" spans="1:6">
+    <row r="180" ht="18.75" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5252,7 +5312,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="17.4" spans="1:6">
+    <row r="181" ht="18.75" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5264,7 +5324,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="17.4" spans="1:6">
+    <row r="182" ht="18.75" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5276,7 +5336,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="17.4" spans="1:6">
+    <row r="183" ht="18.75" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5288,7 +5348,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="17.4" spans="1:6">
+    <row r="184" ht="18.75" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5300,7 +5360,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="17.4" spans="1:6">
+    <row r="185" ht="18.75" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5312,7 +5372,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="17.4" spans="1:6">
+    <row r="186" ht="18.75" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5324,7 +5384,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="17.4" spans="1:6">
+    <row r="187" ht="18.75" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5336,7 +5396,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="17.4" spans="1:6">
+    <row r="188" ht="18.75" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5348,7 +5408,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="17.4" spans="1:6">
+    <row r="189" ht="18.75" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5360,7 +5420,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="17.4" spans="1:6">
+    <row r="190" ht="18.75" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5372,7 +5432,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="17.4" spans="1:6">
+    <row r="191" ht="18.75" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5384,7 +5444,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="17.4" spans="1:6">
+    <row r="192" ht="18.75" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5396,7 +5456,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="17.4" spans="1:6">
+    <row r="193" ht="18.75" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5408,7 +5468,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="17.4" spans="1:6">
+    <row r="194" ht="18.75" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5420,7 +5480,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="17.4" spans="1:6">
+    <row r="195" ht="18.75" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5432,7 +5492,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="17.4" spans="1:6">
+    <row r="196" ht="18.75" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5444,7 +5504,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="17.4" spans="1:6">
+    <row r="197" ht="18.75" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5456,7 +5516,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="17.4" spans="1:6">
+    <row r="198" ht="18.75" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5468,7 +5528,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="17.4" spans="1:6">
+    <row r="199" ht="18.75" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5480,7 +5540,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="17.4" spans="1:6">
+    <row r="200" ht="18.75" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5492,7 +5552,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="17.4" spans="1:6">
+    <row r="201" ht="18.75" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5504,7 +5564,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="17.4" spans="1:6">
+    <row r="202" ht="18.75" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5516,7 +5576,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="17.4" spans="1:6">
+    <row r="203" ht="18.75" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5528,7 +5588,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="17.4" spans="1:6">
+    <row r="204" ht="18.75" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5540,7 +5600,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="17.4" spans="1:6">
+    <row r="205" ht="18.75" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5552,7 +5612,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="17.4" spans="1:6">
+    <row r="206" ht="18.75" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5564,7 +5624,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="17.4" spans="1:6">
+    <row r="207" ht="18.75" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5576,7 +5636,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="17.4" spans="1:6">
+    <row r="208" ht="18.75" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5588,7 +5648,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="17.4" spans="1:6">
+    <row r="209" ht="18.75" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5600,7 +5660,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="17.4" spans="1:6">
+    <row r="210" ht="18.75" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5612,7 +5672,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="17.4" spans="1:6">
+    <row r="211" ht="18.75" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5624,7 +5684,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="17.4" spans="1:6">
+    <row r="212" ht="18.75" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5636,7 +5696,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="17.4" spans="1:6">
+    <row r="213" ht="18.75" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5648,7 +5708,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="17.4" spans="1:6">
+    <row r="214" ht="18.75" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5660,7 +5720,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="17.4" spans="1:6">
+    <row r="215" ht="18.75" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -5672,7 +5732,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="17.4" spans="1:6">
+    <row r="216" ht="18.75" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -5684,7 +5744,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="17.4" spans="1:6">
+    <row r="217" ht="18.75" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -5696,7 +5756,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="17.4" spans="1:6">
+    <row r="218" ht="18.75" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -5708,7 +5768,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="17.4" spans="1:6">
+    <row r="219" ht="18.75" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -5720,7 +5780,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="17.4" spans="1:6">
+    <row r="220" ht="18.75" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -5732,7 +5792,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="17.4" spans="1:6">
+    <row r="221" ht="18.75" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -5744,7 +5804,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="17.4" spans="1:6">
+    <row r="222" ht="18.75" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -5756,7 +5816,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="17.4" spans="1:6">
+    <row r="223" ht="18.75" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -5768,7 +5828,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="17.4" spans="1:6">
+    <row r="224" ht="18.75" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -5780,7 +5840,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="17.4" spans="1:6">
+    <row r="225" ht="18.75" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -5792,7 +5852,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="17.4" spans="1:6">
+    <row r="226" ht="18.75" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -5804,7 +5864,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="17.4" spans="1:6">
+    <row r="227" ht="18.75" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -5816,7 +5876,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="17.4" spans="1:6">
+    <row r="228" ht="18.75" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -5828,7 +5888,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="17.4" spans="1:6">
+    <row r="229" ht="18.75" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -5840,7 +5900,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="17.4" spans="1:6">
+    <row r="230" ht="18.75" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -5852,7 +5912,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="17.4" spans="1:6">
+    <row r="231" ht="18.75" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -5864,7 +5924,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="17.4" spans="1:6">
+    <row r="232" ht="18.75" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -5876,7 +5936,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="17.4" spans="1:6">
+    <row r="233" ht="18.75" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -5888,7 +5948,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="17.4" spans="1:6">
+    <row r="234" ht="18.75" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -5900,7 +5960,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="17.4" spans="1:6">
+    <row r="235" ht="18.75" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -5912,7 +5972,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="17.4" spans="1:6">
+    <row r="236" ht="18.75" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -5924,7 +5984,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="17.4" spans="1:6">
+    <row r="237" ht="18.75" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -5936,7 +5996,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="17.4" spans="1:6">
+    <row r="238" ht="18.75" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -5948,7 +6008,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="17.4" spans="1:6">
+    <row r="239" ht="18.75" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -5960,7 +6020,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="17.4" spans="1:6">
+    <row r="240" ht="18.75" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -5972,7 +6032,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="17.4" spans="1:6">
+    <row r="241" ht="18.75" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -5984,7 +6044,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="17.4" spans="1:6">
+    <row r="242" ht="18.75" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -5996,7 +6056,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="17.4" spans="1:6">
+    <row r="243" ht="18.75" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6008,7 +6068,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="17.4" spans="1:6">
+    <row r="244" ht="18.75" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6020,7 +6080,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="17.4" spans="1:6">
+    <row r="245" ht="18.75" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6032,7 +6092,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="17.4" spans="1:6">
+    <row r="246" ht="18.75" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6044,7 +6104,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="17.4" spans="1:6">
+    <row r="247" ht="18.75" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6056,7 +6116,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="17.4" spans="1:6">
+    <row r="248" ht="18.75" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6068,7 +6128,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="17.4" spans="1:6">
+    <row r="249" ht="18.75" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6080,7 +6140,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="17.4" spans="1:6">
+    <row r="250" ht="18.75" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6092,7 +6152,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="17.4" spans="1:6">
+    <row r="251" ht="18.75" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6104,7 +6164,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="17.4" spans="1:6">
+    <row r="252" ht="18.75" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6116,7 +6176,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="17.4" spans="1:6">
+    <row r="253" ht="18.75" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6128,7 +6188,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="17.4" spans="1:6">
+    <row r="254" ht="18.75" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6140,7 +6200,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="17.4" spans="1:6">
+    <row r="255" ht="18.75" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6152,7 +6212,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="17.4" spans="1:6">
+    <row r="256" ht="18.75" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6164,7 +6224,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="17.4" spans="1:6">
+    <row r="257" ht="18.75" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6176,7 +6236,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="17.4" spans="1:6">
+    <row r="258" ht="18.75" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6188,7 +6248,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="17.4" spans="1:6">
+    <row r="259" ht="18.75" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6200,7 +6260,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="17.4" spans="1:6">
+    <row r="260" ht="18.75" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6212,7 +6272,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="17.4" spans="1:6">
+    <row r="261" ht="18.75" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6224,7 +6284,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="17.4" spans="1:6">
+    <row r="262" ht="18.75" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6236,7 +6296,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="17.4" spans="1:6">
+    <row r="263" ht="18.75" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6248,7 +6308,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="17.4" spans="1:6">
+    <row r="264" ht="18.75" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6260,7 +6320,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="17.4" spans="1:6">
+    <row r="265" ht="18.75" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6272,7 +6332,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="17.4" spans="1:6">
+    <row r="266" ht="18.75" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6284,7 +6344,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="17.4" spans="1:6">
+    <row r="267" ht="18.75" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6296,7 +6356,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="17.4" spans="1:6">
+    <row r="268" ht="18.75" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6308,7 +6368,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="17.4" spans="1:6">
+    <row r="269" ht="18.75" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6320,7 +6380,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="17.4" spans="1:6">
+    <row r="270" ht="18.75" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6332,7 +6392,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="17.4" spans="1:6">
+    <row r="271" ht="18.75" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6344,7 +6404,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="17.4" spans="1:6">
+    <row r="272" ht="18.75" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6356,7 +6416,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="17.4" spans="1:6">
+    <row r="273" ht="18.75" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6368,7 +6428,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="17.4" spans="1:6">
+    <row r="274" ht="18.75" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6380,7 +6440,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="17.4" spans="1:6">
+    <row r="275" ht="18.75" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6392,7 +6452,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="17.4" spans="1:6">
+    <row r="276" ht="18.75" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6404,7 +6464,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="17.4" spans="1:6">
+    <row r="277" ht="18.75" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6416,7 +6476,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="17.4" spans="1:6">
+    <row r="278" ht="18.75" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6428,7 +6488,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="17.4" spans="1:6">
+    <row r="279" ht="18.75" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6440,7 +6500,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="17.4" spans="1:6">
+    <row r="280" ht="18.75" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6452,7 +6512,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="17.4" spans="1:6">
+    <row r="281" ht="18.75" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6464,7 +6524,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="17.4" spans="1:6">
+    <row r="282" ht="18.75" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6476,7 +6536,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="17.4" spans="1:6">
+    <row r="283" ht="18.75" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6488,7 +6548,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="17.4" spans="1:6">
+    <row r="284" ht="18.75" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6500,7 +6560,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="17.4" spans="1:6">
+    <row r="285" ht="18.75" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6512,7 +6572,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="17.4" spans="1:6">
+    <row r="286" ht="18.75" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6524,7 +6584,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="17.4" spans="1:6">
+    <row r="287" ht="18.75" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6536,7 +6596,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="17.4" spans="1:6">
+    <row r="288" ht="18.75" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6548,7 +6608,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="17.4" spans="1:6">
+    <row r="289" ht="18.75" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6560,7 +6620,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="17.4" spans="1:6">
+    <row r="290" ht="18.75" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6572,7 +6632,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="17.4" spans="1:6">
+    <row r="291" ht="18.75" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6584,7 +6644,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="17.4" spans="1:6">
+    <row r="292" ht="18.75" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6596,7 +6656,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="17.4" spans="1:6">
+    <row r="293" ht="18.75" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6608,7 +6668,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="17.4" spans="1:6">
+    <row r="294" ht="18.75" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6620,7 +6680,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="17.4" spans="1:6">
+    <row r="295" ht="18.75" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6632,7 +6692,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="17.4" spans="1:6">
+    <row r="296" ht="18.75" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6644,7 +6704,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="17.4" spans="1:6">
+    <row r="297" ht="18.75" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6656,7 +6716,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="17.4" spans="1:6">
+    <row r="298" ht="18.75" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -6668,7 +6728,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="17.4" spans="1:6">
+    <row r="299" ht="18.75" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -6680,7 +6740,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="17.4" spans="1:6">
+    <row r="300" ht="18.75" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -6692,7 +6752,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="17.4" spans="1:6">
+    <row r="301" ht="18.75" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -6704,7 +6764,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="17.4" spans="1:6">
+    <row r="302" ht="18.75" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -6716,7 +6776,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="17.4" spans="1:6">
+    <row r="303" ht="18.75" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -6728,7 +6788,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="17.4" spans="1:6">
+    <row r="304" ht="18.75" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -6740,7 +6800,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="17.4" spans="1:6">
+    <row r="305" ht="18.75" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -6752,7 +6812,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="17.4" spans="1:6">
+    <row r="306" ht="18.75" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -6764,7 +6824,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="17.4" spans="1:6">
+    <row r="307" ht="18.75" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -6776,7 +6836,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="17.4" spans="1:6">
+    <row r="308" ht="18.75" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -6788,7 +6848,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="17.4" spans="1:6">
+    <row r="309" ht="18.75" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -6800,7 +6860,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="17.4" spans="1:6">
+    <row r="310" ht="18.75" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -6812,7 +6872,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="17.4" spans="1:6">
+    <row r="311" ht="18.75" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -6824,7 +6884,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="17.4" spans="1:6">
+    <row r="312" ht="18.75" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -6836,7 +6896,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="17.4" spans="1:6">
+    <row r="313" ht="18.75" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -6848,7 +6908,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="17.4" spans="1:6">
+    <row r="314" ht="18.75" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -6860,7 +6920,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="17.4" spans="1:6">
+    <row r="315" ht="18.75" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -6872,7 +6932,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="17.4" spans="1:6">
+    <row r="316" ht="18.75" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -6884,7 +6944,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="17.4" spans="1:6">
+    <row r="317" ht="18.75" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -6896,7 +6956,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="17.4" spans="1:6">
+    <row r="318" ht="18.75" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -6908,7 +6968,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="17.4" spans="1:6">
+    <row r="319" ht="18.75" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -6920,7 +6980,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="17.4" spans="1:6">
+    <row r="320" ht="18.75" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -6932,7 +6992,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="17.4" spans="1:6">
+    <row r="321" ht="18.75" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -6944,7 +7004,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="17.4" spans="1:6">
+    <row r="322" ht="18.75" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -6956,7 +7016,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="17.4" spans="1:6">
+    <row r="323" ht="18.75" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -6968,7 +7028,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="17.4" spans="1:6">
+    <row r="324" ht="18.75" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -6980,7 +7040,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="17.4" spans="1:6">
+    <row r="325" ht="18.75" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -6992,7 +7052,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="17.4" spans="1:6">
+    <row r="326" ht="18.75" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7004,7 +7064,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="17.4" spans="1:6">
+    <row r="327" ht="18.75" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7016,7 +7076,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="17.4" spans="1:6">
+    <row r="328" ht="18.75" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7028,7 +7088,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="17.4" spans="1:6">
+    <row r="329" ht="18.75" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7040,7 +7100,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="17.4" spans="1:6">
+    <row r="330" ht="18.75" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7052,7 +7112,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="17.4" spans="1:6">
+    <row r="331" ht="18.75" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7064,7 +7124,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="17.4" spans="1:6">
+    <row r="332" ht="18.75" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7076,7 +7136,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="17.4" spans="1:6">
+    <row r="333" ht="18.75" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7088,7 +7148,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="17.4" spans="1:6">
+    <row r="334" ht="18.75" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7100,7 +7160,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="17.4" spans="1:6">
+    <row r="335" ht="18.75" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7112,7 +7172,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="17.4" spans="1:6">
+    <row r="336" ht="18.75" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7124,7 +7184,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="17.4" spans="1:6">
+    <row r="337" ht="18.75" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7136,7 +7196,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="17.4" spans="1:6">
+    <row r="338" ht="18.75" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7148,7 +7208,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="17.4" spans="1:6">
+    <row r="339" ht="18.75" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7160,7 +7220,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="17.4" spans="1:6">
+    <row r="340" ht="18.75" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7172,7 +7232,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="17.4" spans="1:6">
+    <row r="341" ht="18.75" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7184,7 +7244,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="17.4" spans="1:6">
+    <row r="342" ht="18.75" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7196,7 +7256,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="17.4" spans="1:6">
+    <row r="343" ht="18.75" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7208,7 +7268,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="17.4" spans="1:6">
+    <row r="344" ht="18.75" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7220,7 +7280,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="17.4" spans="1:6">
+    <row r="345" ht="18.75" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7232,7 +7292,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="17.4" spans="1:6">
+    <row r="346" ht="18.75" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7244,7 +7304,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="17.4" spans="1:6">
+    <row r="347" ht="18.75" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7256,7 +7316,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="17.4" spans="1:6">
+    <row r="348" ht="18.75" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7268,7 +7328,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="17.4" spans="1:6">
+    <row r="349" ht="18.75" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7280,7 +7340,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="17.4" spans="1:6">
+    <row r="350" ht="18.75" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7292,7 +7352,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="17.4" spans="1:6">
+    <row r="351" ht="18.75" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7304,7 +7364,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="17.4" spans="1:6">
+    <row r="352" ht="18.75" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7316,7 +7376,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="17.4" spans="1:6">
+    <row r="353" ht="18.75" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7328,7 +7388,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="17.4" spans="1:6">
+    <row r="354" ht="18.75" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7340,7 +7400,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="17.4" spans="1:6">
+    <row r="355" ht="18.75" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7352,7 +7412,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="17.4" spans="1:6">
+    <row r="356" ht="18.75" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7364,7 +7424,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="17.4" spans="1:6">
+    <row r="357" ht="18.75" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7376,7 +7436,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="17.4" spans="1:6">
+    <row r="358" ht="18.75" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7388,7 +7448,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="17.4" spans="1:6">
+    <row r="359" ht="18.75" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7400,7 +7460,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="17.4" spans="1:6">
+    <row r="360" ht="18.75" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7412,7 +7472,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="17.4" spans="1:6">
+    <row r="361" ht="18.75" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7424,7 +7484,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="17.4" spans="1:6">
+    <row r="362" ht="18.75" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7436,7 +7496,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="17.4" spans="1:6">
+    <row r="363" ht="18.75" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7448,7 +7508,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="17.4" spans="1:6">
+    <row r="364" ht="18.75" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7460,7 +7520,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="17.4" spans="1:6">
+    <row r="365" ht="18.75" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7472,7 +7532,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="17.4" spans="1:6">
+    <row r="366" ht="18.75" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="104">
   <si>
     <t>日期</t>
   </si>
@@ -279,7 +279,7 @@
     <t>《无限暖暖》公测</t>
   </si>
   <si>
-    <t>《无限大》技术性测试预告</t>
+    <t>《无限大》技术性测试招募开启</t>
   </si>
   <si>
     <t>《少女前线2》日韩服公测</t>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>《少女前线》正式停服</t>
+  </si>
+  <si>
+    <t>《无限大》线下技术性测试</t>
+  </si>
+  <si>
+    <t>《无限大》线下技术性测试结束</t>
   </si>
   <si>
     <t>《白夜极光》正式停服</t>
@@ -1062,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,21 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1711,18 +1702,18 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
     <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.3833333333333" style="15" customWidth="1"/>
-    <col min="5" max="5" width="54.1333333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="44.3796296296296" style="15" customWidth="1"/>
+    <col min="5" max="5" width="54.1296296296296" style="15" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2506,21 +2497,21 @@
       <c r="C62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="19"/>
@@ -2958,84 +2949,84 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="13.5" spans="1:5">
+    <row r="100" ht="14.4" spans="1:5">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" ht="13.5" spans="1:5">
+    <row r="101" ht="14.4" spans="1:5">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" ht="13.5" spans="1:5">
+    <row r="102" ht="14.4" spans="1:5">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" ht="13.5" spans="1:5">
+    <row r="103" ht="14.4" spans="1:5">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" ht="13.5" spans="1:5">
+    <row r="104" ht="14.4" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" ht="13.5" spans="1:5">
+    <row r="105" ht="14.4" spans="1:5">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" ht="13.5" spans="1:5">
+    <row r="106" ht="14.4" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" ht="13.5" spans="1:5">
+    <row r="107" ht="14.4" spans="1:5">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" ht="13.5" spans="1:5">
+    <row r="108" ht="14.4" spans="1:5">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" ht="13.5" spans="1:5">
+    <row r="109" ht="14.4" spans="1:5">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" ht="13.5" spans="1:5">
+    <row r="110" ht="14.4" spans="1:5">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" ht="13.5" spans="1:5">
+    <row r="111" ht="14.4" spans="1:5">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -3127,20 +3118,20 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.225" customWidth="1"/>
-    <col min="3" max="3" width="46.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3172,7 +3163,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="17.4" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3184,31 +3175,35 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="17.4" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="17.4" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="17.4" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3220,7 +3215,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" ht="17.4" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3232,7 +3227,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" ht="17.4" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3244,7 +3239,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" ht="17.4" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3256,7 +3251,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3268,7 +3263,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3280,7 +3275,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" ht="17.4" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3292,7 +3287,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3304,7 +3299,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" ht="17.4" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3316,7 +3311,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" ht="17.4" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3328,7 +3323,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" ht="17.4" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3340,7 +3335,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" ht="17.4" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3352,7 +3347,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" ht="17.4" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3364,7 +3359,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" ht="17.4" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3376,7 +3371,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" ht="17.4" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3388,7 +3383,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" ht="17.4" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3400,7 +3395,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" ht="17.4" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3412,7 +3407,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" ht="17.4" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3424,7 +3419,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="18.75" spans="1:6">
+    <row r="24" ht="17.4" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3436,7 +3431,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:6">
+    <row r="25" ht="17.4" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3444,13 +3439,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="18.75" spans="1:6">
+    <row r="26" ht="17.4" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3462,7 +3457,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:6">
+    <row r="27" ht="17.4" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3474,7 +3469,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="1:6">
+    <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3486,7 +3481,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="17.4" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3498,7 +3493,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="17.4" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3510,7 +3505,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="17.4" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3522,7 +3517,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="17.4" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3534,7 +3529,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:6">
+    <row r="33" ht="17.4" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3546,7 +3541,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="18.75" spans="1:6">
+    <row r="34" ht="17.4" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3558,7 +3553,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="18.75" spans="1:6">
+    <row r="35" ht="17.4" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3570,7 +3565,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="18.75" spans="1:6">
+    <row r="36" ht="17.4" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3582,7 +3577,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="18.75" spans="1:6">
+    <row r="37" ht="17.4" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3594,7 +3589,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="18.75" spans="1:6">
+    <row r="38" ht="17.4" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3606,7 +3601,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="18.75" spans="1:6">
+    <row r="39" ht="17.4" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3618,7 +3613,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18.75" spans="1:6">
+    <row r="40" ht="17.4" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3630,7 +3625,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="18.75" spans="1:6">
+    <row r="41" ht="17.4" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3642,7 +3637,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="18.75" spans="1:6">
+    <row r="42" ht="17.4" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3654,7 +3649,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="18.75" spans="1:6">
+    <row r="43" ht="17.4" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3666,7 +3661,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="18.75" spans="1:6">
+    <row r="44" ht="17.4" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3678,7 +3673,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="18.75" spans="1:6">
+    <row r="45" ht="17.4" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3690,7 +3685,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="18.75" spans="1:6">
+    <row r="46" ht="17.4" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3702,7 +3697,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="18.75" spans="1:6">
+    <row r="47" ht="17.4" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3714,7 +3709,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="18.75" spans="1:6">
+    <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3726,7 +3721,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="18.75" spans="1:6">
+    <row r="49" ht="17.4" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -3738,7 +3733,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="18.75" spans="1:6">
+    <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -3750,7 +3745,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="17.4" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -3762,7 +3757,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="17.4" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -3774,7 +3769,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="17.4" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -3786,7 +3781,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="18.75" spans="1:6">
+    <row r="54" ht="17.4" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -3798,7 +3793,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="18.75" spans="1:6">
+    <row r="55" ht="17.4" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -3810,7 +3805,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="18.75" spans="1:6">
+    <row r="56" ht="17.4" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -3822,7 +3817,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="18.75" spans="1:6">
+    <row r="57" ht="17.4" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -3830,13 +3825,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="18.75" spans="1:6">
+    <row r="58" ht="17.4" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -3848,7 +3843,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="18.75" spans="1:6">
+    <row r="59" ht="17.4" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -3860,7 +3855,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18.75" spans="1:6">
+    <row r="60" ht="17.4" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -3872,7 +3867,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18.75" spans="1:6">
+    <row r="61" ht="17.4" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -3884,7 +3879,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="18.75" spans="1:6">
+    <row r="62" ht="17.4" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -3896,7 +3891,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="18.75" spans="1:6">
+    <row r="63" ht="17.4" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -3908,7 +3903,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="18.75" spans="1:6">
+    <row r="64" ht="17.4" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -3920,7 +3915,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="18.75" spans="1:6">
+    <row r="65" ht="17.4" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -3932,7 +3927,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="18.75" spans="1:6">
+    <row r="66" ht="17.4" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -3944,7 +3939,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="18.75" spans="1:6">
+    <row r="67" ht="17.4" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -3956,7 +3951,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="18.75" spans="1:6">
+    <row r="68" ht="17.4" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -3968,7 +3963,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="18.75" spans="1:6">
+    <row r="69" ht="17.4" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -3980,7 +3975,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="17.4" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -3992,7 +3987,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="17.4" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -4004,7 +3999,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="17.4" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4016,7 +4011,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="17.4" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4028,7 +4023,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="18.75" spans="1:6">
+    <row r="74" ht="17.4" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4040,7 +4035,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="18.75" spans="1:6">
+    <row r="75" ht="17.4" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4052,7 +4047,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="18.75" spans="1:6">
+    <row r="76" ht="17.4" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4064,7 +4059,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="18.75" spans="1:6">
+    <row r="77" ht="17.4" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4076,7 +4071,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="18.75" spans="1:6">
+    <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4088,7 +4083,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="18.75" spans="1:6">
+    <row r="79" ht="17.4" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4100,7 +4095,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="18.75" spans="1:6">
+    <row r="80" ht="17.4" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4112,7 +4107,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="18.75" spans="1:6">
+    <row r="81" ht="17.4" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4124,7 +4119,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="18.75" spans="1:6">
+    <row r="82" ht="17.4" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4136,7 +4131,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="18.75" spans="1:6">
+    <row r="83" ht="17.4" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4148,7 +4143,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="18.75" spans="1:6">
+    <row r="84" ht="17.4" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4160,7 +4155,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="18.75" spans="1:6">
+    <row r="85" ht="17.4" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4172,7 +4167,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="18.75" spans="1:6">
+    <row r="86" ht="17.4" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4184,7 +4179,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="18.75" spans="1:6">
+    <row r="87" ht="17.4" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4196,7 +4191,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="18.75" spans="1:6">
+    <row r="88" ht="17.4" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4208,7 +4203,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="18.75" spans="1:6">
+    <row r="89" ht="17.4" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4220,7 +4215,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="17.4" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4232,7 +4227,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="17.4" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4244,7 +4239,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="17.4" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4256,7 +4251,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="17.4" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4268,7 +4263,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="18.75" spans="1:6">
+    <row r="94" ht="17.4" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4280,7 +4275,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="18.75" spans="1:6">
+    <row r="95" ht="17.4" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4292,7 +4287,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="18.75" spans="1:6">
+    <row r="96" ht="17.4" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4304,7 +4299,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="18.75" spans="1:6">
+    <row r="97" ht="17.4" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4316,7 +4311,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="18.75" spans="1:6">
+    <row r="98" ht="17.4" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4328,7 +4323,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="18.75" spans="1:6">
+    <row r="99" ht="17.4" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4340,7 +4335,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="18.75" spans="1:6">
+    <row r="100" ht="17.4" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4352,7 +4347,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="18.75" spans="1:6">
+    <row r="101" ht="17.4" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4364,7 +4359,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="18.75" spans="1:6">
+    <row r="102" ht="17.4" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4376,7 +4371,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="18.75" spans="1:6">
+    <row r="103" ht="17.4" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4388,7 +4383,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="18.75" spans="1:6">
+    <row r="104" ht="17.4" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4400,7 +4395,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="18.75" spans="1:6">
+    <row r="105" ht="17.4" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4412,7 +4407,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="18.75" spans="1:6">
+    <row r="106" ht="17.4" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4424,7 +4419,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="18.75" spans="1:6">
+    <row r="107" ht="17.4" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4436,7 +4431,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="17.4" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4448,7 +4443,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="17.4" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4460,7 +4455,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="17.4" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4472,7 +4467,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="17.4" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4484,7 +4479,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="18.75" spans="1:6">
+    <row r="112" ht="17.4" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4496,7 +4491,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="18.75" spans="1:6">
+    <row r="113" ht="17.4" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4508,7 +4503,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="18.75" spans="1:6">
+    <row r="114" ht="17.4" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4520,7 +4515,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="18.75" spans="1:6">
+    <row r="115" ht="17.4" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4532,7 +4527,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="18.75" spans="1:6">
+    <row r="116" ht="17.4" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4544,7 +4539,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="18.75" spans="1:6">
+    <row r="117" ht="17.4" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4556,7 +4551,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="18.75" spans="1:6">
+    <row r="118" ht="17.4" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4568,7 +4563,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="18.75" spans="1:6">
+    <row r="119" ht="17.4" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4580,7 +4575,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="18.75" spans="1:6">
+    <row r="120" ht="17.4" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4592,7 +4587,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="18.75" spans="1:6">
+    <row r="121" ht="17.4" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4604,7 +4599,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="18.75" spans="1:6">
+    <row r="122" ht="17.4" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4616,7 +4611,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18.75" spans="1:6">
+    <row r="123" ht="17.4" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4628,7 +4623,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18.75" spans="1:6">
+    <row r="124" ht="17.4" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4640,7 +4635,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="18.75" spans="1:6">
+    <row r="125" ht="17.4" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4652,7 +4647,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18.75" spans="1:6">
+    <row r="126" ht="17.4" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4664,7 +4659,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="18.75" spans="1:6">
+    <row r="127" ht="17.4" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4676,7 +4671,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="18.75" spans="1:6">
+    <row r="128" ht="17.4" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4688,7 +4683,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18.75" spans="1:6">
+    <row r="129" ht="17.4" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4700,7 +4695,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="18.75" spans="1:6">
+    <row r="130" ht="17.4" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4712,7 +4707,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="18.75" spans="1:6">
+    <row r="131" ht="17.4" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4724,7 +4719,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="18.75" spans="1:6">
+    <row r="132" ht="17.4" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -4736,7 +4731,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="18.75" spans="1:6">
+    <row r="133" ht="17.4" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -4748,7 +4743,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="18.75" spans="1:6">
+    <row r="134" ht="17.4" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -4760,7 +4755,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="18.75" spans="1:6">
+    <row r="135" ht="17.4" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -4772,7 +4767,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="18.75" spans="1:6">
+    <row r="136" ht="17.4" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -4784,7 +4779,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="18.75" spans="1:6">
+    <row r="137" ht="17.4" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -4796,7 +4791,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="18.75" spans="1:6">
+    <row r="138" ht="17.4" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -4808,7 +4803,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="17.4" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -4820,7 +4815,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="17.4" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -4832,7 +4827,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="17.4" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -4844,7 +4839,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="17.4" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -4856,7 +4851,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="17.4" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -4868,7 +4863,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="17.4" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -4880,7 +4875,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="17.4" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -4892,7 +4887,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="17.4" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -4904,7 +4899,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="17.4" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -4916,7 +4911,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="17.4" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -4928,7 +4923,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="17.4" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -4940,7 +4935,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="18.75" spans="1:6">
+    <row r="150" ht="17.4" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -4952,7 +4947,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="18.75" spans="1:6">
+    <row r="151" ht="17.4" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -4964,7 +4959,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="18.75" spans="1:6">
+    <row r="152" ht="17.4" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -4976,7 +4971,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="18.75" spans="1:6">
+    <row r="153" ht="17.4" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -4988,7 +4983,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="18.75" spans="1:6">
+    <row r="154" ht="17.4" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -5000,7 +4995,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="18.75" spans="1:6">
+    <row r="155" ht="17.4" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5012,7 +5007,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="18.75" spans="1:6">
+    <row r="156" ht="17.4" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5024,7 +5019,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="18.75" spans="1:6">
+    <row r="157" ht="17.4" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5036,7 +5031,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="18.75" spans="1:6">
+    <row r="158" ht="17.4" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5048,7 +5043,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="18.75" spans="1:6">
+    <row r="159" ht="17.4" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5060,7 +5055,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="18.75" spans="1:6">
+    <row r="160" ht="17.4" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5072,7 +5067,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="18.75" spans="1:6">
+    <row r="161" ht="17.4" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5084,7 +5079,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="18.75" spans="1:6">
+    <row r="162" ht="17.4" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5096,7 +5091,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="18.75" spans="1:6">
+    <row r="163" ht="17.4" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5108,7 +5103,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="18.75" spans="1:6">
+    <row r="164" ht="17.4" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5120,7 +5115,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="18.75" spans="1:6">
+    <row r="165" ht="17.4" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5132,7 +5127,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="18.75" spans="1:6">
+    <row r="166" ht="17.4" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5144,7 +5139,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="18.75" spans="1:6">
+    <row r="167" ht="17.4" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5156,7 +5151,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="18.75" spans="1:6">
+    <row r="168" ht="17.4" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5168,7 +5163,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="18.75" spans="1:6">
+    <row r="169" ht="17.4" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5180,7 +5175,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="18.75" spans="1:6">
+    <row r="170" ht="17.4" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5192,7 +5187,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="18.75" spans="1:6">
+    <row r="171" ht="17.4" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5204,7 +5199,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="18.75" spans="1:6">
+    <row r="172" ht="17.4" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5216,7 +5211,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="18.75" spans="1:6">
+    <row r="173" ht="17.4" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5228,7 +5223,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="18.75" spans="1:6">
+    <row r="174" ht="17.4" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5240,7 +5235,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="18.75" spans="1:6">
+    <row r="175" ht="17.4" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5252,7 +5247,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="18.75" spans="1:6">
+    <row r="176" ht="17.4" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5264,7 +5259,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="18.75" spans="1:6">
+    <row r="177" ht="17.4" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5276,7 +5271,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="18.75" spans="1:6">
+    <row r="178" ht="17.4" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5288,7 +5283,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="18.75" spans="1:6">
+    <row r="179" ht="17.4" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5300,7 +5295,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="18.75" spans="1:6">
+    <row r="180" ht="17.4" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5312,7 +5307,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="18.75" spans="1:6">
+    <row r="181" ht="17.4" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5324,7 +5319,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="18.75" spans="1:6">
+    <row r="182" ht="17.4" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5336,7 +5331,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="18.75" spans="1:6">
+    <row r="183" ht="17.4" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5348,7 +5343,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="18.75" spans="1:6">
+    <row r="184" ht="17.4" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5360,7 +5355,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="18.75" spans="1:6">
+    <row r="185" ht="17.4" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5372,7 +5367,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="18.75" spans="1:6">
+    <row r="186" ht="17.4" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5384,7 +5379,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="18.75" spans="1:6">
+    <row r="187" ht="17.4" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5396,7 +5391,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="18.75" spans="1:6">
+    <row r="188" ht="17.4" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5408,7 +5403,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="18.75" spans="1:6">
+    <row r="189" ht="17.4" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5420,7 +5415,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="18.75" spans="1:6">
+    <row r="190" ht="17.4" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5432,7 +5427,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="18.75" spans="1:6">
+    <row r="191" ht="17.4" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5444,7 +5439,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="18.75" spans="1:6">
+    <row r="192" ht="17.4" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5456,7 +5451,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="18.75" spans="1:6">
+    <row r="193" ht="17.4" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5468,7 +5463,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="18.75" spans="1:6">
+    <row r="194" ht="17.4" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5480,7 +5475,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="18.75" spans="1:6">
+    <row r="195" ht="17.4" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5492,7 +5487,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="18.75" spans="1:6">
+    <row r="196" ht="17.4" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5504,7 +5499,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="18.75" spans="1:6">
+    <row r="197" ht="17.4" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5516,7 +5511,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="18.75" spans="1:6">
+    <row r="198" ht="17.4" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5528,7 +5523,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="18.75" spans="1:6">
+    <row r="199" ht="17.4" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5540,7 +5535,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="18.75" spans="1:6">
+    <row r="200" ht="17.4" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5552,7 +5547,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="18.75" spans="1:6">
+    <row r="201" ht="17.4" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5564,7 +5559,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="18.75" spans="1:6">
+    <row r="202" ht="17.4" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5576,7 +5571,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="18.75" spans="1:6">
+    <row r="203" ht="17.4" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5588,7 +5583,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="18.75" spans="1:6">
+    <row r="204" ht="17.4" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5600,7 +5595,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="18.75" spans="1:6">
+    <row r="205" ht="17.4" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5612,7 +5607,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="18.75" spans="1:6">
+    <row r="206" ht="17.4" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5624,7 +5619,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="18.75" spans="1:6">
+    <row r="207" ht="17.4" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5636,7 +5631,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="18.75" spans="1:6">
+    <row r="208" ht="17.4" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5648,7 +5643,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="18.75" spans="1:6">
+    <row r="209" ht="17.4" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5660,7 +5655,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="18.75" spans="1:6">
+    <row r="210" ht="17.4" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5672,7 +5667,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="18.75" spans="1:6">
+    <row r="211" ht="17.4" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5684,7 +5679,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="18.75" spans="1:6">
+    <row r="212" ht="17.4" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5696,7 +5691,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="18.75" spans="1:6">
+    <row r="213" ht="17.4" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5708,7 +5703,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="18.75" spans="1:6">
+    <row r="214" ht="17.4" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5720,7 +5715,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="18.75" spans="1:6">
+    <row r="215" ht="17.4" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -5732,7 +5727,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="18.75" spans="1:6">
+    <row r="216" ht="17.4" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -5744,7 +5739,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="18.75" spans="1:6">
+    <row r="217" ht="17.4" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -5756,7 +5751,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="18.75" spans="1:6">
+    <row r="218" ht="17.4" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -5768,7 +5763,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="18.75" spans="1:6">
+    <row r="219" ht="17.4" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -5780,7 +5775,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="18.75" spans="1:6">
+    <row r="220" ht="17.4" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -5792,7 +5787,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="18.75" spans="1:6">
+    <row r="221" ht="17.4" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -5804,7 +5799,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="18.75" spans="1:6">
+    <row r="222" ht="17.4" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -5816,7 +5811,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="18.75" spans="1:6">
+    <row r="223" ht="17.4" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -5828,7 +5823,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="18.75" spans="1:6">
+    <row r="224" ht="17.4" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -5840,7 +5835,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="18.75" spans="1:6">
+    <row r="225" ht="17.4" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -5852,7 +5847,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="18.75" spans="1:6">
+    <row r="226" ht="17.4" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -5864,7 +5859,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="18.75" spans="1:6">
+    <row r="227" ht="17.4" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -5876,7 +5871,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="18.75" spans="1:6">
+    <row r="228" ht="17.4" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -5888,7 +5883,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="18.75" spans="1:6">
+    <row r="229" ht="17.4" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -5900,7 +5895,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="18.75" spans="1:6">
+    <row r="230" ht="17.4" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -5912,7 +5907,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="18.75" spans="1:6">
+    <row r="231" ht="17.4" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -5924,7 +5919,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="18.75" spans="1:6">
+    <row r="232" ht="17.4" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -5936,7 +5931,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="18.75" spans="1:6">
+    <row r="233" ht="17.4" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -5948,7 +5943,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="18.75" spans="1:6">
+    <row r="234" ht="17.4" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -5960,7 +5955,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="18.75" spans="1:6">
+    <row r="235" ht="17.4" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -5972,7 +5967,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="18.75" spans="1:6">
+    <row r="236" ht="17.4" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -5984,7 +5979,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="18.75" spans="1:6">
+    <row r="237" ht="17.4" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -5996,7 +5991,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="18.75" spans="1:6">
+    <row r="238" ht="17.4" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6008,7 +6003,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="18.75" spans="1:6">
+    <row r="239" ht="17.4" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6020,7 +6015,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="18.75" spans="1:6">
+    <row r="240" ht="17.4" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6032,7 +6027,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="18.75" spans="1:6">
+    <row r="241" ht="17.4" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6044,7 +6039,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="18.75" spans="1:6">
+    <row r="242" ht="17.4" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6056,7 +6051,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="18.75" spans="1:6">
+    <row r="243" ht="17.4" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6068,7 +6063,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="18.75" spans="1:6">
+    <row r="244" ht="17.4" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6080,7 +6075,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="18.75" spans="1:6">
+    <row r="245" ht="17.4" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6092,7 +6087,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="18.75" spans="1:6">
+    <row r="246" ht="17.4" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6104,7 +6099,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="18.75" spans="1:6">
+    <row r="247" ht="17.4" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6116,7 +6111,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="18.75" spans="1:6">
+    <row r="248" ht="17.4" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6128,7 +6123,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="18.75" spans="1:6">
+    <row r="249" ht="17.4" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6140,7 +6135,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="18.75" spans="1:6">
+    <row r="250" ht="17.4" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6152,7 +6147,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="18.75" spans="1:6">
+    <row r="251" ht="17.4" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6164,7 +6159,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="18.75" spans="1:6">
+    <row r="252" ht="17.4" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6176,7 +6171,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="18.75" spans="1:6">
+    <row r="253" ht="17.4" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6188,7 +6183,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="18.75" spans="1:6">
+    <row r="254" ht="17.4" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6200,7 +6195,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="18.75" spans="1:6">
+    <row r="255" ht="17.4" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6212,7 +6207,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="18.75" spans="1:6">
+    <row r="256" ht="17.4" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6224,7 +6219,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="18.75" spans="1:6">
+    <row r="257" ht="17.4" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6236,7 +6231,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="18.75" spans="1:6">
+    <row r="258" ht="17.4" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6248,7 +6243,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="18.75" spans="1:6">
+    <row r="259" ht="17.4" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6260,7 +6255,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="18.75" spans="1:6">
+    <row r="260" ht="17.4" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6272,7 +6267,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="18.75" spans="1:6">
+    <row r="261" ht="17.4" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6284,7 +6279,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="18.75" spans="1:6">
+    <row r="262" ht="17.4" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6296,7 +6291,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="18.75" spans="1:6">
+    <row r="263" ht="17.4" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6308,7 +6303,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="18.75" spans="1:6">
+    <row r="264" ht="17.4" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6320,7 +6315,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="18.75" spans="1:6">
+    <row r="265" ht="17.4" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6332,7 +6327,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="18.75" spans="1:6">
+    <row r="266" ht="17.4" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6344,7 +6339,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="18.75" spans="1:6">
+    <row r="267" ht="17.4" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6356,7 +6351,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="18.75" spans="1:6">
+    <row r="268" ht="17.4" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6368,7 +6363,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="18.75" spans="1:6">
+    <row r="269" ht="17.4" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6380,7 +6375,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="18.75" spans="1:6">
+    <row r="270" ht="17.4" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6392,7 +6387,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="18.75" spans="1:6">
+    <row r="271" ht="17.4" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6404,7 +6399,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="18.75" spans="1:6">
+    <row r="272" ht="17.4" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6416,7 +6411,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="18.75" spans="1:6">
+    <row r="273" ht="17.4" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6428,7 +6423,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="18.75" spans="1:6">
+    <row r="274" ht="17.4" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6440,7 +6435,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="18.75" spans="1:6">
+    <row r="275" ht="17.4" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6452,7 +6447,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="18.75" spans="1:6">
+    <row r="276" ht="17.4" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6464,7 +6459,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="18.75" spans="1:6">
+    <row r="277" ht="17.4" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6476,7 +6471,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="18.75" spans="1:6">
+    <row r="278" ht="17.4" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6488,7 +6483,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="18.75" spans="1:6">
+    <row r="279" ht="17.4" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6500,7 +6495,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="18.75" spans="1:6">
+    <row r="280" ht="17.4" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6512,7 +6507,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="18.75" spans="1:6">
+    <row r="281" ht="17.4" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6524,7 +6519,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="18.75" spans="1:6">
+    <row r="282" ht="17.4" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6536,7 +6531,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="18.75" spans="1:6">
+    <row r="283" ht="17.4" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6548,7 +6543,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="18.75" spans="1:6">
+    <row r="284" ht="17.4" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6560,7 +6555,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="18.75" spans="1:6">
+    <row r="285" ht="17.4" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6572,7 +6567,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="18.75" spans="1:6">
+    <row r="286" ht="17.4" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6584,7 +6579,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="18.75" spans="1:6">
+    <row r="287" ht="17.4" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6596,7 +6591,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="18.75" spans="1:6">
+    <row r="288" ht="17.4" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6608,7 +6603,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="18.75" spans="1:6">
+    <row r="289" ht="17.4" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6620,7 +6615,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="18.75" spans="1:6">
+    <row r="290" ht="17.4" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6632,7 +6627,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="18.75" spans="1:6">
+    <row r="291" ht="17.4" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6644,7 +6639,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="18.75" spans="1:6">
+    <row r="292" ht="17.4" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6656,7 +6651,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="18.75" spans="1:6">
+    <row r="293" ht="17.4" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6668,7 +6663,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="18.75" spans="1:6">
+    <row r="294" ht="17.4" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6680,7 +6675,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="18.75" spans="1:6">
+    <row r="295" ht="17.4" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6692,7 +6687,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="18.75" spans="1:6">
+    <row r="296" ht="17.4" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6704,7 +6699,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="18.75" spans="1:6">
+    <row r="297" ht="17.4" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6716,7 +6711,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="18.75" spans="1:6">
+    <row r="298" ht="17.4" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -6728,7 +6723,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="18.75" spans="1:6">
+    <row r="299" ht="17.4" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -6740,7 +6735,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="18.75" spans="1:6">
+    <row r="300" ht="17.4" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -6752,7 +6747,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="18.75" spans="1:6">
+    <row r="301" ht="17.4" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -6764,7 +6759,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="18.75" spans="1:6">
+    <row r="302" ht="17.4" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -6776,7 +6771,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="18.75" spans="1:6">
+    <row r="303" ht="17.4" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -6788,7 +6783,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="18.75" spans="1:6">
+    <row r="304" ht="17.4" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -6800,7 +6795,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="18.75" spans="1:6">
+    <row r="305" ht="17.4" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -6812,7 +6807,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="18.75" spans="1:6">
+    <row r="306" ht="17.4" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -6824,7 +6819,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="18.75" spans="1:6">
+    <row r="307" ht="17.4" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -6836,7 +6831,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="18.75" spans="1:6">
+    <row r="308" ht="17.4" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -6848,7 +6843,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="18.75" spans="1:6">
+    <row r="309" ht="17.4" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -6860,7 +6855,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="18.75" spans="1:6">
+    <row r="310" ht="17.4" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -6872,7 +6867,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="18.75" spans="1:6">
+    <row r="311" ht="17.4" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -6884,7 +6879,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="18.75" spans="1:6">
+    <row r="312" ht="17.4" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -6896,7 +6891,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="18.75" spans="1:6">
+    <row r="313" ht="17.4" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -6908,7 +6903,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="18.75" spans="1:6">
+    <row r="314" ht="17.4" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -6920,7 +6915,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="18.75" spans="1:6">
+    <row r="315" ht="17.4" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -6932,7 +6927,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="18.75" spans="1:6">
+    <row r="316" ht="17.4" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -6944,7 +6939,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="18.75" spans="1:6">
+    <row r="317" ht="17.4" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -6956,7 +6951,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="18.75" spans="1:6">
+    <row r="318" ht="17.4" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -6968,7 +6963,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="18.75" spans="1:6">
+    <row r="319" ht="17.4" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -6980,7 +6975,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="18.75" spans="1:6">
+    <row r="320" ht="17.4" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -6992,7 +6987,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="18.75" spans="1:6">
+    <row r="321" ht="17.4" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -7004,7 +6999,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="18.75" spans="1:6">
+    <row r="322" ht="17.4" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7016,7 +7011,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="18.75" spans="1:6">
+    <row r="323" ht="17.4" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7028,7 +7023,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="18.75" spans="1:6">
+    <row r="324" ht="17.4" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7040,7 +7035,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="18.75" spans="1:6">
+    <row r="325" ht="17.4" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7052,7 +7047,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="18.75" spans="1:6">
+    <row r="326" ht="17.4" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7064,7 +7059,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="18.75" spans="1:6">
+    <row r="327" ht="17.4" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7076,7 +7071,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="18.75" spans="1:6">
+    <row r="328" ht="17.4" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7088,7 +7083,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="18.75" spans="1:6">
+    <row r="329" ht="17.4" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7100,7 +7095,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="18.75" spans="1:6">
+    <row r="330" ht="17.4" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7112,7 +7107,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="18.75" spans="1:6">
+    <row r="331" ht="17.4" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7124,7 +7119,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="18.75" spans="1:6">
+    <row r="332" ht="17.4" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7136,7 +7131,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="18.75" spans="1:6">
+    <row r="333" ht="17.4" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7148,7 +7143,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="18.75" spans="1:6">
+    <row r="334" ht="17.4" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7160,7 +7155,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="18.75" spans="1:6">
+    <row r="335" ht="17.4" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7172,7 +7167,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="18.75" spans="1:6">
+    <row r="336" ht="17.4" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7184,7 +7179,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="18.75" spans="1:6">
+    <row r="337" ht="17.4" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7196,7 +7191,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="18.75" spans="1:6">
+    <row r="338" ht="17.4" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7208,7 +7203,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="18.75" spans="1:6">
+    <row r="339" ht="17.4" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7220,7 +7215,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="18.75" spans="1:6">
+    <row r="340" ht="17.4" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7232,7 +7227,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="18.75" spans="1:6">
+    <row r="341" ht="17.4" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7244,7 +7239,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="18.75" spans="1:6">
+    <row r="342" ht="17.4" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7256,7 +7251,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="18.75" spans="1:6">
+    <row r="343" ht="17.4" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7268,7 +7263,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="18.75" spans="1:6">
+    <row r="344" ht="17.4" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7280,7 +7275,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="18.75" spans="1:6">
+    <row r="345" ht="17.4" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7292,7 +7287,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="18.75" spans="1:6">
+    <row r="346" ht="17.4" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7304,7 +7299,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="18.75" spans="1:6">
+    <row r="347" ht="17.4" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7316,7 +7311,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="18.75" spans="1:6">
+    <row r="348" ht="17.4" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7328,7 +7323,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="18.75" spans="1:6">
+    <row r="349" ht="17.4" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7340,7 +7335,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="18.75" spans="1:6">
+    <row r="350" ht="17.4" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7352,7 +7347,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="18.75" spans="1:6">
+    <row r="351" ht="17.4" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7364,7 +7359,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="18.75" spans="1:6">
+    <row r="352" ht="17.4" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7376,7 +7371,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="18.75" spans="1:6">
+    <row r="353" ht="17.4" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7388,7 +7383,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="18.75" spans="1:6">
+    <row r="354" ht="17.4" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7400,7 +7395,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="18.75" spans="1:6">
+    <row r="355" ht="17.4" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7412,7 +7407,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="18.75" spans="1:6">
+    <row r="356" ht="17.4" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7424,7 +7419,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="18.75" spans="1:6">
+    <row r="357" ht="17.4" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7436,7 +7431,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="18.75" spans="1:6">
+    <row r="358" ht="17.4" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7448,7 +7443,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="18.75" spans="1:6">
+    <row r="359" ht="17.4" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7460,7 +7455,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="18.75" spans="1:6">
+    <row r="360" ht="17.4" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7472,7 +7467,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="18.75" spans="1:6">
+    <row r="361" ht="17.4" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7484,7 +7479,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="18.75" spans="1:6">
+    <row r="362" ht="17.4" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7496,7 +7491,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="18.75" spans="1:6">
+    <row r="363" ht="17.4" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7508,7 +7503,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="18.75" spans="1:6">
+    <row r="364" ht="17.4" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7520,7 +7515,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="18.75" spans="1:6">
+    <row r="365" ht="17.4" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7532,7 +7527,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="18.75" spans="1:6">
+    <row r="366" ht="17.4" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="105">
   <si>
     <t>日期</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>《无限暖暖》公测</t>
+  </si>
+  <si>
+    <t>《绝区零》IGN日本亚洲区域话题游戏提名</t>
   </si>
   <si>
     <t>《无限大》技术性测试招募开启</t>
@@ -1702,18 +1705,18 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
     <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.3796296296296" style="15" customWidth="1"/>
-    <col min="5" max="5" width="54.1296296296296" style="15" customWidth="1"/>
+    <col min="4" max="4" width="44.3833333333333" style="15" customWidth="1"/>
+    <col min="5" max="5" width="54.1333333333333" style="15" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2537,57 +2540,59 @@
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="10">
@@ -2597,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -2607,7 +2612,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -2621,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2647,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2685,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -2695,7 +2700,7 @@
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -2705,7 +2710,7 @@
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -2719,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -2781,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2795,10 +2800,10 @@
         <v>8</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -2943,90 +2948,90 @@
         <v>17</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="14.4" spans="1:5">
+    <row r="100" ht="13.5" spans="1:5">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" ht="14.4" spans="1:5">
+    <row r="101" ht="13.5" spans="1:5">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" ht="14.4" spans="1:5">
+    <row r="102" ht="13.5" spans="1:5">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" ht="14.4" spans="1:5">
+    <row r="103" ht="13.5" spans="1:5">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" ht="14.4" spans="1:5">
+    <row r="104" ht="13.5" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" ht="14.4" spans="1:5">
+    <row r="105" ht="13.5" spans="1:5">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" ht="14.4" spans="1:5">
+    <row r="106" ht="13.5" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" ht="14.4" spans="1:5">
+    <row r="107" ht="13.5" spans="1:5">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" ht="14.4" spans="1:5">
+    <row r="108" ht="13.5" spans="1:5">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" ht="14.4" spans="1:5">
+    <row r="109" ht="13.5" spans="1:5">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" ht="14.4" spans="1:5">
+    <row r="110" ht="13.5" spans="1:5">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" ht="14.4" spans="1:5">
+    <row r="111" ht="13.5" spans="1:5">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -3121,17 +3126,17 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
-    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="7.225" customWidth="1"/>
+    <col min="3" max="3" width="46.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3151,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3163,7 +3168,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3175,7 +3180,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="17.4" spans="1:6">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3183,13 +3188,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="17.4" spans="1:6">
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3197,13 +3202,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3215,7 +3220,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3227,7 +3232,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3239,7 +3244,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3251,7 +3256,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3263,7 +3268,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3275,7 +3280,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="17.4" spans="1:6">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3287,7 +3292,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3299,7 +3304,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3311,7 +3316,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3323,7 +3328,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3335,7 +3340,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3347,7 +3352,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:6">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3359,7 +3364,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="17.4" spans="1:6">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3371,7 +3376,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="17.4" spans="1:6">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3383,7 +3388,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="17.4" spans="1:6">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3395,7 +3400,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3407,7 +3412,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3419,7 +3424,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="17.4" spans="1:6">
+    <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="17.4" spans="1:6">
+    <row r="25" ht="18.75" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3439,13 +3444,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" ht="18.75" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3457,7 +3462,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3469,7 +3474,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" ht="18.75" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3481,7 +3486,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" ht="18.75" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3493,7 +3498,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
+    <row r="30" ht="18.75" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3505,7 +3510,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
+    <row r="31" ht="18.75" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3517,7 +3522,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
+    <row r="32" ht="18.75" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3529,7 +3534,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
+    <row r="33" ht="18.75" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3541,7 +3546,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="17.4" spans="1:6">
+    <row r="34" ht="18.75" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3553,7 +3558,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="17.4" spans="1:6">
+    <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3565,7 +3570,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="17.4" spans="1:6">
+    <row r="36" ht="18.75" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3577,7 +3582,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
+    <row r="37" ht="18.75" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3589,7 +3594,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
+    <row r="38" ht="18.75" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3601,7 +3606,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
+    <row r="39" ht="18.75" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3613,7 +3618,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
+    <row r="40" ht="18.75" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3625,7 +3630,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
+    <row r="41" ht="18.75" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3637,7 +3642,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" ht="18.75" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3649,7 +3654,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" ht="18.75" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3661,7 +3666,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" ht="18.75" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3673,7 +3678,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" ht="18.75" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3685,7 +3690,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" ht="18.75" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" ht="18.75" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3709,7 +3714,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" ht="18.75" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3721,7 +3726,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" ht="18.75" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" ht="18.75" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -3745,7 +3750,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" ht="18.75" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -3757,7 +3762,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18.75" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18.75" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -3781,7 +3786,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" ht="18.75" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -3793,7 +3798,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
+    <row r="55" ht="18.75" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -3805,7 +3810,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" ht="18.75" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -3817,7 +3822,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" ht="18.75" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -3825,13 +3830,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
+    <row r="58" ht="18.75" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -3843,7 +3848,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
+    <row r="59" ht="18.75" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -3855,7 +3860,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
+    <row r="60" ht="18.75" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -3867,7 +3872,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
+    <row r="61" ht="18.75" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -3879,7 +3884,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
+    <row r="62" ht="18.75" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -3891,7 +3896,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
+    <row r="63" ht="18.75" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -3903,7 +3908,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="17.4" spans="1:6">
+    <row r="64" ht="18.75" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -3915,7 +3920,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="17.4" spans="1:6">
+    <row r="65" ht="18.75" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -3927,7 +3932,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
+    <row r="66" ht="18.75" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -3939,7 +3944,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="17.4" spans="1:6">
+    <row r="67" ht="18.75" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -3951,7 +3956,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="17.4" spans="1:6">
+    <row r="68" ht="18.75" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -3963,7 +3968,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" ht="18.75" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -3975,7 +3980,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" ht="18.75" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -3987,7 +3992,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" ht="18.75" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -3999,7 +4004,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" ht="18.75" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4011,7 +4016,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" ht="18.75" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4023,7 +4028,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" ht="18.75" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4035,7 +4040,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" ht="18.75" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4047,7 +4052,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" ht="18.75" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4059,7 +4064,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" ht="18.75" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4071,7 +4076,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" ht="18.75" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4083,7 +4088,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" ht="18.75" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4095,7 +4100,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
+    <row r="80" ht="18.75" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4107,7 +4112,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
+    <row r="81" ht="18.75" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4119,7 +4124,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="17.4" spans="1:6">
+    <row r="82" ht="18.75" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4131,7 +4136,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="17.4" spans="1:6">
+    <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4143,7 +4148,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
+    <row r="84" ht="18.75" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4155,7 +4160,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="17.4" spans="1:6">
+    <row r="85" ht="18.75" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4167,7 +4172,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="17.4" spans="1:6">
+    <row r="86" ht="18.75" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4179,7 +4184,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="17.4" spans="1:6">
+    <row r="87" ht="18.75" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4191,7 +4196,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="17.4" spans="1:6">
+    <row r="88" ht="18.75" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4203,7 +4208,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="17.4" spans="1:6">
+    <row r="89" ht="18.75" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4215,7 +4220,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="17.4" spans="1:6">
+    <row r="90" ht="18.75" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4227,7 +4232,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="17.4" spans="1:6">
+    <row r="91" ht="18.75" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4239,7 +4244,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="17.4" spans="1:6">
+    <row r="92" ht="18.75" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4251,7 +4256,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
+    <row r="93" ht="18.75" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4263,7 +4268,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="17.4" spans="1:6">
+    <row r="94" ht="18.75" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4275,7 +4280,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="17.4" spans="1:6">
+    <row r="95" ht="18.75" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4287,7 +4292,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="17.4" spans="1:6">
+    <row r="96" ht="18.75" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4299,7 +4304,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17.4" spans="1:6">
+    <row r="97" ht="18.75" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4311,7 +4316,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
+    <row r="98" ht="18.75" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4323,7 +4328,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="17.4" spans="1:6">
+    <row r="99" ht="18.75" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4335,7 +4340,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="17.4" spans="1:6">
+    <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4347,7 +4352,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
+    <row r="101" ht="18.75" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4359,7 +4364,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="17.4" spans="1:6">
+    <row r="102" ht="18.75" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4371,7 +4376,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="17.4" spans="1:6">
+    <row r="103" ht="18.75" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4383,7 +4388,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="17.4" spans="1:6">
+    <row r="104" ht="18.75" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4395,7 +4400,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="17.4" spans="1:6">
+    <row r="105" ht="18.75" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4407,7 +4412,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
+    <row r="106" ht="18.75" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4419,7 +4424,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="17.4" spans="1:6">
+    <row r="107" ht="18.75" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4431,7 +4436,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
+    <row r="108" ht="18.75" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4443,7 +4448,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="17.4" spans="1:6">
+    <row r="109" ht="18.75" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4455,7 +4460,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="17.4" spans="1:6">
+    <row r="110" ht="18.75" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4467,7 +4472,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="17.4" spans="1:6">
+    <row r="111" ht="18.75" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4479,7 +4484,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="17.4" spans="1:6">
+    <row r="112" ht="18.75" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4491,7 +4496,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="17.4" spans="1:6">
+    <row r="113" ht="18.75" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4503,7 +4508,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="17.4" spans="1:6">
+    <row r="114" ht="18.75" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4515,7 +4520,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="17.4" spans="1:6">
+    <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4527,7 +4532,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
+    <row r="116" ht="18.75" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4539,7 +4544,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="17.4" spans="1:6">
+    <row r="117" ht="18.75" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="17.4" spans="1:6">
+    <row r="118" ht="18.75" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4563,7 +4568,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="17.4" spans="1:6">
+    <row r="119" ht="18.75" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4575,7 +4580,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="17.4" spans="1:6">
+    <row r="120" ht="18.75" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4587,7 +4592,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18.75" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4599,7 +4604,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="17.4" spans="1:6">
+    <row r="122" ht="18.75" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4611,7 +4616,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="17.4" spans="1:6">
+    <row r="123" ht="18.75" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4623,7 +4628,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
+    <row r="124" ht="18.75" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4635,7 +4640,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="17.4" spans="1:6">
+    <row r="125" ht="18.75" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4647,7 +4652,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="17.4" spans="1:6">
+    <row r="126" ht="18.75" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4659,7 +4664,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="17.4" spans="1:6">
+    <row r="127" ht="18.75" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4671,7 +4676,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="17.4" spans="1:6">
+    <row r="128" ht="18.75" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4683,7 +4688,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="17.4" spans="1:6">
+    <row r="129" ht="18.75" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4695,7 +4700,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="17.4" spans="1:6">
+    <row r="130" ht="18.75" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4707,7 +4712,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="17.4" spans="1:6">
+    <row r="131" ht="18.75" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4719,7 +4724,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
+    <row r="132" ht="18.75" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -4731,7 +4736,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
+    <row r="133" ht="18.75" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -4743,7 +4748,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
+    <row r="134" ht="18.75" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
+    <row r="135" ht="18.75" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -4767,7 +4772,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
+    <row r="136" ht="18.75" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -4779,7 +4784,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18.75" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -4791,7 +4796,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18.75" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -4803,7 +4808,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18.75" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -4815,7 +4820,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18.75" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -4827,7 +4832,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18.75" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -4839,7 +4844,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
+    <row r="142" ht="18.75" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -4851,7 +4856,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18.75" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -4863,7 +4868,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="17.4" spans="1:6">
+    <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -4875,7 +4880,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
+    <row r="145" ht="18.75" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -4887,7 +4892,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="17.4" spans="1:6">
+    <row r="146" ht="18.75" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -4899,7 +4904,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="17.4" spans="1:6">
+    <row r="147" ht="18.75" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -4911,7 +4916,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="17.4" spans="1:6">
+    <row r="148" ht="18.75" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -4923,7 +4928,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="17.4" spans="1:6">
+    <row r="149" ht="18.75" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -4935,7 +4940,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="17.4" spans="1:6">
+    <row r="150" ht="18.75" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -4947,7 +4952,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="17.4" spans="1:6">
+    <row r="151" ht="18.75" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -4959,7 +4964,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="17.4" spans="1:6">
+    <row r="152" ht="18.75" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -4971,7 +4976,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="17.4" spans="1:6">
+    <row r="153" ht="18.75" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -4983,7 +4988,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="17.4" spans="1:6">
+    <row r="154" ht="18.75" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -4995,7 +5000,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="17.4" spans="1:6">
+    <row r="155" ht="18.75" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5007,7 +5012,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="17.4" spans="1:6">
+    <row r="156" ht="18.75" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5019,7 +5024,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
+    <row r="157" ht="18.75" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5031,7 +5036,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
+    <row r="158" ht="18.75" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5043,7 +5048,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="17.4" spans="1:6">
+    <row r="159" ht="18.75" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5055,7 +5060,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="17.4" spans="1:6">
+    <row r="160" ht="18.75" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5067,7 +5072,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
+    <row r="161" ht="18.75" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5079,7 +5084,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="17.4" spans="1:6">
+    <row r="162" ht="18.75" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5091,7 +5096,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="17.4" spans="1:6">
+    <row r="163" ht="18.75" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5103,7 +5108,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="17.4" spans="1:6">
+    <row r="164" ht="18.75" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5115,7 +5120,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="17.4" spans="1:6">
+    <row r="165" ht="18.75" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5127,7 +5132,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="17.4" spans="1:6">
+    <row r="166" ht="18.75" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5139,7 +5144,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="17.4" spans="1:6">
+    <row r="167" ht="18.75" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5151,7 +5156,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="17.4" spans="1:6">
+    <row r="168" ht="18.75" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5163,7 +5168,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="17.4" spans="1:6">
+    <row r="169" ht="18.75" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5175,7 +5180,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="17.4" spans="1:6">
+    <row r="170" ht="18.75" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5187,7 +5192,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="17.4" spans="1:6">
+    <row r="171" ht="18.75" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5199,7 +5204,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="17.4" spans="1:6">
+    <row r="172" ht="18.75" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5211,7 +5216,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="17.4" spans="1:6">
+    <row r="173" ht="18.75" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5223,7 +5228,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="17.4" spans="1:6">
+    <row r="174" ht="18.75" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5235,7 +5240,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="17.4" spans="1:6">
+    <row r="175" ht="18.75" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5247,7 +5252,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="17.4" spans="1:6">
+    <row r="176" ht="18.75" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5259,7 +5264,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="17.4" spans="1:6">
+    <row r="177" ht="18.75" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5271,7 +5276,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="17.4" spans="1:6">
+    <row r="178" ht="18.75" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5283,7 +5288,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="17.4" spans="1:6">
+    <row r="179" ht="18.75" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5295,7 +5300,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="17.4" spans="1:6">
+    <row r="180" ht="18.75" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5307,7 +5312,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="17.4" spans="1:6">
+    <row r="181" ht="18.75" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5319,7 +5324,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="17.4" spans="1:6">
+    <row r="182" ht="18.75" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5331,7 +5336,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="17.4" spans="1:6">
+    <row r="183" ht="18.75" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5343,7 +5348,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="17.4" spans="1:6">
+    <row r="184" ht="18.75" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5355,7 +5360,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="17.4" spans="1:6">
+    <row r="185" ht="18.75" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5367,7 +5372,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="17.4" spans="1:6">
+    <row r="186" ht="18.75" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5379,7 +5384,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="17.4" spans="1:6">
+    <row r="187" ht="18.75" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5391,7 +5396,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="17.4" spans="1:6">
+    <row r="188" ht="18.75" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5403,7 +5408,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="17.4" spans="1:6">
+    <row r="189" ht="18.75" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5415,7 +5420,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="17.4" spans="1:6">
+    <row r="190" ht="18.75" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5427,7 +5432,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="17.4" spans="1:6">
+    <row r="191" ht="18.75" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5439,7 +5444,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="17.4" spans="1:6">
+    <row r="192" ht="18.75" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5451,7 +5456,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="17.4" spans="1:6">
+    <row r="193" ht="18.75" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5463,7 +5468,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="17.4" spans="1:6">
+    <row r="194" ht="18.75" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5475,7 +5480,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="17.4" spans="1:6">
+    <row r="195" ht="18.75" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5487,7 +5492,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="17.4" spans="1:6">
+    <row r="196" ht="18.75" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5499,7 +5504,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="17.4" spans="1:6">
+    <row r="197" ht="18.75" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5511,7 +5516,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="17.4" spans="1:6">
+    <row r="198" ht="18.75" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5523,7 +5528,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="17.4" spans="1:6">
+    <row r="199" ht="18.75" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5535,7 +5540,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="17.4" spans="1:6">
+    <row r="200" ht="18.75" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5547,7 +5552,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="17.4" spans="1:6">
+    <row r="201" ht="18.75" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5559,7 +5564,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="17.4" spans="1:6">
+    <row r="202" ht="18.75" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5571,7 +5576,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="17.4" spans="1:6">
+    <row r="203" ht="18.75" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5583,7 +5588,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="17.4" spans="1:6">
+    <row r="204" ht="18.75" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5595,7 +5600,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="17.4" spans="1:6">
+    <row r="205" ht="18.75" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5607,7 +5612,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="17.4" spans="1:6">
+    <row r="206" ht="18.75" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5619,7 +5624,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="17.4" spans="1:6">
+    <row r="207" ht="18.75" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5631,7 +5636,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="17.4" spans="1:6">
+    <row r="208" ht="18.75" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5643,7 +5648,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="17.4" spans="1:6">
+    <row r="209" ht="18.75" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5655,7 +5660,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="17.4" spans="1:6">
+    <row r="210" ht="18.75" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5667,7 +5672,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="17.4" spans="1:6">
+    <row r="211" ht="18.75" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5679,7 +5684,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="17.4" spans="1:6">
+    <row r="212" ht="18.75" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5691,7 +5696,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="17.4" spans="1:6">
+    <row r="213" ht="18.75" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5703,7 +5708,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="17.4" spans="1:6">
+    <row r="214" ht="18.75" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5715,7 +5720,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="17.4" spans="1:6">
+    <row r="215" ht="18.75" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -5727,7 +5732,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="17.4" spans="1:6">
+    <row r="216" ht="18.75" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -5739,7 +5744,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="17.4" spans="1:6">
+    <row r="217" ht="18.75" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -5751,7 +5756,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="17.4" spans="1:6">
+    <row r="218" ht="18.75" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -5763,7 +5768,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="17.4" spans="1:6">
+    <row r="219" ht="18.75" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -5775,7 +5780,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="17.4" spans="1:6">
+    <row r="220" ht="18.75" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -5787,7 +5792,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="17.4" spans="1:6">
+    <row r="221" ht="18.75" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -5799,7 +5804,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="17.4" spans="1:6">
+    <row r="222" ht="18.75" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -5811,7 +5816,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="17.4" spans="1:6">
+    <row r="223" ht="18.75" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -5823,7 +5828,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="17.4" spans="1:6">
+    <row r="224" ht="18.75" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -5835,7 +5840,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="17.4" spans="1:6">
+    <row r="225" ht="18.75" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -5847,7 +5852,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="17.4" spans="1:6">
+    <row r="226" ht="18.75" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -5859,7 +5864,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="17.4" spans="1:6">
+    <row r="227" ht="18.75" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -5871,7 +5876,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="17.4" spans="1:6">
+    <row r="228" ht="18.75" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -5883,7 +5888,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="17.4" spans="1:6">
+    <row r="229" ht="18.75" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -5895,7 +5900,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="17.4" spans="1:6">
+    <row r="230" ht="18.75" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -5907,7 +5912,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="17.4" spans="1:6">
+    <row r="231" ht="18.75" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -5919,7 +5924,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="17.4" spans="1:6">
+    <row r="232" ht="18.75" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -5931,7 +5936,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="17.4" spans="1:6">
+    <row r="233" ht="18.75" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -5943,7 +5948,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="17.4" spans="1:6">
+    <row r="234" ht="18.75" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -5955,7 +5960,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="17.4" spans="1:6">
+    <row r="235" ht="18.75" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -5967,7 +5972,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="17.4" spans="1:6">
+    <row r="236" ht="18.75" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -5979,7 +5984,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="17.4" spans="1:6">
+    <row r="237" ht="18.75" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -5991,7 +5996,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="17.4" spans="1:6">
+    <row r="238" ht="18.75" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6003,7 +6008,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="17.4" spans="1:6">
+    <row r="239" ht="18.75" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6015,7 +6020,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="17.4" spans="1:6">
+    <row r="240" ht="18.75" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6027,7 +6032,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="17.4" spans="1:6">
+    <row r="241" ht="18.75" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6039,7 +6044,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="17.4" spans="1:6">
+    <row r="242" ht="18.75" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6051,7 +6056,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="17.4" spans="1:6">
+    <row r="243" ht="18.75" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6063,7 +6068,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="17.4" spans="1:6">
+    <row r="244" ht="18.75" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6075,7 +6080,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="17.4" spans="1:6">
+    <row r="245" ht="18.75" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6087,7 +6092,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="17.4" spans="1:6">
+    <row r="246" ht="18.75" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6099,7 +6104,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="17.4" spans="1:6">
+    <row r="247" ht="18.75" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6111,7 +6116,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="17.4" spans="1:6">
+    <row r="248" ht="18.75" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6123,7 +6128,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="17.4" spans="1:6">
+    <row r="249" ht="18.75" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6135,7 +6140,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="17.4" spans="1:6">
+    <row r="250" ht="18.75" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6147,7 +6152,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="17.4" spans="1:6">
+    <row r="251" ht="18.75" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6159,7 +6164,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="17.4" spans="1:6">
+    <row r="252" ht="18.75" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6171,7 +6176,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="17.4" spans="1:6">
+    <row r="253" ht="18.75" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6183,7 +6188,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="17.4" spans="1:6">
+    <row r="254" ht="18.75" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6195,7 +6200,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="17.4" spans="1:6">
+    <row r="255" ht="18.75" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6207,7 +6212,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="17.4" spans="1:6">
+    <row r="256" ht="18.75" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6219,7 +6224,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="17.4" spans="1:6">
+    <row r="257" ht="18.75" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6231,7 +6236,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="17.4" spans="1:6">
+    <row r="258" ht="18.75" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6243,7 +6248,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="17.4" spans="1:6">
+    <row r="259" ht="18.75" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6255,7 +6260,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="17.4" spans="1:6">
+    <row r="260" ht="18.75" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6267,7 +6272,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="17.4" spans="1:6">
+    <row r="261" ht="18.75" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6279,7 +6284,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="17.4" spans="1:6">
+    <row r="262" ht="18.75" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6291,7 +6296,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="17.4" spans="1:6">
+    <row r="263" ht="18.75" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6303,7 +6308,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="17.4" spans="1:6">
+    <row r="264" ht="18.75" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6315,7 +6320,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="17.4" spans="1:6">
+    <row r="265" ht="18.75" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6327,7 +6332,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="17.4" spans="1:6">
+    <row r="266" ht="18.75" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6339,7 +6344,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="17.4" spans="1:6">
+    <row r="267" ht="18.75" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6351,7 +6356,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="17.4" spans="1:6">
+    <row r="268" ht="18.75" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6363,7 +6368,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="17.4" spans="1:6">
+    <row r="269" ht="18.75" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6375,7 +6380,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="17.4" spans="1:6">
+    <row r="270" ht="18.75" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6387,7 +6392,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="17.4" spans="1:6">
+    <row r="271" ht="18.75" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6399,7 +6404,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="17.4" spans="1:6">
+    <row r="272" ht="18.75" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6411,7 +6416,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="17.4" spans="1:6">
+    <row r="273" ht="18.75" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6423,7 +6428,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="17.4" spans="1:6">
+    <row r="274" ht="18.75" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6435,7 +6440,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="17.4" spans="1:6">
+    <row r="275" ht="18.75" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6447,7 +6452,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="17.4" spans="1:6">
+    <row r="276" ht="18.75" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6459,7 +6464,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="17.4" spans="1:6">
+    <row r="277" ht="18.75" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6471,7 +6476,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="17.4" spans="1:6">
+    <row r="278" ht="18.75" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6483,7 +6488,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="17.4" spans="1:6">
+    <row r="279" ht="18.75" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6495,7 +6500,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="17.4" spans="1:6">
+    <row r="280" ht="18.75" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6507,7 +6512,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="17.4" spans="1:6">
+    <row r="281" ht="18.75" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6519,7 +6524,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="17.4" spans="1:6">
+    <row r="282" ht="18.75" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6531,7 +6536,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="17.4" spans="1:6">
+    <row r="283" ht="18.75" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6543,7 +6548,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="17.4" spans="1:6">
+    <row r="284" ht="18.75" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6555,7 +6560,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="17.4" spans="1:6">
+    <row r="285" ht="18.75" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6567,7 +6572,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="17.4" spans="1:6">
+    <row r="286" ht="18.75" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6579,7 +6584,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="17.4" spans="1:6">
+    <row r="287" ht="18.75" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6591,7 +6596,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="17.4" spans="1:6">
+    <row r="288" ht="18.75" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6603,7 +6608,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="17.4" spans="1:6">
+    <row r="289" ht="18.75" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6615,7 +6620,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="17.4" spans="1:6">
+    <row r="290" ht="18.75" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6627,7 +6632,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="17.4" spans="1:6">
+    <row r="291" ht="18.75" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6639,7 +6644,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="17.4" spans="1:6">
+    <row r="292" ht="18.75" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6651,7 +6656,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="17.4" spans="1:6">
+    <row r="293" ht="18.75" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6663,7 +6668,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="17.4" spans="1:6">
+    <row r="294" ht="18.75" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6675,7 +6680,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="17.4" spans="1:6">
+    <row r="295" ht="18.75" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6687,7 +6692,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="17.4" spans="1:6">
+    <row r="296" ht="18.75" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6699,7 +6704,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="17.4" spans="1:6">
+    <row r="297" ht="18.75" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6711,7 +6716,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="17.4" spans="1:6">
+    <row r="298" ht="18.75" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -6723,7 +6728,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="17.4" spans="1:6">
+    <row r="299" ht="18.75" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -6735,7 +6740,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="17.4" spans="1:6">
+    <row r="300" ht="18.75" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -6747,7 +6752,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="17.4" spans="1:6">
+    <row r="301" ht="18.75" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -6759,7 +6764,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="17.4" spans="1:6">
+    <row r="302" ht="18.75" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -6771,7 +6776,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="17.4" spans="1:6">
+    <row r="303" ht="18.75" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -6783,7 +6788,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="17.4" spans="1:6">
+    <row r="304" ht="18.75" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -6795,7 +6800,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="17.4" spans="1:6">
+    <row r="305" ht="18.75" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -6807,7 +6812,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="17.4" spans="1:6">
+    <row r="306" ht="18.75" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -6819,7 +6824,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="17.4" spans="1:6">
+    <row r="307" ht="18.75" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -6831,7 +6836,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="17.4" spans="1:6">
+    <row r="308" ht="18.75" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -6843,7 +6848,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="17.4" spans="1:6">
+    <row r="309" ht="18.75" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -6855,7 +6860,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="17.4" spans="1:6">
+    <row r="310" ht="18.75" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -6867,7 +6872,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="17.4" spans="1:6">
+    <row r="311" ht="18.75" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -6879,7 +6884,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="17.4" spans="1:6">
+    <row r="312" ht="18.75" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -6891,7 +6896,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="17.4" spans="1:6">
+    <row r="313" ht="18.75" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -6903,7 +6908,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="17.4" spans="1:6">
+    <row r="314" ht="18.75" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -6915,7 +6920,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="17.4" spans="1:6">
+    <row r="315" ht="18.75" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -6927,7 +6932,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="17.4" spans="1:6">
+    <row r="316" ht="18.75" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -6939,7 +6944,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="17.4" spans="1:6">
+    <row r="317" ht="18.75" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -6951,7 +6956,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="17.4" spans="1:6">
+    <row r="318" ht="18.75" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -6963,7 +6968,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="17.4" spans="1:6">
+    <row r="319" ht="18.75" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -6975,7 +6980,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="17.4" spans="1:6">
+    <row r="320" ht="18.75" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -6987,7 +6992,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="17.4" spans="1:6">
+    <row r="321" ht="18.75" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -6999,7 +7004,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="17.4" spans="1:6">
+    <row r="322" ht="18.75" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7011,7 +7016,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="17.4" spans="1:6">
+    <row r="323" ht="18.75" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7023,7 +7028,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="17.4" spans="1:6">
+    <row r="324" ht="18.75" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7035,7 +7040,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="17.4" spans="1:6">
+    <row r="325" ht="18.75" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7047,7 +7052,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="17.4" spans="1:6">
+    <row r="326" ht="18.75" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7059,7 +7064,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="17.4" spans="1:6">
+    <row r="327" ht="18.75" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7071,7 +7076,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="17.4" spans="1:6">
+    <row r="328" ht="18.75" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7083,7 +7088,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="17.4" spans="1:6">
+    <row r="329" ht="18.75" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7095,7 +7100,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="17.4" spans="1:6">
+    <row r="330" ht="18.75" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7107,7 +7112,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="17.4" spans="1:6">
+    <row r="331" ht="18.75" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7119,7 +7124,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="17.4" spans="1:6">
+    <row r="332" ht="18.75" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7131,7 +7136,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="17.4" spans="1:6">
+    <row r="333" ht="18.75" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7143,7 +7148,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="17.4" spans="1:6">
+    <row r="334" ht="18.75" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7155,7 +7160,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="17.4" spans="1:6">
+    <row r="335" ht="18.75" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7167,7 +7172,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="17.4" spans="1:6">
+    <row r="336" ht="18.75" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7179,7 +7184,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="17.4" spans="1:6">
+    <row r="337" ht="18.75" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7191,7 +7196,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="17.4" spans="1:6">
+    <row r="338" ht="18.75" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7203,7 +7208,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="17.4" spans="1:6">
+    <row r="339" ht="18.75" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7215,7 +7220,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="17.4" spans="1:6">
+    <row r="340" ht="18.75" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7227,7 +7232,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="17.4" spans="1:6">
+    <row r="341" ht="18.75" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7239,7 +7244,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="17.4" spans="1:6">
+    <row r="342" ht="18.75" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7251,7 +7256,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="17.4" spans="1:6">
+    <row r="343" ht="18.75" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7263,7 +7268,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="17.4" spans="1:6">
+    <row r="344" ht="18.75" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7275,7 +7280,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="17.4" spans="1:6">
+    <row r="345" ht="18.75" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7287,7 +7292,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="17.4" spans="1:6">
+    <row r="346" ht="18.75" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7299,7 +7304,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="17.4" spans="1:6">
+    <row r="347" ht="18.75" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7311,7 +7316,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="17.4" spans="1:6">
+    <row r="348" ht="18.75" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7323,7 +7328,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="17.4" spans="1:6">
+    <row r="349" ht="18.75" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7335,7 +7340,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="17.4" spans="1:6">
+    <row r="350" ht="18.75" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7347,7 +7352,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="17.4" spans="1:6">
+    <row r="351" ht="18.75" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7359,7 +7364,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="17.4" spans="1:6">
+    <row r="352" ht="18.75" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7371,7 +7376,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="17.4" spans="1:6">
+    <row r="353" ht="18.75" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7383,7 +7388,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="17.4" spans="1:6">
+    <row r="354" ht="18.75" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7395,7 +7400,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="17.4" spans="1:6">
+    <row r="355" ht="18.75" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7407,7 +7412,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="17.4" spans="1:6">
+    <row r="356" ht="18.75" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7419,7 +7424,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="17.4" spans="1:6">
+    <row r="357" ht="18.75" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7431,7 +7436,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="17.4" spans="1:6">
+    <row r="358" ht="18.75" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7443,7 +7448,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="17.4" spans="1:6">
+    <row r="359" ht="18.75" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7455,7 +7460,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="17.4" spans="1:6">
+    <row r="360" ht="18.75" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7467,7 +7472,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="17.4" spans="1:6">
+    <row r="361" ht="18.75" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7479,7 +7484,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="17.4" spans="1:6">
+    <row r="362" ht="18.75" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7491,7 +7496,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="17.4" spans="1:6">
+    <row r="363" ht="18.75" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7503,7 +7508,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="17.4" spans="1:6">
+    <row r="364" ht="18.75" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7515,7 +7520,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="17.4" spans="1:6">
+    <row r="365" ht="18.75" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7527,7 +7532,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="17.4" spans="1:6">
+    <row r="366" ht="18.75" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="109">
   <si>
     <t>日期</t>
   </si>
@@ -66,7 +66,7 @@
     <t>《明日方舟》2024感谢庆典版本更新</t>
   </si>
   <si>
-    <t>《代号二杠三》首爆PV</t>
+    <t>《代号二杠三》首曝PV</t>
   </si>
   <si>
     <t>周六</t>
@@ -129,13 +129,13 @@
     <t>《鸣潮》TGA 2024最佳手游提名</t>
   </si>
   <si>
-    <t>《崩坏星穹铁道》谷歌最佳续作奖</t>
+    <t>《崩坏星穹铁道》谷歌年度最佳持续影响力奖</t>
   </si>
   <si>
     <t>《剑与远征2》谷歌年度最佳</t>
   </si>
   <si>
-    <t>《最终幻想14：水晶世界》首爆PV</t>
+    <t>《最终幻想14：水晶世界》首曝PV</t>
   </si>
   <si>
     <t>《原神》5.2版本更新</t>
@@ -201,7 +201,7 @@
     <t>《异环》奇点测试</t>
   </si>
   <si>
-    <t>《荒野起源》首爆PV</t>
+    <t>《荒野起源》首曝PV</t>
   </si>
   <si>
     <t>《归龙潮》网传项目组大裁员</t>
@@ -258,7 +258,7 @@
     <t>《原神》PS合作伙伴奖 2024 PARTNER AWARD</t>
   </si>
   <si>
-    <t>《洛克王国：世界》二测爆料</t>
+    <t>《洛克王国：世界》二测曝料</t>
   </si>
   <si>
     <t>《崩坏星穹铁道》2.7版本更新</t>
@@ -300,6 +300,15 @@
     <t>《王者荣耀星之破晓》先遣测试正式停服</t>
   </si>
   <si>
+    <t>《无限暖暖》发内部信，国内PC占比50%，国外PC+PS占比80%</t>
+  </si>
+  <si>
+    <t>《星痕共鸣》首曝PV</t>
+  </si>
+  <si>
+    <t>《星痕共鸣》星启测试招募开启</t>
+  </si>
+  <si>
     <t>《归龙潮》1.2版本更新</t>
   </si>
   <si>
@@ -315,7 +324,7 @@
     <t>《第五人格》第36赛季</t>
   </si>
   <si>
-    <t>《幻塔》4.6版本更新</t>
+    <t>《幻塔》三周年4.6版本更新</t>
   </si>
   <si>
     <t>《雪松》台架测试结束</t>
@@ -328,6 +337,9 @@
   </si>
   <si>
     <t>《绝区零》韩服iphone联动</t>
+  </si>
+  <si>
+    <t>《星痕共鸣》星启测试招募结束</t>
   </si>
   <si>
     <t>《少女前线》正式停服</t>
@@ -1071,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1156,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1159,9 +1177,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,11 +1186,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1702,22 +1717,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65:F70"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80:D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
     <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.3833333333333" style="15" customWidth="1"/>
-    <col min="5" max="5" width="54.1333333333333" style="15" customWidth="1"/>
-    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="4" max="4" width="44.3796296296296" style="15" customWidth="1"/>
+    <col min="5" max="5" width="56" style="15" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2184,7 +2199,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2196,7 +2211,7 @@
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="19"/>
@@ -2206,7 +2221,7 @@
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="19"/>
@@ -2216,7 +2231,7 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8">
@@ -2378,24 +2393,24 @@
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="22"/>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="25">
+      <c r="A53" s="27">
         <v>45629</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29" t="s">
+      <c r="D53" s="30"/>
+      <c r="E53" s="24" t="s">
         <v>64</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -2403,90 +2418,90 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="30"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="24" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="27" t="s">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="24" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="24" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="30"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="27" t="s">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="24" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="24" t="s">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="24" t="s">
+      <c r="D61" s="33"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2605,54 +2620,50 @@
         <v>89</v>
       </c>
       <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2660,10 +2671,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8">
-        <v>45636</v>
+        <v>45634</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2672,94 +2683,96 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="8">
-        <v>45637</v>
+        <v>45635</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="10">
+      <c r="A78" s="8">
+        <v>45636</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8">
+        <v>45637</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="10">
         <v>45638</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17"/>
       <c r="C80" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8">
-        <v>45639</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8">
-        <v>45640</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8">
-        <v>45642</v>
+        <v>45640</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2768,10 +2781,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <v>45643</v>
+        <v>45641</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2780,76 +2793,74 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <v>45644</v>
+        <v>45642</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <v>45645</v>
+        <v>45643</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="8">
-        <v>45646</v>
+        <v>45644</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="8">
-        <v>46012</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="A89" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="8">
-        <v>45648</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2858,10 +2869,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <v>45650</v>
+        <v>46012</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2870,10 +2881,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <v>45651</v>
+        <v>45648</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2882,10 +2893,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2894,10 +2905,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="8">
-        <v>45653</v>
+        <v>45650</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2906,10 +2917,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="8">
-        <v>45654</v>
+        <v>45651</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -2918,10 +2929,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="8">
-        <v>45655</v>
+        <v>45652</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2930,10 +2941,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="8">
-        <v>45656</v>
+        <v>45653</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -2942,104 +2953,140 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="8">
-        <v>45657</v>
+        <v>45654</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="13.5" spans="1:5">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" ht="13.5" spans="1:5">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-    </row>
-    <row r="102" ht="13.5" spans="1:5">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-    </row>
-    <row r="103" ht="13.5" spans="1:5">
+    <row r="100" spans="1:6">
+      <c r="A100" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" ht="14.4" spans="1:5">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" ht="13.5" spans="1:5">
+    <row r="104" ht="14.4" spans="1:5">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" ht="13.5" spans="1:5">
+    <row r="105" ht="14.4" spans="1:5">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" ht="13.5" spans="1:5">
+    <row r="106" ht="14.4" spans="1:5">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" ht="13.5" spans="1:5">
+    <row r="107" ht="14.4" spans="1:5">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" ht="13.5" spans="1:5">
+    <row r="108" ht="14.4" spans="1:5">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" ht="13.5" spans="1:5">
+    <row r="109" ht="14.4" spans="1:5">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" ht="13.5" spans="1:5">
+    <row r="110" ht="14.4" spans="1:5">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" ht="13.5" spans="1:5">
+    <row r="111" ht="14.4" spans="1:5">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
+    <row r="112" ht="14.4" spans="1:5">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" ht="14.4" spans="1:5">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" ht="14.4" spans="1:5">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="74">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3052,8 +3099,9 @@
     <mergeCell ref="A53:A61"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A89:A90"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -3066,8 +3114,9 @@
     <mergeCell ref="B53:B61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B89:B90"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C51:C52"/>
@@ -3084,8 +3133,9 @@
     <mergeCell ref="D53:D61"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D89:D90"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
@@ -3097,8 +3147,9 @@
     <mergeCell ref="E53:E61"/>
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="E65:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E89:E90"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
@@ -3107,8 +3158,9 @@
     <mergeCell ref="F51:F52"/>
     <mergeCell ref="F62:F64"/>
     <mergeCell ref="F65:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F89:F90"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3121,22 +3173,22 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.225" customWidth="1"/>
-    <col min="3" max="3" width="46.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3156,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3168,7 +3220,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="17.4" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3180,7 +3232,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="17.4" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3188,13 +3240,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="17.4" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3202,13 +3254,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="17.4" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3220,7 +3272,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" ht="17.4" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3232,7 +3284,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" ht="17.4" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3244,7 +3296,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" ht="17.4" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3256,7 +3308,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3268,7 +3320,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3280,7 +3332,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" ht="17.4" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3292,7 +3344,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3304,7 +3356,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" ht="17.4" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3316,7 +3368,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" ht="17.4" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3328,7 +3380,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" ht="17.4" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3340,7 +3392,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" ht="17.4" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3352,7 +3404,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" ht="17.4" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3364,7 +3416,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" ht="17.4" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3376,7 +3428,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" ht="17.4" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3388,7 +3440,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" ht="17.4" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3400,7 +3452,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" ht="17.4" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3412,7 +3464,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" ht="17.4" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3424,7 +3476,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="18.75" spans="1:6">
+    <row r="24" ht="17.4" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3436,7 +3488,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:6">
+    <row r="25" ht="17.4" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3444,13 +3496,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="18.75" spans="1:6">
+    <row r="26" ht="17.4" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3462,7 +3514,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:6">
+    <row r="27" ht="17.4" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3474,7 +3526,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="1:6">
+    <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3486,7 +3538,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="17.4" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3498,7 +3550,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="17.4" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3510,7 +3562,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="17.4" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3522,7 +3574,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="17.4" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3534,7 +3586,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:6">
+    <row r="33" ht="17.4" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3546,7 +3598,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="18.75" spans="1:6">
+    <row r="34" ht="17.4" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3558,7 +3610,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="18.75" spans="1:6">
+    <row r="35" ht="17.4" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3570,7 +3622,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="18.75" spans="1:6">
+    <row r="36" ht="17.4" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3582,7 +3634,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="18.75" spans="1:6">
+    <row r="37" ht="17.4" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3594,7 +3646,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="18.75" spans="1:6">
+    <row r="38" ht="17.4" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3606,7 +3658,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="18.75" spans="1:6">
+    <row r="39" ht="17.4" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3618,7 +3670,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18.75" spans="1:6">
+    <row r="40" ht="17.4" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3630,7 +3682,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="18.75" spans="1:6">
+    <row r="41" ht="17.4" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3642,7 +3694,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="18.75" spans="1:6">
+    <row r="42" ht="17.4" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3654,7 +3706,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="18.75" spans="1:6">
+    <row r="43" ht="17.4" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3666,7 +3718,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="18.75" spans="1:6">
+    <row r="44" ht="17.4" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3678,7 +3730,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="18.75" spans="1:6">
+    <row r="45" ht="17.4" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3690,7 +3742,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="18.75" spans="1:6">
+    <row r="46" ht="17.4" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3702,7 +3754,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="18.75" spans="1:6">
+    <row r="47" ht="17.4" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3714,7 +3766,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="18.75" spans="1:6">
+    <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3726,7 +3778,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="18.75" spans="1:6">
+    <row r="49" ht="17.4" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -3738,7 +3790,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="18.75" spans="1:6">
+    <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -3750,7 +3802,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="17.4" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -3762,7 +3814,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="17.4" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -3774,7 +3826,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="17.4" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -3786,7 +3838,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="18.75" spans="1:6">
+    <row r="54" ht="17.4" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -3798,7 +3850,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="18.75" spans="1:6">
+    <row r="55" ht="17.4" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -3810,7 +3862,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="18.75" spans="1:6">
+    <row r="56" ht="17.4" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -3822,7 +3874,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="18.75" spans="1:6">
+    <row r="57" ht="17.4" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -3830,13 +3882,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="18.75" spans="1:6">
+    <row r="58" ht="17.4" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -3848,7 +3900,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="18.75" spans="1:6">
+    <row r="59" ht="17.4" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -3860,7 +3912,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18.75" spans="1:6">
+    <row r="60" ht="17.4" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -3872,7 +3924,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18.75" spans="1:6">
+    <row r="61" ht="17.4" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -3884,7 +3936,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="18.75" spans="1:6">
+    <row r="62" ht="17.4" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -3896,7 +3948,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="18.75" spans="1:6">
+    <row r="63" ht="17.4" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -3908,7 +3960,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="18.75" spans="1:6">
+    <row r="64" ht="17.4" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -3920,7 +3972,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="18.75" spans="1:6">
+    <row r="65" ht="17.4" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -3932,7 +3984,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="18.75" spans="1:6">
+    <row r="66" ht="17.4" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -3944,7 +3996,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="18.75" spans="1:6">
+    <row r="67" ht="17.4" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -3956,7 +4008,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="18.75" spans="1:6">
+    <row r="68" ht="17.4" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -3968,7 +4020,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="18.75" spans="1:6">
+    <row r="69" ht="17.4" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -3980,7 +4032,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="17.4" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -3992,7 +4044,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="17.4" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -4004,7 +4056,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="17.4" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4016,7 +4068,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="17.4" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4028,7 +4080,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="18.75" spans="1:6">
+    <row r="74" ht="17.4" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4040,7 +4092,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="18.75" spans="1:6">
+    <row r="75" ht="17.4" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4052,7 +4104,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="18.75" spans="1:6">
+    <row r="76" ht="17.4" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4064,7 +4116,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="18.75" spans="1:6">
+    <row r="77" ht="17.4" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4076,7 +4128,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="18.75" spans="1:6">
+    <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4088,7 +4140,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="18.75" spans="1:6">
+    <row r="79" ht="17.4" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4100,7 +4152,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="18.75" spans="1:6">
+    <row r="80" ht="17.4" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4112,7 +4164,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="18.75" spans="1:6">
+    <row r="81" ht="17.4" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4124,7 +4176,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="18.75" spans="1:6">
+    <row r="82" ht="17.4" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4136,7 +4188,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="18.75" spans="1:6">
+    <row r="83" ht="17.4" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4148,7 +4200,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="18.75" spans="1:6">
+    <row r="84" ht="17.4" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4160,7 +4212,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="18.75" spans="1:6">
+    <row r="85" ht="17.4" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4172,7 +4224,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="18.75" spans="1:6">
+    <row r="86" ht="17.4" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4184,7 +4236,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="18.75" spans="1:6">
+    <row r="87" ht="17.4" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4196,7 +4248,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="18.75" spans="1:6">
+    <row r="88" ht="17.4" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4208,7 +4260,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="18.75" spans="1:6">
+    <row r="89" ht="17.4" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4220,7 +4272,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="17.4" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4232,7 +4284,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="17.4" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4244,7 +4296,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="17.4" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4256,7 +4308,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="17.4" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4268,7 +4320,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="18.75" spans="1:6">
+    <row r="94" ht="17.4" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4280,7 +4332,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="18.75" spans="1:6">
+    <row r="95" ht="17.4" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4292,7 +4344,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="18.75" spans="1:6">
+    <row r="96" ht="17.4" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4304,7 +4356,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="18.75" spans="1:6">
+    <row r="97" ht="17.4" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4316,7 +4368,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="18.75" spans="1:6">
+    <row r="98" ht="17.4" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4328,7 +4380,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="18.75" spans="1:6">
+    <row r="99" ht="17.4" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4340,7 +4392,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="18.75" spans="1:6">
+    <row r="100" ht="17.4" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4352,7 +4404,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="18.75" spans="1:6">
+    <row r="101" ht="17.4" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4364,7 +4416,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="18.75" spans="1:6">
+    <row r="102" ht="17.4" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4376,7 +4428,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="18.75" spans="1:6">
+    <row r="103" ht="17.4" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4388,7 +4440,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="18.75" spans="1:6">
+    <row r="104" ht="17.4" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4400,7 +4452,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="18.75" spans="1:6">
+    <row r="105" ht="17.4" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4412,7 +4464,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="18.75" spans="1:6">
+    <row r="106" ht="17.4" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4424,7 +4476,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="18.75" spans="1:6">
+    <row r="107" ht="17.4" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4436,7 +4488,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="17.4" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4448,7 +4500,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="17.4" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4460,7 +4512,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="17.4" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4472,7 +4524,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="17.4" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4484,7 +4536,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="18.75" spans="1:6">
+    <row r="112" ht="17.4" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4496,7 +4548,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="18.75" spans="1:6">
+    <row r="113" ht="17.4" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4508,7 +4560,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="18.75" spans="1:6">
+    <row r="114" ht="17.4" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4520,7 +4572,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="18.75" spans="1:6">
+    <row r="115" ht="17.4" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4532,7 +4584,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="18.75" spans="1:6">
+    <row r="116" ht="17.4" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4544,7 +4596,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="18.75" spans="1:6">
+    <row r="117" ht="17.4" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4556,7 +4608,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="18.75" spans="1:6">
+    <row r="118" ht="17.4" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4568,7 +4620,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="18.75" spans="1:6">
+    <row r="119" ht="17.4" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4580,7 +4632,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="18.75" spans="1:6">
+    <row r="120" ht="17.4" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4592,7 +4644,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="18.75" spans="1:6">
+    <row r="121" ht="17.4" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4604,7 +4656,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="18.75" spans="1:6">
+    <row r="122" ht="17.4" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4616,7 +4668,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18.75" spans="1:6">
+    <row r="123" ht="17.4" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4628,7 +4680,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18.75" spans="1:6">
+    <row r="124" ht="17.4" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4640,7 +4692,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="18.75" spans="1:6">
+    <row r="125" ht="17.4" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4652,7 +4704,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18.75" spans="1:6">
+    <row r="126" ht="17.4" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4664,7 +4716,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="18.75" spans="1:6">
+    <row r="127" ht="17.4" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4676,7 +4728,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="18.75" spans="1:6">
+    <row r="128" ht="17.4" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4688,7 +4740,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18.75" spans="1:6">
+    <row r="129" ht="17.4" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4700,7 +4752,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="18.75" spans="1:6">
+    <row r="130" ht="17.4" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4712,7 +4764,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="18.75" spans="1:6">
+    <row r="131" ht="17.4" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4724,7 +4776,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="18.75" spans="1:6">
+    <row r="132" ht="17.4" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -4736,7 +4788,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="18.75" spans="1:6">
+    <row r="133" ht="17.4" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -4748,7 +4800,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="18.75" spans="1:6">
+    <row r="134" ht="17.4" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -4760,7 +4812,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="18.75" spans="1:6">
+    <row r="135" ht="17.4" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -4772,7 +4824,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="18.75" spans="1:6">
+    <row r="136" ht="17.4" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -4784,7 +4836,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="18.75" spans="1:6">
+    <row r="137" ht="17.4" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -4796,7 +4848,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="18.75" spans="1:6">
+    <row r="138" ht="17.4" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -4808,7 +4860,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="17.4" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -4820,7 +4872,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="17.4" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -4832,7 +4884,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="17.4" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -4844,7 +4896,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="17.4" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -4856,7 +4908,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="17.4" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -4868,7 +4920,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="17.4" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -4880,7 +4932,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="17.4" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -4892,7 +4944,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="17.4" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -4904,7 +4956,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="17.4" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -4916,7 +4968,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="17.4" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -4928,7 +4980,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="17.4" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -4940,7 +4992,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="18.75" spans="1:6">
+    <row r="150" ht="17.4" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -4952,7 +5004,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="18.75" spans="1:6">
+    <row r="151" ht="17.4" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -4964,7 +5016,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="18.75" spans="1:6">
+    <row r="152" ht="17.4" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -4976,7 +5028,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="18.75" spans="1:6">
+    <row r="153" ht="17.4" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -4988,7 +5040,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="18.75" spans="1:6">
+    <row r="154" ht="17.4" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -5000,7 +5052,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="18.75" spans="1:6">
+    <row r="155" ht="17.4" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5012,7 +5064,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="18.75" spans="1:6">
+    <row r="156" ht="17.4" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5024,7 +5076,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="18.75" spans="1:6">
+    <row r="157" ht="17.4" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5036,7 +5088,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="18.75" spans="1:6">
+    <row r="158" ht="17.4" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5048,7 +5100,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="18.75" spans="1:6">
+    <row r="159" ht="17.4" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5060,7 +5112,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="18.75" spans="1:6">
+    <row r="160" ht="17.4" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5072,7 +5124,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="18.75" spans="1:6">
+    <row r="161" ht="17.4" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5084,7 +5136,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="18.75" spans="1:6">
+    <row r="162" ht="17.4" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5096,7 +5148,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="18.75" spans="1:6">
+    <row r="163" ht="17.4" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5108,7 +5160,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="18.75" spans="1:6">
+    <row r="164" ht="17.4" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5120,7 +5172,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="18.75" spans="1:6">
+    <row r="165" ht="17.4" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5132,7 +5184,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="18.75" spans="1:6">
+    <row r="166" ht="17.4" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5144,7 +5196,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="18.75" spans="1:6">
+    <row r="167" ht="17.4" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5156,7 +5208,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="18.75" spans="1:6">
+    <row r="168" ht="17.4" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5168,7 +5220,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="18.75" spans="1:6">
+    <row r="169" ht="17.4" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5180,7 +5232,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="18.75" spans="1:6">
+    <row r="170" ht="17.4" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5192,7 +5244,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="18.75" spans="1:6">
+    <row r="171" ht="17.4" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5204,7 +5256,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="18.75" spans="1:6">
+    <row r="172" ht="17.4" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5216,7 +5268,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="18.75" spans="1:6">
+    <row r="173" ht="17.4" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5228,7 +5280,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="18.75" spans="1:6">
+    <row r="174" ht="17.4" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5240,7 +5292,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="18.75" spans="1:6">
+    <row r="175" ht="17.4" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5252,7 +5304,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="18.75" spans="1:6">
+    <row r="176" ht="17.4" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5264,7 +5316,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="18.75" spans="1:6">
+    <row r="177" ht="17.4" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5276,7 +5328,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="18.75" spans="1:6">
+    <row r="178" ht="17.4" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5288,7 +5340,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="18.75" spans="1:6">
+    <row r="179" ht="17.4" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5300,7 +5352,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="18.75" spans="1:6">
+    <row r="180" ht="17.4" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5312,7 +5364,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="18.75" spans="1:6">
+    <row r="181" ht="17.4" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5324,7 +5376,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="18.75" spans="1:6">
+    <row r="182" ht="17.4" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5336,7 +5388,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="18.75" spans="1:6">
+    <row r="183" ht="17.4" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5348,7 +5400,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="18.75" spans="1:6">
+    <row r="184" ht="17.4" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5360,7 +5412,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="18.75" spans="1:6">
+    <row r="185" ht="17.4" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5372,7 +5424,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="18.75" spans="1:6">
+    <row r="186" ht="17.4" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5384,7 +5436,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="18.75" spans="1:6">
+    <row r="187" ht="17.4" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5396,7 +5448,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="18.75" spans="1:6">
+    <row r="188" ht="17.4" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5408,7 +5460,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="18.75" spans="1:6">
+    <row r="189" ht="17.4" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5420,7 +5472,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="18.75" spans="1:6">
+    <row r="190" ht="17.4" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5432,7 +5484,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="18.75" spans="1:6">
+    <row r="191" ht="17.4" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5444,7 +5496,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="18.75" spans="1:6">
+    <row r="192" ht="17.4" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5456,7 +5508,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="18.75" spans="1:6">
+    <row r="193" ht="17.4" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5468,7 +5520,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="18.75" spans="1:6">
+    <row r="194" ht="17.4" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5480,7 +5532,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="18.75" spans="1:6">
+    <row r="195" ht="17.4" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5492,7 +5544,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="18.75" spans="1:6">
+    <row r="196" ht="17.4" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5504,7 +5556,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="18.75" spans="1:6">
+    <row r="197" ht="17.4" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5516,7 +5568,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="18.75" spans="1:6">
+    <row r="198" ht="17.4" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5528,7 +5580,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="18.75" spans="1:6">
+    <row r="199" ht="17.4" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5540,7 +5592,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="18.75" spans="1:6">
+    <row r="200" ht="17.4" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5552,7 +5604,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="18.75" spans="1:6">
+    <row r="201" ht="17.4" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5564,7 +5616,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="18.75" spans="1:6">
+    <row r="202" ht="17.4" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5576,7 +5628,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="18.75" spans="1:6">
+    <row r="203" ht="17.4" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5588,7 +5640,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="18.75" spans="1:6">
+    <row r="204" ht="17.4" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5600,7 +5652,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="18.75" spans="1:6">
+    <row r="205" ht="17.4" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5612,7 +5664,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="18.75" spans="1:6">
+    <row r="206" ht="17.4" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5624,7 +5676,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="18.75" spans="1:6">
+    <row r="207" ht="17.4" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5636,7 +5688,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="18.75" spans="1:6">
+    <row r="208" ht="17.4" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5648,7 +5700,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="18.75" spans="1:6">
+    <row r="209" ht="17.4" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5660,7 +5712,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="18.75" spans="1:6">
+    <row r="210" ht="17.4" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5672,7 +5724,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="18.75" spans="1:6">
+    <row r="211" ht="17.4" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5684,7 +5736,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="18.75" spans="1:6">
+    <row r="212" ht="17.4" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5696,7 +5748,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="18.75" spans="1:6">
+    <row r="213" ht="17.4" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5708,7 +5760,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="18.75" spans="1:6">
+    <row r="214" ht="17.4" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5720,7 +5772,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="18.75" spans="1:6">
+    <row r="215" ht="17.4" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -5732,7 +5784,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="18.75" spans="1:6">
+    <row r="216" ht="17.4" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -5744,7 +5796,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="18.75" spans="1:6">
+    <row r="217" ht="17.4" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -5756,7 +5808,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="18.75" spans="1:6">
+    <row r="218" ht="17.4" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -5768,7 +5820,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="18.75" spans="1:6">
+    <row r="219" ht="17.4" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -5780,7 +5832,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="18.75" spans="1:6">
+    <row r="220" ht="17.4" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -5792,7 +5844,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="18.75" spans="1:6">
+    <row r="221" ht="17.4" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -5804,7 +5856,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="18.75" spans="1:6">
+    <row r="222" ht="17.4" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -5816,7 +5868,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="18.75" spans="1:6">
+    <row r="223" ht="17.4" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -5828,7 +5880,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="18.75" spans="1:6">
+    <row r="224" ht="17.4" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -5840,7 +5892,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="18.75" spans="1:6">
+    <row r="225" ht="17.4" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -5852,7 +5904,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="18.75" spans="1:6">
+    <row r="226" ht="17.4" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -5864,7 +5916,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="18.75" spans="1:6">
+    <row r="227" ht="17.4" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -5876,7 +5928,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="18.75" spans="1:6">
+    <row r="228" ht="17.4" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -5888,7 +5940,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="18.75" spans="1:6">
+    <row r="229" ht="17.4" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -5900,7 +5952,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="18.75" spans="1:6">
+    <row r="230" ht="17.4" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -5912,7 +5964,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="18.75" spans="1:6">
+    <row r="231" ht="17.4" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -5924,7 +5976,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="18.75" spans="1:6">
+    <row r="232" ht="17.4" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -5936,7 +5988,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="18.75" spans="1:6">
+    <row r="233" ht="17.4" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -5948,7 +6000,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="18.75" spans="1:6">
+    <row r="234" ht="17.4" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -5960,7 +6012,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="18.75" spans="1:6">
+    <row r="235" ht="17.4" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -5972,7 +6024,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="18.75" spans="1:6">
+    <row r="236" ht="17.4" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -5984,7 +6036,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="18.75" spans="1:6">
+    <row r="237" ht="17.4" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -5996,7 +6048,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="18.75" spans="1:6">
+    <row r="238" ht="17.4" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6008,7 +6060,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="18.75" spans="1:6">
+    <row r="239" ht="17.4" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6020,7 +6072,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="18.75" spans="1:6">
+    <row r="240" ht="17.4" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6032,7 +6084,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="18.75" spans="1:6">
+    <row r="241" ht="17.4" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6044,7 +6096,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="18.75" spans="1:6">
+    <row r="242" ht="17.4" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6056,7 +6108,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="18.75" spans="1:6">
+    <row r="243" ht="17.4" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6068,7 +6120,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="18.75" spans="1:6">
+    <row r="244" ht="17.4" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6080,7 +6132,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="18.75" spans="1:6">
+    <row r="245" ht="17.4" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6092,7 +6144,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="18.75" spans="1:6">
+    <row r="246" ht="17.4" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6104,7 +6156,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="18.75" spans="1:6">
+    <row r="247" ht="17.4" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6116,7 +6168,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="18.75" spans="1:6">
+    <row r="248" ht="17.4" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6128,7 +6180,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="18.75" spans="1:6">
+    <row r="249" ht="17.4" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6140,7 +6192,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="18.75" spans="1:6">
+    <row r="250" ht="17.4" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6152,7 +6204,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="18.75" spans="1:6">
+    <row r="251" ht="17.4" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6164,7 +6216,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="18.75" spans="1:6">
+    <row r="252" ht="17.4" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6176,7 +6228,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="18.75" spans="1:6">
+    <row r="253" ht="17.4" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6188,7 +6240,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="18.75" spans="1:6">
+    <row r="254" ht="17.4" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6200,7 +6252,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="18.75" spans="1:6">
+    <row r="255" ht="17.4" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6212,7 +6264,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="18.75" spans="1:6">
+    <row r="256" ht="17.4" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6224,7 +6276,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="18.75" spans="1:6">
+    <row r="257" ht="17.4" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6236,7 +6288,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="18.75" spans="1:6">
+    <row r="258" ht="17.4" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6248,7 +6300,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="18.75" spans="1:6">
+    <row r="259" ht="17.4" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6260,7 +6312,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="18.75" spans="1:6">
+    <row r="260" ht="17.4" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6272,7 +6324,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="18.75" spans="1:6">
+    <row r="261" ht="17.4" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6284,7 +6336,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="18.75" spans="1:6">
+    <row r="262" ht="17.4" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6296,7 +6348,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="18.75" spans="1:6">
+    <row r="263" ht="17.4" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6308,7 +6360,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="18.75" spans="1:6">
+    <row r="264" ht="17.4" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6320,7 +6372,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="18.75" spans="1:6">
+    <row r="265" ht="17.4" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6332,7 +6384,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="18.75" spans="1:6">
+    <row r="266" ht="17.4" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6344,7 +6396,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="18.75" spans="1:6">
+    <row r="267" ht="17.4" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6356,7 +6408,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="18.75" spans="1:6">
+    <row r="268" ht="17.4" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6368,7 +6420,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="18.75" spans="1:6">
+    <row r="269" ht="17.4" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6380,7 +6432,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="18.75" spans="1:6">
+    <row r="270" ht="17.4" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6392,7 +6444,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="18.75" spans="1:6">
+    <row r="271" ht="17.4" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6404,7 +6456,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="18.75" spans="1:6">
+    <row r="272" ht="17.4" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6416,7 +6468,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="18.75" spans="1:6">
+    <row r="273" ht="17.4" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6428,7 +6480,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="18.75" spans="1:6">
+    <row r="274" ht="17.4" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6440,7 +6492,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="18.75" spans="1:6">
+    <row r="275" ht="17.4" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6452,7 +6504,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="18.75" spans="1:6">
+    <row r="276" ht="17.4" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6464,7 +6516,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="18.75" spans="1:6">
+    <row r="277" ht="17.4" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6476,7 +6528,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="18.75" spans="1:6">
+    <row r="278" ht="17.4" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6488,7 +6540,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="18.75" spans="1:6">
+    <row r="279" ht="17.4" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6500,7 +6552,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="18.75" spans="1:6">
+    <row r="280" ht="17.4" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6512,7 +6564,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="18.75" spans="1:6">
+    <row r="281" ht="17.4" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6524,7 +6576,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="18.75" spans="1:6">
+    <row r="282" ht="17.4" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6536,7 +6588,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="18.75" spans="1:6">
+    <row r="283" ht="17.4" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6548,7 +6600,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="18.75" spans="1:6">
+    <row r="284" ht="17.4" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6560,7 +6612,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="18.75" spans="1:6">
+    <row r="285" ht="17.4" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6572,7 +6624,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="18.75" spans="1:6">
+    <row r="286" ht="17.4" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6584,7 +6636,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="18.75" spans="1:6">
+    <row r="287" ht="17.4" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6596,7 +6648,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="18.75" spans="1:6">
+    <row r="288" ht="17.4" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6608,7 +6660,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="18.75" spans="1:6">
+    <row r="289" ht="17.4" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6620,7 +6672,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="18.75" spans="1:6">
+    <row r="290" ht="17.4" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6632,7 +6684,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="18.75" spans="1:6">
+    <row r="291" ht="17.4" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6644,7 +6696,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="18.75" spans="1:6">
+    <row r="292" ht="17.4" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6656,7 +6708,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="18.75" spans="1:6">
+    <row r="293" ht="17.4" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6668,7 +6720,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="18.75" spans="1:6">
+    <row r="294" ht="17.4" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6680,7 +6732,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="18.75" spans="1:6">
+    <row r="295" ht="17.4" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6692,7 +6744,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="18.75" spans="1:6">
+    <row r="296" ht="17.4" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6704,7 +6756,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="18.75" spans="1:6">
+    <row r="297" ht="17.4" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6716,7 +6768,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="18.75" spans="1:6">
+    <row r="298" ht="17.4" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -6728,7 +6780,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="18.75" spans="1:6">
+    <row r="299" ht="17.4" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -6740,7 +6792,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="18.75" spans="1:6">
+    <row r="300" ht="17.4" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -6752,7 +6804,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="18.75" spans="1:6">
+    <row r="301" ht="17.4" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -6764,7 +6816,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="18.75" spans="1:6">
+    <row r="302" ht="17.4" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -6776,7 +6828,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="18.75" spans="1:6">
+    <row r="303" ht="17.4" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -6788,7 +6840,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="18.75" spans="1:6">
+    <row r="304" ht="17.4" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -6800,7 +6852,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="18.75" spans="1:6">
+    <row r="305" ht="17.4" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -6812,7 +6864,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="18.75" spans="1:6">
+    <row r="306" ht="17.4" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -6824,7 +6876,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="18.75" spans="1:6">
+    <row r="307" ht="17.4" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -6836,7 +6888,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="18.75" spans="1:6">
+    <row r="308" ht="17.4" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -6848,7 +6900,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="18.75" spans="1:6">
+    <row r="309" ht="17.4" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -6860,7 +6912,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="18.75" spans="1:6">
+    <row r="310" ht="17.4" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -6872,7 +6924,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="18.75" spans="1:6">
+    <row r="311" ht="17.4" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -6884,7 +6936,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="18.75" spans="1:6">
+    <row r="312" ht="17.4" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -6896,7 +6948,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="18.75" spans="1:6">
+    <row r="313" ht="17.4" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -6908,7 +6960,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="18.75" spans="1:6">
+    <row r="314" ht="17.4" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -6920,7 +6972,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="18.75" spans="1:6">
+    <row r="315" ht="17.4" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -6932,7 +6984,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="18.75" spans="1:6">
+    <row r="316" ht="17.4" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -6944,7 +6996,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="18.75" spans="1:6">
+    <row r="317" ht="17.4" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -6956,7 +7008,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="18.75" spans="1:6">
+    <row r="318" ht="17.4" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -6968,7 +7020,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="18.75" spans="1:6">
+    <row r="319" ht="17.4" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -6980,7 +7032,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="18.75" spans="1:6">
+    <row r="320" ht="17.4" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -6992,7 +7044,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="18.75" spans="1:6">
+    <row r="321" ht="17.4" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -7004,7 +7056,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="18.75" spans="1:6">
+    <row r="322" ht="17.4" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7016,7 +7068,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="18.75" spans="1:6">
+    <row r="323" ht="17.4" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7028,7 +7080,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="18.75" spans="1:6">
+    <row r="324" ht="17.4" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7040,7 +7092,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="18.75" spans="1:6">
+    <row r="325" ht="17.4" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7052,7 +7104,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="18.75" spans="1:6">
+    <row r="326" ht="17.4" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7064,7 +7116,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="18.75" spans="1:6">
+    <row r="327" ht="17.4" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7076,7 +7128,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="18.75" spans="1:6">
+    <row r="328" ht="17.4" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7088,7 +7140,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="18.75" spans="1:6">
+    <row r="329" ht="17.4" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7100,7 +7152,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="18.75" spans="1:6">
+    <row r="330" ht="17.4" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7112,7 +7164,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="18.75" spans="1:6">
+    <row r="331" ht="17.4" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7124,7 +7176,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="18.75" spans="1:6">
+    <row r="332" ht="17.4" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7136,7 +7188,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="18.75" spans="1:6">
+    <row r="333" ht="17.4" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7148,7 +7200,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="18.75" spans="1:6">
+    <row r="334" ht="17.4" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7160,7 +7212,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="18.75" spans="1:6">
+    <row r="335" ht="17.4" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7172,7 +7224,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="18.75" spans="1:6">
+    <row r="336" ht="17.4" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7184,7 +7236,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="18.75" spans="1:6">
+    <row r="337" ht="17.4" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7196,7 +7248,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="18.75" spans="1:6">
+    <row r="338" ht="17.4" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7208,7 +7260,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="18.75" spans="1:6">
+    <row r="339" ht="17.4" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7220,7 +7272,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="18.75" spans="1:6">
+    <row r="340" ht="17.4" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7232,7 +7284,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="18.75" spans="1:6">
+    <row r="341" ht="17.4" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7244,7 +7296,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="18.75" spans="1:6">
+    <row r="342" ht="17.4" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7256,7 +7308,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="18.75" spans="1:6">
+    <row r="343" ht="17.4" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7268,7 +7320,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="18.75" spans="1:6">
+    <row r="344" ht="17.4" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7280,7 +7332,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="18.75" spans="1:6">
+    <row r="345" ht="17.4" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7292,7 +7344,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="18.75" spans="1:6">
+    <row r="346" ht="17.4" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7304,7 +7356,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="18.75" spans="1:6">
+    <row r="347" ht="17.4" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7316,7 +7368,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="18.75" spans="1:6">
+    <row r="348" ht="17.4" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7328,7 +7380,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="18.75" spans="1:6">
+    <row r="349" ht="17.4" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7340,7 +7392,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="18.75" spans="1:6">
+    <row r="350" ht="17.4" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7352,7 +7404,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="18.75" spans="1:6">
+    <row r="351" ht="17.4" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7364,7 +7416,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="18.75" spans="1:6">
+    <row r="352" ht="17.4" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7376,7 +7428,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="18.75" spans="1:6">
+    <row r="353" ht="17.4" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7388,7 +7440,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="18.75" spans="1:6">
+    <row r="354" ht="17.4" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7400,7 +7452,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="18.75" spans="1:6">
+    <row r="355" ht="17.4" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7412,7 +7464,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="18.75" spans="1:6">
+    <row r="356" ht="17.4" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7424,7 +7476,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="18.75" spans="1:6">
+    <row r="357" ht="17.4" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7436,7 +7488,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="18.75" spans="1:6">
+    <row r="358" ht="17.4" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7448,7 +7500,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="18.75" spans="1:6">
+    <row r="359" ht="17.4" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7460,7 +7512,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="18.75" spans="1:6">
+    <row r="360" ht="17.4" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7472,7 +7524,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="18.75" spans="1:6">
+    <row r="361" ht="17.4" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7484,7 +7536,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="18.75" spans="1:6">
+    <row r="362" ht="17.4" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7496,7 +7548,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="18.75" spans="1:6">
+    <row r="363" ht="17.4" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7508,7 +7560,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="18.75" spans="1:6">
+    <row r="364" ht="17.4" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7520,7 +7572,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="18.75" spans="1:6">
+    <row r="365" ht="17.4" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7532,7 +7584,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="18.75" spans="1:6">
+    <row r="366" ht="17.4" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="126">
   <si>
     <t>日期</t>
   </si>
@@ -129,10 +129,25 @@
     <t>《鸣潮》TGA 2024最佳手游提名</t>
   </si>
   <si>
-    <t>《崩坏星穹铁道》谷歌年度最佳持续影响力奖</t>
-  </si>
-  <si>
-    <t>《剑与远征2》谷歌年度最佳</t>
+    <t>《剑与远征2》Google play年度最佳</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》Google play年度最佳持续影响力奖</t>
+  </si>
+  <si>
+    <t>《出发吧麦芬》Google play年度最佳休闲游戏</t>
+  </si>
+  <si>
+    <t>《蛋仔派对》Google play年度最佳休闲游戏</t>
+  </si>
+  <si>
+    <t>《剑与远征2》Google play年度最佳剧情游戏</t>
+  </si>
+  <si>
+    <t>《鸣潮》Google play年度最佳剧情游戏</t>
+  </si>
+  <si>
+    <t>《鸣潮》Google play年度最佳PC游戏</t>
   </si>
   <si>
     <t>《最终幻想14：水晶世界》首曝PV</t>
@@ -186,10 +201,10 @@
     <t>《明日方舟》运营Wan顽子就蚀刻章抄袭事件道歉</t>
   </si>
   <si>
-    <t>《绝区零》IOS 2024年度游戏</t>
-  </si>
-  <si>
-    <t>《剑与远征2》IOS 2024年度游戏</t>
+    <t>《绝区零》App Store 入围2024年度iPhone游戏</t>
+  </si>
+  <si>
+    <t>《剑与远征2》App Store 入围2024年度iPhone游戏</t>
   </si>
   <si>
     <t>《地下城与勇士》65版本</t>
@@ -255,12 +270,15 @@
     <t>《原神》PS合作伙伴奖 2024 EXCELLENCE AWARD</t>
   </si>
   <si>
-    <t>《原神》PS合作伙伴奖 2024 PARTNER AWARD</t>
+    <t>《绝区零》PS合作伙伴奖 2024 PARTNER AWARD</t>
   </si>
   <si>
     <t>《洛克王国：世界》二测曝料</t>
   </si>
   <si>
+    <t>《崩坏星穹铁道》PS合作伙伴奖 2024 PARTNER AWARD</t>
+  </si>
+  <si>
     <t>《崩坏星穹铁道》2.7版本更新</t>
   </si>
   <si>
@@ -303,18 +321,45 @@
     <t>《无限暖暖》发内部信，国内PC占比50%，国外PC+PS占比80%</t>
   </si>
   <si>
+    <t>《鸣潮》GamingonPhone年度最佳手游</t>
+  </si>
+  <si>
+    <t>《来自星辰》GamingonPhone年度最佳付费手游</t>
+  </si>
+  <si>
     <t>《星痕共鸣》首曝PV</t>
   </si>
   <si>
+    <t>《绝区零》GamingonPhone年度视觉奇观</t>
+  </si>
+  <si>
     <t>《星痕共鸣》星启测试招募开启</t>
   </si>
   <si>
+    <t>《归龙潮》开终身月卡98元</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》知更鸟英配GamingonPhone年度最佳手游配音</t>
+  </si>
+  <si>
+    <t>《光遇》PC端开服</t>
+  </si>
+  <si>
+    <t>《原神》GamingonPhone年度手游更新</t>
+  </si>
+  <si>
     <t>《归龙潮》1.2版本更新</t>
   </si>
   <si>
+    <t>《绝区零》polygon 2024年50款最佳游戏第44名</t>
+  </si>
+  <si>
     <t>《雪松》台架测试</t>
   </si>
   <si>
+    <t>《燕云十六声》PC公测时间公布</t>
+  </si>
+  <si>
     <t>《异人之下》「入世测试」</t>
   </si>
   <si>
@@ -342,7 +387,13 @@
     <t>《星痕共鸣》星启测试招募结束</t>
   </si>
   <si>
+    <t>《燕云十六声》PC公测</t>
+  </si>
+  <si>
     <t>《少女前线》正式停服</t>
+  </si>
+  <si>
+    <t>《鸣潮》登陆PS5</t>
   </si>
   <si>
     <t>《无限大》线下技术性测试</t>
@@ -735,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -833,6 +884,17 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -959,7 +1021,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,34 +1033,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,7 +1145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1224,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,8 +1278,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1717,22 +1836,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80:D82"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="44.3796296296296" style="15" customWidth="1"/>
-    <col min="5" max="5" width="56" style="15" customWidth="1"/>
-    <col min="6" max="6" width="58" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="53.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2100,530 +2219,524 @@
     <row r="29" spans="1:6">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10">
-        <v>45616</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10">
-        <v>45617</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C33" s="22"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10">
+        <v>45616</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10">
-        <v>45618</v>
+        <v>45617</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="24" t="s">
-        <v>44</v>
-      </c>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8">
-        <v>45620</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="8">
-        <v>45621</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="10">
-        <v>45622</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="4" t="s">
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>45623</v>
+        <v>45619</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
-        <v>45624</v>
+        <v>45620</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8">
+      <c r="A48" s="26">
+        <v>45621</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10">
+        <v>45622</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>45623</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8">
+        <v>45624</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8">
         <v>45625</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8">
+      <c r="C53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8">
         <v>45626</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8">
         <v>45627</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10">
+      <c r="C55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10">
         <v>45628</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="27">
+      <c r="C56" s="6"/>
+      <c r="D56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="36">
         <v>45629</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B58" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="4" t="s">
+      <c r="C58" s="38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26" t="s">
+      <c r="D58" s="39"/>
+      <c r="E58" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="29" t="s">
+      <c r="F58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="29" t="s">
+      <c r="D60" s="42"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26" t="s">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="31"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="34" t="s">
+      <c r="D62" s="42"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="10">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="42"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="42"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="10">
         <v>45630</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="10">
-        <v>45631</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7" t="s">
+      <c r="C67" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="4" t="s">
+      <c r="D67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="21"/>
       <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="22"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="10">
+        <v>45631</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C70" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="21"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="10">
-        <v>45632</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="6"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="19"/>
@@ -2632,8 +2745,8 @@
         <v>91</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="19"/>
@@ -2642,137 +2755,137 @@
         <v>92</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="18"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8">
-        <v>45633</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="A76" s="10">
+        <v>45632</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8">
-        <v>45635</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8">
-        <v>45636</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="46"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8">
-        <v>45637</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="10">
-        <v>45638</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A80" s="49"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D80" s="46"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
+      <c r="A82" s="26">
+        <v>45633</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="C82" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8">
-        <v>45639</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A83" s="52"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8">
-        <v>45640</v>
+        <v>45634</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2781,22 +2894,24 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <v>45642</v>
+        <v>45636</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2805,10 +2920,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <v>45643</v>
+        <v>45637</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2816,60 +2931,56 @@
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8">
-        <v>45644</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>6</v>
+      <c r="A88" s="10">
+        <v>45638</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="10">
-        <v>45645</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" s="21"/>
+        <v>113</v>
+      </c>
+      <c r="D90" s="18"/>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8">
-        <v>45646</v>
+        <v>45639</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <v>46012</v>
+        <v>45640</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>13</v>
@@ -2881,7 +2992,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <v>45648</v>
+        <v>45641</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>14</v>
@@ -2893,7 +3004,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>15</v>
@@ -2905,7 +3016,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="8">
-        <v>45650</v>
+        <v>45643</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>17</v>
@@ -2917,46 +3028,50 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="8">
-        <v>45651</v>
+        <v>45644</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="8">
-        <v>45652</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="8">
-        <v>45653</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="8">
-        <v>45654</v>
+        <v>45646</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2965,10 +3080,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="8">
-        <v>45655</v>
+        <v>46012</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -2977,10 +3092,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="8">
-        <v>45656</v>
+        <v>45648</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2989,178 +3104,282 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="8">
-        <v>45657</v>
+        <v>45649</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" ht="14.4" spans="1:5">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-    </row>
-    <row r="104" ht="14.4" spans="1:5">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-    </row>
-    <row r="105" ht="14.4" spans="1:5">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106" ht="14.4" spans="1:5">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-    </row>
-    <row r="107" ht="14.4" spans="1:5">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-    </row>
-    <row r="108" ht="14.4" spans="1:5">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-    </row>
-    <row r="109" ht="14.4" spans="1:5">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-    </row>
-    <row r="110" ht="14.4" spans="1:5">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-    </row>
-    <row r="111" ht="14.4" spans="1:5">
+    <row r="103" spans="1:6">
+      <c r="A103" s="8">
+        <v>45650</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="8">
+        <v>45651</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="8">
+        <v>45652</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" ht="13.5" spans="1:5">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" ht="14.4" spans="1:5">
+    <row r="112" ht="13.5" spans="1:5">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
     </row>
-    <row r="113" ht="14.4" spans="1:5">
+    <row r="113" ht="13.5" spans="1:5">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" ht="14.4" spans="1:5">
+    <row r="114" ht="13.5" spans="1:5">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
     </row>
+    <row r="115" ht="13.5" spans="1:5">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" ht="13.5" spans="1:5">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" ht="13.5" spans="1:5">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" ht="13.5" spans="1:5">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" ht="13.5" spans="1:5">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" ht="13.5" spans="1:5">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" ht="13.5" spans="1:5">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" ht="13.5" spans="1:5">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="80">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A97:A98"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D53:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D58:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="D97:D98"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E66"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E97:E98"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="F97:F98"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3173,22 +3392,22 @@
   <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" customWidth="1"/>
-    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3220,19 +3439,21 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="17.4" spans="1:6">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3240,13 +3461,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="17.4" spans="1:6">
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3254,13 +3475,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3272,7 +3493,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3284,7 +3505,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3296,7 +3517,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3308,7 +3529,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3320,7 +3541,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3332,7 +3553,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="17.4" spans="1:6">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3344,7 +3565,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3356,7 +3577,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3368,7 +3589,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3380,7 +3601,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3392,7 +3613,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3404,7 +3625,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:6">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3416,7 +3637,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="17.4" spans="1:6">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3428,7 +3649,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="17.4" spans="1:6">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3440,7 +3661,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="17.4" spans="1:6">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3452,7 +3673,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3464,7 +3685,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3476,7 +3697,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="17.4" spans="1:6">
+    <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3488,7 +3709,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="17.4" spans="1:6">
+    <row r="25" ht="18.75" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3496,13 +3717,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" ht="18.75" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3514,7 +3735,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3526,7 +3747,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" ht="18.75" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3538,7 +3759,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" ht="18.75" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3550,7 +3771,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
+    <row r="30" ht="18.75" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3562,7 +3783,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
+    <row r="31" ht="18.75" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3574,7 +3795,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
+    <row r="32" ht="18.75" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3586,7 +3807,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
+    <row r="33" ht="18.75" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3598,7 +3819,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="17.4" spans="1:6">
+    <row r="34" ht="18.75" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3610,7 +3831,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="17.4" spans="1:6">
+    <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3622,7 +3843,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="17.4" spans="1:6">
+    <row r="36" ht="18.75" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3634,7 +3855,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
+    <row r="37" ht="18.75" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3646,7 +3867,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
+    <row r="38" ht="18.75" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3658,7 +3879,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
+    <row r="39" ht="18.75" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3670,7 +3891,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
+    <row r="40" ht="18.75" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3682,7 +3903,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
+    <row r="41" ht="18.75" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3694,7 +3915,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" ht="18.75" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3706,7 +3927,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" ht="18.75" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3718,7 +3939,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" ht="18.75" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3730,7 +3951,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" ht="18.75" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3742,7 +3963,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" ht="18.75" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3754,7 +3975,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" ht="18.75" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3766,7 +3987,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" ht="18.75" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3778,7 +3999,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" ht="18.75" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -3790,7 +4011,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" ht="18.75" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -3802,7 +4023,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" ht="18.75" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -3814,7 +4035,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18.75" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -3826,7 +4047,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18.75" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -3838,7 +4059,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" ht="18.75" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -3850,7 +4071,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
+    <row r="55" ht="18.75" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -3862,7 +4083,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" ht="18.75" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -3874,7 +4095,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" ht="18.75" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -3882,13 +4103,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
+    <row r="58" ht="18.75" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -3900,7 +4121,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
+    <row r="59" ht="18.75" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -3912,7 +4133,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
+    <row r="60" ht="18.75" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -3924,7 +4145,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
+    <row r="61" ht="18.75" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -3936,7 +4157,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
+    <row r="62" ht="18.75" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -3948,7 +4169,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
+    <row r="63" ht="18.75" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -3960,7 +4181,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="17.4" spans="1:6">
+    <row r="64" ht="18.75" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -3972,7 +4193,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="17.4" spans="1:6">
+    <row r="65" ht="18.75" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -3984,7 +4205,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
+    <row r="66" ht="18.75" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -3996,7 +4217,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="17.4" spans="1:6">
+    <row r="67" ht="18.75" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -4008,7 +4229,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="17.4" spans="1:6">
+    <row r="68" ht="18.75" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -4020,7 +4241,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" ht="18.75" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -4032,7 +4253,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" ht="18.75" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -4044,7 +4265,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" ht="18.75" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -4056,7 +4277,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" ht="18.75" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4068,7 +4289,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" ht="18.75" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4080,7 +4301,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" ht="18.75" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4092,7 +4313,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" ht="18.75" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4104,7 +4325,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" ht="18.75" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4116,7 +4337,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" ht="18.75" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4128,7 +4349,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" ht="18.75" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4140,7 +4361,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" ht="18.75" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4152,7 +4373,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
+    <row r="80" ht="18.75" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4164,7 +4385,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
+    <row r="81" ht="18.75" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4176,7 +4397,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="17.4" spans="1:6">
+    <row r="82" ht="18.75" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4188,7 +4409,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="17.4" spans="1:6">
+    <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4200,7 +4421,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
+    <row r="84" ht="18.75" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4212,7 +4433,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="17.4" spans="1:6">
+    <row r="85" ht="18.75" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4224,7 +4445,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="17.4" spans="1:6">
+    <row r="86" ht="18.75" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4236,7 +4457,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="17.4" spans="1:6">
+    <row r="87" ht="18.75" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4248,7 +4469,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="17.4" spans="1:6">
+    <row r="88" ht="18.75" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4260,7 +4481,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="17.4" spans="1:6">
+    <row r="89" ht="18.75" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4272,7 +4493,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="17.4" spans="1:6">
+    <row r="90" ht="18.75" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4284,7 +4505,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="17.4" spans="1:6">
+    <row r="91" ht="18.75" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4296,7 +4517,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="17.4" spans="1:6">
+    <row r="92" ht="18.75" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4308,7 +4529,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
+    <row r="93" ht="18.75" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4320,7 +4541,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="17.4" spans="1:6">
+    <row r="94" ht="18.75" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4332,7 +4553,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="17.4" spans="1:6">
+    <row r="95" ht="18.75" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4344,7 +4565,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="17.4" spans="1:6">
+    <row r="96" ht="18.75" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4356,7 +4577,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17.4" spans="1:6">
+    <row r="97" ht="18.75" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4368,7 +4589,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
+    <row r="98" ht="18.75" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4380,7 +4601,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="17.4" spans="1:6">
+    <row r="99" ht="18.75" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4392,7 +4613,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="17.4" spans="1:6">
+    <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4404,7 +4625,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
+    <row r="101" ht="18.75" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4416,7 +4637,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="17.4" spans="1:6">
+    <row r="102" ht="18.75" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4428,7 +4649,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="17.4" spans="1:6">
+    <row r="103" ht="18.75" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4440,7 +4661,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="17.4" spans="1:6">
+    <row r="104" ht="18.75" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4452,7 +4673,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="17.4" spans="1:6">
+    <row r="105" ht="18.75" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4464,7 +4685,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
+    <row r="106" ht="18.75" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4476,7 +4697,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="17.4" spans="1:6">
+    <row r="107" ht="18.75" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4488,7 +4709,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
+    <row r="108" ht="18.75" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4500,7 +4721,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="17.4" spans="1:6">
+    <row r="109" ht="18.75" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4512,7 +4733,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="17.4" spans="1:6">
+    <row r="110" ht="18.75" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4524,7 +4745,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="17.4" spans="1:6">
+    <row r="111" ht="18.75" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4536,7 +4757,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="17.4" spans="1:6">
+    <row r="112" ht="18.75" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4548,7 +4769,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="17.4" spans="1:6">
+    <row r="113" ht="18.75" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4560,7 +4781,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="17.4" spans="1:6">
+    <row r="114" ht="18.75" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4572,7 +4793,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="17.4" spans="1:6">
+    <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4584,7 +4805,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
+    <row r="116" ht="18.75" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4596,7 +4817,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="17.4" spans="1:6">
+    <row r="117" ht="18.75" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4608,7 +4829,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="17.4" spans="1:6">
+    <row r="118" ht="18.75" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4620,7 +4841,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="17.4" spans="1:6">
+    <row r="119" ht="18.75" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4632,7 +4853,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="17.4" spans="1:6">
+    <row r="120" ht="18.75" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4644,7 +4865,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18.75" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4656,7 +4877,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="17.4" spans="1:6">
+    <row r="122" ht="18.75" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4668,7 +4889,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="17.4" spans="1:6">
+    <row r="123" ht="18.75" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4680,7 +4901,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
+    <row r="124" ht="18.75" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4692,7 +4913,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="17.4" spans="1:6">
+    <row r="125" ht="18.75" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4704,7 +4925,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="17.4" spans="1:6">
+    <row r="126" ht="18.75" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4716,7 +4937,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="17.4" spans="1:6">
+    <row r="127" ht="18.75" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4728,7 +4949,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="17.4" spans="1:6">
+    <row r="128" ht="18.75" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4740,7 +4961,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="17.4" spans="1:6">
+    <row r="129" ht="18.75" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4752,7 +4973,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="17.4" spans="1:6">
+    <row r="130" ht="18.75" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4764,7 +4985,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="17.4" spans="1:6">
+    <row r="131" ht="18.75" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4776,7 +4997,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
+    <row r="132" ht="18.75" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -4788,7 +5009,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
+    <row r="133" ht="18.75" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -4800,7 +5021,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
+    <row r="134" ht="18.75" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -4812,7 +5033,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
+    <row r="135" ht="18.75" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -4824,7 +5045,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
+    <row r="136" ht="18.75" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -4836,7 +5057,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18.75" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -4848,7 +5069,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18.75" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -4860,7 +5081,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18.75" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -4872,7 +5093,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18.75" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -4884,7 +5105,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18.75" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -4896,7 +5117,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
+    <row r="142" ht="18.75" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -4908,7 +5129,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18.75" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -4920,7 +5141,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="17.4" spans="1:6">
+    <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -4932,7 +5153,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
+    <row r="145" ht="18.75" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -4944,7 +5165,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="17.4" spans="1:6">
+    <row r="146" ht="18.75" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -4956,7 +5177,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="17.4" spans="1:6">
+    <row r="147" ht="18.75" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -4968,7 +5189,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="17.4" spans="1:6">
+    <row r="148" ht="18.75" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -4980,7 +5201,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="17.4" spans="1:6">
+    <row r="149" ht="18.75" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -4992,7 +5213,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="17.4" spans="1:6">
+    <row r="150" ht="18.75" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -5004,7 +5225,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="17.4" spans="1:6">
+    <row r="151" ht="18.75" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -5016,7 +5237,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="17.4" spans="1:6">
+    <row r="152" ht="18.75" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -5028,7 +5249,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="17.4" spans="1:6">
+    <row r="153" ht="18.75" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -5040,7 +5261,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="17.4" spans="1:6">
+    <row r="154" ht="18.75" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -5052,7 +5273,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="17.4" spans="1:6">
+    <row r="155" ht="18.75" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5064,7 +5285,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="17.4" spans="1:6">
+    <row r="156" ht="18.75" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5076,7 +5297,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
+    <row r="157" ht="18.75" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5088,7 +5309,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
+    <row r="158" ht="18.75" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5100,7 +5321,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="17.4" spans="1:6">
+    <row r="159" ht="18.75" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5112,7 +5333,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="17.4" spans="1:6">
+    <row r="160" ht="18.75" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5124,7 +5345,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
+    <row r="161" ht="18.75" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5136,7 +5357,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="17.4" spans="1:6">
+    <row r="162" ht="18.75" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5148,7 +5369,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="17.4" spans="1:6">
+    <row r="163" ht="18.75" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5160,7 +5381,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="17.4" spans="1:6">
+    <row r="164" ht="18.75" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5172,7 +5393,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="17.4" spans="1:6">
+    <row r="165" ht="18.75" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5184,7 +5405,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="17.4" spans="1:6">
+    <row r="166" ht="18.75" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5196,7 +5417,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="17.4" spans="1:6">
+    <row r="167" ht="18.75" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5208,7 +5429,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="17.4" spans="1:6">
+    <row r="168" ht="18.75" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5220,7 +5441,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="17.4" spans="1:6">
+    <row r="169" ht="18.75" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5232,7 +5453,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="17.4" spans="1:6">
+    <row r="170" ht="18.75" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5244,7 +5465,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="17.4" spans="1:6">
+    <row r="171" ht="18.75" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5256,7 +5477,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="17.4" spans="1:6">
+    <row r="172" ht="18.75" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5268,7 +5489,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="17.4" spans="1:6">
+    <row r="173" ht="18.75" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5280,7 +5501,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="17.4" spans="1:6">
+    <row r="174" ht="18.75" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5292,7 +5513,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="17.4" spans="1:6">
+    <row r="175" ht="18.75" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5304,7 +5525,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="17.4" spans="1:6">
+    <row r="176" ht="18.75" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5316,7 +5537,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="17.4" spans="1:6">
+    <row r="177" ht="18.75" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5328,7 +5549,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="17.4" spans="1:6">
+    <row r="178" ht="18.75" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5340,7 +5561,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="17.4" spans="1:6">
+    <row r="179" ht="18.75" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5352,7 +5573,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="17.4" spans="1:6">
+    <row r="180" ht="18.75" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5364,7 +5585,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="17.4" spans="1:6">
+    <row r="181" ht="18.75" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5376,7 +5597,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="17.4" spans="1:6">
+    <row r="182" ht="18.75" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5388,7 +5609,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="17.4" spans="1:6">
+    <row r="183" ht="18.75" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5400,7 +5621,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="17.4" spans="1:6">
+    <row r="184" ht="18.75" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5412,7 +5633,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="17.4" spans="1:6">
+    <row r="185" ht="18.75" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5424,7 +5645,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="17.4" spans="1:6">
+    <row r="186" ht="18.75" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5436,7 +5657,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="17.4" spans="1:6">
+    <row r="187" ht="18.75" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5448,7 +5669,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="17.4" spans="1:6">
+    <row r="188" ht="18.75" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5460,7 +5681,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="17.4" spans="1:6">
+    <row r="189" ht="18.75" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5472,7 +5693,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="17.4" spans="1:6">
+    <row r="190" ht="18.75" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5484,7 +5705,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="17.4" spans="1:6">
+    <row r="191" ht="18.75" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5496,7 +5717,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="17.4" spans="1:6">
+    <row r="192" ht="18.75" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5508,7 +5729,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="17.4" spans="1:6">
+    <row r="193" ht="18.75" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5520,7 +5741,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="17.4" spans="1:6">
+    <row r="194" ht="18.75" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5532,7 +5753,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="17.4" spans="1:6">
+    <row r="195" ht="18.75" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5544,7 +5765,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="17.4" spans="1:6">
+    <row r="196" ht="18.75" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5556,7 +5777,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="17.4" spans="1:6">
+    <row r="197" ht="18.75" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5568,7 +5789,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="17.4" spans="1:6">
+    <row r="198" ht="18.75" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5580,7 +5801,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="17.4" spans="1:6">
+    <row r="199" ht="18.75" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5592,7 +5813,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="17.4" spans="1:6">
+    <row r="200" ht="18.75" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5604,7 +5825,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="17.4" spans="1:6">
+    <row r="201" ht="18.75" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5616,7 +5837,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="17.4" spans="1:6">
+    <row r="202" ht="18.75" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5628,7 +5849,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="17.4" spans="1:6">
+    <row r="203" ht="18.75" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5640,7 +5861,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="17.4" spans="1:6">
+    <row r="204" ht="18.75" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5652,7 +5873,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="17.4" spans="1:6">
+    <row r="205" ht="18.75" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5664,7 +5885,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="17.4" spans="1:6">
+    <row r="206" ht="18.75" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5676,7 +5897,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="17.4" spans="1:6">
+    <row r="207" ht="18.75" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5688,7 +5909,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="17.4" spans="1:6">
+    <row r="208" ht="18.75" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5700,7 +5921,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="17.4" spans="1:6">
+    <row r="209" ht="18.75" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5712,7 +5933,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="17.4" spans="1:6">
+    <row r="210" ht="18.75" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5724,7 +5945,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="17.4" spans="1:6">
+    <row r="211" ht="18.75" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5736,7 +5957,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="17.4" spans="1:6">
+    <row r="212" ht="18.75" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5748,7 +5969,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="17.4" spans="1:6">
+    <row r="213" ht="18.75" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5760,7 +5981,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="17.4" spans="1:6">
+    <row r="214" ht="18.75" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5772,7 +5993,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="17.4" spans="1:6">
+    <row r="215" ht="18.75" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -5784,7 +6005,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="17.4" spans="1:6">
+    <row r="216" ht="18.75" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -5796,7 +6017,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="17.4" spans="1:6">
+    <row r="217" ht="18.75" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -5808,7 +6029,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="17.4" spans="1:6">
+    <row r="218" ht="18.75" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -5820,7 +6041,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="17.4" spans="1:6">
+    <row r="219" ht="18.75" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -5832,7 +6053,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="17.4" spans="1:6">
+    <row r="220" ht="18.75" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -5844,7 +6065,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="17.4" spans="1:6">
+    <row r="221" ht="18.75" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -5856,7 +6077,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="17.4" spans="1:6">
+    <row r="222" ht="18.75" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -5868,7 +6089,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="17.4" spans="1:6">
+    <row r="223" ht="18.75" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -5880,7 +6101,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="17.4" spans="1:6">
+    <row r="224" ht="18.75" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -5892,7 +6113,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="17.4" spans="1:6">
+    <row r="225" ht="18.75" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -5904,7 +6125,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="17.4" spans="1:6">
+    <row r="226" ht="18.75" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -5916,7 +6137,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="17.4" spans="1:6">
+    <row r="227" ht="18.75" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -5928,7 +6149,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="17.4" spans="1:6">
+    <row r="228" ht="18.75" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -5940,7 +6161,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="17.4" spans="1:6">
+    <row r="229" ht="18.75" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -5952,7 +6173,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="17.4" spans="1:6">
+    <row r="230" ht="18.75" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -5964,7 +6185,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="17.4" spans="1:6">
+    <row r="231" ht="18.75" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -5976,7 +6197,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="17.4" spans="1:6">
+    <row r="232" ht="18.75" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -5988,7 +6209,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="17.4" spans="1:6">
+    <row r="233" ht="18.75" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -6000,7 +6221,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="17.4" spans="1:6">
+    <row r="234" ht="18.75" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -6012,7 +6233,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="17.4" spans="1:6">
+    <row r="235" ht="18.75" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -6024,7 +6245,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="17.4" spans="1:6">
+    <row r="236" ht="18.75" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -6036,7 +6257,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="17.4" spans="1:6">
+    <row r="237" ht="18.75" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -6048,7 +6269,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="17.4" spans="1:6">
+    <row r="238" ht="18.75" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6060,7 +6281,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="17.4" spans="1:6">
+    <row r="239" ht="18.75" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6072,7 +6293,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="17.4" spans="1:6">
+    <row r="240" ht="18.75" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6084,7 +6305,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="17.4" spans="1:6">
+    <row r="241" ht="18.75" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6096,7 +6317,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="17.4" spans="1:6">
+    <row r="242" ht="18.75" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6108,7 +6329,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="17.4" spans="1:6">
+    <row r="243" ht="18.75" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6120,7 +6341,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="17.4" spans="1:6">
+    <row r="244" ht="18.75" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6132,7 +6353,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="17.4" spans="1:6">
+    <row r="245" ht="18.75" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6144,7 +6365,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="17.4" spans="1:6">
+    <row r="246" ht="18.75" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6156,7 +6377,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="17.4" spans="1:6">
+    <row r="247" ht="18.75" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6168,7 +6389,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="17.4" spans="1:6">
+    <row r="248" ht="18.75" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6180,7 +6401,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="17.4" spans="1:6">
+    <row r="249" ht="18.75" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6192,7 +6413,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="17.4" spans="1:6">
+    <row r="250" ht="18.75" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6204,7 +6425,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="17.4" spans="1:6">
+    <row r="251" ht="18.75" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6216,7 +6437,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="17.4" spans="1:6">
+    <row r="252" ht="18.75" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6228,7 +6449,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="17.4" spans="1:6">
+    <row r="253" ht="18.75" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6240,7 +6461,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="17.4" spans="1:6">
+    <row r="254" ht="18.75" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6252,7 +6473,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="17.4" spans="1:6">
+    <row r="255" ht="18.75" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6264,7 +6485,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="17.4" spans="1:6">
+    <row r="256" ht="18.75" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6276,7 +6497,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="17.4" spans="1:6">
+    <row r="257" ht="18.75" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6288,7 +6509,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="17.4" spans="1:6">
+    <row r="258" ht="18.75" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6300,7 +6521,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="17.4" spans="1:6">
+    <row r="259" ht="18.75" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6312,7 +6533,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="17.4" spans="1:6">
+    <row r="260" ht="18.75" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6324,7 +6545,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="17.4" spans="1:6">
+    <row r="261" ht="18.75" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6336,7 +6557,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="17.4" spans="1:6">
+    <row r="262" ht="18.75" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6348,7 +6569,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="17.4" spans="1:6">
+    <row r="263" ht="18.75" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6360,7 +6581,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="17.4" spans="1:6">
+    <row r="264" ht="18.75" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6372,7 +6593,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="17.4" spans="1:6">
+    <row r="265" ht="18.75" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6384,7 +6605,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="17.4" spans="1:6">
+    <row r="266" ht="18.75" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6396,7 +6617,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="17.4" spans="1:6">
+    <row r="267" ht="18.75" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6408,7 +6629,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="17.4" spans="1:6">
+    <row r="268" ht="18.75" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6420,7 +6641,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="17.4" spans="1:6">
+    <row r="269" ht="18.75" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6432,7 +6653,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="17.4" spans="1:6">
+    <row r="270" ht="18.75" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6444,7 +6665,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="17.4" spans="1:6">
+    <row r="271" ht="18.75" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6456,7 +6677,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="17.4" spans="1:6">
+    <row r="272" ht="18.75" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6468,7 +6689,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="17.4" spans="1:6">
+    <row r="273" ht="18.75" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6480,7 +6701,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="17.4" spans="1:6">
+    <row r="274" ht="18.75" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6492,7 +6713,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="17.4" spans="1:6">
+    <row r="275" ht="18.75" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6504,7 +6725,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="17.4" spans="1:6">
+    <row r="276" ht="18.75" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6516,7 +6737,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="17.4" spans="1:6">
+    <row r="277" ht="18.75" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6528,7 +6749,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="17.4" spans="1:6">
+    <row r="278" ht="18.75" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6540,7 +6761,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="17.4" spans="1:6">
+    <row r="279" ht="18.75" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6552,7 +6773,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="17.4" spans="1:6">
+    <row r="280" ht="18.75" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6564,7 +6785,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="17.4" spans="1:6">
+    <row r="281" ht="18.75" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6576,7 +6797,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="17.4" spans="1:6">
+    <row r="282" ht="18.75" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6588,7 +6809,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="17.4" spans="1:6">
+    <row r="283" ht="18.75" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6600,7 +6821,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="17.4" spans="1:6">
+    <row r="284" ht="18.75" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6612,7 +6833,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="17.4" spans="1:6">
+    <row r="285" ht="18.75" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6624,7 +6845,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="17.4" spans="1:6">
+    <row r="286" ht="18.75" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6636,7 +6857,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="17.4" spans="1:6">
+    <row r="287" ht="18.75" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6648,7 +6869,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="17.4" spans="1:6">
+    <row r="288" ht="18.75" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6660,7 +6881,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="17.4" spans="1:6">
+    <row r="289" ht="18.75" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6672,7 +6893,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="17.4" spans="1:6">
+    <row r="290" ht="18.75" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6684,7 +6905,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="17.4" spans="1:6">
+    <row r="291" ht="18.75" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6696,7 +6917,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="17.4" spans="1:6">
+    <row r="292" ht="18.75" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6708,7 +6929,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="17.4" spans="1:6">
+    <row r="293" ht="18.75" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6720,7 +6941,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="17.4" spans="1:6">
+    <row r="294" ht="18.75" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6732,7 +6953,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="17.4" spans="1:6">
+    <row r="295" ht="18.75" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6744,7 +6965,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="17.4" spans="1:6">
+    <row r="296" ht="18.75" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6756,7 +6977,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="17.4" spans="1:6">
+    <row r="297" ht="18.75" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6768,7 +6989,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="17.4" spans="1:6">
+    <row r="298" ht="18.75" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -6780,7 +7001,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="17.4" spans="1:6">
+    <row r="299" ht="18.75" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -6792,7 +7013,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="17.4" spans="1:6">
+    <row r="300" ht="18.75" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -6804,7 +7025,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="17.4" spans="1:6">
+    <row r="301" ht="18.75" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -6816,7 +7037,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="17.4" spans="1:6">
+    <row r="302" ht="18.75" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -6828,7 +7049,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="17.4" spans="1:6">
+    <row r="303" ht="18.75" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -6840,7 +7061,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="17.4" spans="1:6">
+    <row r="304" ht="18.75" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -6852,7 +7073,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="17.4" spans="1:6">
+    <row r="305" ht="18.75" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -6864,7 +7085,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="17.4" spans="1:6">
+    <row r="306" ht="18.75" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -6876,7 +7097,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="17.4" spans="1:6">
+    <row r="307" ht="18.75" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -6888,7 +7109,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="17.4" spans="1:6">
+    <row r="308" ht="18.75" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -6900,7 +7121,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="17.4" spans="1:6">
+    <row r="309" ht="18.75" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -6912,7 +7133,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="17.4" spans="1:6">
+    <row r="310" ht="18.75" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -6924,7 +7145,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="17.4" spans="1:6">
+    <row r="311" ht="18.75" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -6936,7 +7157,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="17.4" spans="1:6">
+    <row r="312" ht="18.75" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -6948,7 +7169,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="17.4" spans="1:6">
+    <row r="313" ht="18.75" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -6960,7 +7181,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="17.4" spans="1:6">
+    <row r="314" ht="18.75" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -6972,7 +7193,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="17.4" spans="1:6">
+    <row r="315" ht="18.75" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -6984,7 +7205,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="17.4" spans="1:6">
+    <row r="316" ht="18.75" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -6996,7 +7217,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="17.4" spans="1:6">
+    <row r="317" ht="18.75" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -7008,7 +7229,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="17.4" spans="1:6">
+    <row r="318" ht="18.75" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -7020,7 +7241,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="17.4" spans="1:6">
+    <row r="319" ht="18.75" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -7032,7 +7253,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="17.4" spans="1:6">
+    <row r="320" ht="18.75" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -7044,7 +7265,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="17.4" spans="1:6">
+    <row r="321" ht="18.75" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -7056,7 +7277,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="17.4" spans="1:6">
+    <row r="322" ht="18.75" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7068,7 +7289,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="17.4" spans="1:6">
+    <row r="323" ht="18.75" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7080,7 +7301,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="17.4" spans="1:6">
+    <row r="324" ht="18.75" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7092,7 +7313,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="17.4" spans="1:6">
+    <row r="325" ht="18.75" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7104,7 +7325,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="17.4" spans="1:6">
+    <row r="326" ht="18.75" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7116,7 +7337,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="17.4" spans="1:6">
+    <row r="327" ht="18.75" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7128,7 +7349,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="17.4" spans="1:6">
+    <row r="328" ht="18.75" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7140,7 +7361,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="17.4" spans="1:6">
+    <row r="329" ht="18.75" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7152,7 +7373,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="17.4" spans="1:6">
+    <row r="330" ht="18.75" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7164,7 +7385,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="17.4" spans="1:6">
+    <row r="331" ht="18.75" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7176,7 +7397,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="17.4" spans="1:6">
+    <row r="332" ht="18.75" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7188,7 +7409,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="17.4" spans="1:6">
+    <row r="333" ht="18.75" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7200,7 +7421,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="17.4" spans="1:6">
+    <row r="334" ht="18.75" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7212,7 +7433,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="17.4" spans="1:6">
+    <row r="335" ht="18.75" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7224,7 +7445,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="17.4" spans="1:6">
+    <row r="336" ht="18.75" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7236,7 +7457,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="17.4" spans="1:6">
+    <row r="337" ht="18.75" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7248,7 +7469,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="17.4" spans="1:6">
+    <row r="338" ht="18.75" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7260,7 +7481,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="17.4" spans="1:6">
+    <row r="339" ht="18.75" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7272,7 +7493,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="17.4" spans="1:6">
+    <row r="340" ht="18.75" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7284,7 +7505,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="17.4" spans="1:6">
+    <row r="341" ht="18.75" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7296,7 +7517,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="17.4" spans="1:6">
+    <row r="342" ht="18.75" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7308,7 +7529,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="17.4" spans="1:6">
+    <row r="343" ht="18.75" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7320,7 +7541,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="17.4" spans="1:6">
+    <row r="344" ht="18.75" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7332,7 +7553,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="17.4" spans="1:6">
+    <row r="345" ht="18.75" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7344,7 +7565,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="17.4" spans="1:6">
+    <row r="346" ht="18.75" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7356,7 +7577,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="17.4" spans="1:6">
+    <row r="347" ht="18.75" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7368,7 +7589,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="17.4" spans="1:6">
+    <row r="348" ht="18.75" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7380,7 +7601,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="17.4" spans="1:6">
+    <row r="349" ht="18.75" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7392,7 +7613,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="17.4" spans="1:6">
+    <row r="350" ht="18.75" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7404,7 +7625,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="17.4" spans="1:6">
+    <row r="351" ht="18.75" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7416,7 +7637,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="17.4" spans="1:6">
+    <row r="352" ht="18.75" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7428,7 +7649,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="17.4" spans="1:6">
+    <row r="353" ht="18.75" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7440,7 +7661,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="17.4" spans="1:6">
+    <row r="354" ht="18.75" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7452,7 +7673,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="17.4" spans="1:6">
+    <row r="355" ht="18.75" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7464,7 +7685,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="17.4" spans="1:6">
+    <row r="356" ht="18.75" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7476,7 +7697,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="17.4" spans="1:6">
+    <row r="357" ht="18.75" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7488,7 +7709,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="17.4" spans="1:6">
+    <row r="358" ht="18.75" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7500,7 +7721,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="17.4" spans="1:6">
+    <row r="359" ht="18.75" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7512,7 +7733,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="17.4" spans="1:6">
+    <row r="360" ht="18.75" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7524,7 +7745,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="17.4" spans="1:6">
+    <row r="361" ht="18.75" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7536,7 +7757,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="17.4" spans="1:6">
+    <row r="362" ht="18.75" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7548,7 +7769,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="17.4" spans="1:6">
+    <row r="363" ht="18.75" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7560,7 +7781,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="17.4" spans="1:6">
+    <row r="364" ht="18.75" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7572,7 +7793,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="17.4" spans="1:6">
+    <row r="365" ht="18.75" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7584,7 +7805,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="17.4" spans="1:6">
+    <row r="366" ht="18.75" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="127">
   <si>
     <t>日期</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>《异人之下》「入世测试」</t>
+  </si>
+  <si>
+    <t>《少女前线2》一周年版本更新</t>
   </si>
   <si>
     <t>《重返未来1999》2.4版本更新</t>
@@ -1145,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,30 +1227,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1261,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,23 +1269,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1839,19 +1800,19 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
+    <col min="3" max="3" width="45.8796296296296" style="15" customWidth="1"/>
+    <col min="4" max="4" width="41.3796296296296" style="15" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="68.125" customWidth="1"/>
+    <col min="6" max="6" width="68.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2431,17 +2392,17 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="26">
+      <c r="A48" s="10">
         <v>45621</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="28" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -2449,11 +2410,11 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="32"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="4" t="s">
         <v>58</v>
       </c>
@@ -2468,7 +2429,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="34"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8">
@@ -2562,23 +2523,23 @@
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="36">
+      <c r="A58" s="28">
         <v>45629</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="24" t="s">
         <v>69</v>
       </c>
@@ -2587,90 +2548,90 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="42"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="25"/>
       <c r="F59" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="40"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="38" t="s">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="42"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="25"/>
       <c r="F60" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="42"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="25"/>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="38" t="s">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="42"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="25"/>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="42"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="25"/>
-      <c r="F63" s="35" t="s">
+      <c r="F63" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="38" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="42"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="25"/>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="42"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="25"/>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="27" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="43" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="42"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="27" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2782,14 +2743,14 @@
       <c r="A76" s="10">
         <v>45632</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="46"/>
-      <c r="E76" s="47" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F76" s="11" t="s">
@@ -2798,34 +2759,34 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="19"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="47"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19"/>
-      <c r="B78" s="48"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="46"/>
-      <c r="E78" s="47"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -2833,52 +2794,52 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="49"/>
-      <c r="B80" s="50"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D80" s="46"/>
-      <c r="E80" s="47"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="16"/>
-      <c r="B81" s="51"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="46"/>
-      <c r="E81" s="47"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="26">
+      <c r="A82" s="10">
         <v>45633</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8">
@@ -2913,7 +2874,9 @@
       <c r="B86" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -2938,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -2948,7 +2911,7 @@
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
@@ -2958,7 +2921,7 @@
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
@@ -2972,7 +2935,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3034,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3048,10 +3011,10 @@
         <v>8</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -3060,7 +3023,7 @@
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="18"/>
@@ -3158,7 +3121,7 @@
         <v>10</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -3208,90 +3171,90 @@
         <v>17</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="13.5" spans="1:5">
+    <row r="111" ht="14.4" spans="1:5">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" ht="13.5" spans="1:5">
+    <row r="112" ht="14.4" spans="1:5">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
     </row>
-    <row r="113" ht="13.5" spans="1:5">
+    <row r="113" ht="14.4" spans="1:5">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" ht="13.5" spans="1:5">
+    <row r="114" ht="14.4" spans="1:5">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
     </row>
-    <row r="115" ht="13.5" spans="1:5">
+    <row r="115" ht="14.4" spans="1:5">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" ht="13.5" spans="1:5">
+    <row r="116" ht="14.4" spans="1:5">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
     </row>
-    <row r="117" ht="13.5" spans="1:5">
+    <row r="117" ht="14.4" spans="1:5">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" ht="13.5" spans="1:5">
+    <row r="118" ht="14.4" spans="1:5">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
     </row>
-    <row r="119" ht="13.5" spans="1:5">
+    <row r="119" ht="14.4" spans="1:5">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" ht="13.5" spans="1:5">
+    <row r="120" ht="14.4" spans="1:5">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" ht="13.5" spans="1:5">
+    <row r="121" ht="14.4" spans="1:5">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" ht="13.5" spans="1:5">
+    <row r="122" ht="14.4" spans="1:5">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -3397,17 +3360,17 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="14.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="6.62962962962963" customWidth="1"/>
+    <col min="3" max="3" width="42.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="13.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +3390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3439,7 +3402,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="17.4" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3447,13 +3410,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="17.4" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3461,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="17.4" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3475,13 +3438,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="17.4" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3493,7 +3456,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" ht="17.4" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3505,7 +3468,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" ht="17.4" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3517,7 +3480,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" ht="17.4" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3529,7 +3492,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3541,7 +3504,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3553,7 +3516,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" ht="17.4" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3565,7 +3528,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3577,7 +3540,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" ht="17.4" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3589,7 +3552,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" ht="17.4" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3601,7 +3564,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" ht="17.4" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3613,7 +3576,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" ht="17.4" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3625,7 +3588,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" ht="17.4" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3637,7 +3600,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" ht="17.4" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3649,7 +3612,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" ht="17.4" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3661,7 +3624,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" ht="17.4" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3673,7 +3636,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" ht="17.4" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3685,7 +3648,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" ht="17.4" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3697,7 +3660,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="18.75" spans="1:6">
+    <row r="24" ht="17.4" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3709,7 +3672,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:6">
+    <row r="25" ht="17.4" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3717,13 +3680,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="18.75" spans="1:6">
+    <row r="26" ht="17.4" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3735,7 +3698,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:6">
+    <row r="27" ht="17.4" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3747,7 +3710,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="1:6">
+    <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3759,7 +3722,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="17.4" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3771,7 +3734,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="17.4" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3783,7 +3746,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="17.4" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3795,7 +3758,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="17.4" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3807,7 +3770,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:6">
+    <row r="33" ht="17.4" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3819,7 +3782,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="18.75" spans="1:6">
+    <row r="34" ht="17.4" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3831,7 +3794,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="18.75" spans="1:6">
+    <row r="35" ht="17.4" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3843,7 +3806,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="18.75" spans="1:6">
+    <row r="36" ht="17.4" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3855,7 +3818,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="18.75" spans="1:6">
+    <row r="37" ht="17.4" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3867,7 +3830,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="18.75" spans="1:6">
+    <row r="38" ht="17.4" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3879,7 +3842,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="18.75" spans="1:6">
+    <row r="39" ht="17.4" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3891,7 +3854,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18.75" spans="1:6">
+    <row r="40" ht="17.4" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3903,7 +3866,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="18.75" spans="1:6">
+    <row r="41" ht="17.4" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3915,7 +3878,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="18.75" spans="1:6">
+    <row r="42" ht="17.4" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3927,7 +3890,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="18.75" spans="1:6">
+    <row r="43" ht="17.4" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3939,7 +3902,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="18.75" spans="1:6">
+    <row r="44" ht="17.4" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3951,7 +3914,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="18.75" spans="1:6">
+    <row r="45" ht="17.4" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3963,7 +3926,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="18.75" spans="1:6">
+    <row r="46" ht="17.4" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3975,7 +3938,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="18.75" spans="1:6">
+    <row r="47" ht="17.4" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3987,7 +3950,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="18.75" spans="1:6">
+    <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -3999,7 +3962,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="18.75" spans="1:6">
+    <row r="49" ht="17.4" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -4011,7 +3974,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="18.75" spans="1:6">
+    <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -4023,7 +3986,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="17.4" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -4035,7 +3998,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="17.4" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -4047,7 +4010,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="17.4" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -4059,7 +4022,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="18.75" spans="1:6">
+    <row r="54" ht="17.4" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -4071,7 +4034,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="18.75" spans="1:6">
+    <row r="55" ht="17.4" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -4083,7 +4046,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="18.75" spans="1:6">
+    <row r="56" ht="17.4" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -4095,7 +4058,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="18.75" spans="1:6">
+    <row r="57" ht="17.4" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -4103,13 +4066,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="18.75" spans="1:6">
+    <row r="58" ht="17.4" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -4121,7 +4084,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="18.75" spans="1:6">
+    <row r="59" ht="17.4" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -4133,7 +4096,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18.75" spans="1:6">
+    <row r="60" ht="17.4" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -4145,7 +4108,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18.75" spans="1:6">
+    <row r="61" ht="17.4" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -4157,7 +4120,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="18.75" spans="1:6">
+    <row r="62" ht="17.4" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -4169,7 +4132,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="18.75" spans="1:6">
+    <row r="63" ht="17.4" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -4181,7 +4144,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="18.75" spans="1:6">
+    <row r="64" ht="17.4" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -4193,7 +4156,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="18.75" spans="1:6">
+    <row r="65" ht="17.4" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -4205,7 +4168,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="18.75" spans="1:6">
+    <row r="66" ht="17.4" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -4217,7 +4180,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="18.75" spans="1:6">
+    <row r="67" ht="17.4" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -4229,7 +4192,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="18.75" spans="1:6">
+    <row r="68" ht="17.4" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -4241,7 +4204,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="18.75" spans="1:6">
+    <row r="69" ht="17.4" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -4253,7 +4216,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="17.4" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -4265,7 +4228,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="17.4" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -4277,7 +4240,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="17.4" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4289,7 +4252,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="17.4" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4301,7 +4264,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="18.75" spans="1:6">
+    <row r="74" ht="17.4" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4313,7 +4276,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="18.75" spans="1:6">
+    <row r="75" ht="17.4" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4325,7 +4288,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="18.75" spans="1:6">
+    <row r="76" ht="17.4" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4337,7 +4300,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="18.75" spans="1:6">
+    <row r="77" ht="17.4" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4349,7 +4312,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="18.75" spans="1:6">
+    <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4361,7 +4324,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="18.75" spans="1:6">
+    <row r="79" ht="17.4" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4373,7 +4336,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="18.75" spans="1:6">
+    <row r="80" ht="17.4" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4385,7 +4348,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="18.75" spans="1:6">
+    <row r="81" ht="17.4" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4397,7 +4360,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="18.75" spans="1:6">
+    <row r="82" ht="17.4" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4409,7 +4372,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="18.75" spans="1:6">
+    <row r="83" ht="17.4" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4421,7 +4384,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="18.75" spans="1:6">
+    <row r="84" ht="17.4" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4433,7 +4396,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="18.75" spans="1:6">
+    <row r="85" ht="17.4" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4445,7 +4408,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="18.75" spans="1:6">
+    <row r="86" ht="17.4" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4457,7 +4420,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="18.75" spans="1:6">
+    <row r="87" ht="17.4" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4469,7 +4432,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="18.75" spans="1:6">
+    <row r="88" ht="17.4" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4481,7 +4444,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="18.75" spans="1:6">
+    <row r="89" ht="17.4" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4493,7 +4456,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="17.4" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4505,7 +4468,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="17.4" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4517,7 +4480,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="17.4" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4529,7 +4492,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="17.4" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4541,7 +4504,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="18.75" spans="1:6">
+    <row r="94" ht="17.4" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4553,7 +4516,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="18.75" spans="1:6">
+    <row r="95" ht="17.4" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4565,7 +4528,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="18.75" spans="1:6">
+    <row r="96" ht="17.4" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4577,7 +4540,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="18.75" spans="1:6">
+    <row r="97" ht="17.4" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4589,7 +4552,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="18.75" spans="1:6">
+    <row r="98" ht="17.4" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4601,7 +4564,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="18.75" spans="1:6">
+    <row r="99" ht="17.4" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4613,7 +4576,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="18.75" spans="1:6">
+    <row r="100" ht="17.4" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4625,7 +4588,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="18.75" spans="1:6">
+    <row r="101" ht="17.4" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4637,7 +4600,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="18.75" spans="1:6">
+    <row r="102" ht="17.4" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4649,7 +4612,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="18.75" spans="1:6">
+    <row r="103" ht="17.4" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4661,7 +4624,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="18.75" spans="1:6">
+    <row r="104" ht="17.4" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4673,7 +4636,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="18.75" spans="1:6">
+    <row r="105" ht="17.4" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4685,7 +4648,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="18.75" spans="1:6">
+    <row r="106" ht="17.4" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4697,7 +4660,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="18.75" spans="1:6">
+    <row r="107" ht="17.4" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4709,7 +4672,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="17.4" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4721,7 +4684,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="17.4" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4733,7 +4696,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="17.4" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4745,7 +4708,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="17.4" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4757,7 +4720,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="18.75" spans="1:6">
+    <row r="112" ht="17.4" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4769,7 +4732,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="18.75" spans="1:6">
+    <row r="113" ht="17.4" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4781,7 +4744,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="18.75" spans="1:6">
+    <row r="114" ht="17.4" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4793,7 +4756,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="18.75" spans="1:6">
+    <row r="115" ht="17.4" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4805,7 +4768,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="18.75" spans="1:6">
+    <row r="116" ht="17.4" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4817,7 +4780,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="18.75" spans="1:6">
+    <row r="117" ht="17.4" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4829,7 +4792,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="18.75" spans="1:6">
+    <row r="118" ht="17.4" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4841,7 +4804,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="18.75" spans="1:6">
+    <row r="119" ht="17.4" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4853,7 +4816,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="18.75" spans="1:6">
+    <row r="120" ht="17.4" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4865,7 +4828,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="18.75" spans="1:6">
+    <row r="121" ht="17.4" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4877,7 +4840,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="18.75" spans="1:6">
+    <row r="122" ht="17.4" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4889,7 +4852,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18.75" spans="1:6">
+    <row r="123" ht="17.4" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4901,7 +4864,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18.75" spans="1:6">
+    <row r="124" ht="17.4" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4913,7 +4876,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="18.75" spans="1:6">
+    <row r="125" ht="17.4" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4925,7 +4888,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18.75" spans="1:6">
+    <row r="126" ht="17.4" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4937,7 +4900,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="18.75" spans="1:6">
+    <row r="127" ht="17.4" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4949,7 +4912,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="18.75" spans="1:6">
+    <row r="128" ht="17.4" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4961,7 +4924,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18.75" spans="1:6">
+    <row r="129" ht="17.4" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4973,7 +4936,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="18.75" spans="1:6">
+    <row r="130" ht="17.4" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4985,7 +4948,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="18.75" spans="1:6">
+    <row r="131" ht="17.4" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -4997,7 +4960,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="18.75" spans="1:6">
+    <row r="132" ht="17.4" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -5009,7 +4972,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="18.75" spans="1:6">
+    <row r="133" ht="17.4" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -5021,7 +4984,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="18.75" spans="1:6">
+    <row r="134" ht="17.4" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -5033,7 +4996,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="18.75" spans="1:6">
+    <row r="135" ht="17.4" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -5045,7 +5008,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="18.75" spans="1:6">
+    <row r="136" ht="17.4" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -5057,7 +5020,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="18.75" spans="1:6">
+    <row r="137" ht="17.4" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -5069,7 +5032,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="18.75" spans="1:6">
+    <row r="138" ht="17.4" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -5081,7 +5044,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="17.4" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -5093,7 +5056,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="17.4" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -5105,7 +5068,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="17.4" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -5117,7 +5080,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="17.4" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -5129,7 +5092,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="17.4" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -5141,7 +5104,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="17.4" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -5153,7 +5116,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="17.4" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -5165,7 +5128,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="17.4" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -5177,7 +5140,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="17.4" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -5189,7 +5152,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="17.4" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -5201,7 +5164,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="17.4" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -5213,7 +5176,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="18.75" spans="1:6">
+    <row r="150" ht="17.4" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -5225,7 +5188,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="18.75" spans="1:6">
+    <row r="151" ht="17.4" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -5237,7 +5200,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="18.75" spans="1:6">
+    <row r="152" ht="17.4" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -5249,7 +5212,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="18.75" spans="1:6">
+    <row r="153" ht="17.4" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -5261,7 +5224,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="18.75" spans="1:6">
+    <row r="154" ht="17.4" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -5273,7 +5236,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="18.75" spans="1:6">
+    <row r="155" ht="17.4" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5285,7 +5248,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="18.75" spans="1:6">
+    <row r="156" ht="17.4" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5297,7 +5260,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="18.75" spans="1:6">
+    <row r="157" ht="17.4" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5309,7 +5272,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="18.75" spans="1:6">
+    <row r="158" ht="17.4" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5321,7 +5284,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="18.75" spans="1:6">
+    <row r="159" ht="17.4" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5333,7 +5296,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="18.75" spans="1:6">
+    <row r="160" ht="17.4" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5345,7 +5308,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="18.75" spans="1:6">
+    <row r="161" ht="17.4" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5357,7 +5320,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="18.75" spans="1:6">
+    <row r="162" ht="17.4" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5369,7 +5332,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="18.75" spans="1:6">
+    <row r="163" ht="17.4" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5381,7 +5344,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="18.75" spans="1:6">
+    <row r="164" ht="17.4" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5393,7 +5356,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="18.75" spans="1:6">
+    <row r="165" ht="17.4" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5405,7 +5368,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="18.75" spans="1:6">
+    <row r="166" ht="17.4" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5417,7 +5380,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="18.75" spans="1:6">
+    <row r="167" ht="17.4" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5429,7 +5392,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="18.75" spans="1:6">
+    <row r="168" ht="17.4" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5441,7 +5404,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="18.75" spans="1:6">
+    <row r="169" ht="17.4" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5453,7 +5416,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="18.75" spans="1:6">
+    <row r="170" ht="17.4" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5465,7 +5428,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="18.75" spans="1:6">
+    <row r="171" ht="17.4" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5477,7 +5440,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="18.75" spans="1:6">
+    <row r="172" ht="17.4" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5489,7 +5452,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="18.75" spans="1:6">
+    <row r="173" ht="17.4" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5501,7 +5464,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="18.75" spans="1:6">
+    <row r="174" ht="17.4" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5513,7 +5476,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="18.75" spans="1:6">
+    <row r="175" ht="17.4" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5525,7 +5488,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="18.75" spans="1:6">
+    <row r="176" ht="17.4" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5537,7 +5500,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="18.75" spans="1:6">
+    <row r="177" ht="17.4" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5549,7 +5512,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="18.75" spans="1:6">
+    <row r="178" ht="17.4" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5561,7 +5524,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="18.75" spans="1:6">
+    <row r="179" ht="17.4" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5573,7 +5536,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="18.75" spans="1:6">
+    <row r="180" ht="17.4" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5585,7 +5548,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="18.75" spans="1:6">
+    <row r="181" ht="17.4" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5597,7 +5560,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="18.75" spans="1:6">
+    <row r="182" ht="17.4" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5609,7 +5572,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="18.75" spans="1:6">
+    <row r="183" ht="17.4" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5621,7 +5584,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="18.75" spans="1:6">
+    <row r="184" ht="17.4" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5633,7 +5596,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="18.75" spans="1:6">
+    <row r="185" ht="17.4" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5645,7 +5608,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="18.75" spans="1:6">
+    <row r="186" ht="17.4" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5657,7 +5620,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="18.75" spans="1:6">
+    <row r="187" ht="17.4" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5669,7 +5632,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="18.75" spans="1:6">
+    <row r="188" ht="17.4" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5681,7 +5644,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="18.75" spans="1:6">
+    <row r="189" ht="17.4" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5693,7 +5656,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="18.75" spans="1:6">
+    <row r="190" ht="17.4" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5705,7 +5668,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="18.75" spans="1:6">
+    <row r="191" ht="17.4" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5717,7 +5680,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="18.75" spans="1:6">
+    <row r="192" ht="17.4" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5729,7 +5692,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="18.75" spans="1:6">
+    <row r="193" ht="17.4" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5741,7 +5704,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="18.75" spans="1:6">
+    <row r="194" ht="17.4" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5753,7 +5716,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="18.75" spans="1:6">
+    <row r="195" ht="17.4" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5765,7 +5728,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="18.75" spans="1:6">
+    <row r="196" ht="17.4" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5777,7 +5740,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="18.75" spans="1:6">
+    <row r="197" ht="17.4" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5789,7 +5752,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="18.75" spans="1:6">
+    <row r="198" ht="17.4" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5801,7 +5764,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="18.75" spans="1:6">
+    <row r="199" ht="17.4" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5813,7 +5776,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="18.75" spans="1:6">
+    <row r="200" ht="17.4" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5825,7 +5788,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="18.75" spans="1:6">
+    <row r="201" ht="17.4" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5837,7 +5800,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="18.75" spans="1:6">
+    <row r="202" ht="17.4" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5849,7 +5812,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="18.75" spans="1:6">
+    <row r="203" ht="17.4" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5861,7 +5824,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="18.75" spans="1:6">
+    <row r="204" ht="17.4" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5873,7 +5836,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="18.75" spans="1:6">
+    <row r="205" ht="17.4" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5885,7 +5848,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="18.75" spans="1:6">
+    <row r="206" ht="17.4" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5897,7 +5860,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="18.75" spans="1:6">
+    <row r="207" ht="17.4" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5909,7 +5872,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="18.75" spans="1:6">
+    <row r="208" ht="17.4" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5921,7 +5884,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="18.75" spans="1:6">
+    <row r="209" ht="17.4" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5933,7 +5896,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="18.75" spans="1:6">
+    <row r="210" ht="17.4" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5945,7 +5908,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="18.75" spans="1:6">
+    <row r="211" ht="17.4" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5957,7 +5920,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="18.75" spans="1:6">
+    <row r="212" ht="17.4" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5969,7 +5932,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="18.75" spans="1:6">
+    <row r="213" ht="17.4" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5981,7 +5944,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="18.75" spans="1:6">
+    <row r="214" ht="17.4" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -5993,7 +5956,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="18.75" spans="1:6">
+    <row r="215" ht="17.4" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -6005,7 +5968,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="18.75" spans="1:6">
+    <row r="216" ht="17.4" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -6017,7 +5980,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="18.75" spans="1:6">
+    <row r="217" ht="17.4" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -6029,7 +5992,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="18.75" spans="1:6">
+    <row r="218" ht="17.4" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -6041,7 +6004,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="18.75" spans="1:6">
+    <row r="219" ht="17.4" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -6053,7 +6016,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="18.75" spans="1:6">
+    <row r="220" ht="17.4" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -6065,7 +6028,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="18.75" spans="1:6">
+    <row r="221" ht="17.4" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -6077,7 +6040,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="18.75" spans="1:6">
+    <row r="222" ht="17.4" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -6089,7 +6052,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="18.75" spans="1:6">
+    <row r="223" ht="17.4" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -6101,7 +6064,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="18.75" spans="1:6">
+    <row r="224" ht="17.4" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -6113,7 +6076,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="18.75" spans="1:6">
+    <row r="225" ht="17.4" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -6125,7 +6088,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="18.75" spans="1:6">
+    <row r="226" ht="17.4" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -6137,7 +6100,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="18.75" spans="1:6">
+    <row r="227" ht="17.4" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -6149,7 +6112,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="18.75" spans="1:6">
+    <row r="228" ht="17.4" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -6161,7 +6124,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="18.75" spans="1:6">
+    <row r="229" ht="17.4" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -6173,7 +6136,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="18.75" spans="1:6">
+    <row r="230" ht="17.4" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -6185,7 +6148,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="18.75" spans="1:6">
+    <row r="231" ht="17.4" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -6197,7 +6160,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="18.75" spans="1:6">
+    <row r="232" ht="17.4" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -6209,7 +6172,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="18.75" spans="1:6">
+    <row r="233" ht="17.4" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -6221,7 +6184,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="18.75" spans="1:6">
+    <row r="234" ht="17.4" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -6233,7 +6196,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="18.75" spans="1:6">
+    <row r="235" ht="17.4" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -6245,7 +6208,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="18.75" spans="1:6">
+    <row r="236" ht="17.4" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -6257,7 +6220,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="18.75" spans="1:6">
+    <row r="237" ht="17.4" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -6269,7 +6232,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="18.75" spans="1:6">
+    <row r="238" ht="17.4" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6281,7 +6244,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="18.75" spans="1:6">
+    <row r="239" ht="17.4" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6293,7 +6256,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="18.75" spans="1:6">
+    <row r="240" ht="17.4" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6305,7 +6268,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="18.75" spans="1:6">
+    <row r="241" ht="17.4" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6317,7 +6280,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="18.75" spans="1:6">
+    <row r="242" ht="17.4" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6329,7 +6292,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="18.75" spans="1:6">
+    <row r="243" ht="17.4" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6341,7 +6304,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="18.75" spans="1:6">
+    <row r="244" ht="17.4" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6353,7 +6316,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="18.75" spans="1:6">
+    <row r="245" ht="17.4" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6365,7 +6328,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="18.75" spans="1:6">
+    <row r="246" ht="17.4" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6377,7 +6340,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="18.75" spans="1:6">
+    <row r="247" ht="17.4" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6389,7 +6352,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="18.75" spans="1:6">
+    <row r="248" ht="17.4" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6401,7 +6364,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="18.75" spans="1:6">
+    <row r="249" ht="17.4" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6413,7 +6376,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="18.75" spans="1:6">
+    <row r="250" ht="17.4" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6425,7 +6388,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="18.75" spans="1:6">
+    <row r="251" ht="17.4" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6437,7 +6400,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="18.75" spans="1:6">
+    <row r="252" ht="17.4" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6449,7 +6412,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="18.75" spans="1:6">
+    <row r="253" ht="17.4" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6461,7 +6424,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="18.75" spans="1:6">
+    <row r="254" ht="17.4" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6473,7 +6436,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="18.75" spans="1:6">
+    <row r="255" ht="17.4" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6485,7 +6448,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="18.75" spans="1:6">
+    <row r="256" ht="17.4" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6497,7 +6460,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="18.75" spans="1:6">
+    <row r="257" ht="17.4" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6509,7 +6472,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="18.75" spans="1:6">
+    <row r="258" ht="17.4" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6521,7 +6484,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="18.75" spans="1:6">
+    <row r="259" ht="17.4" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6533,7 +6496,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="18.75" spans="1:6">
+    <row r="260" ht="17.4" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6545,7 +6508,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="18.75" spans="1:6">
+    <row r="261" ht="17.4" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6557,7 +6520,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="18.75" spans="1:6">
+    <row r="262" ht="17.4" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6569,7 +6532,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="18.75" spans="1:6">
+    <row r="263" ht="17.4" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6581,7 +6544,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="18.75" spans="1:6">
+    <row r="264" ht="17.4" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6593,7 +6556,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="18.75" spans="1:6">
+    <row r="265" ht="17.4" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6605,7 +6568,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="18.75" spans="1:6">
+    <row r="266" ht="17.4" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6617,7 +6580,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="18.75" spans="1:6">
+    <row r="267" ht="17.4" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6629,7 +6592,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="18.75" spans="1:6">
+    <row r="268" ht="17.4" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6641,7 +6604,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="18.75" spans="1:6">
+    <row r="269" ht="17.4" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6653,7 +6616,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="18.75" spans="1:6">
+    <row r="270" ht="17.4" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6665,7 +6628,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="18.75" spans="1:6">
+    <row r="271" ht="17.4" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6677,7 +6640,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="18.75" spans="1:6">
+    <row r="272" ht="17.4" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6689,7 +6652,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="18.75" spans="1:6">
+    <row r="273" ht="17.4" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6701,7 +6664,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="18.75" spans="1:6">
+    <row r="274" ht="17.4" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6713,7 +6676,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="18.75" spans="1:6">
+    <row r="275" ht="17.4" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6725,7 +6688,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="18.75" spans="1:6">
+    <row r="276" ht="17.4" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6737,7 +6700,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="18.75" spans="1:6">
+    <row r="277" ht="17.4" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6749,7 +6712,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="18.75" spans="1:6">
+    <row r="278" ht="17.4" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6761,7 +6724,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="18.75" spans="1:6">
+    <row r="279" ht="17.4" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6773,7 +6736,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="18.75" spans="1:6">
+    <row r="280" ht="17.4" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6785,7 +6748,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="18.75" spans="1:6">
+    <row r="281" ht="17.4" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6797,7 +6760,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="18.75" spans="1:6">
+    <row r="282" ht="17.4" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6809,7 +6772,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="18.75" spans="1:6">
+    <row r="283" ht="17.4" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6821,7 +6784,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="18.75" spans="1:6">
+    <row r="284" ht="17.4" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6833,7 +6796,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="18.75" spans="1:6">
+    <row r="285" ht="17.4" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6845,7 +6808,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="18.75" spans="1:6">
+    <row r="286" ht="17.4" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6857,7 +6820,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="18.75" spans="1:6">
+    <row r="287" ht="17.4" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6869,7 +6832,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="18.75" spans="1:6">
+    <row r="288" ht="17.4" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6881,7 +6844,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="18.75" spans="1:6">
+    <row r="289" ht="17.4" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6893,7 +6856,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="18.75" spans="1:6">
+    <row r="290" ht="17.4" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6905,7 +6868,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="18.75" spans="1:6">
+    <row r="291" ht="17.4" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6917,7 +6880,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="18.75" spans="1:6">
+    <row r="292" ht="17.4" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6929,7 +6892,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="18.75" spans="1:6">
+    <row r="293" ht="17.4" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6941,7 +6904,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="18.75" spans="1:6">
+    <row r="294" ht="17.4" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6953,7 +6916,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="18.75" spans="1:6">
+    <row r="295" ht="17.4" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6965,7 +6928,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="18.75" spans="1:6">
+    <row r="296" ht="17.4" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6977,7 +6940,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="18.75" spans="1:6">
+    <row r="297" ht="17.4" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6989,7 +6952,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="18.75" spans="1:6">
+    <row r="298" ht="17.4" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -7001,7 +6964,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="18.75" spans="1:6">
+    <row r="299" ht="17.4" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -7013,7 +6976,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="18.75" spans="1:6">
+    <row r="300" ht="17.4" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -7025,7 +6988,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="18.75" spans="1:6">
+    <row r="301" ht="17.4" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -7037,7 +7000,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="18.75" spans="1:6">
+    <row r="302" ht="17.4" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -7049,7 +7012,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="18.75" spans="1:6">
+    <row r="303" ht="17.4" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -7061,7 +7024,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="18.75" spans="1:6">
+    <row r="304" ht="17.4" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -7073,7 +7036,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="18.75" spans="1:6">
+    <row r="305" ht="17.4" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -7085,7 +7048,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="18.75" spans="1:6">
+    <row r="306" ht="17.4" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -7097,7 +7060,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="18.75" spans="1:6">
+    <row r="307" ht="17.4" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -7109,7 +7072,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="18.75" spans="1:6">
+    <row r="308" ht="17.4" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -7121,7 +7084,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="18.75" spans="1:6">
+    <row r="309" ht="17.4" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -7133,7 +7096,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="18.75" spans="1:6">
+    <row r="310" ht="17.4" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -7145,7 +7108,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="18.75" spans="1:6">
+    <row r="311" ht="17.4" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -7157,7 +7120,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="18.75" spans="1:6">
+    <row r="312" ht="17.4" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -7169,7 +7132,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="18.75" spans="1:6">
+    <row r="313" ht="17.4" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -7181,7 +7144,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="18.75" spans="1:6">
+    <row r="314" ht="17.4" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -7193,7 +7156,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="18.75" spans="1:6">
+    <row r="315" ht="17.4" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -7205,7 +7168,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="18.75" spans="1:6">
+    <row r="316" ht="17.4" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -7217,7 +7180,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="18.75" spans="1:6">
+    <row r="317" ht="17.4" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -7229,7 +7192,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="18.75" spans="1:6">
+    <row r="318" ht="17.4" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -7241,7 +7204,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="18.75" spans="1:6">
+    <row r="319" ht="17.4" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -7253,7 +7216,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="18.75" spans="1:6">
+    <row r="320" ht="17.4" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -7265,7 +7228,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="18.75" spans="1:6">
+    <row r="321" ht="17.4" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -7277,7 +7240,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="18.75" spans="1:6">
+    <row r="322" ht="17.4" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7289,7 +7252,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="18.75" spans="1:6">
+    <row r="323" ht="17.4" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7301,7 +7264,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="18.75" spans="1:6">
+    <row r="324" ht="17.4" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7313,7 +7276,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="18.75" spans="1:6">
+    <row r="325" ht="17.4" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7325,7 +7288,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="18.75" spans="1:6">
+    <row r="326" ht="17.4" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7337,7 +7300,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="18.75" spans="1:6">
+    <row r="327" ht="17.4" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7349,7 +7312,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="18.75" spans="1:6">
+    <row r="328" ht="17.4" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7361,7 +7324,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="18.75" spans="1:6">
+    <row r="329" ht="17.4" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7373,7 +7336,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="18.75" spans="1:6">
+    <row r="330" ht="17.4" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7385,7 +7348,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="18.75" spans="1:6">
+    <row r="331" ht="17.4" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7397,7 +7360,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="18.75" spans="1:6">
+    <row r="332" ht="17.4" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7409,7 +7372,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="18.75" spans="1:6">
+    <row r="333" ht="17.4" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7421,7 +7384,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="18.75" spans="1:6">
+    <row r="334" ht="17.4" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7433,7 +7396,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="18.75" spans="1:6">
+    <row r="335" ht="17.4" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7445,7 +7408,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="18.75" spans="1:6">
+    <row r="336" ht="17.4" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7457,7 +7420,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="18.75" spans="1:6">
+    <row r="337" ht="17.4" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7469,7 +7432,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="18.75" spans="1:6">
+    <row r="338" ht="17.4" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7481,7 +7444,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="18.75" spans="1:6">
+    <row r="339" ht="17.4" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7493,7 +7456,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="18.75" spans="1:6">
+    <row r="340" ht="17.4" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7505,7 +7468,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="18.75" spans="1:6">
+    <row r="341" ht="17.4" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7517,7 +7480,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="18.75" spans="1:6">
+    <row r="342" ht="17.4" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7529,7 +7492,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="18.75" spans="1:6">
+    <row r="343" ht="17.4" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7541,7 +7504,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="18.75" spans="1:6">
+    <row r="344" ht="17.4" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7553,7 +7516,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="18.75" spans="1:6">
+    <row r="345" ht="17.4" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7565,7 +7528,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="18.75" spans="1:6">
+    <row r="346" ht="17.4" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7577,7 +7540,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="18.75" spans="1:6">
+    <row r="347" ht="17.4" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7589,7 +7552,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="18.75" spans="1:6">
+    <row r="348" ht="17.4" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7601,7 +7564,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="18.75" spans="1:6">
+    <row r="349" ht="17.4" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7613,7 +7576,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="18.75" spans="1:6">
+    <row r="350" ht="17.4" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7625,7 +7588,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="18.75" spans="1:6">
+    <row r="351" ht="17.4" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7637,7 +7600,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="18.75" spans="1:6">
+    <row r="352" ht="17.4" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7649,7 +7612,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="18.75" spans="1:6">
+    <row r="353" ht="17.4" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7661,7 +7624,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="18.75" spans="1:6">
+    <row r="354" ht="17.4" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7673,7 +7636,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="18.75" spans="1:6">
+    <row r="355" ht="17.4" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7685,7 +7648,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="18.75" spans="1:6">
+    <row r="356" ht="17.4" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7697,7 +7660,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="18.75" spans="1:6">
+    <row r="357" ht="17.4" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7709,7 +7672,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="18.75" spans="1:6">
+    <row r="358" ht="17.4" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7721,7 +7684,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="18.75" spans="1:6">
+    <row r="359" ht="17.4" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7733,7 +7696,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="18.75" spans="1:6">
+    <row r="360" ht="17.4" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7745,7 +7708,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="18.75" spans="1:6">
+    <row r="361" ht="17.4" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7757,7 +7720,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="18.75" spans="1:6">
+    <row r="362" ht="17.4" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7769,7 +7732,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="18.75" spans="1:6">
+    <row r="363" ht="17.4" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7781,7 +7744,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="18.75" spans="1:6">
+    <row r="364" ht="17.4" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7793,7 +7756,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="18.75" spans="1:6">
+    <row r="365" ht="17.4" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7805,7 +7768,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="18.75" spans="1:6">
+    <row r="366" ht="17.4" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="129">
   <si>
     <t>日期</t>
   </si>
@@ -120,6 +120,9 @@
     <t>《王者荣耀》柯南联动</t>
   </si>
   <si>
+    <t>《仙剑世界》公测定档</t>
+  </si>
+  <si>
     <t>《三国谋定天下》S4赛季</t>
   </si>
   <si>
@@ -403,6 +406,9 @@
   </si>
   <si>
     <t>《无限大》线下技术性测试结束</t>
+  </si>
+  <si>
+    <t>《仙剑世界》公测</t>
   </si>
   <si>
     <t>《白夜极光》正式停服</t>
@@ -1148,7 +1154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,6 +1222,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,12 +1827,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
@@ -2090,53 +2120,51 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8">
+      <c r="A22" s="23">
         <v>45611</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>45612</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2144,25 +2172,27 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
+        <v>45614</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
         <v>45615</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
@@ -2238,22 +2268,22 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="10">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10">
         <v>45616</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
       <c r="C36" s="4" t="s">
         <v>41</v>
       </c>
@@ -2262,30 +2292,30 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10">
-        <v>45617</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10">
+        <v>45617</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="19"/>
@@ -2294,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
@@ -2304,7 +2334,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6">
@@ -2314,34 +2344,34 @@
         <v>47</v>
       </c>
       <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="10">
-        <v>45618</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="24" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="19"/>
@@ -2349,9 +2379,9 @@
       <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="23"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="19"/>
@@ -2359,307 +2389,307 @@
       <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="22"/>
-      <c r="F45" s="25"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8">
-        <v>45619</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10">
+      <c r="A48" s="8">
+        <v>45620</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10">
         <v>45621</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
       <c r="F49" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="10">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10">
         <v>45622</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8">
-        <v>45623</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="4"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="8">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="8">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8">
         <v>45627</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="10">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="10">
         <v>45628</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="27" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="28">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="36">
         <v>45629</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B59" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="24" t="s">
+      <c r="C59" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="25"/>
       <c r="F59" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="30" t="s">
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="4" t="s">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="27" t="s">
+      <c r="D61" s="42"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="30" t="s">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="27" t="s">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="27" t="s">
+      <c r="D63" s="42"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="30" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="27" t="s">
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="38" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="27" t="s">
+      <c r="D65" s="42"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="35" t="s">
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="27" t="s">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="10">
+      <c r="D67" s="42"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="10">
         <v>45630</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="C68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="19"/>
@@ -2667,37 +2697,37 @@
       <c r="C69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="D69" s="21"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="10">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="10">
         <v>45631</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7" t="s">
+      <c r="C71" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="19"/>
@@ -2707,7 +2737,7 @@
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="31"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="19"/>
@@ -2717,7 +2747,7 @@
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="31"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="19"/>
@@ -2727,152 +2757,148 @@
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="31"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="10">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="10">
         <v>45632</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B77" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38" t="s">
+      <c r="C77" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="D77" s="45"/>
+      <c r="E77" s="46" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="19"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38"/>
       <c r="F77" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="4" t="s">
+      <c r="B78" s="47"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="19"/>
-      <c r="B79" s="39"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="19"/>
-      <c r="B80" s="39"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="11" t="s">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="19"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="16"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="11" t="s">
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="16"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="10">
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="10">
         <v>45633</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
       <c r="C83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8">
-        <v>45634</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>111</v>
@@ -2883,82 +2909,84 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="10">
+      <c r="A88" s="8">
+        <v>45637</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="10">
         <v>45638</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
       <c r="C89" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="8">
-        <v>45639</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A91" s="16"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2967,10 +2995,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2979,10 +3007,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="8">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2991,62 +3019,62 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="8">
-        <v>45644</v>
+        <v>45643</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="10">
-        <v>45645</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>8</v>
+      <c r="A97" s="8">
+        <v>45644</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="16"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="8">
-        <v>45646</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="21"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="8">
-        <v>46012</v>
+        <v>45646</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3055,10 +3083,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="8">
-        <v>45648</v>
+        <v>46012</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3067,10 +3095,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="8">
-        <v>45649</v>
+        <v>45648</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3079,10 +3107,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="8">
-        <v>45650</v>
+        <v>45649</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3091,10 +3119,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="8">
-        <v>45651</v>
+        <v>45650</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3103,10 +3131,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="8">
-        <v>45652</v>
+        <v>45651</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3115,36 +3143,36 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="8">
-        <v>45653</v>
+        <v>45652</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="8">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="8">
-        <v>45655</v>
+        <v>45654</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3153,10 +3181,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="8">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3165,24 +3193,29 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="8">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="14.4" spans="1:5">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
+    <row r="111" spans="1:6">
+      <c r="A111" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" ht="14.4" spans="1:5">
       <c r="A112"/>
@@ -3261,88 +3294,100 @@
       <c r="D122"/>
       <c r="E122"/>
     </row>
+    <row r="123" ht="14.4" spans="1:5">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="85">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A98:A99"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C77:C78"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D58:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D98:D99"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E66"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E27:E35"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E98:E99"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="F98:F99"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3357,7 +3402,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3410,7 +3455,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3424,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3438,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3499,7 +3544,9 @@
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
@@ -3680,7 +3727,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4066,7 +4113,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="130">
   <si>
     <t>日期</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>《第五人格》第36赛季</t>
+  </si>
+  <si>
+    <t>《崩坏三》8.0版本更新</t>
   </si>
   <si>
     <t>《幻塔》三周年4.6版本更新</t>
@@ -1154,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,30 +1227,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1301,6 +1280,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1827,22 +1815,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45.8796296296296" style="15" customWidth="1"/>
-    <col min="4" max="4" width="41.3796296296296" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
+    <col min="3" max="3" width="45.8833333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="41.3833333333333" style="15" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="68.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="68.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2120,30 +2108,30 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="23">
+      <c r="A22" s="10">
         <v>45611</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8">
@@ -2324,7 +2312,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
@@ -2334,7 +2322,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="22"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6">
@@ -2344,7 +2332,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="22"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6">
@@ -2354,7 +2342,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="22"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6">
@@ -2369,7 +2357,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2379,9 +2367,9 @@
       <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="33"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="19"/>
@@ -2389,9 +2377,9 @@
       <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="31"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="22"/>
-      <c r="F45" s="33"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="19"/>
@@ -2399,9 +2387,9 @@
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="31"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="33"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
@@ -2452,9 +2440,9 @@
     <row r="50" spans="1:6">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="31"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="4" t="s">
         <v>59</v>
       </c>
@@ -2469,7 +2457,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="34"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8">
@@ -2563,24 +2551,24 @@
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="36">
+      <c r="A59" s="28">
         <v>45629</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="32" t="s">
+      <c r="D59" s="31"/>
+      <c r="E59" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -2588,90 +2576,90 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="40"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="38" t="s">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="33"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="40"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="35" t="s">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="38" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="35" t="s">
+      <c r="D63" s="34"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="35" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="38" t="s">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="35" t="s">
+      <c r="D65" s="34"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="27" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="35" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="43" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="35" t="s">
+      <c r="D67" s="34"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2737,7 +2725,7 @@
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
-      <c r="F72" s="31"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="19"/>
@@ -2747,7 +2735,7 @@
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="31"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="19"/>
@@ -2757,7 +2745,7 @@
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="31"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="19"/>
@@ -2767,7 +2755,7 @@
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="31"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="16"/>
@@ -2783,14 +2771,14 @@
       <c r="A77" s="10">
         <v>45632</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46" t="s">
+      <c r="D77" s="37"/>
+      <c r="E77" s="38" t="s">
         <v>97</v>
       </c>
       <c r="F77" s="11" t="s">
@@ -2799,34 +2787,34 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="19"/>
-      <c r="B79" s="47"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="19"/>
-      <c r="B80" s="47"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46" t="s">
+      <c r="D80" s="37"/>
+      <c r="E80" s="38" t="s">
         <v>103</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -2835,24 +2823,24 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="19"/>
-      <c r="B81" s="47"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="16"/>
-      <c r="B82" s="48"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
       <c r="F82" s="11" t="s">
         <v>108</v>
       </c>
@@ -2958,47 +2946,45 @@
       <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="8">
-        <v>45639</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3007,10 +2993,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="8">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3019,10 +3005,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="8">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3031,62 +3017,62 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="8">
-        <v>45644</v>
+        <v>45643</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="10">
-        <v>45645</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>8</v>
+      <c r="A98" s="8">
+        <v>45644</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="16"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="8">
-        <v>45646</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="8">
-        <v>46012</v>
+        <v>45646</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3095,10 +3081,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="8">
-        <v>45648</v>
+        <v>46012</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3107,10 +3093,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="8">
-        <v>45649</v>
+        <v>45648</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3119,10 +3105,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="8">
-        <v>45650</v>
+        <v>45649</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3131,10 +3117,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="8">
-        <v>45651</v>
+        <v>45650</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3143,10 +3129,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="8">
-        <v>45652</v>
+        <v>45651</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3155,36 +3141,36 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="8">
-        <v>45653</v>
+        <v>45652</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="8">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="8">
-        <v>45655</v>
+        <v>45654</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3193,10 +3179,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="8">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3205,101 +3191,113 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="8">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" ht="14.4" spans="1:5">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-    </row>
-    <row r="113" ht="14.4" spans="1:5">
+    <row r="112" spans="1:6">
+      <c r="A112" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" ht="13.5" spans="1:5">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" ht="14.4" spans="1:5">
+    <row r="114" ht="13.5" spans="1:5">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
     </row>
-    <row r="115" ht="14.4" spans="1:5">
+    <row r="115" ht="13.5" spans="1:5">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" ht="14.4" spans="1:5">
+    <row r="116" ht="13.5" spans="1:5">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
     </row>
-    <row r="117" ht="14.4" spans="1:5">
+    <row r="117" ht="13.5" spans="1:5">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" ht="14.4" spans="1:5">
+    <row r="118" ht="13.5" spans="1:5">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
     </row>
-    <row r="119" ht="14.4" spans="1:5">
+    <row r="119" ht="13.5" spans="1:5">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" ht="14.4" spans="1:5">
+    <row r="120" ht="13.5" spans="1:5">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" ht="14.4" spans="1:5">
+    <row r="121" ht="13.5" spans="1:5">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" ht="14.4" spans="1:5">
+    <row r="122" ht="13.5" spans="1:5">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" ht="14.4" spans="1:5">
+    <row r="123" ht="13.5" spans="1:5">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
+    </row>
+    <row r="124" ht="13.5" spans="1:5">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -3318,8 +3316,8 @@
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A82"/>
     <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A99:A100"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -3335,8 +3333,8 @@
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="B77:B82"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B99:B100"/>
     <mergeCell ref="C27:C35"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C57:C58"/>
@@ -3357,8 +3355,8 @@
     <mergeCell ref="D71:D76"/>
     <mergeCell ref="D77:D82"/>
     <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="D99:D100"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
@@ -3374,8 +3372,8 @@
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="E80:E82"/>
     <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
@@ -3386,8 +3384,8 @@
     <mergeCell ref="F68:F70"/>
     <mergeCell ref="F71:F76"/>
     <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F99:F100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3405,17 +3403,17 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="6.62962962962963" customWidth="1"/>
-    <col min="3" max="3" width="42.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="18.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="13.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.63333333333333" customWidth="1"/>
+    <col min="3" max="3" width="42.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3447,7 +3445,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3455,13 +3453,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="17.4" spans="1:6">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3469,13 +3467,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="17.4" spans="1:6">
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3483,13 +3481,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3501,7 +3499,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3513,7 +3511,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3525,7 +3523,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3537,7 +3535,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3545,13 +3543,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3563,7 +3561,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="17.4" spans="1:6">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3575,7 +3573,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3587,7 +3585,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3599,7 +3597,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3611,7 +3609,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3623,7 +3621,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3635,7 +3633,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:6">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3647,7 +3645,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="17.4" spans="1:6">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3659,7 +3657,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="17.4" spans="1:6">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3671,7 +3669,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="17.4" spans="1:6">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3683,7 +3681,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3695,7 +3693,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3707,7 +3705,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="17.4" spans="1:6">
+    <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3719,7 +3717,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="17.4" spans="1:6">
+    <row r="25" ht="18.75" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3727,13 +3725,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" ht="18.75" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3745,7 +3743,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" ht="18.75" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3757,7 +3755,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" ht="18.75" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3769,7 +3767,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" ht="18.75" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3781,7 +3779,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
+    <row r="30" ht="18.75" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3793,7 +3791,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
+    <row r="31" ht="18.75" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3805,7 +3803,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
+    <row r="32" ht="18.75" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3817,7 +3815,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
+    <row r="33" ht="18.75" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3829,7 +3827,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="17.4" spans="1:6">
+    <row r="34" ht="18.75" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3841,7 +3839,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="17.4" spans="1:6">
+    <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -3853,7 +3851,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="17.4" spans="1:6">
+    <row r="36" ht="18.75" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -3865,7 +3863,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
+    <row r="37" ht="18.75" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -3877,7 +3875,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
+    <row r="38" ht="18.75" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -3889,7 +3887,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
+    <row r="39" ht="18.75" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -3901,7 +3899,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
+    <row r="40" ht="18.75" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -3913,7 +3911,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
+    <row r="41" ht="18.75" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -3925,7 +3923,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" ht="18.75" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -3937,7 +3935,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" ht="18.75" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -3949,7 +3947,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" ht="18.75" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -3961,7 +3959,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" ht="18.75" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -3973,7 +3971,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" ht="18.75" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -3985,7 +3983,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" ht="18.75" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -3997,7 +3995,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" ht="18.75" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -4009,7 +4007,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" ht="18.75" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -4021,7 +4019,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" ht="18.75" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -4033,7 +4031,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" ht="18.75" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -4045,7 +4043,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18.75" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -4057,7 +4055,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18.75" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -4069,7 +4067,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" ht="18.75" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -4081,7 +4079,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
+    <row r="55" ht="18.75" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -4093,7 +4091,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" ht="18.75" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -4105,7 +4103,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" ht="18.75" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -4113,13 +4111,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
+    <row r="58" ht="18.75" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -4131,7 +4129,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
+    <row r="59" ht="18.75" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -4143,7 +4141,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
+    <row r="60" ht="18.75" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -4155,7 +4153,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
+    <row r="61" ht="18.75" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -4167,7 +4165,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
+    <row r="62" ht="18.75" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -4179,7 +4177,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
+    <row r="63" ht="18.75" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -4191,7 +4189,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="17.4" spans="1:6">
+    <row r="64" ht="18.75" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -4203,7 +4201,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="17.4" spans="1:6">
+    <row r="65" ht="18.75" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -4215,7 +4213,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
+    <row r="66" ht="18.75" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -4227,7 +4225,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="17.4" spans="1:6">
+    <row r="67" ht="18.75" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -4239,7 +4237,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="17.4" spans="1:6">
+    <row r="68" ht="18.75" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -4251,7 +4249,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" ht="18.75" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -4263,7 +4261,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" ht="18.75" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -4275,7 +4273,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" ht="18.75" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -4287,7 +4285,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" ht="18.75" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4299,7 +4297,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" ht="18.75" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4311,7 +4309,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" ht="18.75" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4323,7 +4321,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" ht="18.75" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4335,7 +4333,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" ht="18.75" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4347,7 +4345,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" ht="18.75" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4359,7 +4357,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" ht="18.75" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4371,7 +4369,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" ht="18.75" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4383,7 +4381,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
+    <row r="80" ht="18.75" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4395,7 +4393,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
+    <row r="81" ht="18.75" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4407,7 +4405,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="17.4" spans="1:6">
+    <row r="82" ht="18.75" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4419,7 +4417,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="17.4" spans="1:6">
+    <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4431,7 +4429,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
+    <row r="84" ht="18.75" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4443,7 +4441,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="17.4" spans="1:6">
+    <row r="85" ht="18.75" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4455,7 +4453,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="17.4" spans="1:6">
+    <row r="86" ht="18.75" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4467,7 +4465,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="17.4" spans="1:6">
+    <row r="87" ht="18.75" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4479,7 +4477,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="17.4" spans="1:6">
+    <row r="88" ht="18.75" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4491,7 +4489,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="17.4" spans="1:6">
+    <row r="89" ht="18.75" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4503,7 +4501,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="17.4" spans="1:6">
+    <row r="90" ht="18.75" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4515,7 +4513,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="17.4" spans="1:6">
+    <row r="91" ht="18.75" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4527,7 +4525,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="17.4" spans="1:6">
+    <row r="92" ht="18.75" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4539,7 +4537,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
+    <row r="93" ht="18.75" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4551,7 +4549,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="17.4" spans="1:6">
+    <row r="94" ht="18.75" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4563,7 +4561,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="17.4" spans="1:6">
+    <row r="95" ht="18.75" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4575,7 +4573,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="17.4" spans="1:6">
+    <row r="96" ht="18.75" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4587,7 +4585,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="17.4" spans="1:6">
+    <row r="97" ht="18.75" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4599,7 +4597,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
+    <row r="98" ht="18.75" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4611,7 +4609,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="17.4" spans="1:6">
+    <row r="99" ht="18.75" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4623,7 +4621,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="17.4" spans="1:6">
+    <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4635,7 +4633,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
+    <row r="101" ht="18.75" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4647,7 +4645,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="17.4" spans="1:6">
+    <row r="102" ht="18.75" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4659,7 +4657,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="17.4" spans="1:6">
+    <row r="103" ht="18.75" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4671,7 +4669,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="17.4" spans="1:6">
+    <row r="104" ht="18.75" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4683,7 +4681,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="17.4" spans="1:6">
+    <row r="105" ht="18.75" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4695,7 +4693,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
+    <row r="106" ht="18.75" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4707,7 +4705,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="17.4" spans="1:6">
+    <row r="107" ht="18.75" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4719,7 +4717,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
+    <row r="108" ht="18.75" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4731,7 +4729,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="17.4" spans="1:6">
+    <row r="109" ht="18.75" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4743,7 +4741,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="17.4" spans="1:6">
+    <row r="110" ht="18.75" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4755,7 +4753,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="17.4" spans="1:6">
+    <row r="111" ht="18.75" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4767,7 +4765,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="17.4" spans="1:6">
+    <row r="112" ht="18.75" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4779,7 +4777,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="17.4" spans="1:6">
+    <row r="113" ht="18.75" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4791,7 +4789,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="17.4" spans="1:6">
+    <row r="114" ht="18.75" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4803,7 +4801,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="17.4" spans="1:6">
+    <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4815,7 +4813,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
+    <row r="116" ht="18.75" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4827,7 +4825,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="17.4" spans="1:6">
+    <row r="117" ht="18.75" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4839,7 +4837,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="17.4" spans="1:6">
+    <row r="118" ht="18.75" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -4851,7 +4849,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="17.4" spans="1:6">
+    <row r="119" ht="18.75" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -4863,7 +4861,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="17.4" spans="1:6">
+    <row r="120" ht="18.75" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -4875,7 +4873,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18.75" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -4887,7 +4885,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="17.4" spans="1:6">
+    <row r="122" ht="18.75" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -4899,7 +4897,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="17.4" spans="1:6">
+    <row r="123" ht="18.75" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -4911,7 +4909,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
+    <row r="124" ht="18.75" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -4923,7 +4921,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="17.4" spans="1:6">
+    <row r="125" ht="18.75" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -4935,7 +4933,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="17.4" spans="1:6">
+    <row r="126" ht="18.75" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -4947,7 +4945,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="17.4" spans="1:6">
+    <row r="127" ht="18.75" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -4959,7 +4957,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="17.4" spans="1:6">
+    <row r="128" ht="18.75" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -4971,7 +4969,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="17.4" spans="1:6">
+    <row r="129" ht="18.75" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -4983,7 +4981,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="17.4" spans="1:6">
+    <row r="130" ht="18.75" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -4995,7 +4993,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="17.4" spans="1:6">
+    <row r="131" ht="18.75" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -5007,7 +5005,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
+    <row r="132" ht="18.75" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -5019,7 +5017,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
+    <row r="133" ht="18.75" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -5031,7 +5029,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
+    <row r="134" ht="18.75" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -5043,7 +5041,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
+    <row r="135" ht="18.75" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -5055,7 +5053,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
+    <row r="136" ht="18.75" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -5067,7 +5065,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18.75" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -5079,7 +5077,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18.75" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -5091,7 +5089,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18.75" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -5103,7 +5101,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18.75" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -5115,7 +5113,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18.75" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -5127,7 +5125,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
+    <row r="142" ht="18.75" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -5139,7 +5137,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18.75" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -5151,7 +5149,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="17.4" spans="1:6">
+    <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -5163,7 +5161,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
+    <row r="145" ht="18.75" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -5175,7 +5173,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="17.4" spans="1:6">
+    <row r="146" ht="18.75" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -5187,7 +5185,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="17.4" spans="1:6">
+    <row r="147" ht="18.75" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -5199,7 +5197,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="17.4" spans="1:6">
+    <row r="148" ht="18.75" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -5211,7 +5209,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="17.4" spans="1:6">
+    <row r="149" ht="18.75" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -5223,7 +5221,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="17.4" spans="1:6">
+    <row r="150" ht="18.75" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -5235,7 +5233,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="17.4" spans="1:6">
+    <row r="151" ht="18.75" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -5247,7 +5245,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="17.4" spans="1:6">
+    <row r="152" ht="18.75" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -5259,7 +5257,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="17.4" spans="1:6">
+    <row r="153" ht="18.75" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -5271,7 +5269,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="17.4" spans="1:6">
+    <row r="154" ht="18.75" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -5283,7 +5281,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="17.4" spans="1:6">
+    <row r="155" ht="18.75" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5295,7 +5293,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="17.4" spans="1:6">
+    <row r="156" ht="18.75" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5307,7 +5305,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
+    <row r="157" ht="18.75" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5319,7 +5317,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
+    <row r="158" ht="18.75" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5331,7 +5329,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="17.4" spans="1:6">
+    <row r="159" ht="18.75" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5343,7 +5341,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="17.4" spans="1:6">
+    <row r="160" ht="18.75" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5355,7 +5353,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
+    <row r="161" ht="18.75" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5367,7 +5365,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="17.4" spans="1:6">
+    <row r="162" ht="18.75" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5379,7 +5377,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="17.4" spans="1:6">
+    <row r="163" ht="18.75" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5391,7 +5389,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="17.4" spans="1:6">
+    <row r="164" ht="18.75" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5403,7 +5401,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="17.4" spans="1:6">
+    <row r="165" ht="18.75" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5415,7 +5413,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="17.4" spans="1:6">
+    <row r="166" ht="18.75" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5427,7 +5425,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="17.4" spans="1:6">
+    <row r="167" ht="18.75" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5439,7 +5437,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="17.4" spans="1:6">
+    <row r="168" ht="18.75" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5451,7 +5449,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="17.4" spans="1:6">
+    <row r="169" ht="18.75" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5463,7 +5461,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="17.4" spans="1:6">
+    <row r="170" ht="18.75" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5475,7 +5473,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="17.4" spans="1:6">
+    <row r="171" ht="18.75" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5487,7 +5485,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="17.4" spans="1:6">
+    <row r="172" ht="18.75" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5499,7 +5497,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="17.4" spans="1:6">
+    <row r="173" ht="18.75" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5511,7 +5509,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="17.4" spans="1:6">
+    <row r="174" ht="18.75" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5523,7 +5521,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="17.4" spans="1:6">
+    <row r="175" ht="18.75" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5535,7 +5533,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="17.4" spans="1:6">
+    <row r="176" ht="18.75" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5547,7 +5545,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="17.4" spans="1:6">
+    <row r="177" ht="18.75" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5559,7 +5557,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="17.4" spans="1:6">
+    <row r="178" ht="18.75" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5571,7 +5569,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="17.4" spans="1:6">
+    <row r="179" ht="18.75" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5583,7 +5581,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="17.4" spans="1:6">
+    <row r="180" ht="18.75" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5595,7 +5593,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="17.4" spans="1:6">
+    <row r="181" ht="18.75" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5607,7 +5605,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="17.4" spans="1:6">
+    <row r="182" ht="18.75" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5619,7 +5617,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="17.4" spans="1:6">
+    <row r="183" ht="18.75" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5631,7 +5629,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="17.4" spans="1:6">
+    <row r="184" ht="18.75" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5643,7 +5641,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="17.4" spans="1:6">
+    <row r="185" ht="18.75" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5655,7 +5653,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="17.4" spans="1:6">
+    <row r="186" ht="18.75" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5667,7 +5665,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="17.4" spans="1:6">
+    <row r="187" ht="18.75" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5679,7 +5677,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="17.4" spans="1:6">
+    <row r="188" ht="18.75" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5691,7 +5689,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="17.4" spans="1:6">
+    <row r="189" ht="18.75" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5703,7 +5701,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="17.4" spans="1:6">
+    <row r="190" ht="18.75" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5715,7 +5713,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="17.4" spans="1:6">
+    <row r="191" ht="18.75" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5727,7 +5725,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="17.4" spans="1:6">
+    <row r="192" ht="18.75" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5739,7 +5737,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="17.4" spans="1:6">
+    <row r="193" ht="18.75" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5751,7 +5749,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="17.4" spans="1:6">
+    <row r="194" ht="18.75" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5763,7 +5761,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="17.4" spans="1:6">
+    <row r="195" ht="18.75" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5775,7 +5773,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="17.4" spans="1:6">
+    <row r="196" ht="18.75" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5787,7 +5785,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="17.4" spans="1:6">
+    <row r="197" ht="18.75" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5799,7 +5797,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="17.4" spans="1:6">
+    <row r="198" ht="18.75" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5811,7 +5809,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="17.4" spans="1:6">
+    <row r="199" ht="18.75" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5823,7 +5821,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="17.4" spans="1:6">
+    <row r="200" ht="18.75" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5835,7 +5833,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="17.4" spans="1:6">
+    <row r="201" ht="18.75" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5847,7 +5845,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="17.4" spans="1:6">
+    <row r="202" ht="18.75" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -5859,7 +5857,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="17.4" spans="1:6">
+    <row r="203" ht="18.75" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -5871,7 +5869,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="17.4" spans="1:6">
+    <row r="204" ht="18.75" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -5883,7 +5881,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="17.4" spans="1:6">
+    <row r="205" ht="18.75" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -5895,7 +5893,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="17.4" spans="1:6">
+    <row r="206" ht="18.75" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -5907,7 +5905,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="17.4" spans="1:6">
+    <row r="207" ht="18.75" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -5919,7 +5917,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="17.4" spans="1:6">
+    <row r="208" ht="18.75" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -5931,7 +5929,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="17.4" spans="1:6">
+    <row r="209" ht="18.75" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -5943,7 +5941,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="17.4" spans="1:6">
+    <row r="210" ht="18.75" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -5955,7 +5953,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="17.4" spans="1:6">
+    <row r="211" ht="18.75" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -5967,7 +5965,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="17.4" spans="1:6">
+    <row r="212" ht="18.75" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -5979,7 +5977,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="17.4" spans="1:6">
+    <row r="213" ht="18.75" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -5991,7 +5989,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="17.4" spans="1:6">
+    <row r="214" ht="18.75" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -6003,7 +6001,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="17.4" spans="1:6">
+    <row r="215" ht="18.75" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -6015,7 +6013,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="17.4" spans="1:6">
+    <row r="216" ht="18.75" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -6027,7 +6025,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="17.4" spans="1:6">
+    <row r="217" ht="18.75" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -6039,7 +6037,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="17.4" spans="1:6">
+    <row r="218" ht="18.75" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -6051,7 +6049,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="17.4" spans="1:6">
+    <row r="219" ht="18.75" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -6063,7 +6061,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="17.4" spans="1:6">
+    <row r="220" ht="18.75" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -6075,7 +6073,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="17.4" spans="1:6">
+    <row r="221" ht="18.75" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -6087,7 +6085,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="17.4" spans="1:6">
+    <row r="222" ht="18.75" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -6099,7 +6097,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="17.4" spans="1:6">
+    <row r="223" ht="18.75" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -6111,7 +6109,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="17.4" spans="1:6">
+    <row r="224" ht="18.75" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -6123,7 +6121,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="17.4" spans="1:6">
+    <row r="225" ht="18.75" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -6135,7 +6133,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="17.4" spans="1:6">
+    <row r="226" ht="18.75" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -6147,7 +6145,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="17.4" spans="1:6">
+    <row r="227" ht="18.75" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -6159,7 +6157,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="17.4" spans="1:6">
+    <row r="228" ht="18.75" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -6171,7 +6169,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="17.4" spans="1:6">
+    <row r="229" ht="18.75" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -6183,7 +6181,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="17.4" spans="1:6">
+    <row r="230" ht="18.75" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -6195,7 +6193,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="17.4" spans="1:6">
+    <row r="231" ht="18.75" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -6207,7 +6205,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="17.4" spans="1:6">
+    <row r="232" ht="18.75" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -6219,7 +6217,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="17.4" spans="1:6">
+    <row r="233" ht="18.75" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -6231,7 +6229,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="17.4" spans="1:6">
+    <row r="234" ht="18.75" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -6243,7 +6241,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="17.4" spans="1:6">
+    <row r="235" ht="18.75" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -6255,7 +6253,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="17.4" spans="1:6">
+    <row r="236" ht="18.75" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -6267,7 +6265,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="17.4" spans="1:6">
+    <row r="237" ht="18.75" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -6279,7 +6277,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="17.4" spans="1:6">
+    <row r="238" ht="18.75" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6291,7 +6289,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="17.4" spans="1:6">
+    <row r="239" ht="18.75" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6303,7 +6301,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="17.4" spans="1:6">
+    <row r="240" ht="18.75" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6315,7 +6313,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="17.4" spans="1:6">
+    <row r="241" ht="18.75" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6327,7 +6325,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="17.4" spans="1:6">
+    <row r="242" ht="18.75" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6339,7 +6337,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="17.4" spans="1:6">
+    <row r="243" ht="18.75" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6351,7 +6349,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="17.4" spans="1:6">
+    <row r="244" ht="18.75" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6363,7 +6361,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="17.4" spans="1:6">
+    <row r="245" ht="18.75" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6375,7 +6373,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="17.4" spans="1:6">
+    <row r="246" ht="18.75" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6387,7 +6385,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="17.4" spans="1:6">
+    <row r="247" ht="18.75" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6399,7 +6397,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="17.4" spans="1:6">
+    <row r="248" ht="18.75" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6411,7 +6409,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="17.4" spans="1:6">
+    <row r="249" ht="18.75" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6423,7 +6421,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="17.4" spans="1:6">
+    <row r="250" ht="18.75" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6435,7 +6433,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="17.4" spans="1:6">
+    <row r="251" ht="18.75" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6447,7 +6445,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="17.4" spans="1:6">
+    <row r="252" ht="18.75" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6459,7 +6457,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="17.4" spans="1:6">
+    <row r="253" ht="18.75" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6471,7 +6469,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="17.4" spans="1:6">
+    <row r="254" ht="18.75" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6483,7 +6481,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="17.4" spans="1:6">
+    <row r="255" ht="18.75" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6495,7 +6493,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="17.4" spans="1:6">
+    <row r="256" ht="18.75" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6507,7 +6505,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="17.4" spans="1:6">
+    <row r="257" ht="18.75" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6519,7 +6517,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="17.4" spans="1:6">
+    <row r="258" ht="18.75" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6531,7 +6529,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="17.4" spans="1:6">
+    <row r="259" ht="18.75" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6543,7 +6541,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="17.4" spans="1:6">
+    <row r="260" ht="18.75" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6555,7 +6553,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="17.4" spans="1:6">
+    <row r="261" ht="18.75" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6567,7 +6565,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="17.4" spans="1:6">
+    <row r="262" ht="18.75" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6579,7 +6577,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="17.4" spans="1:6">
+    <row r="263" ht="18.75" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6591,7 +6589,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="17.4" spans="1:6">
+    <row r="264" ht="18.75" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6603,7 +6601,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="17.4" spans="1:6">
+    <row r="265" ht="18.75" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6615,7 +6613,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="17.4" spans="1:6">
+    <row r="266" ht="18.75" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6627,7 +6625,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="17.4" spans="1:6">
+    <row r="267" ht="18.75" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6639,7 +6637,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="17.4" spans="1:6">
+    <row r="268" ht="18.75" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6651,7 +6649,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="17.4" spans="1:6">
+    <row r="269" ht="18.75" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6663,7 +6661,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="17.4" spans="1:6">
+    <row r="270" ht="18.75" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6675,7 +6673,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="17.4" spans="1:6">
+    <row r="271" ht="18.75" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6687,7 +6685,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="17.4" spans="1:6">
+    <row r="272" ht="18.75" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6699,7 +6697,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="17.4" spans="1:6">
+    <row r="273" ht="18.75" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6711,7 +6709,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="17.4" spans="1:6">
+    <row r="274" ht="18.75" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6723,7 +6721,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="17.4" spans="1:6">
+    <row r="275" ht="18.75" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6735,7 +6733,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="17.4" spans="1:6">
+    <row r="276" ht="18.75" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6747,7 +6745,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="17.4" spans="1:6">
+    <row r="277" ht="18.75" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6759,7 +6757,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="17.4" spans="1:6">
+    <row r="278" ht="18.75" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6771,7 +6769,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="17.4" spans="1:6">
+    <row r="279" ht="18.75" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6783,7 +6781,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="17.4" spans="1:6">
+    <row r="280" ht="18.75" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6795,7 +6793,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="17.4" spans="1:6">
+    <row r="281" ht="18.75" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6807,7 +6805,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="17.4" spans="1:6">
+    <row r="282" ht="18.75" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6819,7 +6817,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="17.4" spans="1:6">
+    <row r="283" ht="18.75" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6831,7 +6829,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="17.4" spans="1:6">
+    <row r="284" ht="18.75" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6843,7 +6841,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="17.4" spans="1:6">
+    <row r="285" ht="18.75" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -6855,7 +6853,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="17.4" spans="1:6">
+    <row r="286" ht="18.75" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -6867,7 +6865,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="17.4" spans="1:6">
+    <row r="287" ht="18.75" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -6879,7 +6877,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="17.4" spans="1:6">
+    <row r="288" ht="18.75" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -6891,7 +6889,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="17.4" spans="1:6">
+    <row r="289" ht="18.75" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -6903,7 +6901,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="17.4" spans="1:6">
+    <row r="290" ht="18.75" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -6915,7 +6913,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="17.4" spans="1:6">
+    <row r="291" ht="18.75" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -6927,7 +6925,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="17.4" spans="1:6">
+    <row r="292" ht="18.75" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -6939,7 +6937,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="17.4" spans="1:6">
+    <row r="293" ht="18.75" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -6951,7 +6949,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="17.4" spans="1:6">
+    <row r="294" ht="18.75" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -6963,7 +6961,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="17.4" spans="1:6">
+    <row r="295" ht="18.75" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -6975,7 +6973,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="17.4" spans="1:6">
+    <row r="296" ht="18.75" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -6987,7 +6985,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="17.4" spans="1:6">
+    <row r="297" ht="18.75" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -6999,7 +6997,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="17.4" spans="1:6">
+    <row r="298" ht="18.75" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -7011,7 +7009,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="17.4" spans="1:6">
+    <row r="299" ht="18.75" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -7023,7 +7021,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="17.4" spans="1:6">
+    <row r="300" ht="18.75" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -7035,7 +7033,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="17.4" spans="1:6">
+    <row r="301" ht="18.75" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -7047,7 +7045,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="17.4" spans="1:6">
+    <row r="302" ht="18.75" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -7059,7 +7057,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="17.4" spans="1:6">
+    <row r="303" ht="18.75" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -7071,7 +7069,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="17.4" spans="1:6">
+    <row r="304" ht="18.75" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -7083,7 +7081,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="17.4" spans="1:6">
+    <row r="305" ht="18.75" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -7095,7 +7093,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="17.4" spans="1:6">
+    <row r="306" ht="18.75" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -7107,7 +7105,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="17.4" spans="1:6">
+    <row r="307" ht="18.75" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -7119,7 +7117,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="17.4" spans="1:6">
+    <row r="308" ht="18.75" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -7131,7 +7129,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="17.4" spans="1:6">
+    <row r="309" ht="18.75" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -7143,7 +7141,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="17.4" spans="1:6">
+    <row r="310" ht="18.75" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -7155,7 +7153,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="17.4" spans="1:6">
+    <row r="311" ht="18.75" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -7167,7 +7165,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="17.4" spans="1:6">
+    <row r="312" ht="18.75" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -7179,7 +7177,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="17.4" spans="1:6">
+    <row r="313" ht="18.75" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -7191,7 +7189,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="17.4" spans="1:6">
+    <row r="314" ht="18.75" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -7203,7 +7201,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="17.4" spans="1:6">
+    <row r="315" ht="18.75" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -7215,7 +7213,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="17.4" spans="1:6">
+    <row r="316" ht="18.75" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -7227,7 +7225,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="17.4" spans="1:6">
+    <row r="317" ht="18.75" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -7239,7 +7237,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="17.4" spans="1:6">
+    <row r="318" ht="18.75" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -7251,7 +7249,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="17.4" spans="1:6">
+    <row r="319" ht="18.75" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -7263,7 +7261,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="17.4" spans="1:6">
+    <row r="320" ht="18.75" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -7275,7 +7273,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="17.4" spans="1:6">
+    <row r="321" ht="18.75" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -7287,7 +7285,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="17.4" spans="1:6">
+    <row r="322" ht="18.75" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7299,7 +7297,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="17.4" spans="1:6">
+    <row r="323" ht="18.75" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7311,7 +7309,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="17.4" spans="1:6">
+    <row r="324" ht="18.75" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7323,7 +7321,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="17.4" spans="1:6">
+    <row r="325" ht="18.75" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7335,7 +7333,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="17.4" spans="1:6">
+    <row r="326" ht="18.75" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7347,7 +7345,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="17.4" spans="1:6">
+    <row r="327" ht="18.75" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7359,7 +7357,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="17.4" spans="1:6">
+    <row r="328" ht="18.75" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7371,7 +7369,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="17.4" spans="1:6">
+    <row r="329" ht="18.75" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7383,7 +7381,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="17.4" spans="1:6">
+    <row r="330" ht="18.75" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7395,7 +7393,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="17.4" spans="1:6">
+    <row r="331" ht="18.75" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7407,7 +7405,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="17.4" spans="1:6">
+    <row r="332" ht="18.75" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7419,7 +7417,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="17.4" spans="1:6">
+    <row r="333" ht="18.75" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7431,7 +7429,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="17.4" spans="1:6">
+    <row r="334" ht="18.75" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7443,7 +7441,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="17.4" spans="1:6">
+    <row r="335" ht="18.75" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7455,7 +7453,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="17.4" spans="1:6">
+    <row r="336" ht="18.75" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7467,7 +7465,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="17.4" spans="1:6">
+    <row r="337" ht="18.75" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7479,7 +7477,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="17.4" spans="1:6">
+    <row r="338" ht="18.75" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7491,7 +7489,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="17.4" spans="1:6">
+    <row r="339" ht="18.75" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7503,7 +7501,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="17.4" spans="1:6">
+    <row r="340" ht="18.75" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7515,7 +7513,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="17.4" spans="1:6">
+    <row r="341" ht="18.75" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7527,7 +7525,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="17.4" spans="1:6">
+    <row r="342" ht="18.75" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7539,7 +7537,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="17.4" spans="1:6">
+    <row r="343" ht="18.75" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7551,7 +7549,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="17.4" spans="1:6">
+    <row r="344" ht="18.75" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7563,7 +7561,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="17.4" spans="1:6">
+    <row r="345" ht="18.75" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7575,7 +7573,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="17.4" spans="1:6">
+    <row r="346" ht="18.75" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7587,7 +7585,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="17.4" spans="1:6">
+    <row r="347" ht="18.75" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7599,7 +7597,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="17.4" spans="1:6">
+    <row r="348" ht="18.75" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7611,7 +7609,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="17.4" spans="1:6">
+    <row r="349" ht="18.75" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7623,7 +7621,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="17.4" spans="1:6">
+    <row r="350" ht="18.75" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7635,7 +7633,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="17.4" spans="1:6">
+    <row r="351" ht="18.75" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7647,7 +7645,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="17.4" spans="1:6">
+    <row r="352" ht="18.75" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7659,7 +7657,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="17.4" spans="1:6">
+    <row r="353" ht="18.75" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7671,7 +7669,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="17.4" spans="1:6">
+    <row r="354" ht="18.75" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7683,7 +7681,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="17.4" spans="1:6">
+    <row r="355" ht="18.75" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7695,7 +7693,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="17.4" spans="1:6">
+    <row r="356" ht="18.75" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7707,7 +7705,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="17.4" spans="1:6">
+    <row r="357" ht="18.75" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7719,7 +7717,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="17.4" spans="1:6">
+    <row r="358" ht="18.75" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7731,7 +7729,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="17.4" spans="1:6">
+    <row r="359" ht="18.75" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7743,7 +7741,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="17.4" spans="1:6">
+    <row r="360" ht="18.75" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7755,7 +7753,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="17.4" spans="1:6">
+    <row r="361" ht="18.75" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7767,7 +7765,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="17.4" spans="1:6">
+    <row r="362" ht="18.75" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7779,7 +7777,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="17.4" spans="1:6">
+    <row r="363" ht="18.75" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7791,7 +7789,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="17.4" spans="1:6">
+    <row r="364" ht="18.75" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7803,7 +7801,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="17.4" spans="1:6">
+    <row r="365" ht="18.75" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7815,7 +7813,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="17.4" spans="1:6">
+    <row r="366" ht="18.75" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
   <si>
     <t>日期</t>
   </si>
@@ -369,6 +369,18 @@
     <t>《少女前线2》一周年版本更新</t>
   </si>
   <si>
+    <t>《以闪亮之名》「永曜苍穹」版本更新</t>
+  </si>
+  <si>
+    <t>《如鸢》删除女性向标签等其他问题引起炎上</t>
+  </si>
+  <si>
+    <t>《无限暖暖》IGN年度游戏提名</t>
+  </si>
+  <si>
+    <t>《世界之外》「此间即无间」版本更新</t>
+  </si>
+  <si>
     <t>《重返未来1999》2.4版本更新</t>
   </si>
   <si>
@@ -378,12 +390,27 @@
     <t>《崩坏三》8.0版本更新</t>
   </si>
   <si>
+    <t>《异尘：达米拉》二次公测</t>
+  </si>
+  <si>
     <t>《幻塔》三周年4.6版本更新</t>
   </si>
   <si>
     <t>《雪松》台架测试结束</t>
   </si>
   <si>
+    <t>《小丑牌》TGA年度移动游戏</t>
+  </si>
+  <si>
+    <t>《原神》白露澈明之泉 PlayStation®游戏音乐大奖 2024第二名</t>
+  </si>
+  <si>
+    <t>《崩坏星穹铁道》飞来波的圣状 PlayStation®游戏音乐大奖 2024第四名</t>
+  </si>
+  <si>
+    <t>《明日方舟终末地》「再次测试」招募开启</t>
+  </si>
+  <si>
     <t>《绝区零》1.4版本更新</t>
   </si>
   <si>
@@ -393,7 +420,13 @@
     <t>《绝区零》韩服iphone联动</t>
   </si>
   <si>
+    <t>《女神异闻录夜幕魅影》3.1版本更新</t>
+  </si>
+  <si>
     <t>《星痕共鸣》星启测试招募结束</t>
+  </si>
+  <si>
+    <t>《女神异闻录夜幕魅影》P5R联动</t>
   </si>
   <si>
     <t>《燕云十六声》PC公测</t>
@@ -1157,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1312,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1815,22 +1896,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
     <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45.8833333333333" style="15" customWidth="1"/>
+    <col min="3" max="3" width="47.75" style="15" customWidth="1"/>
     <col min="4" max="4" width="41.3833333333333" style="15" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="68.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2910,169 +2991,167 @@
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8">
+      <c r="A88" s="41">
         <v>45637</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="10">
+      <c r="A89" s="45"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="10">
         <v>45638</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
       <c r="C90" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="41"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="16"/>
-      <c r="B92" s="17"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="8">
+      <c r="A93" s="49"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="16"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="41">
         <v>45639</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B95" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="8">
-        <v>45640</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="8">
-        <v>45641</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="C95" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="8">
-        <v>45642</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="8">
-        <v>45643</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="8">
-        <v>45644</v>
+        <v>45640</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="10">
-        <v>45645</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="A99" s="8">
+        <v>45641</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="16"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
+      <c r="A100" s="8">
+        <v>45642</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="8">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3081,58 +3160,62 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="8">
-        <v>46012</v>
+        <v>45644</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="8">
-        <v>45648</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="A103" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="8">
-        <v>45649</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="A104" s="57"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="56"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="8">
-        <v>45650</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="8">
-        <v>45651</v>
+        <v>45646</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3141,10 +3224,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="8">
-        <v>45652</v>
+        <v>46012</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3153,24 +3236,22 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="8">
-        <v>45653</v>
+        <v>45648</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="8">
-        <v>45654</v>
+        <v>45649</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3179,10 +3260,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="8">
-        <v>45655</v>
+        <v>45650</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3191,10 +3272,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="8">
-        <v>45656</v>
+        <v>45651</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3203,52 +3284,79 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="8">
-        <v>45657</v>
+        <v>45652</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="13.5" spans="1:5">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-    </row>
-    <row r="114" ht="13.5" spans="1:5">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-    </row>
-    <row r="115" ht="13.5" spans="1:5">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-    </row>
-    <row r="116" ht="13.5" spans="1:5">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-    </row>
-    <row r="117" ht="13.5" spans="1:5">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
+    <row r="113" spans="1:6">
+      <c r="A113" s="8">
+        <v>45653</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="8">
+        <v>45654</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="8">
+        <v>45655</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" ht="13.5" spans="1:5">
       <c r="A118"/>
@@ -3299,8 +3407,43 @@
       <c r="D124"/>
       <c r="E124"/>
     </row>
+    <row r="125" ht="13.5" spans="1:5">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" ht="13.5" spans="1:5">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" ht="13.5" spans="1:5">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" ht="13.5" spans="1:5">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" ht="13.5" spans="1:5">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="95">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3316,8 +3459,10 @@
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A82"/>
     <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A103:A105"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -3333,8 +3478,10 @@
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="B77:B82"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B103:B105"/>
     <mergeCell ref="C27:C35"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C57:C58"/>
@@ -3343,6 +3490,7 @@
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C95:C97"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D22:D23"/>
@@ -3355,8 +3503,10 @@
     <mergeCell ref="D71:D76"/>
     <mergeCell ref="D77:D82"/>
     <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D103:D104"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
@@ -3372,8 +3522,10 @@
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="E80:E82"/>
     <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E103:E105"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
@@ -3384,8 +3536,9 @@
     <mergeCell ref="F68:F70"/>
     <mergeCell ref="F71:F76"/>
     <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="F103:F105"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3453,7 +3606,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3467,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3481,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3543,7 +3696,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3725,7 +3878,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4111,7 +4264,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="146">
   <si>
     <t>日期</t>
   </si>
@@ -384,6 +384,9 @@
     <t>《重返未来1999》2.4版本更新</t>
   </si>
   <si>
+    <t>《fgo》日服更新后，一些玩家Extra任务奖励意外重置，导致收到了额外货币。且部分玩家能力用bug刷取货币。但官方修复速度极慢且决定不进行惩罚，导致玩家不满。</t>
+  </si>
+  <si>
     <t>《第五人格》第36赛季</t>
   </si>
   <si>
@@ -399,6 +402,9 @@
     <t>《雪松》台架测试结束</t>
   </si>
   <si>
+    <t>《赛尔号》蹭TGA年度游戏《宇宙机器人》热度，发放了10连，但由于系统bug，部分玩家通过漏洞刷取奖励，被官方封禁1000年</t>
+  </si>
+  <si>
     <t>《小丑牌》TGA年度移动游戏</t>
   </si>
   <si>
@@ -420,19 +426,28 @@
     <t>《绝区零》韩服iphone联动</t>
   </si>
   <si>
+    <t>《诛仙世界》公测</t>
+  </si>
+  <si>
     <t>《女神异闻录夜幕魅影》3.1版本更新</t>
   </si>
   <si>
+    <t>《尘白禁区》2.4版本更新</t>
+  </si>
+  <si>
+    <t>《女神异闻录夜幕魅影》P5R联动</t>
+  </si>
+  <si>
     <t>《星痕共鸣》星启测试招募结束</t>
   </si>
   <si>
-    <t>《女神异闻录夜幕魅影》P5R联动</t>
-  </si>
-  <si>
     <t>《燕云十六声》PC公测</t>
   </si>
   <si>
     <t>《少女前线》正式停服</t>
+  </si>
+  <si>
+    <t>《原神》5.3版本更新</t>
   </si>
   <si>
     <t>《鸣潮》登陆PS5</t>
@@ -1190,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,16 +1329,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,33 +1343,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1896,22 +1878,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88:E89"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="15" customWidth="1"/>
-    <col min="3" max="3" width="47.75" style="15" customWidth="1"/>
-    <col min="4" max="4" width="41.3833333333333" style="15" customWidth="1"/>
-    <col min="5" max="5" width="53.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="80.25" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
+    <col min="3" max="3" width="51.1111111111111" style="15" customWidth="1"/>
+    <col min="4" max="4" width="41.3796296296296" style="15" customWidth="1"/>
+    <col min="5" max="5" width="56.1111111111111" style="15" customWidth="1"/>
+    <col min="6" max="6" width="84.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2991,32 +2973,32 @@
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="41">
+      <c r="A88" s="10">
         <v>45637</v>
       </c>
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="44" t="s">
+      <c r="D88" s="6"/>
+      <c r="E88" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="44" t="s">
+      <c r="F88" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="45"/>
-      <c r="B89" s="46"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="10">
@@ -3029,83 +3011,87 @@
         <v>117</v>
       </c>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+      <c r="E92" s="25"/>
       <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="49"/>
-      <c r="B93" s="50"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
+        <v>121</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="41"/>
       <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="41">
+      <c r="A95" s="10">
         <v>45639</v>
       </c>
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
+      <c r="C95" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="F95" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="45"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="52"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="41"/>
       <c r="F97" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3116,7 +3102,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -3166,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3180,66 +3166,62 @@
         <v>8</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E103" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" s="37"/>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="57"/>
-      <c r="B104" s="58"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="56"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
+        <v>132</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="45"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="16"/>
-      <c r="B105" s="17"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="D105" s="42"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="8">
-        <v>45646</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="37"/>
+      <c r="F106" s="48"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="8">
-        <v>46012</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="42"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="8">
-        <v>45648</v>
+        <v>45646</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3248,10 +3230,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="8">
-        <v>45649</v>
+        <v>46012</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3260,10 +3242,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="8">
-        <v>45650</v>
+        <v>45648</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3272,10 +3254,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="8">
-        <v>45651</v>
+        <v>45649</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3284,10 +3266,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="8">
-        <v>45652</v>
+        <v>45650</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3296,24 +3278,22 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="8">
-        <v>45653</v>
+        <v>45651</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="8">
-        <v>45654</v>
+        <v>45652</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -3322,22 +3302,24 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="8">
-        <v>45655</v>
+        <v>45653</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="8">
-        <v>45656</v>
+        <v>45654</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -3346,104 +3328,128 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="8">
-        <v>45657</v>
+        <v>45655</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="13.5" spans="1:5">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-    </row>
-    <row r="119" ht="13.5" spans="1:5">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-    </row>
-    <row r="120" ht="13.5" spans="1:5">
+    <row r="118" spans="1:6">
+      <c r="A118" s="8">
+        <v>45656</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" ht="14.4" spans="1:5">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" ht="13.5" spans="1:5">
+    <row r="121" ht="14.4" spans="1:5">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" ht="13.5" spans="1:5">
+    <row r="122" ht="14.4" spans="1:5">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" ht="13.5" spans="1:5">
+    <row r="123" ht="14.4" spans="1:5">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" ht="13.5" spans="1:5">
+    <row r="124" ht="14.4" spans="1:5">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
     </row>
-    <row r="125" ht="13.5" spans="1:5">
+    <row r="125" ht="14.4" spans="1:5">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" ht="13.5" spans="1:5">
+    <row r="126" ht="14.4" spans="1:5">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
     </row>
-    <row r="127" ht="13.5" spans="1:5">
+    <row r="127" ht="14.4" spans="1:5">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" ht="13.5" spans="1:5">
+    <row r="128" ht="14.4" spans="1:5">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
     </row>
-    <row r="129" ht="13.5" spans="1:5">
+    <row r="129" ht="14.4" spans="1:5">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
     </row>
+    <row r="130" ht="14.4" spans="1:5">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" ht="14.4" spans="1:5">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="96">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3462,7 +3468,7 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A90:A94"/>
     <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A103:A107"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -3481,7 +3487,7 @@
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B90:B94"/>
     <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B103:B107"/>
     <mergeCell ref="C27:C35"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C57:C58"/>
@@ -3506,7 +3512,8 @@
     <mergeCell ref="D88:D89"/>
     <mergeCell ref="D90:D94"/>
     <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="D106:D107"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
@@ -3525,7 +3532,7 @@
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="E90:E94"/>
     <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="E103:E107"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
@@ -3538,7 +3545,7 @@
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="F88:F89"/>
     <mergeCell ref="F90:F94"/>
-    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="F103:F107"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3553,20 +3560,20 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="6.63333333333333" customWidth="1"/>
-    <col min="3" max="3" width="42.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="6.62962962962963" customWidth="1"/>
+    <col min="3" max="3" width="42.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="18.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="13.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="17.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3586,19 +3593,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="18.75" spans="1:6">
+    <row r="3" ht="17.4" spans="1:6">
       <c r="A3" s="8">
         <v>45659</v>
       </c>
@@ -3606,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="17.4" spans="1:6">
       <c r="A4" s="8">
         <v>45660</v>
       </c>
@@ -3620,13 +3629,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="17.4" spans="1:6">
       <c r="A5" s="8">
         <v>45661</v>
       </c>
@@ -3634,13 +3643,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" ht="17.4" spans="1:6">
       <c r="A6" s="8">
         <v>45662</v>
       </c>
@@ -3652,7 +3661,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" ht="17.4" spans="1:6">
       <c r="A7" s="8">
         <v>45663</v>
       </c>
@@ -3664,7 +3673,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" ht="17.4" spans="1:6">
       <c r="A8" s="8">
         <v>45664</v>
       </c>
@@ -3676,7 +3685,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" ht="17.4" spans="1:6">
       <c r="A9" s="8">
         <v>45665</v>
       </c>
@@ -3688,7 +3697,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="8">
         <v>45666</v>
       </c>
@@ -3696,13 +3705,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="8">
         <v>45667</v>
       </c>
@@ -3714,7 +3723,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" ht="17.4" spans="1:6">
       <c r="A12" s="8">
         <v>45668</v>
       </c>
@@ -3726,7 +3735,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="8">
         <v>45669</v>
       </c>
@@ -3738,7 +3747,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" ht="17.4" spans="1:6">
       <c r="A14" s="8">
         <v>45670</v>
       </c>
@@ -3750,7 +3759,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" ht="17.4" spans="1:6">
       <c r="A15" s="8">
         <v>45671</v>
       </c>
@@ -3762,7 +3771,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" ht="17.4" spans="1:6">
       <c r="A16" s="8">
         <v>45672</v>
       </c>
@@ -3774,7 +3783,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" ht="17.4" spans="1:6">
       <c r="A17" s="10">
         <v>45673</v>
       </c>
@@ -3786,7 +3795,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" ht="17.4" spans="1:6">
       <c r="A18" s="8">
         <v>45674</v>
       </c>
@@ -3798,7 +3807,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" ht="17.4" spans="1:6">
       <c r="A19" s="8">
         <v>45675</v>
       </c>
@@ -3810,7 +3819,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" ht="17.4" spans="1:6">
       <c r="A20" s="8">
         <v>45676</v>
       </c>
@@ -3822,7 +3831,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" ht="17.4" spans="1:6">
       <c r="A21" s="8">
         <v>45677</v>
       </c>
@@ -3834,7 +3843,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" ht="17.4" spans="1:6">
       <c r="A22" s="8">
         <v>45678</v>
       </c>
@@ -3846,7 +3855,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" ht="17.4" spans="1:6">
       <c r="A23" s="8">
         <v>45679</v>
       </c>
@@ -3858,7 +3867,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="18.75" spans="1:6">
+    <row r="24" ht="17.4" spans="1:6">
       <c r="A24" s="8">
         <v>45680</v>
       </c>
@@ -3870,7 +3879,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:6">
+    <row r="25" ht="17.4" spans="1:6">
       <c r="A25" s="8">
         <v>45681</v>
       </c>
@@ -3878,13 +3887,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" ht="18.75" spans="1:6">
+    <row r="26" ht="17.4" spans="1:6">
       <c r="A26" s="8">
         <v>45682</v>
       </c>
@@ -3896,7 +3905,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:6">
+    <row r="27" ht="17.4" spans="1:6">
       <c r="A27" s="8">
         <v>45683</v>
       </c>
@@ -3908,7 +3917,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="1:6">
+    <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="8">
         <v>45684</v>
       </c>
@@ -3920,7 +3929,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="1:6">
+    <row r="29" ht="17.4" spans="1:6">
       <c r="A29" s="8">
         <v>45685</v>
       </c>
@@ -3932,7 +3941,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="1:6">
+    <row r="30" ht="17.4" spans="1:6">
       <c r="A30" s="8">
         <v>45686</v>
       </c>
@@ -3944,7 +3953,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="1:6">
+    <row r="31" ht="17.4" spans="1:6">
       <c r="A31" s="8">
         <v>45687</v>
       </c>
@@ -3956,7 +3965,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="1:6">
+    <row r="32" ht="17.4" spans="1:6">
       <c r="A32" s="8">
         <v>45688</v>
       </c>
@@ -3968,7 +3977,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:6">
+    <row r="33" ht="17.4" spans="1:6">
       <c r="A33" s="2">
         <v>45689</v>
       </c>
@@ -3980,7 +3989,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="18.75" spans="1:6">
+    <row r="34" ht="17.4" spans="1:6">
       <c r="A34" s="10">
         <v>45690</v>
       </c>
@@ -3992,7 +4001,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="18.75" spans="1:6">
+    <row r="35" ht="17.4" spans="1:6">
       <c r="A35" s="8">
         <v>45691</v>
       </c>
@@ -4004,7 +4013,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="18.75" spans="1:6">
+    <row r="36" ht="17.4" spans="1:6">
       <c r="A36" s="8">
         <v>45692</v>
       </c>
@@ -4016,7 +4025,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="18.75" spans="1:6">
+    <row r="37" ht="17.4" spans="1:6">
       <c r="A37" s="8">
         <v>45693</v>
       </c>
@@ -4028,7 +4037,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="18.75" spans="1:6">
+    <row r="38" ht="17.4" spans="1:6">
       <c r="A38" s="8">
         <v>45694</v>
       </c>
@@ -4040,7 +4049,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="18.75" spans="1:6">
+    <row r="39" ht="17.4" spans="1:6">
       <c r="A39" s="8">
         <v>45695</v>
       </c>
@@ -4052,7 +4061,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="18.75" spans="1:6">
+    <row r="40" ht="17.4" spans="1:6">
       <c r="A40" s="8">
         <v>45696</v>
       </c>
@@ -4064,7 +4073,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="18.75" spans="1:6">
+    <row r="41" ht="17.4" spans="1:6">
       <c r="A41" s="8">
         <v>45697</v>
       </c>
@@ -4076,7 +4085,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="18.75" spans="1:6">
+    <row r="42" ht="17.4" spans="1:6">
       <c r="A42" s="8">
         <v>45698</v>
       </c>
@@ -4088,7 +4097,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="18.75" spans="1:6">
+    <row r="43" ht="17.4" spans="1:6">
       <c r="A43" s="8">
         <v>45699</v>
       </c>
@@ -4100,7 +4109,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" ht="18.75" spans="1:6">
+    <row r="44" ht="17.4" spans="1:6">
       <c r="A44" s="8">
         <v>45700</v>
       </c>
@@ -4112,7 +4121,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="18.75" spans="1:6">
+    <row r="45" ht="17.4" spans="1:6">
       <c r="A45" s="8">
         <v>45701</v>
       </c>
@@ -4124,7 +4133,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="18.75" spans="1:6">
+    <row r="46" ht="17.4" spans="1:6">
       <c r="A46" s="8">
         <v>45702</v>
       </c>
@@ -4136,7 +4145,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" ht="18.75" spans="1:6">
+    <row r="47" ht="17.4" spans="1:6">
       <c r="A47" s="8">
         <v>45703</v>
       </c>
@@ -4148,7 +4157,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="18.75" spans="1:6">
+    <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="8">
         <v>45704</v>
       </c>
@@ -4160,7 +4169,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="18.75" spans="1:6">
+    <row r="49" ht="17.4" spans="1:6">
       <c r="A49" s="8">
         <v>45705</v>
       </c>
@@ -4172,7 +4181,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="18.75" spans="1:6">
+    <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="8">
         <v>45706</v>
       </c>
@@ -4184,7 +4193,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="18.75" spans="1:6">
+    <row r="51" ht="17.4" spans="1:6">
       <c r="A51" s="8">
         <v>45707</v>
       </c>
@@ -4196,7 +4205,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="18.75" spans="1:6">
+    <row r="52" ht="17.4" spans="1:6">
       <c r="A52" s="8">
         <v>45708</v>
       </c>
@@ -4208,7 +4217,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="18.75" spans="1:6">
+    <row r="53" ht="17.4" spans="1:6">
       <c r="A53" s="8">
         <v>45709</v>
       </c>
@@ -4220,7 +4229,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="18.75" spans="1:6">
+    <row r="54" ht="17.4" spans="1:6">
       <c r="A54" s="8">
         <v>45710</v>
       </c>
@@ -4232,7 +4241,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" ht="18.75" spans="1:6">
+    <row r="55" ht="17.4" spans="1:6">
       <c r="A55" s="8">
         <v>45711</v>
       </c>
@@ -4244,7 +4253,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="18.75" spans="1:6">
+    <row r="56" ht="17.4" spans="1:6">
       <c r="A56" s="8">
         <v>45712</v>
       </c>
@@ -4256,7 +4265,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="18.75" spans="1:6">
+    <row r="57" ht="17.4" spans="1:6">
       <c r="A57" s="8">
         <v>45713</v>
       </c>
@@ -4264,13 +4273,13 @@
         <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="18.75" spans="1:6">
+    <row r="58" ht="17.4" spans="1:6">
       <c r="A58" s="8">
         <v>45714</v>
       </c>
@@ -4282,7 +4291,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="18.75" spans="1:6">
+    <row r="59" ht="17.4" spans="1:6">
       <c r="A59" s="8">
         <v>45715</v>
       </c>
@@ -4294,7 +4303,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="18.75" spans="1:6">
+    <row r="60" ht="17.4" spans="1:6">
       <c r="A60" s="8">
         <v>45716</v>
       </c>
@@ -4306,7 +4315,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="18.75" spans="1:6">
+    <row r="61" ht="17.4" spans="1:6">
       <c r="A61" s="12">
         <v>45717</v>
       </c>
@@ -4318,7 +4327,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="18.75" spans="1:6">
+    <row r="62" ht="17.4" spans="1:6">
       <c r="A62" s="8">
         <v>45718</v>
       </c>
@@ -4330,7 +4339,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="18.75" spans="1:6">
+    <row r="63" ht="17.4" spans="1:6">
       <c r="A63" s="8">
         <v>45719</v>
       </c>
@@ -4342,7 +4351,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="18.75" spans="1:6">
+    <row r="64" ht="17.4" spans="1:6">
       <c r="A64" s="8">
         <v>45720</v>
       </c>
@@ -4354,7 +4363,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="18.75" spans="1:6">
+    <row r="65" ht="17.4" spans="1:6">
       <c r="A65" s="8">
         <v>45721</v>
       </c>
@@ -4366,7 +4375,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="18.75" spans="1:6">
+    <row r="66" ht="17.4" spans="1:6">
       <c r="A66" s="8">
         <v>45722</v>
       </c>
@@ -4378,7 +4387,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" ht="18.75" spans="1:6">
+    <row r="67" ht="17.4" spans="1:6">
       <c r="A67" s="8">
         <v>45723</v>
       </c>
@@ -4390,7 +4399,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="18.75" spans="1:6">
+    <row r="68" ht="17.4" spans="1:6">
       <c r="A68" s="8">
         <v>45724</v>
       </c>
@@ -4402,7 +4411,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="18.75" spans="1:6">
+    <row r="69" ht="17.4" spans="1:6">
       <c r="A69" s="8">
         <v>45725</v>
       </c>
@@ -4414,7 +4423,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="18.75" spans="1:6">
+    <row r="70" ht="17.4" spans="1:6">
       <c r="A70" s="8">
         <v>45726</v>
       </c>
@@ -4426,7 +4435,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" ht="18.75" spans="1:6">
+    <row r="71" ht="17.4" spans="1:6">
       <c r="A71" s="8">
         <v>45727</v>
       </c>
@@ -4438,7 +4447,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="18.75" spans="1:6">
+    <row r="72" ht="17.4" spans="1:6">
       <c r="A72" s="8">
         <v>45728</v>
       </c>
@@ -4450,7 +4459,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="18.75" spans="1:6">
+    <row r="73" ht="17.4" spans="1:6">
       <c r="A73" s="8">
         <v>45729</v>
       </c>
@@ -4462,7 +4471,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" ht="18.75" spans="1:6">
+    <row r="74" ht="17.4" spans="1:6">
       <c r="A74" s="8">
         <v>45730</v>
       </c>
@@ -4474,7 +4483,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" ht="18.75" spans="1:6">
+    <row r="75" ht="17.4" spans="1:6">
       <c r="A75" s="8">
         <v>45731</v>
       </c>
@@ -4486,7 +4495,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="18.75" spans="1:6">
+    <row r="76" ht="17.4" spans="1:6">
       <c r="A76" s="8">
         <v>45732</v>
       </c>
@@ -4498,7 +4507,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="18.75" spans="1:6">
+    <row r="77" ht="17.4" spans="1:6">
       <c r="A77" s="8">
         <v>45733</v>
       </c>
@@ -4510,7 +4519,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="18.75" spans="1:6">
+    <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="8">
         <v>45734</v>
       </c>
@@ -4522,7 +4531,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="18.75" spans="1:6">
+    <row r="79" ht="17.4" spans="1:6">
       <c r="A79" s="8">
         <v>45735</v>
       </c>
@@ -4534,7 +4543,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="18.75" spans="1:6">
+    <row r="80" ht="17.4" spans="1:6">
       <c r="A80" s="8">
         <v>45736</v>
       </c>
@@ -4546,7 +4555,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="18.75" spans="1:6">
+    <row r="81" ht="17.4" spans="1:6">
       <c r="A81" s="8">
         <v>45737</v>
       </c>
@@ -4558,7 +4567,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" ht="18.75" spans="1:6">
+    <row r="82" ht="17.4" spans="1:6">
       <c r="A82" s="8">
         <v>45738</v>
       </c>
@@ -4570,7 +4579,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="18.75" spans="1:6">
+    <row r="83" ht="17.4" spans="1:6">
       <c r="A83" s="8">
         <v>45739</v>
       </c>
@@ -4582,7 +4591,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="18.75" spans="1:6">
+    <row r="84" ht="17.4" spans="1:6">
       <c r="A84" s="8">
         <v>45740</v>
       </c>
@@ -4594,7 +4603,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="18.75" spans="1:6">
+    <row r="85" ht="17.4" spans="1:6">
       <c r="A85" s="8">
         <v>45741</v>
       </c>
@@ -4606,7 +4615,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="18.75" spans="1:6">
+    <row r="86" ht="17.4" spans="1:6">
       <c r="A86" s="8">
         <v>45742</v>
       </c>
@@ -4618,7 +4627,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" ht="18.75" spans="1:6">
+    <row r="87" ht="17.4" spans="1:6">
       <c r="A87" s="8">
         <v>45743</v>
       </c>
@@ -4630,7 +4639,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="18.75" spans="1:6">
+    <row r="88" ht="17.4" spans="1:6">
       <c r="A88" s="8">
         <v>45744</v>
       </c>
@@ -4642,7 +4651,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="18.75" spans="1:6">
+    <row r="89" ht="17.4" spans="1:6">
       <c r="A89" s="8">
         <v>45745</v>
       </c>
@@ -4654,7 +4663,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="18.75" spans="1:6">
+    <row r="90" ht="17.4" spans="1:6">
       <c r="A90" s="8">
         <v>45746</v>
       </c>
@@ -4666,7 +4675,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" ht="18.75" spans="1:6">
+    <row r="91" ht="17.4" spans="1:6">
       <c r="A91" s="8">
         <v>45747</v>
       </c>
@@ -4678,7 +4687,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="18.75" spans="1:6">
+    <row r="92" ht="17.4" spans="1:6">
       <c r="A92" s="12">
         <v>45748</v>
       </c>
@@ -4690,7 +4699,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="18.75" spans="1:6">
+    <row r="93" ht="17.4" spans="1:6">
       <c r="A93" s="8">
         <v>45749</v>
       </c>
@@ -4702,7 +4711,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="18.75" spans="1:6">
+    <row r="94" ht="17.4" spans="1:6">
       <c r="A94" s="8">
         <v>45750</v>
       </c>
@@ -4714,7 +4723,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="18.75" spans="1:6">
+    <row r="95" ht="17.4" spans="1:6">
       <c r="A95" s="8">
         <v>45751</v>
       </c>
@@ -4726,7 +4735,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" ht="18.75" spans="1:6">
+    <row r="96" ht="17.4" spans="1:6">
       <c r="A96" s="8">
         <v>45752</v>
       </c>
@@ -4738,7 +4747,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="18.75" spans="1:6">
+    <row r="97" ht="17.4" spans="1:6">
       <c r="A97" s="8">
         <v>45753</v>
       </c>
@@ -4750,7 +4759,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="18.75" spans="1:6">
+    <row r="98" ht="17.4" spans="1:6">
       <c r="A98" s="8">
         <v>45754</v>
       </c>
@@ -4762,7 +4771,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" ht="18.75" spans="1:6">
+    <row r="99" ht="17.4" spans="1:6">
       <c r="A99" s="8">
         <v>45755</v>
       </c>
@@ -4774,7 +4783,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="18.75" spans="1:6">
+    <row r="100" ht="17.4" spans="1:6">
       <c r="A100" s="8">
         <v>45756</v>
       </c>
@@ -4786,7 +4795,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="18.75" spans="1:6">
+    <row r="101" ht="17.4" spans="1:6">
       <c r="A101" s="8">
         <v>45757</v>
       </c>
@@ -4798,7 +4807,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" ht="18.75" spans="1:6">
+    <row r="102" ht="17.4" spans="1:6">
       <c r="A102" s="8">
         <v>45758</v>
       </c>
@@ -4810,7 +4819,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" ht="18.75" spans="1:6">
+    <row r="103" ht="17.4" spans="1:6">
       <c r="A103" s="8">
         <v>45759</v>
       </c>
@@ -4822,7 +4831,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="18.75" spans="1:6">
+    <row r="104" ht="17.4" spans="1:6">
       <c r="A104" s="8">
         <v>45760</v>
       </c>
@@ -4834,7 +4843,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="18.75" spans="1:6">
+    <row r="105" ht="17.4" spans="1:6">
       <c r="A105" s="8">
         <v>45761</v>
       </c>
@@ -4846,7 +4855,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="18.75" spans="1:6">
+    <row r="106" ht="17.4" spans="1:6">
       <c r="A106" s="8">
         <v>45762</v>
       </c>
@@ -4858,7 +4867,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="18.75" spans="1:6">
+    <row r="107" ht="17.4" spans="1:6">
       <c r="A107" s="8">
         <v>45763</v>
       </c>
@@ -4870,7 +4879,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="18.75" spans="1:6">
+    <row r="108" ht="17.4" spans="1:6">
       <c r="A108" s="8">
         <v>45764</v>
       </c>
@@ -4882,7 +4891,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" ht="18.75" spans="1:6">
+    <row r="109" ht="17.4" spans="1:6">
       <c r="A109" s="8">
         <v>45765</v>
       </c>
@@ -4894,7 +4903,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="18.75" spans="1:6">
+    <row r="110" ht="17.4" spans="1:6">
       <c r="A110" s="8">
         <v>45766</v>
       </c>
@@ -4906,7 +4915,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="18.75" spans="1:6">
+    <row r="111" ht="17.4" spans="1:6">
       <c r="A111" s="8">
         <v>45767</v>
       </c>
@@ -4918,7 +4927,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" ht="18.75" spans="1:6">
+    <row r="112" ht="17.4" spans="1:6">
       <c r="A112" s="8">
         <v>45768</v>
       </c>
@@ -4930,7 +4939,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="18.75" spans="1:6">
+    <row r="113" ht="17.4" spans="1:6">
       <c r="A113" s="8">
         <v>45769</v>
       </c>
@@ -4942,7 +4951,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" ht="18.75" spans="1:6">
+    <row r="114" ht="17.4" spans="1:6">
       <c r="A114" s="8">
         <v>45770</v>
       </c>
@@ -4954,7 +4963,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="18.75" spans="1:6">
+    <row r="115" ht="17.4" spans="1:6">
       <c r="A115" s="8">
         <v>45771</v>
       </c>
@@ -4966,7 +4975,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="18.75" spans="1:6">
+    <row r="116" ht="17.4" spans="1:6">
       <c r="A116" s="8">
         <v>45772</v>
       </c>
@@ -4978,7 +4987,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" ht="18.75" spans="1:6">
+    <row r="117" ht="17.4" spans="1:6">
       <c r="A117" s="8">
         <v>45773</v>
       </c>
@@ -4990,7 +4999,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="18.75" spans="1:6">
+    <row r="118" ht="17.4" spans="1:6">
       <c r="A118" s="8">
         <v>45774</v>
       </c>
@@ -5002,7 +5011,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="18.75" spans="1:6">
+    <row r="119" ht="17.4" spans="1:6">
       <c r="A119" s="8">
         <v>45775</v>
       </c>
@@ -5014,7 +5023,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="18.75" spans="1:6">
+    <row r="120" ht="17.4" spans="1:6">
       <c r="A120" s="8">
         <v>45776</v>
       </c>
@@ -5026,7 +5035,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="18.75" spans="1:6">
+    <row r="121" ht="17.4" spans="1:6">
       <c r="A121" s="10">
         <v>45777</v>
       </c>
@@ -5038,7 +5047,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" ht="18.75" spans="1:6">
+    <row r="122" ht="17.4" spans="1:6">
       <c r="A122" s="12">
         <v>45778</v>
       </c>
@@ -5050,7 +5059,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="18.75" spans="1:6">
+    <row r="123" ht="17.4" spans="1:6">
       <c r="A123" s="8">
         <v>45779</v>
       </c>
@@ -5062,7 +5071,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="18.75" spans="1:6">
+    <row r="124" ht="17.4" spans="1:6">
       <c r="A124" s="8">
         <v>45780</v>
       </c>
@@ -5074,7 +5083,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" ht="18.75" spans="1:6">
+    <row r="125" ht="17.4" spans="1:6">
       <c r="A125" s="8">
         <v>45781</v>
       </c>
@@ -5086,7 +5095,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="18.75" spans="1:6">
+    <row r="126" ht="17.4" spans="1:6">
       <c r="A126" s="8">
         <v>45782</v>
       </c>
@@ -5098,7 +5107,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="18.75" spans="1:6">
+    <row r="127" ht="17.4" spans="1:6">
       <c r="A127" s="8">
         <v>45783</v>
       </c>
@@ -5110,7 +5119,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="18.75" spans="1:6">
+    <row r="128" ht="17.4" spans="1:6">
       <c r="A128" s="8">
         <v>45784</v>
       </c>
@@ -5122,7 +5131,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="18.75" spans="1:6">
+    <row r="129" ht="17.4" spans="1:6">
       <c r="A129" s="8">
         <v>45785</v>
       </c>
@@ -5134,7 +5143,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" ht="18.75" spans="1:6">
+    <row r="130" ht="17.4" spans="1:6">
       <c r="A130" s="8">
         <v>45786</v>
       </c>
@@ -5146,7 +5155,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="18.75" spans="1:6">
+    <row r="131" ht="17.4" spans="1:6">
       <c r="A131" s="8">
         <v>45787</v>
       </c>
@@ -5158,7 +5167,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="18.75" spans="1:6">
+    <row r="132" ht="17.4" spans="1:6">
       <c r="A132" s="8">
         <v>45788</v>
       </c>
@@ -5170,7 +5179,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="18.75" spans="1:6">
+    <row r="133" ht="17.4" spans="1:6">
       <c r="A133" s="8">
         <v>45789</v>
       </c>
@@ -5182,7 +5191,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="18.75" spans="1:6">
+    <row r="134" ht="17.4" spans="1:6">
       <c r="A134" s="8">
         <v>45790</v>
       </c>
@@ -5194,7 +5203,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="18.75" spans="1:6">
+    <row r="135" ht="17.4" spans="1:6">
       <c r="A135" s="8">
         <v>45791</v>
       </c>
@@ -5206,7 +5215,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="18.75" spans="1:6">
+    <row r="136" ht="17.4" spans="1:6">
       <c r="A136" s="8">
         <v>45792</v>
       </c>
@@ -5218,7 +5227,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="18.75" spans="1:6">
+    <row r="137" ht="17.4" spans="1:6">
       <c r="A137" s="8">
         <v>45793</v>
       </c>
@@ -5230,7 +5239,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="18.75" spans="1:6">
+    <row r="138" ht="17.4" spans="1:6">
       <c r="A138" s="8">
         <v>45794</v>
       </c>
@@ -5242,7 +5251,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="18.75" spans="1:6">
+    <row r="139" ht="17.4" spans="1:6">
       <c r="A139" s="8">
         <v>45795</v>
       </c>
@@ -5254,7 +5263,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" ht="18.75" spans="1:6">
+    <row r="140" ht="17.4" spans="1:6">
       <c r="A140" s="8">
         <v>45796</v>
       </c>
@@ -5266,7 +5275,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="18.75" spans="1:6">
+    <row r="141" ht="17.4" spans="1:6">
       <c r="A141" s="8">
         <v>45797</v>
       </c>
@@ -5278,7 +5287,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="18.75" spans="1:6">
+    <row r="142" ht="17.4" spans="1:6">
       <c r="A142" s="8">
         <v>45798</v>
       </c>
@@ -5290,7 +5299,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" ht="18.75" spans="1:6">
+    <row r="143" ht="17.4" spans="1:6">
       <c r="A143" s="8">
         <v>45799</v>
       </c>
@@ -5302,7 +5311,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="18.75" spans="1:6">
+    <row r="144" ht="17.4" spans="1:6">
       <c r="A144" s="8">
         <v>45800</v>
       </c>
@@ -5314,7 +5323,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="18.75" spans="1:6">
+    <row r="145" ht="17.4" spans="1:6">
       <c r="A145" s="8">
         <v>45801</v>
       </c>
@@ -5326,7 +5335,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="18.75" spans="1:6">
+    <row r="146" ht="17.4" spans="1:6">
       <c r="A146" s="8">
         <v>45802</v>
       </c>
@@ -5338,7 +5347,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="18.75" spans="1:6">
+    <row r="147" ht="17.4" spans="1:6">
       <c r="A147" s="8">
         <v>45803</v>
       </c>
@@ -5350,7 +5359,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="18.75" spans="1:6">
+    <row r="148" ht="17.4" spans="1:6">
       <c r="A148" s="10">
         <v>45804</v>
       </c>
@@ -5362,7 +5371,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" ht="18.75" spans="1:6">
+    <row r="149" ht="17.4" spans="1:6">
       <c r="A149" s="8">
         <v>45805</v>
       </c>
@@ -5374,7 +5383,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="18.75" spans="1:6">
+    <row r="150" ht="17.4" spans="1:6">
       <c r="A150" s="8">
         <v>45806</v>
       </c>
@@ -5386,7 +5395,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="18.75" spans="1:6">
+    <row r="151" ht="17.4" spans="1:6">
       <c r="A151" s="8">
         <v>45807</v>
       </c>
@@ -5398,7 +5407,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="18.75" spans="1:6">
+    <row r="152" ht="17.4" spans="1:6">
       <c r="A152" s="8">
         <v>45808</v>
       </c>
@@ -5410,7 +5419,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" ht="18.75" spans="1:6">
+    <row r="153" ht="17.4" spans="1:6">
       <c r="A153" s="10">
         <v>45809</v>
       </c>
@@ -5422,7 +5431,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" ht="18.75" spans="1:6">
+    <row r="154" ht="17.4" spans="1:6">
       <c r="A154" s="8">
         <v>45810</v>
       </c>
@@ -5434,7 +5443,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="18.75" spans="1:6">
+    <row r="155" ht="17.4" spans="1:6">
       <c r="A155" s="8">
         <v>45811</v>
       </c>
@@ -5446,7 +5455,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="18.75" spans="1:6">
+    <row r="156" ht="17.4" spans="1:6">
       <c r="A156" s="8">
         <v>45812</v>
       </c>
@@ -5458,7 +5467,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="18.75" spans="1:6">
+    <row r="157" ht="17.4" spans="1:6">
       <c r="A157" s="8">
         <v>45813</v>
       </c>
@@ -5470,7 +5479,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="18.75" spans="1:6">
+    <row r="158" ht="17.4" spans="1:6">
       <c r="A158" s="8">
         <v>45814</v>
       </c>
@@ -5482,7 +5491,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="18.75" spans="1:6">
+    <row r="159" ht="17.4" spans="1:6">
       <c r="A159" s="8">
         <v>45815</v>
       </c>
@@ -5494,7 +5503,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="18.75" spans="1:6">
+    <row r="160" ht="17.4" spans="1:6">
       <c r="A160" s="8">
         <v>45816</v>
       </c>
@@ -5506,7 +5515,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="18.75" spans="1:6">
+    <row r="161" ht="17.4" spans="1:6">
       <c r="A161" s="8">
         <v>45817</v>
       </c>
@@ -5518,7 +5527,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" ht="18.75" spans="1:6">
+    <row r="162" ht="17.4" spans="1:6">
       <c r="A162" s="8">
         <v>45818</v>
       </c>
@@ -5530,7 +5539,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="18.75" spans="1:6">
+    <row r="163" ht="17.4" spans="1:6">
       <c r="A163" s="8">
         <v>45819</v>
       </c>
@@ -5542,7 +5551,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="18.75" spans="1:6">
+    <row r="164" ht="17.4" spans="1:6">
       <c r="A164" s="8">
         <v>45820</v>
       </c>
@@ -5554,7 +5563,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="18.75" spans="1:6">
+    <row r="165" ht="17.4" spans="1:6">
       <c r="A165" s="8">
         <v>45821</v>
       </c>
@@ -5566,7 +5575,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="18.75" spans="1:6">
+    <row r="166" ht="17.4" spans="1:6">
       <c r="A166" s="8">
         <v>45822</v>
       </c>
@@ -5578,7 +5587,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="18.75" spans="1:6">
+    <row r="167" ht="17.4" spans="1:6">
       <c r="A167" s="8">
         <v>45823</v>
       </c>
@@ -5590,7 +5599,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="18.75" spans="1:6">
+    <row r="168" ht="17.4" spans="1:6">
       <c r="A168" s="8">
         <v>45824</v>
       </c>
@@ -5602,7 +5611,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" ht="18.75" spans="1:6">
+    <row r="169" ht="17.4" spans="1:6">
       <c r="A169" s="8">
         <v>45825</v>
       </c>
@@ -5614,7 +5623,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="18.75" spans="1:6">
+    <row r="170" ht="17.4" spans="1:6">
       <c r="A170" s="8">
         <v>45826</v>
       </c>
@@ -5626,7 +5635,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="18.75" spans="1:6">
+    <row r="171" ht="17.4" spans="1:6">
       <c r="A171" s="8">
         <v>45827</v>
       </c>
@@ -5638,7 +5647,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="18.75" spans="1:6">
+    <row r="172" ht="17.4" spans="1:6">
       <c r="A172" s="8">
         <v>45828</v>
       </c>
@@ -5650,7 +5659,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="18.75" spans="1:6">
+    <row r="173" ht="17.4" spans="1:6">
       <c r="A173" s="8">
         <v>45829</v>
       </c>
@@ -5662,7 +5671,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" ht="18.75" spans="1:6">
+    <row r="174" ht="17.4" spans="1:6">
       <c r="A174" s="8">
         <v>45830</v>
       </c>
@@ -5674,7 +5683,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="18.75" spans="1:6">
+    <row r="175" ht="17.4" spans="1:6">
       <c r="A175" s="8">
         <v>45831</v>
       </c>
@@ -5686,7 +5695,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" ht="18.75" spans="1:6">
+    <row r="176" ht="17.4" spans="1:6">
       <c r="A176" s="8">
         <v>45832</v>
       </c>
@@ -5698,7 +5707,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="18.75" spans="1:6">
+    <row r="177" ht="17.4" spans="1:6">
       <c r="A177" s="8">
         <v>45833</v>
       </c>
@@ -5710,7 +5719,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="18.75" spans="1:6">
+    <row r="178" ht="17.4" spans="1:6">
       <c r="A178" s="8">
         <v>45834</v>
       </c>
@@ -5722,7 +5731,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" ht="18.75" spans="1:6">
+    <row r="179" ht="17.4" spans="1:6">
       <c r="A179" s="8">
         <v>45835</v>
       </c>
@@ -5734,7 +5743,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" ht="18.75" spans="1:6">
+    <row r="180" ht="17.4" spans="1:6">
       <c r="A180" s="8">
         <v>45836</v>
       </c>
@@ -5746,7 +5755,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="18.75" spans="1:6">
+    <row r="181" ht="17.4" spans="1:6">
       <c r="A181" s="8">
         <v>45837</v>
       </c>
@@ -5758,7 +5767,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="18.75" spans="1:6">
+    <row r="182" ht="17.4" spans="1:6">
       <c r="A182" s="8">
         <v>45838</v>
       </c>
@@ -5770,7 +5779,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="18.75" spans="1:6">
+    <row r="183" ht="17.4" spans="1:6">
       <c r="A183" s="8">
         <v>45839</v>
       </c>
@@ -5782,7 +5791,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="18.75" spans="1:6">
+    <row r="184" ht="17.4" spans="1:6">
       <c r="A184" s="8">
         <v>45840</v>
       </c>
@@ -5794,7 +5803,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="18.75" spans="1:6">
+    <row r="185" ht="17.4" spans="1:6">
       <c r="A185" s="8">
         <v>45841</v>
       </c>
@@ -5806,7 +5815,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="18.75" spans="1:6">
+    <row r="186" ht="17.4" spans="1:6">
       <c r="A186" s="8">
         <v>45842</v>
       </c>
@@ -5818,7 +5827,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="18.75" spans="1:6">
+    <row r="187" ht="17.4" spans="1:6">
       <c r="A187" s="8">
         <v>45843</v>
       </c>
@@ -5830,7 +5839,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" ht="18.75" spans="1:6">
+    <row r="188" ht="17.4" spans="1:6">
       <c r="A188" s="8">
         <v>45844</v>
       </c>
@@ -5842,7 +5851,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="18.75" spans="1:6">
+    <row r="189" ht="17.4" spans="1:6">
       <c r="A189" s="8">
         <v>45845</v>
       </c>
@@ -5854,7 +5863,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="18.75" spans="1:6">
+    <row r="190" ht="17.4" spans="1:6">
       <c r="A190" s="8">
         <v>45846</v>
       </c>
@@ -5866,7 +5875,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="18.75" spans="1:6">
+    <row r="191" ht="17.4" spans="1:6">
       <c r="A191" s="8">
         <v>45847</v>
       </c>
@@ -5878,7 +5887,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" ht="18.75" spans="1:6">
+    <row r="192" ht="17.4" spans="1:6">
       <c r="A192" s="8">
         <v>45848</v>
       </c>
@@ -5890,7 +5899,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="18.75" spans="1:6">
+    <row r="193" ht="17.4" spans="1:6">
       <c r="A193" s="8">
         <v>45849</v>
       </c>
@@ -5902,7 +5911,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="18.75" spans="1:6">
+    <row r="194" ht="17.4" spans="1:6">
       <c r="A194" s="8">
         <v>45850</v>
       </c>
@@ -5914,7 +5923,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="18.75" spans="1:6">
+    <row r="195" ht="17.4" spans="1:6">
       <c r="A195" s="8">
         <v>45851</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="18.75" spans="1:6">
+    <row r="196" ht="17.4" spans="1:6">
       <c r="A196" s="8">
         <v>45852</v>
       </c>
@@ -5938,7 +5947,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" ht="18.75" spans="1:6">
+    <row r="197" ht="17.4" spans="1:6">
       <c r="A197" s="8">
         <v>45853</v>
       </c>
@@ -5950,7 +5959,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" ht="18.75" spans="1:6">
+    <row r="198" ht="17.4" spans="1:6">
       <c r="A198" s="8">
         <v>45854</v>
       </c>
@@ -5962,7 +5971,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="18.75" spans="1:6">
+    <row r="199" ht="17.4" spans="1:6">
       <c r="A199" s="8">
         <v>45855</v>
       </c>
@@ -5974,7 +5983,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="18.75" spans="1:6">
+    <row r="200" ht="17.4" spans="1:6">
       <c r="A200" s="8">
         <v>45856</v>
       </c>
@@ -5986,7 +5995,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="18.75" spans="1:6">
+    <row r="201" ht="17.4" spans="1:6">
       <c r="A201" s="8">
         <v>45857</v>
       </c>
@@ -5998,7 +6007,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="18.75" spans="1:6">
+    <row r="202" ht="17.4" spans="1:6">
       <c r="A202" s="8">
         <v>45858</v>
       </c>
@@ -6010,7 +6019,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" ht="18.75" spans="1:6">
+    <row r="203" ht="17.4" spans="1:6">
       <c r="A203" s="8">
         <v>45859</v>
       </c>
@@ -6022,7 +6031,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="18.75" spans="1:6">
+    <row r="204" ht="17.4" spans="1:6">
       <c r="A204" s="8">
         <v>45860</v>
       </c>
@@ -6034,7 +6043,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="18.75" spans="1:6">
+    <row r="205" ht="17.4" spans="1:6">
       <c r="A205" s="8">
         <v>45861</v>
       </c>
@@ -6046,7 +6055,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="18.75" spans="1:6">
+    <row r="206" ht="17.4" spans="1:6">
       <c r="A206" s="8">
         <v>45862</v>
       </c>
@@ -6058,7 +6067,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" ht="18.75" spans="1:6">
+    <row r="207" ht="17.4" spans="1:6">
       <c r="A207" s="8">
         <v>45863</v>
       </c>
@@ -6070,7 +6079,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="18.75" spans="1:6">
+    <row r="208" ht="17.4" spans="1:6">
       <c r="A208" s="8">
         <v>45864</v>
       </c>
@@ -6082,7 +6091,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="18.75" spans="1:6">
+    <row r="209" ht="17.4" spans="1:6">
       <c r="A209" s="10">
         <v>45865</v>
       </c>
@@ -6094,7 +6103,7 @@
       <c r="E209" s="6"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" ht="18.75" spans="1:6">
+    <row r="210" ht="17.4" spans="1:6">
       <c r="A210" s="8">
         <v>45866</v>
       </c>
@@ -6106,7 +6115,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" ht="18.75" spans="1:6">
+    <row r="211" ht="17.4" spans="1:6">
       <c r="A211" s="8">
         <v>45867</v>
       </c>
@@ -6118,7 +6127,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="18.75" spans="1:6">
+    <row r="212" ht="17.4" spans="1:6">
       <c r="A212" s="8">
         <v>45868</v>
       </c>
@@ -6130,7 +6139,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="18.75" spans="1:6">
+    <row r="213" ht="17.4" spans="1:6">
       <c r="A213" s="8">
         <v>45869</v>
       </c>
@@ -6142,7 +6151,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="18.75" spans="1:6">
+    <row r="214" ht="17.4" spans="1:6">
       <c r="A214" s="8">
         <v>45870</v>
       </c>
@@ -6154,7 +6163,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="18.75" spans="1:6">
+    <row r="215" ht="17.4" spans="1:6">
       <c r="A215" s="8">
         <v>45871</v>
       </c>
@@ -6166,7 +6175,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="18.75" spans="1:6">
+    <row r="216" ht="17.4" spans="1:6">
       <c r="A216" s="8">
         <v>45872</v>
       </c>
@@ -6178,7 +6187,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" ht="18.75" spans="1:6">
+    <row r="217" ht="17.4" spans="1:6">
       <c r="A217" s="8">
         <v>45873</v>
       </c>
@@ -6190,7 +6199,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="18.75" spans="1:6">
+    <row r="218" ht="17.4" spans="1:6">
       <c r="A218" s="8">
         <v>45874</v>
       </c>
@@ -6202,7 +6211,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="18.75" spans="1:6">
+    <row r="219" ht="17.4" spans="1:6">
       <c r="A219" s="8">
         <v>45875</v>
       </c>
@@ -6214,7 +6223,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="18.75" spans="1:6">
+    <row r="220" ht="17.4" spans="1:6">
       <c r="A220" s="8">
         <v>45876</v>
       </c>
@@ -6226,7 +6235,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="18.75" spans="1:6">
+    <row r="221" ht="17.4" spans="1:6">
       <c r="A221" s="8">
         <v>45877</v>
       </c>
@@ -6238,7 +6247,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="18.75" spans="1:6">
+    <row r="222" ht="17.4" spans="1:6">
       <c r="A222" s="8">
         <v>45878</v>
       </c>
@@ -6250,7 +6259,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="18.75" spans="1:6">
+    <row r="223" ht="17.4" spans="1:6">
       <c r="A223" s="10">
         <v>45879</v>
       </c>
@@ -6262,7 +6271,7 @@
       <c r="E223" s="6"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" ht="18.75" spans="1:6">
+    <row r="224" ht="17.4" spans="1:6">
       <c r="A224" s="8">
         <v>45880</v>
       </c>
@@ -6274,7 +6283,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" ht="18.75" spans="1:6">
+    <row r="225" ht="17.4" spans="1:6">
       <c r="A225" s="8">
         <v>45881</v>
       </c>
@@ -6286,7 +6295,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="18.75" spans="1:6">
+    <row r="226" ht="17.4" spans="1:6">
       <c r="A226" s="8">
         <v>45882</v>
       </c>
@@ -6298,7 +6307,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="18.75" spans="1:6">
+    <row r="227" ht="17.4" spans="1:6">
       <c r="A227" s="8">
         <v>45883</v>
       </c>
@@ -6310,7 +6319,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="18.75" spans="1:6">
+    <row r="228" ht="17.4" spans="1:6">
       <c r="A228" s="8">
         <v>45884</v>
       </c>
@@ -6322,7 +6331,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="18.75" spans="1:6">
+    <row r="229" ht="17.4" spans="1:6">
       <c r="A229" s="8">
         <v>45885</v>
       </c>
@@ -6334,7 +6343,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" ht="18.75" spans="1:6">
+    <row r="230" ht="17.4" spans="1:6">
       <c r="A230" s="8">
         <v>45886</v>
       </c>
@@ -6346,7 +6355,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" ht="18.75" spans="1:6">
+    <row r="231" ht="17.4" spans="1:6">
       <c r="A231" s="8">
         <v>45887</v>
       </c>
@@ -6358,7 +6367,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="18.75" spans="1:6">
+    <row r="232" ht="17.4" spans="1:6">
       <c r="A232" s="8">
         <v>45888</v>
       </c>
@@ -6370,7 +6379,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="18.75" spans="1:6">
+    <row r="233" ht="17.4" spans="1:6">
       <c r="A233" s="8">
         <v>45889</v>
       </c>
@@ -6382,7 +6391,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" ht="18.75" spans="1:6">
+    <row r="234" ht="17.4" spans="1:6">
       <c r="A234" s="8">
         <v>45890</v>
       </c>
@@ -6394,7 +6403,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="18.75" spans="1:6">
+    <row r="235" ht="17.4" spans="1:6">
       <c r="A235" s="8">
         <v>45891</v>
       </c>
@@ -6406,7 +6415,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" ht="18.75" spans="1:6">
+    <row r="236" ht="17.4" spans="1:6">
       <c r="A236" s="8">
         <v>45892</v>
       </c>
@@ -6418,7 +6427,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="18.75" spans="1:6">
+    <row r="237" ht="17.4" spans="1:6">
       <c r="A237" s="8">
         <v>45893</v>
       </c>
@@ -6430,7 +6439,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="18.75" spans="1:6">
+    <row r="238" ht="17.4" spans="1:6">
       <c r="A238" s="8">
         <v>45894</v>
       </c>
@@ -6442,7 +6451,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="18.75" spans="1:6">
+    <row r="239" ht="17.4" spans="1:6">
       <c r="A239" s="8">
         <v>45895</v>
       </c>
@@ -6454,7 +6463,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" ht="18.75" spans="1:6">
+    <row r="240" ht="17.4" spans="1:6">
       <c r="A240" s="8">
         <v>45896</v>
       </c>
@@ -6466,7 +6475,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="18.75" spans="1:6">
+    <row r="241" ht="17.4" spans="1:6">
       <c r="A241" s="8">
         <v>45897</v>
       </c>
@@ -6478,7 +6487,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="18.75" spans="1:6">
+    <row r="242" ht="17.4" spans="1:6">
       <c r="A242" s="8">
         <v>45898</v>
       </c>
@@ -6490,7 +6499,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="18.75" spans="1:6">
+    <row r="243" ht="17.4" spans="1:6">
       <c r="A243" s="8">
         <v>45899</v>
       </c>
@@ -6502,7 +6511,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="18.75" spans="1:6">
+    <row r="244" ht="17.4" spans="1:6">
       <c r="A244" s="8">
         <v>45900</v>
       </c>
@@ -6514,7 +6523,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" ht="18.75" spans="1:6">
+    <row r="245" ht="17.4" spans="1:6">
       <c r="A245" s="8">
         <v>45901</v>
       </c>
@@ -6526,7 +6535,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="18.75" spans="1:6">
+    <row r="246" ht="17.4" spans="1:6">
       <c r="A246" s="8">
         <v>45902</v>
       </c>
@@ -6538,7 +6547,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="18.75" spans="1:6">
+    <row r="247" ht="17.4" spans="1:6">
       <c r="A247" s="8">
         <v>45903</v>
       </c>
@@ -6550,7 +6559,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="18.75" spans="1:6">
+    <row r="248" ht="17.4" spans="1:6">
       <c r="A248" s="8">
         <v>45904</v>
       </c>
@@ -6562,7 +6571,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="18.75" spans="1:6">
+    <row r="249" ht="17.4" spans="1:6">
       <c r="A249" s="8">
         <v>45905</v>
       </c>
@@ -6574,7 +6583,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="18.75" spans="1:6">
+    <row r="250" ht="17.4" spans="1:6">
       <c r="A250" s="8">
         <v>45906</v>
       </c>
@@ -6586,7 +6595,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="18.75" spans="1:6">
+    <row r="251" ht="17.4" spans="1:6">
       <c r="A251" s="8">
         <v>45907</v>
       </c>
@@ -6598,7 +6607,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" ht="18.75" spans="1:6">
+    <row r="252" ht="17.4" spans="1:6">
       <c r="A252" s="8">
         <v>45908</v>
       </c>
@@ -6610,7 +6619,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="18.75" spans="1:6">
+    <row r="253" ht="17.4" spans="1:6">
       <c r="A253" s="8">
         <v>45909</v>
       </c>
@@ -6622,7 +6631,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" ht="18.75" spans="1:6">
+    <row r="254" ht="17.4" spans="1:6">
       <c r="A254" s="8">
         <v>45910</v>
       </c>
@@ -6634,7 +6643,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="18.75" spans="1:6">
+    <row r="255" ht="17.4" spans="1:6">
       <c r="A255" s="8">
         <v>45911</v>
       </c>
@@ -6646,7 +6655,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="18.75" spans="1:6">
+    <row r="256" ht="17.4" spans="1:6">
       <c r="A256" s="8">
         <v>45912</v>
       </c>
@@ -6658,7 +6667,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="18.75" spans="1:6">
+    <row r="257" ht="17.4" spans="1:6">
       <c r="A257" s="8">
         <v>45913</v>
       </c>
@@ -6670,7 +6679,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" ht="18.75" spans="1:6">
+    <row r="258" ht="17.4" spans="1:6">
       <c r="A258" s="8">
         <v>45914</v>
       </c>
@@ -6682,7 +6691,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="18.75" spans="1:6">
+    <row r="259" ht="17.4" spans="1:6">
       <c r="A259" s="8">
         <v>45915</v>
       </c>
@@ -6694,7 +6703,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="18.75" spans="1:6">
+    <row r="260" ht="17.4" spans="1:6">
       <c r="A260" s="8">
         <v>45916</v>
       </c>
@@ -6706,7 +6715,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="18.75" spans="1:6">
+    <row r="261" ht="17.4" spans="1:6">
       <c r="A261" s="8">
         <v>45917</v>
       </c>
@@ -6718,7 +6727,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="18.75" spans="1:6">
+    <row r="262" ht="17.4" spans="1:6">
       <c r="A262" s="8">
         <v>45918</v>
       </c>
@@ -6730,7 +6739,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="18.75" spans="1:6">
+    <row r="263" ht="17.4" spans="1:6">
       <c r="A263" s="8">
         <v>45919</v>
       </c>
@@ -6742,7 +6751,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="18.75" spans="1:6">
+    <row r="264" ht="17.4" spans="1:6">
       <c r="A264" s="8">
         <v>45920</v>
       </c>
@@ -6754,7 +6763,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" ht="18.75" spans="1:6">
+    <row r="265" ht="17.4" spans="1:6">
       <c r="A265" s="8">
         <v>45921</v>
       </c>
@@ -6766,7 +6775,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="18.75" spans="1:6">
+    <row r="266" ht="17.4" spans="1:6">
       <c r="A266" s="8">
         <v>45922</v>
       </c>
@@ -6778,7 +6787,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" ht="18.75" spans="1:6">
+    <row r="267" ht="17.4" spans="1:6">
       <c r="A267" s="10">
         <v>45923</v>
       </c>
@@ -6790,7 +6799,7 @@
       <c r="E267" s="6"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="18.75" spans="1:6">
+    <row r="268" ht="17.4" spans="1:6">
       <c r="A268" s="8">
         <v>45924</v>
       </c>
@@ -6802,7 +6811,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" ht="18.75" spans="1:6">
+    <row r="269" ht="17.4" spans="1:6">
       <c r="A269" s="8">
         <v>45925</v>
       </c>
@@ -6814,7 +6823,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="18.75" spans="1:6">
+    <row r="270" ht="17.4" spans="1:6">
       <c r="A270" s="8">
         <v>45926</v>
       </c>
@@ -6826,7 +6835,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="18.75" spans="1:6">
+    <row r="271" ht="17.4" spans="1:6">
       <c r="A271" s="8">
         <v>45927</v>
       </c>
@@ -6838,7 +6847,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="18.75" spans="1:6">
+    <row r="272" ht="17.4" spans="1:6">
       <c r="A272" s="8">
         <v>45928</v>
       </c>
@@ -6850,7 +6859,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" ht="18.75" spans="1:6">
+    <row r="273" ht="17.4" spans="1:6">
       <c r="A273" s="8">
         <v>45929</v>
       </c>
@@ -6862,7 +6871,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="18.75" spans="1:6">
+    <row r="274" ht="17.4" spans="1:6">
       <c r="A274" s="8">
         <v>45930</v>
       </c>
@@ -6874,7 +6883,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="18.75" spans="1:6">
+    <row r="275" ht="17.4" spans="1:6">
       <c r="A275" s="8">
         <v>45931</v>
       </c>
@@ -6886,7 +6895,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="18.75" spans="1:6">
+    <row r="276" ht="17.4" spans="1:6">
       <c r="A276" s="8">
         <v>45932</v>
       </c>
@@ -6898,7 +6907,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="18.75" spans="1:6">
+    <row r="277" ht="17.4" spans="1:6">
       <c r="A277" s="8">
         <v>45933</v>
       </c>
@@ -6910,7 +6919,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="18.75" spans="1:6">
+    <row r="278" ht="17.4" spans="1:6">
       <c r="A278" s="8">
         <v>45934</v>
       </c>
@@ -6922,7 +6931,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="18.75" spans="1:6">
+    <row r="279" ht="17.4" spans="1:6">
       <c r="A279" s="8">
         <v>45935</v>
       </c>
@@ -6934,7 +6943,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="18.75" spans="1:6">
+    <row r="280" ht="17.4" spans="1:6">
       <c r="A280" s="8">
         <v>45936</v>
       </c>
@@ -6946,7 +6955,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="18.75" spans="1:6">
+    <row r="281" ht="17.4" spans="1:6">
       <c r="A281" s="8">
         <v>45937</v>
       </c>
@@ -6958,7 +6967,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="18.75" spans="1:6">
+    <row r="282" ht="17.4" spans="1:6">
       <c r="A282" s="8">
         <v>45938</v>
       </c>
@@ -6970,7 +6979,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="18.75" spans="1:6">
+    <row r="283" ht="17.4" spans="1:6">
       <c r="A283" s="8">
         <v>45939</v>
       </c>
@@ -6982,7 +6991,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" ht="18.75" spans="1:6">
+    <row r="284" ht="17.4" spans="1:6">
       <c r="A284" s="8">
         <v>45940</v>
       </c>
@@ -6994,7 +7003,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="18.75" spans="1:6">
+    <row r="285" ht="17.4" spans="1:6">
       <c r="A285" s="8">
         <v>45941</v>
       </c>
@@ -7006,7 +7015,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="18.75" spans="1:6">
+    <row r="286" ht="17.4" spans="1:6">
       <c r="A286" s="8">
         <v>45942</v>
       </c>
@@ -7018,7 +7027,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="18.75" spans="1:6">
+    <row r="287" ht="17.4" spans="1:6">
       <c r="A287" s="8">
         <v>45943</v>
       </c>
@@ -7030,7 +7039,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" ht="18.75" spans="1:6">
+    <row r="288" ht="17.4" spans="1:6">
       <c r="A288" s="8">
         <v>45944</v>
       </c>
@@ -7042,7 +7051,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="9"/>
     </row>
-    <row r="289" ht="18.75" spans="1:6">
+    <row r="289" ht="17.4" spans="1:6">
       <c r="A289" s="8">
         <v>45945</v>
       </c>
@@ -7054,7 +7063,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="18.75" spans="1:6">
+    <row r="290" ht="17.4" spans="1:6">
       <c r="A290" s="8">
         <v>45946</v>
       </c>
@@ -7066,7 +7075,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" ht="18.75" spans="1:6">
+    <row r="291" ht="17.4" spans="1:6">
       <c r="A291" s="8">
         <v>45947</v>
       </c>
@@ -7078,7 +7087,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="18.75" spans="1:6">
+    <row r="292" ht="17.4" spans="1:6">
       <c r="A292" s="8">
         <v>45948</v>
       </c>
@@ -7090,7 +7099,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="18.75" spans="1:6">
+    <row r="293" ht="17.4" spans="1:6">
       <c r="A293" s="8">
         <v>45949</v>
       </c>
@@ -7102,7 +7111,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" ht="18.75" spans="1:6">
+    <row r="294" ht="17.4" spans="1:6">
       <c r="A294" s="8">
         <v>45950</v>
       </c>
@@ -7114,7 +7123,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="18.75" spans="1:6">
+    <row r="295" ht="17.4" spans="1:6">
       <c r="A295" s="8">
         <v>45951</v>
       </c>
@@ -7126,7 +7135,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="18.75" spans="1:6">
+    <row r="296" ht="17.4" spans="1:6">
       <c r="A296" s="8">
         <v>45952</v>
       </c>
@@ -7138,7 +7147,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="18.75" spans="1:6">
+    <row r="297" ht="17.4" spans="1:6">
       <c r="A297" s="8">
         <v>45953</v>
       </c>
@@ -7150,7 +7159,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="18.75" spans="1:6">
+    <row r="298" ht="17.4" spans="1:6">
       <c r="A298" s="8">
         <v>45954</v>
       </c>
@@ -7162,7 +7171,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="18.75" spans="1:6">
+    <row r="299" ht="17.4" spans="1:6">
       <c r="A299" s="8">
         <v>45955</v>
       </c>
@@ -7174,7 +7183,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" ht="18.75" spans="1:6">
+    <row r="300" ht="17.4" spans="1:6">
       <c r="A300" s="8">
         <v>45956</v>
       </c>
@@ -7186,7 +7195,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="18.75" spans="1:6">
+    <row r="301" ht="17.4" spans="1:6">
       <c r="A301" s="8">
         <v>45957</v>
       </c>
@@ -7198,7 +7207,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" ht="18.75" spans="1:6">
+    <row r="302" ht="17.4" spans="1:6">
       <c r="A302" s="8">
         <v>45958</v>
       </c>
@@ -7210,7 +7219,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="18.75" spans="1:6">
+    <row r="303" ht="17.4" spans="1:6">
       <c r="A303" s="8">
         <v>45959</v>
       </c>
@@ -7222,7 +7231,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" ht="18.75" spans="1:6">
+    <row r="304" ht="17.4" spans="1:6">
       <c r="A304" s="8">
         <v>45960</v>
       </c>
@@ -7234,7 +7243,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="18.75" spans="1:6">
+    <row r="305" ht="17.4" spans="1:6">
       <c r="A305" s="8">
         <v>45961</v>
       </c>
@@ -7246,7 +7255,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="18.75" spans="1:6">
+    <row r="306" ht="17.4" spans="1:6">
       <c r="A306" s="8">
         <v>45962</v>
       </c>
@@ -7258,7 +7267,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="18.75" spans="1:6">
+    <row r="307" ht="17.4" spans="1:6">
       <c r="A307" s="8">
         <v>45963</v>
       </c>
@@ -7270,7 +7279,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" ht="18.75" spans="1:6">
+    <row r="308" ht="17.4" spans="1:6">
       <c r="A308" s="8">
         <v>45964</v>
       </c>
@@ -7282,7 +7291,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="18.75" spans="1:6">
+    <row r="309" ht="17.4" spans="1:6">
       <c r="A309" s="8">
         <v>45965</v>
       </c>
@@ -7294,7 +7303,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="18.75" spans="1:6">
+    <row r="310" ht="17.4" spans="1:6">
       <c r="A310" s="8">
         <v>45966</v>
       </c>
@@ -7306,7 +7315,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="18.75" spans="1:6">
+    <row r="311" ht="17.4" spans="1:6">
       <c r="A311" s="8">
         <v>45967</v>
       </c>
@@ -7318,7 +7327,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="18.75" spans="1:6">
+    <row r="312" ht="17.4" spans="1:6">
       <c r="A312" s="8">
         <v>45968</v>
       </c>
@@ -7330,7 +7339,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="18.75" spans="1:6">
+    <row r="313" ht="17.4" spans="1:6">
       <c r="A313" s="8">
         <v>45969</v>
       </c>
@@ -7342,7 +7351,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="18.75" spans="1:6">
+    <row r="314" ht="17.4" spans="1:6">
       <c r="A314" s="8">
         <v>45970</v>
       </c>
@@ -7354,7 +7363,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="18.75" spans="1:6">
+    <row r="315" ht="17.4" spans="1:6">
       <c r="A315" s="8">
         <v>45971</v>
       </c>
@@ -7366,7 +7375,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="18.75" spans="1:6">
+    <row r="316" ht="17.4" spans="1:6">
       <c r="A316" s="10">
         <v>45972</v>
       </c>
@@ -7378,7 +7387,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="18.75" spans="1:6">
+    <row r="317" ht="17.4" spans="1:6">
       <c r="A317" s="8">
         <v>45973</v>
       </c>
@@ -7390,7 +7399,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" ht="18.75" spans="1:6">
+    <row r="318" ht="17.4" spans="1:6">
       <c r="A318" s="8">
         <v>45974</v>
       </c>
@@ -7402,7 +7411,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="18.75" spans="1:6">
+    <row r="319" ht="17.4" spans="1:6">
       <c r="A319" s="8">
         <v>45975</v>
       </c>
@@ -7414,7 +7423,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" ht="18.75" spans="1:6">
+    <row r="320" ht="17.4" spans="1:6">
       <c r="A320" s="8">
         <v>45976</v>
       </c>
@@ -7426,7 +7435,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="18.75" spans="1:6">
+    <row r="321" ht="17.4" spans="1:6">
       <c r="A321" s="8">
         <v>45977</v>
       </c>
@@ -7438,7 +7447,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="18.75" spans="1:6">
+    <row r="322" ht="17.4" spans="1:6">
       <c r="A322" s="8">
         <v>45978</v>
       </c>
@@ -7450,7 +7459,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="18.75" spans="1:6">
+    <row r="323" ht="17.4" spans="1:6">
       <c r="A323" s="8">
         <v>45979</v>
       </c>
@@ -7462,7 +7471,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="18.75" spans="1:6">
+    <row r="324" ht="17.4" spans="1:6">
       <c r="A324" s="8">
         <v>45980</v>
       </c>
@@ -7474,7 +7483,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="18.75" spans="1:6">
+    <row r="325" ht="17.4" spans="1:6">
       <c r="A325" s="8">
         <v>45981</v>
       </c>
@@ -7486,7 +7495,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="9"/>
     </row>
-    <row r="326" ht="18.75" spans="1:6">
+    <row r="326" ht="17.4" spans="1:6">
       <c r="A326" s="8">
         <v>45982</v>
       </c>
@@ -7498,7 +7507,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="18.75" spans="1:6">
+    <row r="327" ht="17.4" spans="1:6">
       <c r="A327" s="8">
         <v>45983</v>
       </c>
@@ -7510,7 +7519,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="14"/>
     </row>
-    <row r="328" ht="18.75" spans="1:6">
+    <row r="328" ht="17.4" spans="1:6">
       <c r="A328" s="8">
         <v>45984</v>
       </c>
@@ -7522,7 +7531,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="9"/>
     </row>
-    <row r="329" ht="18.75" spans="1:6">
+    <row r="329" ht="17.4" spans="1:6">
       <c r="A329" s="8">
         <v>45985</v>
       </c>
@@ -7534,7 +7543,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="18.75" spans="1:6">
+    <row r="330" ht="17.4" spans="1:6">
       <c r="A330" s="8">
         <v>45986</v>
       </c>
@@ -7546,7 +7555,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="18.75" spans="1:6">
+    <row r="331" ht="17.4" spans="1:6">
       <c r="A331" s="8">
         <v>45987</v>
       </c>
@@ -7558,7 +7567,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="9"/>
     </row>
-    <row r="332" ht="18.75" spans="1:6">
+    <row r="332" ht="17.4" spans="1:6">
       <c r="A332" s="8">
         <v>45988</v>
       </c>
@@ -7570,7 +7579,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="18.75" spans="1:6">
+    <row r="333" ht="17.4" spans="1:6">
       <c r="A333" s="8">
         <v>45989</v>
       </c>
@@ -7582,7 +7591,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="18.75" spans="1:6">
+    <row r="334" ht="17.4" spans="1:6">
       <c r="A334" s="8">
         <v>45990</v>
       </c>
@@ -7594,7 +7603,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="18.75" spans="1:6">
+    <row r="335" ht="17.4" spans="1:6">
       <c r="A335" s="8">
         <v>45991</v>
       </c>
@@ -7606,7 +7615,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="9"/>
     </row>
-    <row r="336" ht="18.75" spans="1:6">
+    <row r="336" ht="17.4" spans="1:6">
       <c r="A336" s="8">
         <v>45992</v>
       </c>
@@ -7618,7 +7627,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="14"/>
     </row>
-    <row r="337" ht="18.75" spans="1:6">
+    <row r="337" ht="17.4" spans="1:6">
       <c r="A337" s="8">
         <v>45993</v>
       </c>
@@ -7630,7 +7639,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="9"/>
     </row>
-    <row r="338" ht="18.75" spans="1:6">
+    <row r="338" ht="17.4" spans="1:6">
       <c r="A338" s="8">
         <v>45994</v>
       </c>
@@ -7642,7 +7651,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="9"/>
     </row>
-    <row r="339" ht="18.75" spans="1:6">
+    <row r="339" ht="17.4" spans="1:6">
       <c r="A339" s="8">
         <v>45995</v>
       </c>
@@ -7654,7 +7663,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="18.75" spans="1:6">
+    <row r="340" ht="17.4" spans="1:6">
       <c r="A340" s="8">
         <v>45996</v>
       </c>
@@ -7666,7 +7675,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="18.75" spans="1:6">
+    <row r="341" ht="17.4" spans="1:6">
       <c r="A341" s="8">
         <v>45997</v>
       </c>
@@ -7678,7 +7687,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="18.75" spans="1:6">
+    <row r="342" ht="17.4" spans="1:6">
       <c r="A342" s="8">
         <v>45998</v>
       </c>
@@ -7690,7 +7699,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="18.75" spans="1:6">
+    <row r="343" ht="17.4" spans="1:6">
       <c r="A343" s="8">
         <v>45999</v>
       </c>
@@ -7702,7 +7711,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="18.75" spans="1:6">
+    <row r="344" ht="17.4" spans="1:6">
       <c r="A344" s="8">
         <v>46000</v>
       </c>
@@ -7714,7 +7723,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="18.75" spans="1:6">
+    <row r="345" ht="17.4" spans="1:6">
       <c r="A345" s="8">
         <v>46001</v>
       </c>
@@ -7726,7 +7735,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="9"/>
     </row>
-    <row r="346" ht="18.75" spans="1:6">
+    <row r="346" ht="17.4" spans="1:6">
       <c r="A346" s="8">
         <v>46002</v>
       </c>
@@ -7738,7 +7747,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="14"/>
     </row>
-    <row r="347" ht="18.75" spans="1:6">
+    <row r="347" ht="17.4" spans="1:6">
       <c r="A347" s="8">
         <v>46003</v>
       </c>
@@ -7750,7 +7759,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="18.75" spans="1:6">
+    <row r="348" ht="17.4" spans="1:6">
       <c r="A348" s="8">
         <v>46004</v>
       </c>
@@ -7762,7 +7771,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="18.75" spans="1:6">
+    <row r="349" ht="17.4" spans="1:6">
       <c r="A349" s="8">
         <v>46005</v>
       </c>
@@ -7774,7 +7783,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="18.75" spans="1:6">
+    <row r="350" ht="17.4" spans="1:6">
       <c r="A350" s="8">
         <v>46006</v>
       </c>
@@ -7786,7 +7795,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="18.75" spans="1:6">
+    <row r="351" ht="17.4" spans="1:6">
       <c r="A351" s="8">
         <v>46007</v>
       </c>
@@ -7798,7 +7807,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="18.75" spans="1:6">
+    <row r="352" ht="17.4" spans="1:6">
       <c r="A352" s="8">
         <v>46008</v>
       </c>
@@ -7810,7 +7819,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="18.75" spans="1:6">
+    <row r="353" ht="17.4" spans="1:6">
       <c r="A353" s="8">
         <v>46009</v>
       </c>
@@ -7822,7 +7831,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="9"/>
     </row>
-    <row r="354" ht="18.75" spans="1:6">
+    <row r="354" ht="17.4" spans="1:6">
       <c r="A354" s="8">
         <v>46010</v>
       </c>
@@ -7834,7 +7843,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="9"/>
     </row>
-    <row r="355" ht="18.75" spans="1:6">
+    <row r="355" ht="17.4" spans="1:6">
       <c r="A355" s="8">
         <v>46011</v>
       </c>
@@ -7846,7 +7855,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="18.75" spans="1:6">
+    <row r="356" ht="17.4" spans="1:6">
       <c r="A356" s="10">
         <v>46012</v>
       </c>
@@ -7858,7 +7867,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="9"/>
     </row>
-    <row r="357" ht="18.75" spans="1:6">
+    <row r="357" ht="17.4" spans="1:6">
       <c r="A357" s="8">
         <v>46013</v>
       </c>
@@ -7870,7 +7879,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="9"/>
     </row>
-    <row r="358" ht="18.75" spans="1:6">
+    <row r="358" ht="17.4" spans="1:6">
       <c r="A358" s="8">
         <v>46014</v>
       </c>
@@ -7882,7 +7891,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="18.75" spans="1:6">
+    <row r="359" ht="17.4" spans="1:6">
       <c r="A359" s="8">
         <v>46015</v>
       </c>
@@ -7894,7 +7903,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="18.75" spans="1:6">
+    <row r="360" ht="17.4" spans="1:6">
       <c r="A360" s="8">
         <v>46016</v>
       </c>
@@ -7906,7 +7915,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="18.75" spans="1:6">
+    <row r="361" ht="17.4" spans="1:6">
       <c r="A361" s="8">
         <v>46017</v>
       </c>
@@ -7918,7 +7927,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="18.75" spans="1:6">
+    <row r="362" ht="17.4" spans="1:6">
       <c r="A362" s="8">
         <v>46018</v>
       </c>
@@ -7930,7 +7939,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="18.75" spans="1:6">
+    <row r="363" ht="17.4" spans="1:6">
       <c r="A363" s="8">
         <v>46019</v>
       </c>
@@ -7942,7 +7951,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="18.75" spans="1:6">
+    <row r="364" ht="17.4" spans="1:6">
       <c r="A364" s="8">
         <v>46020</v>
       </c>
@@ -7954,7 +7963,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="9"/>
     </row>
-    <row r="365" ht="18.75" spans="1:6">
+    <row r="365" ht="17.4" spans="1:6">
       <c r="A365" s="8">
         <v>46021</v>
       </c>
@@ -7966,7 +7975,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="18.75" spans="1:6">
+    <row r="366" ht="17.4" spans="1:6">
       <c r="A366" s="8">
         <v>46022</v>
       </c>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="148">
   <si>
     <t>日期</t>
   </si>
@@ -420,6 +420,9 @@
     <t>《绝区零》1.4版本更新</t>
   </si>
   <si>
+    <t>《星塔旅人》「启明测试」招募开启</t>
+  </si>
+  <si>
     <t>《航海王壮志雄心》公测</t>
   </si>
   <si>
@@ -448,6 +451,9 @@
   </si>
   <si>
     <t>《原神》5.3版本更新</t>
+  </si>
+  <si>
+    <t>《星塔旅人》「启明测试」招募结束</t>
   </si>
   <si>
     <t>《鸣潮》登陆PS5</t>
@@ -890,9 +896,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -903,7 +907,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1205,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,38 +1227,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1260,97 +1371,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1878,21 +1902,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.22222222222222" style="15" customWidth="1"/>
-    <col min="3" max="3" width="51.1111111111111" style="15" customWidth="1"/>
-    <col min="4" max="4" width="41.3796296296296" style="15" customWidth="1"/>
-    <col min="5" max="5" width="56.1111111111111" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="20" customWidth="1"/>
+    <col min="3" max="3" width="51.1083333333333" style="20" customWidth="1"/>
+    <col min="4" max="4" width="41.3833333333333" style="20" customWidth="1"/>
+    <col min="5" max="5" width="56.1083333333333" style="20" customWidth="1"/>
     <col min="6" max="6" width="84.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1917,10 +1941,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>45595</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1931,10 +1955,10 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>45596</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1945,34 +1969,34 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>45597</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>45598</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -1981,10 +2005,10 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>45599</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
@@ -1993,10 +2017,10 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>45600</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2007,10 +2031,10 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>45601</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4"/>
@@ -2019,74 +2043,74 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>45602</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>45603</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>45604</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4"/>
@@ -2097,10 +2121,10 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>45605</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4"/>
@@ -2109,10 +2133,10 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>45606</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4"/>
@@ -2121,10 +2145,10 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>45607</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4"/>
@@ -2133,10 +2157,10 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>45608</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4"/>
@@ -2145,10 +2169,10 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8">
+      <c r="A20" s="10">
         <v>45609</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="4"/>
@@ -2157,10 +2181,10 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>45610</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2171,36 +2195,36 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>45611</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8">
+      <c r="A24" s="10">
         <v>45612</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2211,10 +2235,10 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8">
+      <c r="A25" s="10">
         <v>45613</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="4"/>
@@ -2223,10 +2247,10 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8">
+      <c r="A26" s="10">
         <v>45614</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="4"/>
@@ -2235,104 +2259,104 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>45615</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10">
+      <c r="A36" s="12">
         <v>45616</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2343,8 +2367,8 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2353,112 +2377,112 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="10">
+      <c r="A38" s="12">
         <v>45617</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="22"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="10">
+      <c r="A43" s="12">
         <v>45618</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="24" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="25"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="25"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="25"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8">
+      <c r="A47" s="10">
         <v>45619</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2471,10 +2495,10 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8">
+      <c r="A48" s="10">
         <v>45620</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="4"/>
@@ -2483,17 +2507,17 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>45621</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="24" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -2501,32 +2525,32 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10">
+      <c r="A51" s="12">
         <v>45622</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="26"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8">
+      <c r="A52" s="10">
         <v>45623</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2539,10 +2563,10 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8">
+      <c r="A53" s="10">
         <v>45624</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2553,10 +2577,10 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8">
+      <c r="A54" s="10">
         <v>45625</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2569,10 +2593,10 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8">
+      <c r="A55" s="10">
         <v>45626</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="4"/>
@@ -2581,10 +2605,10 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8">
+      <c r="A56" s="10">
         <v>45627</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2597,41 +2621,41 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="10">
+      <c r="A57" s="12">
         <v>45628</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="27" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="28">
+      <c r="A59" s="34">
         <v>45629</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="24" t="s">
+      <c r="D59" s="37"/>
+      <c r="E59" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -2639,245 +2663,245 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="30" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="25"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="27" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="30" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="27" t="s">
+      <c r="D63" s="40"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="27" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="30" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="27" t="s">
+      <c r="D65" s="40"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="27" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="35" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="27" t="s">
+      <c r="D67" s="40"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="33" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="10">
+      <c r="A68" s="12">
         <v>45630</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="10">
+      <c r="A71" s="12">
         <v>45631</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="21"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="10">
+      <c r="A77" s="12">
         <v>45632</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38" t="s">
+      <c r="D77" s="43"/>
+      <c r="E77" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="19"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="11" t="s">
+      <c r="A78" s="25"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="19"/>
-      <c r="B79" s="39"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="11" t="s">
+      <c r="D79" s="43"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="19"/>
-      <c r="B80" s="39"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="38" t="s">
+      <c r="D80" s="43"/>
+      <c r="E80" s="44" t="s">
         <v>103</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -2885,58 +2909,58 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="19"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="11" t="s">
+      <c r="D81" s="43"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="16"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="37"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="11" t="s">
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="10">
+      <c r="A83" s="12">
         <v>45633</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8">
+      <c r="A85" s="10">
         <v>45634</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="4"/>
@@ -2945,10 +2969,10 @@
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="8">
+      <c r="A86" s="10">
         <v>45635</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -2959,10 +2983,10 @@
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8">
+      <c r="A87" s="10">
         <v>45636</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -2973,101 +2997,101 @@
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="10">
+      <c r="A88" s="12">
         <v>45637</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7" t="s">
+      <c r="D88" s="14"/>
+      <c r="E88" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="10">
+      <c r="A90" s="12">
         <v>45638</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="24" t="s">
+      <c r="D90" s="14"/>
+      <c r="E90" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F90" s="6"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="22"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="22"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="28"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="22"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="28"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="16"/>
-      <c r="B94" s="17"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="18"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="10">
+      <c r="A95" s="12">
         <v>45639</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="24" t="s">
+      <c r="D95" s="14"/>
+      <c r="E95" s="30" t="s">
         <v>124</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -3075,30 +3099,30 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="16"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="41"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="8">
+      <c r="A98" s="10">
         <v>45640</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -3109,10 +3133,10 @@
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="8">
+      <c r="A99" s="10">
         <v>45641</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="4"/>
@@ -3121,10 +3145,10 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="8">
+      <c r="A100" s="10">
         <v>45642</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="4"/>
@@ -3133,10 +3157,10 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="8">
+      <c r="A101" s="10">
         <v>45643</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="4"/>
@@ -3145,95 +3169,93 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="8">
+      <c r="A102" s="48">
         <v>45644</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="10">
-        <v>45645</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A103" s="51"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="12">
+        <v>45645</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="37"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="43"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="45"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D105" s="42"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="22"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="28"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="46"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="11" t="s">
+      <c r="A106" s="25"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="36"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="28"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="25"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E106" s="37"/>
-      <c r="F106" s="48"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="16"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D107" s="42"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="18"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="28"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="8">
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" s="36"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="23"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="10">
         <v>45646</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B109" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="8">
-        <v>46012</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3241,11 +3263,11 @@
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="8">
-        <v>45648</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>14</v>
+      <c r="A110" s="10">
+        <v>46012</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3253,11 +3275,11 @@
       <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="8">
-        <v>45649</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>15</v>
+      <c r="A111" s="10">
+        <v>45648</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3265,11 +3287,11 @@
       <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="8">
-        <v>45650</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>17</v>
+      <c r="A112" s="10">
+        <v>45649</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3277,11 +3299,11 @@
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="8">
-        <v>45651</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>6</v>
+      <c r="A113" s="10">
+        <v>45650</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -3289,11 +3311,11 @@
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="8">
-        <v>45652</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>8</v>
+      <c r="A114" s="10">
+        <v>45651</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -3301,37 +3323,37 @@
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="8">
-        <v>45653</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="A115" s="10">
+        <v>45652</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="8">
-        <v>45654</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="4"/>
+      <c r="A116" s="10">
+        <v>45653</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="8">
-        <v>45655</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>14</v>
+      <c r="A117" s="10">
+        <v>45654</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -3339,11 +3361,11 @@
       <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="8">
-        <v>45656</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>15</v>
+      <c r="A118" s="10">
+        <v>45655</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -3351,105 +3373,117 @@
       <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="8">
-        <v>45657</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A119" s="10">
+        <v>45656</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="14.4" spans="1:5">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-    </row>
-    <row r="121" ht="14.4" spans="1:5">
+    <row r="120" spans="1:6">
+      <c r="A120" s="10">
+        <v>45657</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" ht="13.5" spans="1:5">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" ht="14.4" spans="1:5">
+    <row r="122" ht="13.5" spans="1:5">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" ht="14.4" spans="1:5">
+    <row r="123" ht="13.5" spans="1:5">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" ht="14.4" spans="1:5">
+    <row r="124" ht="13.5" spans="1:5">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
     </row>
-    <row r="125" ht="14.4" spans="1:5">
+    <row r="125" ht="13.5" spans="1:5">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" ht="14.4" spans="1:5">
+    <row r="126" ht="13.5" spans="1:5">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
     </row>
-    <row r="127" ht="14.4" spans="1:5">
+    <row r="127" ht="13.5" spans="1:5">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" ht="14.4" spans="1:5">
+    <row r="128" ht="13.5" spans="1:5">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
     </row>
-    <row r="129" ht="14.4" spans="1:5">
+    <row r="129" ht="13.5" spans="1:5">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
     </row>
-    <row r="130" ht="14.4" spans="1:5">
+    <row r="130" ht="13.5" spans="1:5">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
     </row>
-    <row r="131" ht="14.4" spans="1:5">
+    <row r="131" ht="13.5" spans="1:5">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
     </row>
+    <row r="132" ht="13.5" spans="1:5">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+    </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="101">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3468,7 +3502,8 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A90:A94"/>
     <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A108"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -3487,7 +3522,8 @@
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B90:B94"/>
     <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B108"/>
     <mergeCell ref="C27:C35"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C57:C58"/>
@@ -3512,8 +3548,9 @@
     <mergeCell ref="D88:D89"/>
     <mergeCell ref="D90:D94"/>
     <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D108"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
@@ -3532,7 +3569,8 @@
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="E90:E94"/>
     <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E108"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
@@ -3545,7 +3583,8 @@
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="F88:F89"/>
     <mergeCell ref="F90:F94"/>
-    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3555,25 +3594,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="6.62962962962963" customWidth="1"/>
-    <col min="3" max="3" width="42.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="18.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="4.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="13.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.63333333333333" customWidth="1"/>
+    <col min="3" max="3" width="42.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:6">
+    <row r="1" ht="18.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -3601,4393 +3640,4410 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17.4" spans="1:6">
-      <c r="A3" s="8">
+    <row r="3" ht="18.75" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="18.75" spans="1:6">
+      <c r="A4" s="10">
         <v>45659</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="17.4" spans="1:6">
-      <c r="A4" s="8">
-        <v>45660</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="17.4" spans="1:6">
-      <c r="A5" s="8">
-        <v>45661</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="18.75" spans="1:6">
+      <c r="A5" s="10">
+        <v>45660</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="17.4" spans="1:6">
-      <c r="A6" s="8">
-        <v>45662</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:6">
+      <c r="A6" s="10">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
-      <c r="A7" s="8">
-        <v>45663</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
+    <row r="7" ht="18.75" spans="1:6">
+      <c r="A7" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
-      <c r="A8" s="8">
-        <v>45664</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
+    <row r="8" ht="18.75" spans="1:6">
+      <c r="A8" s="10">
+        <v>45663</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
-      <c r="A9" s="8">
-        <v>45665</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
+    <row r="9" ht="18.75" spans="1:6">
+      <c r="A9" s="10">
+        <v>45664</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
-      <c r="A10" s="8">
-        <v>45666</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>143</v>
-      </c>
+    <row r="10" ht="18.75" spans="1:6">
+      <c r="A10" s="10">
+        <v>45665</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="17.4" spans="1:6">
-      <c r="A11" s="8">
-        <v>45667</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:6">
+      <c r="A11" s="10">
+        <v>45666</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="17.4" spans="1:6">
-      <c r="A12" s="8">
-        <v>45668</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" ht="18.75" spans="1:6">
+      <c r="A12" s="10">
+        <v>45667</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="17.4" spans="1:6">
-      <c r="A13" s="8">
-        <v>45669</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:6">
+      <c r="A13" s="10">
+        <v>45668</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="17.4" spans="1:6">
-      <c r="A14" s="8">
-        <v>45670</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
+    <row r="14" ht="18.75" spans="1:6">
+      <c r="A14" s="10">
+        <v>45669</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="17.4" spans="1:6">
-      <c r="A15" s="8">
-        <v>45671</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
+    <row r="15" ht="18.75" spans="1:6">
+      <c r="A15" s="10">
+        <v>45670</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="17.4" spans="1:6">
-      <c r="A16" s="8">
-        <v>45672</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
+    <row r="16" ht="18.75" spans="1:6">
+      <c r="A16" s="10">
+        <v>45671</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="17.4" spans="1:6">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="10">
+        <v>45672</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="18.75" spans="1:6">
+      <c r="A18" s="12">
         <v>45673</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" ht="17.4" spans="1:6">
-      <c r="A18" s="8">
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" ht="18.75" spans="1:6">
+      <c r="A19" s="10">
         <v>45674</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" ht="17.4" spans="1:6">
-      <c r="A19" s="8">
-        <v>45675</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="17.4" spans="1:6">
-      <c r="A20" s="8">
-        <v>45676</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:6">
+      <c r="A20" s="10">
+        <v>45675</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" ht="17.4" spans="1:6">
-      <c r="A21" s="8">
-        <v>45677</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>15</v>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:6">
+      <c r="A21" s="10">
+        <v>45676</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
-      <c r="A22" s="8">
-        <v>45678</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>17</v>
+    <row r="22" ht="18.75" spans="1:6">
+      <c r="A22" s="10">
+        <v>45677</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
-      <c r="A23" s="8">
-        <v>45679</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>6</v>
+    <row r="23" ht="18.75" spans="1:6">
+      <c r="A23" s="10">
+        <v>45678</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" ht="17.4" spans="1:6">
-      <c r="A24" s="8">
-        <v>45680</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>8</v>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:6">
+      <c r="A24" s="10">
+        <v>45679</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" ht="17.4" spans="1:6">
-      <c r="A25" s="8">
-        <v>45681</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:6">
+      <c r="A25" s="10">
+        <v>45680</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" ht="17.4" spans="1:6">
-      <c r="A26" s="8">
-        <v>45682</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:6">
+      <c r="A26" s="10">
+        <v>45681</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" ht="17.4" spans="1:6">
-      <c r="A27" s="8">
-        <v>45683</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>14</v>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" ht="18.75" spans="1:6">
+      <c r="A27" s="10">
+        <v>45682</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
-      <c r="A28" s="8">
-        <v>45684</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
+    <row r="28" ht="18.75" spans="1:6">
+      <c r="A28" s="10">
+        <v>45683</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
-      <c r="A29" s="8">
-        <v>45685</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>17</v>
+    <row r="29" ht="18.75" spans="1:6">
+      <c r="A29" s="10">
+        <v>45684</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="17.4" spans="1:6">
-      <c r="A30" s="8">
-        <v>45686</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>6</v>
+    <row r="30" ht="18.75" spans="1:6">
+      <c r="A30" s="10">
+        <v>45685</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
-      <c r="A31" s="8">
-        <v>45687</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>8</v>
+    <row r="31" ht="18.75" spans="1:6">
+      <c r="A31" s="10">
+        <v>45686</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="17.4" spans="1:6">
-      <c r="A32" s="8">
-        <v>45688</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>10</v>
+    <row r="32" ht="18.75" spans="1:6">
+      <c r="A32" s="10">
+        <v>45687</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="17.4" spans="1:6">
-      <c r="A33" s="2">
+    <row r="33" ht="18.75" spans="1:6">
+      <c r="A33" s="10">
+        <v>45688</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" ht="18.75" spans="1:6">
+      <c r="A34" s="15">
         <v>45689</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" ht="17.4" spans="1:6">
-      <c r="A34" s="10">
+      <c r="C34" s="4"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" ht="18.75" spans="1:6">
+      <c r="A35" s="12">
         <v>45690</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" ht="17.4" spans="1:6">
-      <c r="A35" s="8">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" ht="18.75" spans="1:6">
+      <c r="A36" s="10">
         <v>45691</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" ht="17.4" spans="1:6">
-      <c r="A36" s="8">
-        <v>45692</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="17.4" spans="1:6">
-      <c r="A37" s="8">
-        <v>45693</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>6</v>
+    <row r="37" ht="18.75" spans="1:6">
+      <c r="A37" s="10">
+        <v>45692</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="17.4" spans="1:6">
-      <c r="A38" s="8">
-        <v>45694</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
+    <row r="38" ht="18.75" spans="1:6">
+      <c r="A38" s="10">
+        <v>45693</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="17.4" spans="1:6">
-      <c r="A39" s="8">
-        <v>45695</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>10</v>
+    <row r="39" ht="18.75" spans="1:6">
+      <c r="A39" s="10">
+        <v>45694</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="17.4" spans="1:6">
-      <c r="A40" s="8">
-        <v>45696</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>13</v>
+    <row r="40" ht="18.75" spans="1:6">
+      <c r="A40" s="10">
+        <v>45695</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="17.4" spans="1:6">
-      <c r="A41" s="8">
-        <v>45697</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>14</v>
+    <row r="41" ht="18.75" spans="1:6">
+      <c r="A41" s="10">
+        <v>45696</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
-      <c r="A42" s="8">
-        <v>45698</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>15</v>
+    <row r="42" ht="18.75" spans="1:6">
+      <c r="A42" s="10">
+        <v>45697</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
-      <c r="A43" s="8">
-        <v>45699</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>17</v>
+    <row r="43" ht="18.75" spans="1:6">
+      <c r="A43" s="10">
+        <v>45698</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" ht="17.4" spans="1:6">
-      <c r="A44" s="8">
-        <v>45700</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:6">
+      <c r="A44" s="10">
+        <v>45699</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" ht="17.4" spans="1:6">
-      <c r="A45" s="8">
-        <v>45701</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>8</v>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:6">
+      <c r="A45" s="10">
+        <v>45700</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
-      <c r="A46" s="8">
-        <v>45702</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>10</v>
+    <row r="46" ht="18.75" spans="1:6">
+      <c r="A46" s="10">
+        <v>45701</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" ht="17.4" spans="1:6">
-      <c r="A47" s="8">
-        <v>45703</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>13</v>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:6">
+      <c r="A47" s="10">
+        <v>45702</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" ht="17.4" spans="1:6">
-      <c r="A48" s="8">
-        <v>45704</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>14</v>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:6">
+      <c r="A48" s="10">
+        <v>45703</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
-      <c r="A49" s="8">
-        <v>45705</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>15</v>
+    <row r="49" ht="18.75" spans="1:6">
+      <c r="A49" s="10">
+        <v>45704</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
-      <c r="A50" s="8">
-        <v>45706</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>17</v>
+    <row r="50" ht="18.75" spans="1:6">
+      <c r="A50" s="10">
+        <v>45705</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
-      <c r="A51" s="8">
-        <v>45707</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>6</v>
+    <row r="51" ht="18.75" spans="1:6">
+      <c r="A51" s="10">
+        <v>45706</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
-      <c r="A52" s="8">
-        <v>45708</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>8</v>
+    <row r="52" ht="18.75" spans="1:6">
+      <c r="A52" s="10">
+        <v>45707</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
-      <c r="A53" s="8">
-        <v>45709</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>10</v>
+    <row r="53" ht="18.75" spans="1:6">
+      <c r="A53" s="10">
+        <v>45708</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
-      <c r="A54" s="8">
-        <v>45710</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>13</v>
+    <row r="54" ht="18.75" spans="1:6">
+      <c r="A54" s="10">
+        <v>45709</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" ht="17.4" spans="1:6">
-      <c r="A55" s="8">
-        <v>45711</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>14</v>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" ht="18.75" spans="1:6">
+      <c r="A55" s="10">
+        <v>45710</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" ht="17.4" spans="1:6">
-      <c r="A56" s="8">
-        <v>45712</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>15</v>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:6">
+      <c r="A56" s="10">
+        <v>45711</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
-      <c r="A57" s="8">
-        <v>45713</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>145</v>
-      </c>
+    <row r="57" ht="18.75" spans="1:6">
+      <c r="A57" s="10">
+        <v>45712</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="17.4" spans="1:6">
-      <c r="A58" s="8">
-        <v>45714</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="4"/>
+    <row r="58" ht="18.75" spans="1:6">
+      <c r="A58" s="10">
+        <v>45713</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="17.4" spans="1:6">
-      <c r="A59" s="8">
-        <v>45715</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>8</v>
+    <row r="59" ht="18.75" spans="1:6">
+      <c r="A59" s="10">
+        <v>45714</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="17.4" spans="1:6">
-      <c r="A60" s="8">
-        <v>45716</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>10</v>
+    <row r="60" ht="18.75" spans="1:6">
+      <c r="A60" s="10">
+        <v>45715</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="17.4" spans="1:6">
-      <c r="A61" s="12">
-        <v>45717</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>13</v>
+    <row r="61" ht="18.75" spans="1:6">
+      <c r="A61" s="10">
+        <v>45716</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="17.4" spans="1:6">
-      <c r="A62" s="8">
-        <v>45718</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>14</v>
+    <row r="62" ht="18.75" spans="1:6">
+      <c r="A62" s="17">
+        <v>45717</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="17.4" spans="1:6">
-      <c r="A63" s="8">
-        <v>45719</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>15</v>
+    <row r="63" ht="18.75" spans="1:6">
+      <c r="A63" s="10">
+        <v>45718</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" ht="17.4" spans="1:6">
-      <c r="A64" s="8">
-        <v>45720</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>17</v>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" ht="18.75" spans="1:6">
+      <c r="A64" s="10">
+        <v>45719</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" ht="17.4" spans="1:6">
-      <c r="A65" s="8">
-        <v>45721</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>6</v>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" ht="18.75" spans="1:6">
+      <c r="A65" s="10">
+        <v>45720</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="17.4" spans="1:6">
-      <c r="A66" s="8">
-        <v>45722</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>8</v>
+    <row r="66" ht="18.75" spans="1:6">
+      <c r="A66" s="10">
+        <v>45721</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" ht="17.4" spans="1:6">
-      <c r="A67" s="8">
-        <v>45723</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>10</v>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" ht="18.75" spans="1:6">
+      <c r="A67" s="10">
+        <v>45722</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" ht="17.4" spans="1:6">
-      <c r="A68" s="8">
-        <v>45724</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>13</v>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" ht="18.75" spans="1:6">
+      <c r="A68" s="10">
+        <v>45723</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
-      <c r="A69" s="8">
-        <v>45725</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>14</v>
+    <row r="69" ht="18.75" spans="1:6">
+      <c r="A69" s="10">
+        <v>45724</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
-      <c r="A70" s="8">
-        <v>45726</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>15</v>
+    <row r="70" ht="18.75" spans="1:6">
+      <c r="A70" s="10">
+        <v>45725</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" ht="17.4" spans="1:6">
-      <c r="A71" s="8">
-        <v>45727</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>17</v>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:6">
+      <c r="A71" s="10">
+        <v>45726</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" ht="17.4" spans="1:6">
-      <c r="A72" s="8">
-        <v>45728</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>6</v>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" ht="18.75" spans="1:6">
+      <c r="A72" s="10">
+        <v>45727</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
-      <c r="A73" s="8">
-        <v>45729</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>8</v>
+    <row r="73" ht="18.75" spans="1:6">
+      <c r="A73" s="10">
+        <v>45728</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" ht="17.4" spans="1:6">
-      <c r="A74" s="8">
-        <v>45730</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>10</v>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" ht="18.75" spans="1:6">
+      <c r="A74" s="10">
+        <v>45729</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" ht="17.4" spans="1:6">
-      <c r="A75" s="8">
-        <v>45731</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>13</v>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:6">
+      <c r="A75" s="10">
+        <v>45730</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" ht="17.4" spans="1:6">
-      <c r="A76" s="8">
-        <v>45732</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>14</v>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" ht="18.75" spans="1:6">
+      <c r="A76" s="10">
+        <v>45731</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
-      <c r="A77" s="8">
-        <v>45733</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>15</v>
+    <row r="77" ht="18.75" spans="1:6">
+      <c r="A77" s="10">
+        <v>45732</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
-      <c r="A78" s="8">
-        <v>45734</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>17</v>
+    <row r="78" ht="18.75" spans="1:6">
+      <c r="A78" s="10">
+        <v>45733</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
-      <c r="A79" s="8">
-        <v>45735</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>6</v>
+    <row r="79" ht="18.75" spans="1:6">
+      <c r="A79" s="10">
+        <v>45734</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
-      <c r="A80" s="8">
-        <v>45736</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>8</v>
+    <row r="80" ht="18.75" spans="1:6">
+      <c r="A80" s="10">
+        <v>45735</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
-      <c r="A81" s="8">
-        <v>45737</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>10</v>
+    <row r="81" ht="18.75" spans="1:6">
+      <c r="A81" s="10">
+        <v>45736</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" ht="17.4" spans="1:6">
-      <c r="A82" s="8">
-        <v>45738</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>13</v>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" ht="18.75" spans="1:6">
+      <c r="A82" s="10">
+        <v>45737</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" ht="17.4" spans="1:6">
-      <c r="A83" s="8">
-        <v>45739</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>14</v>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" ht="18.75" spans="1:6">
+      <c r="A83" s="10">
+        <v>45738</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
-      <c r="A84" s="8">
-        <v>45740</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>15</v>
+    <row r="84" ht="18.75" spans="1:6">
+      <c r="A84" s="10">
+        <v>45739</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="17.4" spans="1:6">
-      <c r="A85" s="8">
-        <v>45741</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>17</v>
+    <row r="85" ht="18.75" spans="1:6">
+      <c r="A85" s="10">
+        <v>45740</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="17.4" spans="1:6">
-      <c r="A86" s="8">
-        <v>45742</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>6</v>
+    <row r="86" ht="18.75" spans="1:6">
+      <c r="A86" s="10">
+        <v>45741</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" ht="17.4" spans="1:6">
-      <c r="A87" s="8">
-        <v>45743</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>8</v>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" ht="18.75" spans="1:6">
+      <c r="A87" s="10">
+        <v>45742</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" ht="17.4" spans="1:6">
-      <c r="A88" s="8">
-        <v>45744</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>10</v>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" ht="18.75" spans="1:6">
+      <c r="A88" s="10">
+        <v>45743</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="17.4" spans="1:6">
-      <c r="A89" s="8">
-        <v>45745</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>13</v>
+    <row r="89" ht="18.75" spans="1:6">
+      <c r="A89" s="10">
+        <v>45744</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="17.4" spans="1:6">
-      <c r="A90" s="8">
-        <v>45746</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>14</v>
+    <row r="90" ht="18.75" spans="1:6">
+      <c r="A90" s="10">
+        <v>45745</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" ht="17.4" spans="1:6">
-      <c r="A91" s="8">
-        <v>45747</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>15</v>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" ht="18.75" spans="1:6">
+      <c r="A91" s="10">
+        <v>45746</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" ht="17.4" spans="1:6">
-      <c r="A92" s="12">
-        <v>45748</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>17</v>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" ht="18.75" spans="1:6">
+      <c r="A92" s="10">
+        <v>45747</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
-      <c r="A93" s="8">
-        <v>45749</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>6</v>
+    <row r="93" ht="18.75" spans="1:6">
+      <c r="A93" s="17">
+        <v>45748</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="17.4" spans="1:6">
-      <c r="A94" s="8">
-        <v>45750</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>8</v>
+    <row r="94" ht="18.75" spans="1:6">
+      <c r="A94" s="10">
+        <v>45749</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="17.4" spans="1:6">
-      <c r="A95" s="8">
-        <v>45751</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>10</v>
+    <row r="95" ht="18.75" spans="1:6">
+      <c r="A95" s="10">
+        <v>45750</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" ht="17.4" spans="1:6">
-      <c r="A96" s="8">
-        <v>45752</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>13</v>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" ht="18.75" spans="1:6">
+      <c r="A96" s="10">
+        <v>45751</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" ht="17.4" spans="1:6">
-      <c r="A97" s="8">
-        <v>45753</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>14</v>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" ht="18.75" spans="1:6">
+      <c r="A97" s="10">
+        <v>45752</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
-      <c r="A98" s="8">
-        <v>45754</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>15</v>
+    <row r="98" ht="18.75" spans="1:6">
+      <c r="A98" s="10">
+        <v>45753</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="11"/>
-    </row>
-    <row r="99" ht="17.4" spans="1:6">
-      <c r="A99" s="8">
-        <v>45755</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>17</v>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" ht="18.75" spans="1:6">
+      <c r="A99" s="10">
+        <v>45754</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" ht="17.4" spans="1:6">
-      <c r="A100" s="8">
-        <v>45756</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>6</v>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" ht="18.75" spans="1:6">
+      <c r="A100" s="10">
+        <v>45755</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
-      <c r="A101" s="8">
-        <v>45757</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>8</v>
+    <row r="101" ht="18.75" spans="1:6">
+      <c r="A101" s="10">
+        <v>45756</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" ht="17.4" spans="1:6">
-      <c r="A102" s="8">
-        <v>45758</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>10</v>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" ht="18.75" spans="1:6">
+      <c r="A102" s="10">
+        <v>45757</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" ht="17.4" spans="1:6">
-      <c r="A103" s="8">
-        <v>45759</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>13</v>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" ht="18.75" spans="1:6">
+      <c r="A103" s="10">
+        <v>45758</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" ht="17.4" spans="1:6">
-      <c r="A104" s="8">
-        <v>45760</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>14</v>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" ht="18.75" spans="1:6">
+      <c r="A104" s="10">
+        <v>45759</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="17.4" spans="1:6">
-      <c r="A105" s="8">
-        <v>45761</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>15</v>
+    <row r="105" ht="18.75" spans="1:6">
+      <c r="A105" s="10">
+        <v>45760</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
-      <c r="A106" s="8">
-        <v>45762</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>17</v>
+    <row r="106" ht="18.75" spans="1:6">
+      <c r="A106" s="10">
+        <v>45761</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="17.4" spans="1:6">
-      <c r="A107" s="8">
-        <v>45763</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>6</v>
+    <row r="107" ht="18.75" spans="1:6">
+      <c r="A107" s="10">
+        <v>45762</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
-      <c r="A108" s="8">
-        <v>45764</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>8</v>
+    <row r="108" ht="18.75" spans="1:6">
+      <c r="A108" s="10">
+        <v>45763</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" ht="17.4" spans="1:6">
-      <c r="A109" s="8">
-        <v>45765</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>10</v>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" ht="18.75" spans="1:6">
+      <c r="A109" s="10">
+        <v>45764</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" ht="17.4" spans="1:6">
-      <c r="A110" s="8">
-        <v>45766</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>13</v>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" ht="18.75" spans="1:6">
+      <c r="A110" s="10">
+        <v>45765</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="17.4" spans="1:6">
-      <c r="A111" s="8">
-        <v>45767</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>14</v>
+    <row r="111" ht="18.75" spans="1:6">
+      <c r="A111" s="10">
+        <v>45766</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" ht="17.4" spans="1:6">
-      <c r="A112" s="8">
-        <v>45768</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>15</v>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" ht="18.75" spans="1:6">
+      <c r="A112" s="10">
+        <v>45767</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" ht="17.4" spans="1:6">
-      <c r="A113" s="8">
-        <v>45769</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>17</v>
+      <c r="F112" s="16"/>
+    </row>
+    <row r="113" ht="18.75" spans="1:6">
+      <c r="A113" s="10">
+        <v>45768</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" ht="17.4" spans="1:6">
-      <c r="A114" s="8">
-        <v>45770</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>6</v>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" ht="18.75" spans="1:6">
+      <c r="A114" s="10">
+        <v>45769</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" ht="17.4" spans="1:6">
-      <c r="A115" s="8">
-        <v>45771</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>8</v>
+      <c r="F114" s="16"/>
+    </row>
+    <row r="115" ht="18.75" spans="1:6">
+      <c r="A115" s="10">
+        <v>45770</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
-      <c r="A116" s="8">
-        <v>45772</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>10</v>
+    <row r="116" ht="18.75" spans="1:6">
+      <c r="A116" s="10">
+        <v>45771</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" ht="17.4" spans="1:6">
-      <c r="A117" s="8">
-        <v>45773</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>13</v>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" ht="18.75" spans="1:6">
+      <c r="A117" s="10">
+        <v>45772</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" ht="17.4" spans="1:6">
-      <c r="A118" s="8">
-        <v>45774</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>14</v>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="118" ht="18.75" spans="1:6">
+      <c r="A118" s="10">
+        <v>45773</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="17.4" spans="1:6">
-      <c r="A119" s="8">
-        <v>45775</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>15</v>
+    <row r="119" ht="18.75" spans="1:6">
+      <c r="A119" s="10">
+        <v>45774</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="17.4" spans="1:6">
-      <c r="A120" s="8">
-        <v>45776</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>17</v>
+    <row r="120" ht="18.75" spans="1:6">
+      <c r="A120" s="10">
+        <v>45775</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18.75" spans="1:6">
       <c r="A121" s="10">
+        <v>45776</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" ht="18.75" spans="1:6">
+      <c r="A122" s="12">
         <v>45777</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="11"/>
-    </row>
-    <row r="122" ht="17.4" spans="1:6">
-      <c r="A122" s="12">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="16"/>
+    </row>
+    <row r="123" ht="18.75" spans="1:6">
+      <c r="A123" s="17">
         <v>45778</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B123" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" ht="17.4" spans="1:6">
-      <c r="A123" s="8">
-        <v>45779</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
-      <c r="A124" s="8">
-        <v>45780</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>13</v>
+    <row r="124" ht="18.75" spans="1:6">
+      <c r="A124" s="10">
+        <v>45779</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" ht="17.4" spans="1:6">
-      <c r="A125" s="8">
-        <v>45781</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>14</v>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" ht="18.75" spans="1:6">
+      <c r="A125" s="10">
+        <v>45780</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-    </row>
-    <row r="126" ht="17.4" spans="1:6">
-      <c r="A126" s="8">
-        <v>45782</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>15</v>
+      <c r="F125" s="16"/>
+    </row>
+    <row r="126" ht="18.75" spans="1:6">
+      <c r="A126" s="10">
+        <v>45781</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="17.4" spans="1:6">
-      <c r="A127" s="8">
-        <v>45783</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>17</v>
+    <row r="127" ht="18.75" spans="1:6">
+      <c r="A127" s="10">
+        <v>45782</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="17.4" spans="1:6">
-      <c r="A128" s="8">
-        <v>45784</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>6</v>
+    <row r="128" ht="18.75" spans="1:6">
+      <c r="A128" s="10">
+        <v>45783</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="17.4" spans="1:6">
-      <c r="A129" s="8">
-        <v>45785</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>8</v>
+    <row r="129" ht="18.75" spans="1:6">
+      <c r="A129" s="10">
+        <v>45784</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" ht="17.4" spans="1:6">
-      <c r="A130" s="8">
-        <v>45786</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>10</v>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" ht="18.75" spans="1:6">
+      <c r="A130" s="10">
+        <v>45785</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-    </row>
-    <row r="131" ht="17.4" spans="1:6">
-      <c r="A131" s="8">
-        <v>45787</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>13</v>
+      <c r="F130" s="16"/>
+    </row>
+    <row r="131" ht="18.75" spans="1:6">
+      <c r="A131" s="10">
+        <v>45786</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
-      <c r="A132" s="8">
-        <v>45788</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>14</v>
+    <row r="132" ht="18.75" spans="1:6">
+      <c r="A132" s="10">
+        <v>45787</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
-      <c r="A133" s="8">
-        <v>45789</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>15</v>
+    <row r="133" ht="18.75" spans="1:6">
+      <c r="A133" s="10">
+        <v>45788</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
-      <c r="A134" s="8">
-        <v>45790</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>17</v>
+    <row r="134" ht="18.75" spans="1:6">
+      <c r="A134" s="10">
+        <v>45789</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
-      <c r="A135" s="8">
-        <v>45791</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>6</v>
+    <row r="135" ht="18.75" spans="1:6">
+      <c r="A135" s="10">
+        <v>45790</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
-      <c r="A136" s="8">
-        <v>45792</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>8</v>
+    <row r="136" ht="18.75" spans="1:6">
+      <c r="A136" s="10">
+        <v>45791</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
-      <c r="A137" s="8">
-        <v>45793</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>10</v>
+    <row r="137" ht="18.75" spans="1:6">
+      <c r="A137" s="10">
+        <v>45792</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
-      <c r="A138" s="8">
-        <v>45794</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>13</v>
+    <row r="138" ht="18.75" spans="1:6">
+      <c r="A138" s="10">
+        <v>45793</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
-      <c r="A139" s="8">
-        <v>45795</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>14</v>
+    <row r="139" ht="18.75" spans="1:6">
+      <c r="A139" s="10">
+        <v>45794</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="11"/>
-    </row>
-    <row r="140" ht="17.4" spans="1:6">
-      <c r="A140" s="8">
-        <v>45796</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>15</v>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" ht="18.75" spans="1:6">
+      <c r="A140" s="10">
+        <v>45795</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" ht="17.4" spans="1:6">
-      <c r="A141" s="8">
-        <v>45797</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>17</v>
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" ht="18.75" spans="1:6">
+      <c r="A141" s="10">
+        <v>45796</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
-      <c r="A142" s="8">
-        <v>45798</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>6</v>
+    <row r="142" ht="18.75" spans="1:6">
+      <c r="A142" s="10">
+        <v>45797</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" ht="17.4" spans="1:6">
-      <c r="A143" s="8">
-        <v>45799</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>8</v>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" ht="18.75" spans="1:6">
+      <c r="A143" s="10">
+        <v>45798</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" ht="17.4" spans="1:6">
-      <c r="A144" s="8">
-        <v>45800</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>10</v>
+      <c r="F143" s="16"/>
+    </row>
+    <row r="144" ht="18.75" spans="1:6">
+      <c r="A144" s="10">
+        <v>45799</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
-      <c r="A145" s="8">
-        <v>45801</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>13</v>
+    <row r="145" ht="18.75" spans="1:6">
+      <c r="A145" s="10">
+        <v>45800</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="17.4" spans="1:6">
-      <c r="A146" s="8">
-        <v>45802</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>14</v>
+    <row r="146" ht="18.75" spans="1:6">
+      <c r="A146" s="10">
+        <v>45801</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="17.4" spans="1:6">
-      <c r="A147" s="8">
-        <v>45803</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>15</v>
+    <row r="147" ht="18.75" spans="1:6">
+      <c r="A147" s="10">
+        <v>45802</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="17.4" spans="1:6">
+    <row r="148" ht="18.75" spans="1:6">
       <c r="A148" s="10">
+        <v>45803</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" ht="18.75" spans="1:6">
+      <c r="A149" s="12">
         <v>45804</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B149" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="11"/>
-    </row>
-    <row r="149" ht="17.4" spans="1:6">
-      <c r="A149" s="8">
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="16"/>
+    </row>
+    <row r="150" ht="18.75" spans="1:6">
+      <c r="A150" s="10">
         <v>45805</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B150" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-    </row>
-    <row r="150" ht="17.4" spans="1:6">
-      <c r="A150" s="8">
-        <v>45806</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="17.4" spans="1:6">
-      <c r="A151" s="8">
-        <v>45807</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>10</v>
+    <row r="151" ht="18.75" spans="1:6">
+      <c r="A151" s="10">
+        <v>45806</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="17.4" spans="1:6">
-      <c r="A152" s="8">
-        <v>45808</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>13</v>
+    <row r="152" ht="18.75" spans="1:6">
+      <c r="A152" s="10">
+        <v>45807</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="11"/>
-    </row>
-    <row r="153" ht="17.4" spans="1:6">
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" ht="18.75" spans="1:6">
       <c r="A153" s="10">
+        <v>45808</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="16"/>
+    </row>
+    <row r="154" ht="18.75" spans="1:6">
+      <c r="A154" s="12">
         <v>45809</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B154" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="11"/>
-    </row>
-    <row r="154" ht="17.4" spans="1:6">
-      <c r="A154" s="8">
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="16"/>
+    </row>
+    <row r="155" ht="18.75" spans="1:6">
+      <c r="A155" s="10">
         <v>45810</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B155" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-    </row>
-    <row r="155" ht="17.4" spans="1:6">
-      <c r="A155" s="8">
-        <v>45811</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="17.4" spans="1:6">
-      <c r="A156" s="8">
-        <v>45812</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>6</v>
+    <row r="156" ht="18.75" spans="1:6">
+      <c r="A156" s="10">
+        <v>45811</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
-      <c r="A157" s="8">
-        <v>45813</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>8</v>
+    <row r="157" ht="18.75" spans="1:6">
+      <c r="A157" s="10">
+        <v>45812</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
-      <c r="A158" s="8">
-        <v>45814</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>10</v>
+    <row r="158" ht="18.75" spans="1:6">
+      <c r="A158" s="10">
+        <v>45813</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="17.4" spans="1:6">
-      <c r="A159" s="8">
-        <v>45815</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>13</v>
+    <row r="159" ht="18.75" spans="1:6">
+      <c r="A159" s="10">
+        <v>45814</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="17.4" spans="1:6">
-      <c r="A160" s="8">
-        <v>45816</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>14</v>
+    <row r="160" ht="18.75" spans="1:6">
+      <c r="A160" s="10">
+        <v>45815</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
-      <c r="A161" s="8">
-        <v>45817</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>15</v>
+    <row r="161" ht="18.75" spans="1:6">
+      <c r="A161" s="10">
+        <v>45816</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="11"/>
-    </row>
-    <row r="162" ht="17.4" spans="1:6">
-      <c r="A162" s="8">
-        <v>45818</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>17</v>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" ht="18.75" spans="1:6">
+      <c r="A162" s="10">
+        <v>45817</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" ht="17.4" spans="1:6">
-      <c r="A163" s="8">
-        <v>45819</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>6</v>
+      <c r="F162" s="16"/>
+    </row>
+    <row r="163" ht="18.75" spans="1:6">
+      <c r="A163" s="10">
+        <v>45818</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="17.4" spans="1:6">
-      <c r="A164" s="8">
-        <v>45820</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>8</v>
+    <row r="164" ht="18.75" spans="1:6">
+      <c r="A164" s="10">
+        <v>45819</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="17.4" spans="1:6">
-      <c r="A165" s="8">
-        <v>45821</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>10</v>
+    <row r="165" ht="18.75" spans="1:6">
+      <c r="A165" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="17.4" spans="1:6">
-      <c r="A166" s="8">
-        <v>45822</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>13</v>
+    <row r="166" ht="18.75" spans="1:6">
+      <c r="A166" s="10">
+        <v>45821</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="17.4" spans="1:6">
-      <c r="A167" s="8">
-        <v>45823</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>14</v>
+    <row r="167" ht="18.75" spans="1:6">
+      <c r="A167" s="10">
+        <v>45822</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="17.4" spans="1:6">
-      <c r="A168" s="8">
-        <v>45824</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>15</v>
+    <row r="168" ht="18.75" spans="1:6">
+      <c r="A168" s="10">
+        <v>45823</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="11"/>
-    </row>
-    <row r="169" ht="17.4" spans="1:6">
-      <c r="A169" s="8">
-        <v>45825</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>17</v>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" ht="18.75" spans="1:6">
+      <c r="A169" s="10">
+        <v>45824</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" ht="17.4" spans="1:6">
-      <c r="A170" s="8">
-        <v>45826</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>6</v>
+      <c r="F169" s="16"/>
+    </row>
+    <row r="170" ht="18.75" spans="1:6">
+      <c r="A170" s="10">
+        <v>45825</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="17.4" spans="1:6">
-      <c r="A171" s="8">
-        <v>45827</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>8</v>
+    <row r="171" ht="18.75" spans="1:6">
+      <c r="A171" s="10">
+        <v>45826</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="17.4" spans="1:6">
-      <c r="A172" s="8">
-        <v>45828</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>10</v>
+    <row r="172" ht="18.75" spans="1:6">
+      <c r="A172" s="10">
+        <v>45827</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="17.4" spans="1:6">
-      <c r="A173" s="8">
-        <v>45829</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>13</v>
+    <row r="173" ht="18.75" spans="1:6">
+      <c r="A173" s="10">
+        <v>45828</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="11"/>
-    </row>
-    <row r="174" ht="17.4" spans="1:6">
-      <c r="A174" s="8">
-        <v>45830</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>14</v>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" ht="18.75" spans="1:6">
+      <c r="A174" s="10">
+        <v>45829</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-    </row>
-    <row r="175" ht="17.4" spans="1:6">
-      <c r="A175" s="8">
-        <v>45831</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>15</v>
+      <c r="F174" s="16"/>
+    </row>
+    <row r="175" ht="18.75" spans="1:6">
+      <c r="A175" s="10">
+        <v>45830</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="11"/>
-    </row>
-    <row r="176" ht="17.4" spans="1:6">
-      <c r="A176" s="8">
-        <v>45832</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>17</v>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" ht="18.75" spans="1:6">
+      <c r="A176" s="10">
+        <v>45831</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-    </row>
-    <row r="177" ht="17.4" spans="1:6">
-      <c r="A177" s="8">
-        <v>45833</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>6</v>
+      <c r="F176" s="16"/>
+    </row>
+    <row r="177" ht="18.75" spans="1:6">
+      <c r="A177" s="10">
+        <v>45832</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="17.4" spans="1:6">
-      <c r="A178" s="8">
-        <v>45834</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>8</v>
+    <row r="178" ht="18.75" spans="1:6">
+      <c r="A178" s="10">
+        <v>45833</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
-      <c r="F178" s="11"/>
-    </row>
-    <row r="179" ht="17.4" spans="1:6">
-      <c r="A179" s="8">
-        <v>45835</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>10</v>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" ht="18.75" spans="1:6">
+      <c r="A179" s="10">
+        <v>45834</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="11"/>
-    </row>
-    <row r="180" ht="17.4" spans="1:6">
-      <c r="A180" s="8">
-        <v>45836</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>13</v>
+      <c r="F179" s="16"/>
+    </row>
+    <row r="180" ht="18.75" spans="1:6">
+      <c r="A180" s="10">
+        <v>45835</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-    </row>
-    <row r="181" ht="17.4" spans="1:6">
-      <c r="A181" s="8">
-        <v>45837</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>14</v>
+      <c r="F180" s="16"/>
+    </row>
+    <row r="181" ht="18.75" spans="1:6">
+      <c r="A181" s="10">
+        <v>45836</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="17.4" spans="1:6">
-      <c r="A182" s="8">
-        <v>45838</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>15</v>
+    <row r="182" ht="18.75" spans="1:6">
+      <c r="A182" s="10">
+        <v>45837</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="17.4" spans="1:6">
-      <c r="A183" s="8">
-        <v>45839</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>17</v>
+    <row r="183" ht="18.75" spans="1:6">
+      <c r="A183" s="10">
+        <v>45838</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="17.4" spans="1:6">
-      <c r="A184" s="8">
-        <v>45840</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>6</v>
+    <row r="184" ht="18.75" spans="1:6">
+      <c r="A184" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="17.4" spans="1:6">
-      <c r="A185" s="8">
-        <v>45841</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>8</v>
+    <row r="185" ht="18.75" spans="1:6">
+      <c r="A185" s="10">
+        <v>45840</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="17.4" spans="1:6">
-      <c r="A186" s="8">
-        <v>45842</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>10</v>
+    <row r="186" ht="18.75" spans="1:6">
+      <c r="A186" s="10">
+        <v>45841</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="17.4" spans="1:6">
-      <c r="A187" s="8">
-        <v>45843</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>13</v>
+    <row r="187" ht="18.75" spans="1:6">
+      <c r="A187" s="10">
+        <v>45842</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="11"/>
-    </row>
-    <row r="188" ht="17.4" spans="1:6">
-      <c r="A188" s="8">
-        <v>45844</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>14</v>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" ht="18.75" spans="1:6">
+      <c r="A188" s="10">
+        <v>45843</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-    </row>
-    <row r="189" ht="17.4" spans="1:6">
-      <c r="A189" s="8">
-        <v>45845</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>15</v>
+      <c r="F188" s="16"/>
+    </row>
+    <row r="189" ht="18.75" spans="1:6">
+      <c r="A189" s="10">
+        <v>45844</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="17.4" spans="1:6">
-      <c r="A190" s="8">
-        <v>45846</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>17</v>
+    <row r="190" ht="18.75" spans="1:6">
+      <c r="A190" s="10">
+        <v>45845</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="17.4" spans="1:6">
-      <c r="A191" s="8">
-        <v>45847</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>6</v>
+    <row r="191" ht="18.75" spans="1:6">
+      <c r="A191" s="10">
+        <v>45846</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="11"/>
-    </row>
-    <row r="192" ht="17.4" spans="1:6">
-      <c r="A192" s="8">
-        <v>45848</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>8</v>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" ht="18.75" spans="1:6">
+      <c r="A192" s="10">
+        <v>45847</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-    </row>
-    <row r="193" ht="17.4" spans="1:6">
-      <c r="A193" s="8">
-        <v>45849</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>10</v>
+      <c r="F192" s="16"/>
+    </row>
+    <row r="193" ht="18.75" spans="1:6">
+      <c r="A193" s="10">
+        <v>45848</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="17.4" spans="1:6">
-      <c r="A194" s="8">
-        <v>45850</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>13</v>
+    <row r="194" ht="18.75" spans="1:6">
+      <c r="A194" s="10">
+        <v>45849</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="17.4" spans="1:6">
-      <c r="A195" s="8">
-        <v>45851</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>14</v>
+    <row r="195" ht="18.75" spans="1:6">
+      <c r="A195" s="10">
+        <v>45850</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="17.4" spans="1:6">
-      <c r="A196" s="8">
-        <v>45852</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>15</v>
+    <row r="196" ht="18.75" spans="1:6">
+      <c r="A196" s="10">
+        <v>45851</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="11"/>
-    </row>
-    <row r="197" ht="17.4" spans="1:6">
-      <c r="A197" s="8">
-        <v>45853</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>17</v>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" ht="18.75" spans="1:6">
+      <c r="A197" s="10">
+        <v>45852</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="11"/>
-    </row>
-    <row r="198" ht="17.4" spans="1:6">
-      <c r="A198" s="8">
-        <v>45854</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>6</v>
+      <c r="F197" s="16"/>
+    </row>
+    <row r="198" ht="18.75" spans="1:6">
+      <c r="A198" s="10">
+        <v>45853</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-    </row>
-    <row r="199" ht="17.4" spans="1:6">
-      <c r="A199" s="8">
-        <v>45855</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>8</v>
+      <c r="F198" s="16"/>
+    </row>
+    <row r="199" ht="18.75" spans="1:6">
+      <c r="A199" s="10">
+        <v>45854</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="17.4" spans="1:6">
-      <c r="A200" s="8">
-        <v>45856</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>10</v>
+    <row r="200" ht="18.75" spans="1:6">
+      <c r="A200" s="10">
+        <v>45855</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="17.4" spans="1:6">
-      <c r="A201" s="8">
-        <v>45857</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>13</v>
+    <row r="201" ht="18.75" spans="1:6">
+      <c r="A201" s="10">
+        <v>45856</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="17.4" spans="1:6">
-      <c r="A202" s="8">
-        <v>45858</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>14</v>
+    <row r="202" ht="18.75" spans="1:6">
+      <c r="A202" s="10">
+        <v>45857</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="11"/>
-    </row>
-    <row r="203" ht="17.4" spans="1:6">
-      <c r="A203" s="8">
-        <v>45859</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>15</v>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" ht="18.75" spans="1:6">
+      <c r="A203" s="10">
+        <v>45858</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204" ht="17.4" spans="1:6">
-      <c r="A204" s="8">
-        <v>45860</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>17</v>
+      <c r="F203" s="16"/>
+    </row>
+    <row r="204" ht="18.75" spans="1:6">
+      <c r="A204" s="10">
+        <v>45859</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="17.4" spans="1:6">
-      <c r="A205" s="8">
-        <v>45861</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>6</v>
+    <row r="205" ht="18.75" spans="1:6">
+      <c r="A205" s="10">
+        <v>45860</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="17.4" spans="1:6">
-      <c r="A206" s="8">
-        <v>45862</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>8</v>
+    <row r="206" ht="18.75" spans="1:6">
+      <c r="A206" s="10">
+        <v>45861</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="11"/>
-    </row>
-    <row r="207" ht="17.4" spans="1:6">
-      <c r="A207" s="8">
-        <v>45863</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>10</v>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" ht="18.75" spans="1:6">
+      <c r="A207" s="10">
+        <v>45862</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-    </row>
-    <row r="208" ht="17.4" spans="1:6">
-      <c r="A208" s="8">
-        <v>45864</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>13</v>
+      <c r="F207" s="16"/>
+    </row>
+    <row r="208" ht="18.75" spans="1:6">
+      <c r="A208" s="10">
+        <v>45863</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="17.4" spans="1:6">
+    <row r="209" ht="18.75" spans="1:6">
       <c r="A209" s="10">
+        <v>45864</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" ht="18.75" spans="1:6">
+      <c r="A210" s="12">
         <v>45865</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B210" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="11"/>
-    </row>
-    <row r="210" ht="17.4" spans="1:6">
-      <c r="A210" s="8">
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="16"/>
+    </row>
+    <row r="211" ht="18.75" spans="1:6">
+      <c r="A211" s="10">
         <v>45866</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B211" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="11"/>
-    </row>
-    <row r="211" ht="17.4" spans="1:6">
-      <c r="A211" s="8">
-        <v>45867</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-    </row>
-    <row r="212" ht="17.4" spans="1:6">
-      <c r="A212" s="8">
-        <v>45868</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>6</v>
+      <c r="F211" s="16"/>
+    </row>
+    <row r="212" ht="18.75" spans="1:6">
+      <c r="A212" s="10">
+        <v>45867</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="17.4" spans="1:6">
-      <c r="A213" s="8">
-        <v>45869</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>8</v>
+    <row r="213" ht="18.75" spans="1:6">
+      <c r="A213" s="10">
+        <v>45868</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="17.4" spans="1:6">
-      <c r="A214" s="8">
-        <v>45870</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>10</v>
+    <row r="214" ht="18.75" spans="1:6">
+      <c r="A214" s="10">
+        <v>45869</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="17.4" spans="1:6">
-      <c r="A215" s="8">
-        <v>45871</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>13</v>
+    <row r="215" ht="18.75" spans="1:6">
+      <c r="A215" s="10">
+        <v>45870</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="17.4" spans="1:6">
-      <c r="A216" s="8">
-        <v>45872</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>14</v>
+    <row r="216" ht="18.75" spans="1:6">
+      <c r="A216" s="10">
+        <v>45871</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="11"/>
-    </row>
-    <row r="217" ht="17.4" spans="1:6">
-      <c r="A217" s="8">
-        <v>45873</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>15</v>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" ht="18.75" spans="1:6">
+      <c r="A217" s="10">
+        <v>45872</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" ht="17.4" spans="1:6">
-      <c r="A218" s="8">
-        <v>45874</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>17</v>
+      <c r="F217" s="16"/>
+    </row>
+    <row r="218" ht="18.75" spans="1:6">
+      <c r="A218" s="10">
+        <v>45873</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="17.4" spans="1:6">
-      <c r="A219" s="8">
-        <v>45875</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>6</v>
+    <row r="219" ht="18.75" spans="1:6">
+      <c r="A219" s="10">
+        <v>45874</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="17.4" spans="1:6">
-      <c r="A220" s="8">
-        <v>45876</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>8</v>
+    <row r="220" ht="18.75" spans="1:6">
+      <c r="A220" s="10">
+        <v>45875</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="17.4" spans="1:6">
-      <c r="A221" s="8">
-        <v>45877</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>10</v>
+    <row r="221" ht="18.75" spans="1:6">
+      <c r="A221" s="10">
+        <v>45876</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="17.4" spans="1:6">
-      <c r="A222" s="8">
-        <v>45878</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>13</v>
+    <row r="222" ht="18.75" spans="1:6">
+      <c r="A222" s="10">
+        <v>45877</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="17.4" spans="1:6">
+    <row r="223" ht="18.75" spans="1:6">
       <c r="A223" s="10">
+        <v>45878</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" ht="18.75" spans="1:6">
+      <c r="A224" s="12">
         <v>45879</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B224" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="11"/>
-    </row>
-    <row r="224" ht="17.4" spans="1:6">
-      <c r="A224" s="8">
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="16"/>
+    </row>
+    <row r="225" ht="18.75" spans="1:6">
+      <c r="A225" s="10">
         <v>45880</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B225" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="11"/>
-    </row>
-    <row r="225" ht="17.4" spans="1:6">
-      <c r="A225" s="8">
-        <v>45881</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-    </row>
-    <row r="226" ht="17.4" spans="1:6">
-      <c r="A226" s="8">
-        <v>45882</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>6</v>
+      <c r="F225" s="16"/>
+    </row>
+    <row r="226" ht="18.75" spans="1:6">
+      <c r="A226" s="10">
+        <v>45881</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="17.4" spans="1:6">
-      <c r="A227" s="8">
-        <v>45883</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>8</v>
+    <row r="227" ht="18.75" spans="1:6">
+      <c r="A227" s="10">
+        <v>45882</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="17.4" spans="1:6">
-      <c r="A228" s="8">
-        <v>45884</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>10</v>
+    <row r="228" ht="18.75" spans="1:6">
+      <c r="A228" s="10">
+        <v>45883</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="17.4" spans="1:6">
-      <c r="A229" s="8">
-        <v>45885</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>13</v>
+    <row r="229" ht="18.75" spans="1:6">
+      <c r="A229" s="10">
+        <v>45884</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
-      <c r="F229" s="11"/>
-    </row>
-    <row r="230" ht="17.4" spans="1:6">
-      <c r="A230" s="8">
-        <v>45886</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>14</v>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" ht="18.75" spans="1:6">
+      <c r="A230" s="10">
+        <v>45885</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="11"/>
-    </row>
-    <row r="231" ht="17.4" spans="1:6">
-      <c r="A231" s="8">
-        <v>45887</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>15</v>
+      <c r="F230" s="16"/>
+    </row>
+    <row r="231" ht="18.75" spans="1:6">
+      <c r="A231" s="10">
+        <v>45886</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-    </row>
-    <row r="232" ht="17.4" spans="1:6">
-      <c r="A232" s="8">
-        <v>45888</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>17</v>
+      <c r="F231" s="16"/>
+    </row>
+    <row r="232" ht="18.75" spans="1:6">
+      <c r="A232" s="10">
+        <v>45887</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="17.4" spans="1:6">
-      <c r="A233" s="8">
-        <v>45889</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>6</v>
+    <row r="233" ht="18.75" spans="1:6">
+      <c r="A233" s="10">
+        <v>45888</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="11"/>
-    </row>
-    <row r="234" ht="17.4" spans="1:6">
-      <c r="A234" s="8">
-        <v>45890</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>8</v>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" ht="18.75" spans="1:6">
+      <c r="A234" s="10">
+        <v>45889</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="4"/>
-    </row>
-    <row r="235" ht="17.4" spans="1:6">
-      <c r="A235" s="8">
-        <v>45891</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>10</v>
+      <c r="F234" s="16"/>
+    </row>
+    <row r="235" ht="18.75" spans="1:6">
+      <c r="A235" s="10">
+        <v>45890</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
-      <c r="F235" s="11"/>
-    </row>
-    <row r="236" ht="17.4" spans="1:6">
-      <c r="A236" s="8">
-        <v>45892</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>13</v>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" ht="18.75" spans="1:6">
+      <c r="A236" s="10">
+        <v>45891</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="4"/>
-    </row>
-    <row r="237" ht="17.4" spans="1:6">
-      <c r="A237" s="8">
-        <v>45893</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>14</v>
+      <c r="F236" s="16"/>
+    </row>
+    <row r="237" ht="18.75" spans="1:6">
+      <c r="A237" s="10">
+        <v>45892</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="17.4" spans="1:6">
-      <c r="A238" s="8">
-        <v>45894</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>15</v>
+    <row r="238" ht="18.75" spans="1:6">
+      <c r="A238" s="10">
+        <v>45893</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="17.4" spans="1:6">
-      <c r="A239" s="8">
-        <v>45895</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>17</v>
+    <row r="239" ht="18.75" spans="1:6">
+      <c r="A239" s="10">
+        <v>45894</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
-      <c r="F239" s="11"/>
-    </row>
-    <row r="240" ht="17.4" spans="1:6">
-      <c r="A240" s="8">
-        <v>45896</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>6</v>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" ht="18.75" spans="1:6">
+      <c r="A240" s="10">
+        <v>45895</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-    </row>
-    <row r="241" ht="17.4" spans="1:6">
-      <c r="A241" s="8">
-        <v>45897</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>8</v>
+      <c r="F240" s="16"/>
+    </row>
+    <row r="241" ht="18.75" spans="1:6">
+      <c r="A241" s="10">
+        <v>45896</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="17.4" spans="1:6">
-      <c r="A242" s="8">
-        <v>45898</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>10</v>
+    <row r="242" ht="18.75" spans="1:6">
+      <c r="A242" s="10">
+        <v>45897</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="17.4" spans="1:6">
-      <c r="A243" s="8">
-        <v>45899</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>13</v>
+    <row r="243" ht="18.75" spans="1:6">
+      <c r="A243" s="10">
+        <v>45898</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="17.4" spans="1:6">
-      <c r="A244" s="8">
-        <v>45900</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>14</v>
+    <row r="244" ht="18.75" spans="1:6">
+      <c r="A244" s="10">
+        <v>45899</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
-      <c r="F244" s="11"/>
-    </row>
-    <row r="245" ht="17.4" spans="1:6">
-      <c r="A245" s="8">
-        <v>45901</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>15</v>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" ht="18.75" spans="1:6">
+      <c r="A245" s="10">
+        <v>45900</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
-      <c r="F245" s="4"/>
-    </row>
-    <row r="246" ht="17.4" spans="1:6">
-      <c r="A246" s="8">
-        <v>45902</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>17</v>
+      <c r="F245" s="16"/>
+    </row>
+    <row r="246" ht="18.75" spans="1:6">
+      <c r="A246" s="10">
+        <v>45901</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="17.4" spans="1:6">
-      <c r="A247" s="8">
-        <v>45903</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>6</v>
+    <row r="247" ht="18.75" spans="1:6">
+      <c r="A247" s="10">
+        <v>45902</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="17.4" spans="1:6">
-      <c r="A248" s="8">
-        <v>45904</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>8</v>
+    <row r="248" ht="18.75" spans="1:6">
+      <c r="A248" s="10">
+        <v>45903</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="17.4" spans="1:6">
-      <c r="A249" s="8">
-        <v>45905</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>10</v>
+    <row r="249" ht="18.75" spans="1:6">
+      <c r="A249" s="10">
+        <v>45904</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="17.4" spans="1:6">
-      <c r="A250" s="8">
-        <v>45906</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>13</v>
+    <row r="250" ht="18.75" spans="1:6">
+      <c r="A250" s="10">
+        <v>45905</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="17.4" spans="1:6">
-      <c r="A251" s="8">
-        <v>45907</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>14</v>
+    <row r="251" ht="18.75" spans="1:6">
+      <c r="A251" s="10">
+        <v>45906</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
-      <c r="F251" s="11"/>
-    </row>
-    <row r="252" ht="17.4" spans="1:6">
-      <c r="A252" s="8">
-        <v>45908</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>15</v>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" ht="18.75" spans="1:6">
+      <c r="A252" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
-    </row>
-    <row r="253" ht="17.4" spans="1:6">
-      <c r="A253" s="8">
-        <v>45909</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>17</v>
+      <c r="F252" s="16"/>
+    </row>
+    <row r="253" ht="18.75" spans="1:6">
+      <c r="A253" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
-      <c r="F253" s="11"/>
-    </row>
-    <row r="254" ht="17.4" spans="1:6">
-      <c r="A254" s="8">
-        <v>45910</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>6</v>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" ht="18.75" spans="1:6">
+      <c r="A254" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-    </row>
-    <row r="255" ht="17.4" spans="1:6">
-      <c r="A255" s="8">
-        <v>45911</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>8</v>
+      <c r="F254" s="16"/>
+    </row>
+    <row r="255" ht="18.75" spans="1:6">
+      <c r="A255" s="10">
+        <v>45910</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="17.4" spans="1:6">
-      <c r="A256" s="8">
-        <v>45912</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>10</v>
+    <row r="256" ht="18.75" spans="1:6">
+      <c r="A256" s="10">
+        <v>45911</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="17.4" spans="1:6">
-      <c r="A257" s="8">
-        <v>45913</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>13</v>
+    <row r="257" ht="18.75" spans="1:6">
+      <c r="A257" s="10">
+        <v>45912</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
-      <c r="F257" s="11"/>
-    </row>
-    <row r="258" ht="17.4" spans="1:6">
-      <c r="A258" s="8">
-        <v>45914</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>14</v>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" ht="18.75" spans="1:6">
+      <c r="A258" s="10">
+        <v>45913</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
-      <c r="F258" s="4"/>
-    </row>
-    <row r="259" ht="17.4" spans="1:6">
-      <c r="A259" s="8">
-        <v>45915</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>15</v>
+      <c r="F258" s="16"/>
+    </row>
+    <row r="259" ht="18.75" spans="1:6">
+      <c r="A259" s="10">
+        <v>45914</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="17.4" spans="1:6">
-      <c r="A260" s="8">
-        <v>45916</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>17</v>
+    <row r="260" ht="18.75" spans="1:6">
+      <c r="A260" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="17.4" spans="1:6">
-      <c r="A261" s="8">
-        <v>45917</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>6</v>
+    <row r="261" ht="18.75" spans="1:6">
+      <c r="A261" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="17.4" spans="1:6">
-      <c r="A262" s="8">
-        <v>45918</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>8</v>
+    <row r="262" ht="18.75" spans="1:6">
+      <c r="A262" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="17.4" spans="1:6">
-      <c r="A263" s="8">
-        <v>45919</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>10</v>
+    <row r="263" ht="18.75" spans="1:6">
+      <c r="A263" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="17.4" spans="1:6">
-      <c r="A264" s="8">
-        <v>45920</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>13</v>
+    <row r="264" ht="18.75" spans="1:6">
+      <c r="A264" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
-      <c r="F264" s="11"/>
-    </row>
-    <row r="265" ht="17.4" spans="1:6">
-      <c r="A265" s="8">
-        <v>45921</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>14</v>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" ht="18.75" spans="1:6">
+      <c r="A265" s="10">
+        <v>45920</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
-      <c r="F265" s="4"/>
-    </row>
-    <row r="266" ht="17.4" spans="1:6">
-      <c r="A266" s="8">
-        <v>45922</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>15</v>
+      <c r="F265" s="16"/>
+    </row>
+    <row r="266" ht="18.75" spans="1:6">
+      <c r="A266" s="10">
+        <v>45921</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
-      <c r="F266" s="11"/>
-    </row>
-    <row r="267" ht="17.4" spans="1:6">
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" ht="18.75" spans="1:6">
       <c r="A267" s="10">
+        <v>45922</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="16"/>
+    </row>
+    <row r="268" ht="18.75" spans="1:6">
+      <c r="A268" s="12">
         <v>45923</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B268" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="4"/>
-    </row>
-    <row r="268" ht="17.4" spans="1:6">
-      <c r="A268" s="8">
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" ht="18.75" spans="1:6">
+      <c r="A269" s="10">
         <v>45924</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B269" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="11"/>
-    </row>
-    <row r="269" ht="17.4" spans="1:6">
-      <c r="A269" s="8">
-        <v>45925</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-    </row>
-    <row r="270" ht="17.4" spans="1:6">
-      <c r="A270" s="8">
-        <v>45926</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>10</v>
+      <c r="F269" s="16"/>
+    </row>
+    <row r="270" ht="18.75" spans="1:6">
+      <c r="A270" s="10">
+        <v>45925</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="17.4" spans="1:6">
-      <c r="A271" s="8">
-        <v>45927</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>13</v>
+    <row r="271" ht="18.75" spans="1:6">
+      <c r="A271" s="10">
+        <v>45926</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="17.4" spans="1:6">
-      <c r="A272" s="8">
-        <v>45928</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>14</v>
+    <row r="272" ht="18.75" spans="1:6">
+      <c r="A272" s="10">
+        <v>45927</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
-      <c r="F272" s="11"/>
-    </row>
-    <row r="273" ht="17.4" spans="1:6">
-      <c r="A273" s="8">
-        <v>45929</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>15</v>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" ht="18.75" spans="1:6">
+      <c r="A273" s="10">
+        <v>45928</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-    </row>
-    <row r="274" ht="17.4" spans="1:6">
-      <c r="A274" s="8">
-        <v>45930</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>17</v>
+      <c r="F273" s="16"/>
+    </row>
+    <row r="274" ht="18.75" spans="1:6">
+      <c r="A274" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="17.4" spans="1:6">
-      <c r="A275" s="8">
-        <v>45931</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>6</v>
+    <row r="275" ht="18.75" spans="1:6">
+      <c r="A275" s="10">
+        <v>45930</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="17.4" spans="1:6">
-      <c r="A276" s="8">
-        <v>45932</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>8</v>
+    <row r="276" ht="18.75" spans="1:6">
+      <c r="A276" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="17.4" spans="1:6">
-      <c r="A277" s="8">
-        <v>45933</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>10</v>
+    <row r="277" ht="18.75" spans="1:6">
+      <c r="A277" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="17.4" spans="1:6">
-      <c r="A278" s="8">
-        <v>45934</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>13</v>
+    <row r="278" ht="18.75" spans="1:6">
+      <c r="A278" s="10">
+        <v>45933</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="17.4" spans="1:6">
-      <c r="A279" s="8">
-        <v>45935</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>14</v>
+    <row r="279" ht="18.75" spans="1:6">
+      <c r="A279" s="10">
+        <v>45934</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="17.4" spans="1:6">
-      <c r="A280" s="8">
-        <v>45936</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>15</v>
+    <row r="280" ht="18.75" spans="1:6">
+      <c r="A280" s="10">
+        <v>45935</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="17.4" spans="1:6">
-      <c r="A281" s="8">
-        <v>45937</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>17</v>
+    <row r="281" ht="18.75" spans="1:6">
+      <c r="A281" s="10">
+        <v>45936</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="17.4" spans="1:6">
-      <c r="A282" s="8">
-        <v>45938</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>6</v>
+    <row r="282" ht="18.75" spans="1:6">
+      <c r="A282" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="17.4" spans="1:6">
-      <c r="A283" s="8">
-        <v>45939</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>8</v>
+    <row r="283" ht="18.75" spans="1:6">
+      <c r="A283" s="10">
+        <v>45938</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
-      <c r="F283" s="11"/>
-    </row>
-    <row r="284" ht="17.4" spans="1:6">
-      <c r="A284" s="8">
-        <v>45940</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>10</v>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" ht="18.75" spans="1:6">
+      <c r="A284" s="10">
+        <v>45939</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="4"/>
-    </row>
-    <row r="285" ht="17.4" spans="1:6">
-      <c r="A285" s="8">
-        <v>45941</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>13</v>
+      <c r="F284" s="16"/>
+    </row>
+    <row r="285" ht="18.75" spans="1:6">
+      <c r="A285" s="10">
+        <v>45940</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="17.4" spans="1:6">
-      <c r="A286" s="8">
-        <v>45942</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>14</v>
+    <row r="286" ht="18.75" spans="1:6">
+      <c r="A286" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="17.4" spans="1:6">
-      <c r="A287" s="8">
-        <v>45943</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>15</v>
+    <row r="287" ht="18.75" spans="1:6">
+      <c r="A287" s="10">
+        <v>45942</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
-      <c r="F287" s="11"/>
-    </row>
-    <row r="288" ht="17.4" spans="1:6">
-      <c r="A288" s="8">
-        <v>45944</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>17</v>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" ht="18.75" spans="1:6">
+      <c r="A288" s="10">
+        <v>45943</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-      <c r="F288" s="9"/>
-    </row>
-    <row r="289" ht="17.4" spans="1:6">
-      <c r="A289" s="8">
-        <v>45945</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>6</v>
+      <c r="F288" s="16"/>
+    </row>
+    <row r="289" ht="18.75" spans="1:6">
+      <c r="A289" s="10">
+        <v>45944</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
-      <c r="F289" s="4"/>
-    </row>
-    <row r="290" ht="17.4" spans="1:6">
-      <c r="A290" s="8">
-        <v>45946</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>8</v>
+      <c r="F289" s="11"/>
+    </row>
+    <row r="290" ht="18.75" spans="1:6">
+      <c r="A290" s="10">
+        <v>45945</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
-      <c r="F290" s="11"/>
-    </row>
-    <row r="291" ht="17.4" spans="1:6">
-      <c r="A291" s="8">
-        <v>45947</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>10</v>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" ht="18.75" spans="1:6">
+      <c r="A291" s="10">
+        <v>45946</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
-      <c r="F291" s="4"/>
-    </row>
-    <row r="292" ht="17.4" spans="1:6">
-      <c r="A292" s="8">
-        <v>45948</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>13</v>
+      <c r="F291" s="16"/>
+    </row>
+    <row r="292" ht="18.75" spans="1:6">
+      <c r="A292" s="10">
+        <v>45947</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="17.4" spans="1:6">
-      <c r="A293" s="8">
-        <v>45949</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>14</v>
+    <row r="293" ht="18.75" spans="1:6">
+      <c r="A293" s="10">
+        <v>45948</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
-      <c r="F293" s="11"/>
-    </row>
-    <row r="294" ht="17.4" spans="1:6">
-      <c r="A294" s="8">
-        <v>45950</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>15</v>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" ht="18.75" spans="1:6">
+      <c r="A294" s="10">
+        <v>45949</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
-      <c r="F294" s="4"/>
-    </row>
-    <row r="295" ht="17.4" spans="1:6">
-      <c r="A295" s="8">
-        <v>45951</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>17</v>
+      <c r="F294" s="16"/>
+    </row>
+    <row r="295" ht="18.75" spans="1:6">
+      <c r="A295" s="10">
+        <v>45950</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="17.4" spans="1:6">
-      <c r="A296" s="8">
-        <v>45952</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>6</v>
+    <row r="296" ht="18.75" spans="1:6">
+      <c r="A296" s="10">
+        <v>45951</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="17.4" spans="1:6">
-      <c r="A297" s="8">
-        <v>45953</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>8</v>
+    <row r="297" ht="18.75" spans="1:6">
+      <c r="A297" s="10">
+        <v>45952</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="17.4" spans="1:6">
-      <c r="A298" s="8">
-        <v>45954</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>10</v>
+    <row r="298" ht="18.75" spans="1:6">
+      <c r="A298" s="10">
+        <v>45953</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="17.4" spans="1:6">
-      <c r="A299" s="8">
-        <v>45955</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>13</v>
+    <row r="299" ht="18.75" spans="1:6">
+      <c r="A299" s="10">
+        <v>45954</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
-      <c r="F299" s="11"/>
-    </row>
-    <row r="300" ht="17.4" spans="1:6">
-      <c r="A300" s="8">
-        <v>45956</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>14</v>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" ht="18.75" spans="1:6">
+      <c r="A300" s="10">
+        <v>45955</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
-      <c r="F300" s="4"/>
-    </row>
-    <row r="301" ht="17.4" spans="1:6">
-      <c r="A301" s="8">
-        <v>45957</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>15</v>
+      <c r="F300" s="16"/>
+    </row>
+    <row r="301" ht="18.75" spans="1:6">
+      <c r="A301" s="10">
+        <v>45956</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
-      <c r="F301" s="11"/>
-    </row>
-    <row r="302" ht="17.4" spans="1:6">
-      <c r="A302" s="8">
-        <v>45958</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>17</v>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" ht="18.75" spans="1:6">
+      <c r="A302" s="10">
+        <v>45957</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
-      <c r="F302" s="4"/>
-    </row>
-    <row r="303" ht="17.4" spans="1:6">
-      <c r="A303" s="8">
-        <v>45959</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>6</v>
+      <c r="F302" s="16"/>
+    </row>
+    <row r="303" ht="18.75" spans="1:6">
+      <c r="A303" s="10">
+        <v>45958</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
-      <c r="F303" s="11"/>
-    </row>
-    <row r="304" ht="17.4" spans="1:6">
-      <c r="A304" s="8">
-        <v>45960</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>8</v>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" ht="18.75" spans="1:6">
+      <c r="A304" s="10">
+        <v>45959</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
-      <c r="F304" s="4"/>
-    </row>
-    <row r="305" ht="17.4" spans="1:6">
-      <c r="A305" s="8">
-        <v>45961</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>10</v>
+      <c r="F304" s="16"/>
+    </row>
+    <row r="305" ht="18.75" spans="1:6">
+      <c r="A305" s="10">
+        <v>45960</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="17.4" spans="1:6">
-      <c r="A306" s="8">
-        <v>45962</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>13</v>
+    <row r="306" ht="18.75" spans="1:6">
+      <c r="A306" s="10">
+        <v>45961</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="17.4" spans="1:6">
-      <c r="A307" s="8">
-        <v>45963</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>14</v>
+    <row r="307" ht="18.75" spans="1:6">
+      <c r="A307" s="10">
+        <v>45962</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
-      <c r="F307" s="11"/>
-    </row>
-    <row r="308" ht="17.4" spans="1:6">
-      <c r="A308" s="8">
-        <v>45964</v>
-      </c>
-      <c r="B308" s="8" t="s">
-        <v>15</v>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" ht="18.75" spans="1:6">
+      <c r="A308" s="10">
+        <v>45963</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-    </row>
-    <row r="309" ht="17.4" spans="1:6">
-      <c r="A309" s="8">
-        <v>45965</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>17</v>
+      <c r="F308" s="16"/>
+    </row>
+    <row r="309" ht="18.75" spans="1:6">
+      <c r="A309" s="10">
+        <v>45964</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="17.4" spans="1:6">
-      <c r="A310" s="8">
-        <v>45966</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>6</v>
+    <row r="310" ht="18.75" spans="1:6">
+      <c r="A310" s="10">
+        <v>45965</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="17.4" spans="1:6">
-      <c r="A311" s="8">
-        <v>45967</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>8</v>
+    <row r="311" ht="18.75" spans="1:6">
+      <c r="A311" s="10">
+        <v>45966</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="17.4" spans="1:6">
-      <c r="A312" s="8">
-        <v>45968</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>10</v>
+    <row r="312" ht="18.75" spans="1:6">
+      <c r="A312" s="10">
+        <v>45967</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="17.4" spans="1:6">
-      <c r="A313" s="8">
-        <v>45969</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>13</v>
+    <row r="313" ht="18.75" spans="1:6">
+      <c r="A313" s="10">
+        <v>45968</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="17.4" spans="1:6">
-      <c r="A314" s="8">
-        <v>45970</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>14</v>
+    <row r="314" ht="18.75" spans="1:6">
+      <c r="A314" s="10">
+        <v>45969</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="17.4" spans="1:6">
-      <c r="A315" s="8">
-        <v>45971</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>15</v>
+    <row r="315" ht="18.75" spans="1:6">
+      <c r="A315" s="10">
+        <v>45970</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="17.4" spans="1:6">
+    <row r="316" ht="18.75" spans="1:6">
       <c r="A316" s="10">
+        <v>45971</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" ht="18.75" spans="1:6">
+      <c r="A317" s="12">
         <v>45972</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B317" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-      <c r="F316" s="4"/>
-    </row>
-    <row r="317" ht="17.4" spans="1:6">
-      <c r="A317" s="8">
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" ht="18.75" spans="1:6">
+      <c r="A318" s="10">
         <v>45973</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="B318" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="13"/>
-    </row>
-    <row r="318" ht="17.4" spans="1:6">
-      <c r="A318" s="8">
-        <v>45974</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-    </row>
-    <row r="319" ht="17.4" spans="1:6">
-      <c r="A319" s="8">
-        <v>45975</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>10</v>
+      <c r="F318" s="18"/>
+    </row>
+    <row r="319" ht="18.75" spans="1:6">
+      <c r="A319" s="10">
+        <v>45974</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
-      <c r="F319" s="13"/>
-    </row>
-    <row r="320" ht="17.4" spans="1:6">
-      <c r="A320" s="8">
-        <v>45976</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>13</v>
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" ht="18.75" spans="1:6">
+      <c r="A320" s="10">
+        <v>45975</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
-    </row>
-    <row r="321" ht="17.4" spans="1:6">
-      <c r="A321" s="8">
-        <v>45977</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>14</v>
+      <c r="F320" s="18"/>
+    </row>
+    <row r="321" ht="18.75" spans="1:6">
+      <c r="A321" s="10">
+        <v>45976</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="17.4" spans="1:6">
-      <c r="A322" s="8">
-        <v>45978</v>
-      </c>
-      <c r="B322" s="8" t="s">
-        <v>15</v>
+    <row r="322" ht="18.75" spans="1:6">
+      <c r="A322" s="10">
+        <v>45977</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="17.4" spans="1:6">
-      <c r="A323" s="8">
-        <v>45979</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>17</v>
+    <row r="323" ht="18.75" spans="1:6">
+      <c r="A323" s="10">
+        <v>45978</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="17.4" spans="1:6">
-      <c r="A324" s="8">
-        <v>45980</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>6</v>
+    <row r="324" ht="18.75" spans="1:6">
+      <c r="A324" s="10">
+        <v>45979</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="17.4" spans="1:6">
-      <c r="A325" s="8">
-        <v>45981</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>8</v>
+    <row r="325" ht="18.75" spans="1:6">
+      <c r="A325" s="10">
+        <v>45980</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
-      <c r="F325" s="9"/>
-    </row>
-    <row r="326" ht="17.4" spans="1:6">
-      <c r="A326" s="8">
-        <v>45982</v>
-      </c>
-      <c r="B326" s="8" t="s">
-        <v>10</v>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" ht="18.75" spans="1:6">
+      <c r="A326" s="10">
+        <v>45981</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
-      <c r="F326" s="4"/>
-    </row>
-    <row r="327" ht="17.4" spans="1:6">
-      <c r="A327" s="8">
-        <v>45983</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>13</v>
+      <c r="F326" s="11"/>
+    </row>
+    <row r="327" ht="18.75" spans="1:6">
+      <c r="A327" s="10">
+        <v>45982</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
-      <c r="F327" s="14"/>
-    </row>
-    <row r="328" ht="17.4" spans="1:6">
-      <c r="A328" s="8">
-        <v>45984</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>14</v>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" ht="18.75" spans="1:6">
+      <c r="A328" s="10">
+        <v>45983</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
-      <c r="F328" s="9"/>
-    </row>
-    <row r="329" ht="17.4" spans="1:6">
-      <c r="A329" s="8">
-        <v>45985</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>15</v>
+      <c r="F328" s="19"/>
+    </row>
+    <row r="329" ht="18.75" spans="1:6">
+      <c r="A329" s="10">
+        <v>45984</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
-      <c r="F329" s="4"/>
-    </row>
-    <row r="330" ht="17.4" spans="1:6">
-      <c r="A330" s="8">
-        <v>45986</v>
-      </c>
-      <c r="B330" s="8" t="s">
-        <v>17</v>
+      <c r="F329" s="11"/>
+    </row>
+    <row r="330" ht="18.75" spans="1:6">
+      <c r="A330" s="10">
+        <v>45985</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="17.4" spans="1:6">
-      <c r="A331" s="8">
-        <v>45987</v>
-      </c>
-      <c r="B331" s="8" t="s">
-        <v>6</v>
+    <row r="331" ht="18.75" spans="1:6">
+      <c r="A331" s="10">
+        <v>45986</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
-      <c r="F331" s="9"/>
-    </row>
-    <row r="332" ht="17.4" spans="1:6">
-      <c r="A332" s="8">
-        <v>45988</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>8</v>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" ht="18.75" spans="1:6">
+      <c r="A332" s="10">
+        <v>45987</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
-      <c r="F332" s="4"/>
-    </row>
-    <row r="333" ht="17.4" spans="1:6">
-      <c r="A333" s="8">
-        <v>45989</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>10</v>
+      <c r="F332" s="11"/>
+    </row>
+    <row r="333" ht="18.75" spans="1:6">
+      <c r="A333" s="10">
+        <v>45988</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="17.4" spans="1:6">
-      <c r="A334" s="8">
-        <v>45990</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>13</v>
+    <row r="334" ht="18.75" spans="1:6">
+      <c r="A334" s="10">
+        <v>45989</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="17.4" spans="1:6">
-      <c r="A335" s="8">
-        <v>45991</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>14</v>
+    <row r="335" ht="18.75" spans="1:6">
+      <c r="A335" s="10">
+        <v>45990</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
-      <c r="F335" s="9"/>
-    </row>
-    <row r="336" ht="17.4" spans="1:6">
-      <c r="A336" s="8">
-        <v>45992</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>15</v>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" ht="18.75" spans="1:6">
+      <c r="A336" s="10">
+        <v>45991</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
-      <c r="F336" s="14"/>
-    </row>
-    <row r="337" ht="17.4" spans="1:6">
-      <c r="A337" s="8">
-        <v>45993</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>17</v>
+      <c r="F336" s="11"/>
+    </row>
+    <row r="337" ht="18.75" spans="1:6">
+      <c r="A337" s="10">
+        <v>45992</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
-      <c r="F337" s="9"/>
-    </row>
-    <row r="338" ht="17.4" spans="1:6">
-      <c r="A338" s="8">
-        <v>45994</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>6</v>
+      <c r="F337" s="19"/>
+    </row>
+    <row r="338" ht="18.75" spans="1:6">
+      <c r="A338" s="10">
+        <v>45993</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
-      <c r="F338" s="9"/>
-    </row>
-    <row r="339" ht="17.4" spans="1:6">
-      <c r="A339" s="8">
-        <v>45995</v>
-      </c>
-      <c r="B339" s="8" t="s">
-        <v>8</v>
+      <c r="F338" s="11"/>
+    </row>
+    <row r="339" ht="18.75" spans="1:6">
+      <c r="A339" s="10">
+        <v>45994</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
-      <c r="F339" s="4"/>
-    </row>
-    <row r="340" ht="17.4" spans="1:6">
-      <c r="A340" s="8">
-        <v>45996</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>10</v>
+      <c r="F339" s="11"/>
+    </row>
+    <row r="340" ht="18.75" spans="1:6">
+      <c r="A340" s="10">
+        <v>45995</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="17.4" spans="1:6">
-      <c r="A341" s="8">
-        <v>45997</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>13</v>
+    <row r="341" ht="18.75" spans="1:6">
+      <c r="A341" s="10">
+        <v>45996</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="17.4" spans="1:6">
-      <c r="A342" s="8">
-        <v>45998</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>14</v>
+    <row r="342" ht="18.75" spans="1:6">
+      <c r="A342" s="10">
+        <v>45997</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="17.4" spans="1:6">
-      <c r="A343" s="8">
-        <v>45999</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>15</v>
+    <row r="343" ht="18.75" spans="1:6">
+      <c r="A343" s="10">
+        <v>45998</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="17.4" spans="1:6">
-      <c r="A344" s="8">
-        <v>46000</v>
-      </c>
-      <c r="B344" s="8" t="s">
-        <v>17</v>
+    <row r="344" ht="18.75" spans="1:6">
+      <c r="A344" s="10">
+        <v>45999</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="17.4" spans="1:6">
-      <c r="A345" s="8">
-        <v>46001</v>
-      </c>
-      <c r="B345" s="8" t="s">
-        <v>6</v>
+    <row r="345" ht="18.75" spans="1:6">
+      <c r="A345" s="10">
+        <v>46000</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
-      <c r="F345" s="9"/>
-    </row>
-    <row r="346" ht="17.4" spans="1:6">
-      <c r="A346" s="8">
-        <v>46002</v>
-      </c>
-      <c r="B346" s="8" t="s">
-        <v>8</v>
+      <c r="F345" s="4"/>
+    </row>
+    <row r="346" ht="18.75" spans="1:6">
+      <c r="A346" s="10">
+        <v>46001</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
-      <c r="F346" s="14"/>
-    </row>
-    <row r="347" ht="17.4" spans="1:6">
-      <c r="A347" s="8">
-        <v>46003</v>
-      </c>
-      <c r="B347" s="8" t="s">
-        <v>10</v>
+      <c r="F346" s="11"/>
+    </row>
+    <row r="347" ht="18.75" spans="1:6">
+      <c r="A347" s="10">
+        <v>46002</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
-      <c r="F347" s="4"/>
-    </row>
-    <row r="348" ht="17.4" spans="1:6">
-      <c r="A348" s="8">
-        <v>46004</v>
-      </c>
-      <c r="B348" s="8" t="s">
-        <v>13</v>
+      <c r="F347" s="19"/>
+    </row>
+    <row r="348" ht="18.75" spans="1:6">
+      <c r="A348" s="10">
+        <v>46003</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="17.4" spans="1:6">
-      <c r="A349" s="8">
-        <v>46005</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>14</v>
+    <row r="349" ht="18.75" spans="1:6">
+      <c r="A349" s="10">
+        <v>46004</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="17.4" spans="1:6">
-      <c r="A350" s="8">
-        <v>46006</v>
-      </c>
-      <c r="B350" s="8" t="s">
-        <v>15</v>
+    <row r="350" ht="18.75" spans="1:6">
+      <c r="A350" s="10">
+        <v>46005</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="17.4" spans="1:6">
-      <c r="A351" s="8">
-        <v>46007</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>17</v>
+    <row r="351" ht="18.75" spans="1:6">
+      <c r="A351" s="10">
+        <v>46006</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="17.4" spans="1:6">
-      <c r="A352" s="8">
-        <v>46008</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>6</v>
+    <row r="352" ht="18.75" spans="1:6">
+      <c r="A352" s="10">
+        <v>46007</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="17.4" spans="1:6">
-      <c r="A353" s="8">
-        <v>46009</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>8</v>
+    <row r="353" ht="18.75" spans="1:6">
+      <c r="A353" s="10">
+        <v>46008</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
-      <c r="F353" s="9"/>
-    </row>
-    <row r="354" ht="17.4" spans="1:6">
-      <c r="A354" s="8">
-        <v>46010</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>10</v>
+      <c r="F353" s="4"/>
+    </row>
+    <row r="354" ht="18.75" spans="1:6">
+      <c r="A354" s="10">
+        <v>46009</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
-      <c r="F354" s="9"/>
-    </row>
-    <row r="355" ht="17.4" spans="1:6">
-      <c r="A355" s="8">
-        <v>46011</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>13</v>
+      <c r="F354" s="11"/>
+    </row>
+    <row r="355" ht="18.75" spans="1:6">
+      <c r="A355" s="10">
+        <v>46010</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
-      <c r="F355" s="4"/>
-    </row>
-    <row r="356" ht="17.4" spans="1:6">
+      <c r="F355" s="11"/>
+    </row>
+    <row r="356" ht="18.75" spans="1:6">
       <c r="A356" s="10">
+        <v>46011</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
+    </row>
+    <row r="357" ht="18.75" spans="1:6">
+      <c r="A357" s="12">
         <v>46012</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B357" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-      <c r="E356" s="6"/>
-      <c r="F356" s="9"/>
-    </row>
-    <row r="357" ht="17.4" spans="1:6">
-      <c r="A357" s="8">
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="14"/>
+      <c r="F357" s="11"/>
+    </row>
+    <row r="358" ht="18.75" spans="1:6">
+      <c r="A358" s="10">
         <v>46013</v>
       </c>
-      <c r="B357" s="8" t="s">
+      <c r="B358" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
-      <c r="F357" s="9"/>
-    </row>
-    <row r="358" ht="17.4" spans="1:6">
-      <c r="A358" s="8">
-        <v>46014</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
-      <c r="F358" s="4"/>
-    </row>
-    <row r="359" ht="17.4" spans="1:6">
-      <c r="A359" s="8">
-        <v>46015</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>6</v>
+      <c r="F358" s="11"/>
+    </row>
+    <row r="359" ht="18.75" spans="1:6">
+      <c r="A359" s="10">
+        <v>46014</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="17.4" spans="1:6">
-      <c r="A360" s="8">
-        <v>46016</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>8</v>
+    <row r="360" ht="18.75" spans="1:6">
+      <c r="A360" s="10">
+        <v>46015</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="17.4" spans="1:6">
-      <c r="A361" s="8">
-        <v>46017</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>10</v>
+    <row r="361" ht="18.75" spans="1:6">
+      <c r="A361" s="10">
+        <v>46016</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="17.4" spans="1:6">
-      <c r="A362" s="8">
-        <v>46018</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>13</v>
+    <row r="362" ht="18.75" spans="1:6">
+      <c r="A362" s="10">
+        <v>46017</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="17.4" spans="1:6">
-      <c r="A363" s="8">
-        <v>46019</v>
-      </c>
-      <c r="B363" s="8" t="s">
-        <v>14</v>
+    <row r="363" ht="18.75" spans="1:6">
+      <c r="A363" s="10">
+        <v>46018</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="17.4" spans="1:6">
-      <c r="A364" s="8">
-        <v>46020</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>15</v>
+    <row r="364" ht="18.75" spans="1:6">
+      <c r="A364" s="10">
+        <v>46019</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
-      <c r="F364" s="9"/>
-    </row>
-    <row r="365" ht="17.4" spans="1:6">
-      <c r="A365" s="8">
-        <v>46021</v>
-      </c>
-      <c r="B365" s="8" t="s">
-        <v>17</v>
+      <c r="F364" s="4"/>
+    </row>
+    <row r="365" ht="18.75" spans="1:6">
+      <c r="A365" s="10">
+        <v>46020</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
-      <c r="F365" s="4"/>
-    </row>
-    <row r="366" ht="17.4" spans="1:6">
-      <c r="A366" s="8">
-        <v>46022</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>6</v>
+      <c r="F365" s="11"/>
+    </row>
+    <row r="366" ht="18.75" spans="1:6">
+      <c r="A366" s="10">
+        <v>46021</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
-      <c r="F366" s="9"/>
+      <c r="F366" s="4"/>
+    </row>
+    <row r="367" ht="18.75" spans="1:6">
+      <c r="A367" s="10">
+        <v>46022</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="150">
   <si>
     <t>日期</t>
   </si>
@@ -435,7 +435,13 @@
     <t>《女神异闻录夜幕魅影》3.1版本更新</t>
   </si>
   <si>
+    <t>《无限暖暖》第一个新四星卡池</t>
+  </si>
+  <si>
     <t>《尘白禁区》2.4版本更新</t>
+  </si>
+  <si>
+    <t>《望月》「朔月测试」招募开启</t>
   </si>
   <si>
     <t>《女神异闻录夜幕魅影》P5R联动</t>
@@ -852,7 +858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -965,6 +971,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1087,7 +1106,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,34 +1118,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,15 +1270,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1290,92 +1303,89 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1902,21 +1912,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="20" customWidth="1"/>
-    <col min="3" max="3" width="51.1083333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="41.3833333333333" style="20" customWidth="1"/>
-    <col min="5" max="5" width="56.1083333333333" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.225" style="18" customWidth="1"/>
+    <col min="3" max="3" width="51.1083333333333" style="18" customWidth="1"/>
+    <col min="4" max="4" width="41.3833333333333" style="18" customWidth="1"/>
+    <col min="5" max="5" width="56.1083333333333" style="18" customWidth="1"/>
     <col min="6" max="6" width="84.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1972,25 +1982,25 @@
       <c r="A4" s="12">
         <v>45597</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10">
@@ -2046,65 +2056,65 @@
       <c r="A10" s="12">
         <v>45602</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12">
         <v>45603</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10">
@@ -2198,27 +2208,27 @@
       <c r="A22" s="12">
         <v>45611</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10">
@@ -2262,92 +2272,92 @@
       <c r="A27" s="12">
         <v>45615</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="4" t="s">
         <v>40</v>
       </c>
@@ -2356,7 +2366,7 @@
       <c r="A36" s="12">
         <v>45616</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2367,8 +2377,8 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2380,103 +2390,103 @@
       <c r="A38" s="12">
         <v>45617</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="24" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="28"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12">
         <v>45618</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="30" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="31"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="31"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="31"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10">
@@ -2510,14 +2520,14 @@
       <c r="A49" s="12">
         <v>45621</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -2525,11 +2535,11 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="4" t="s">
         <v>59</v>
       </c>
@@ -2538,13 +2548,13 @@
       <c r="A51" s="12">
         <v>45622</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="32"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10">
@@ -2624,38 +2634,38 @@
       <c r="A57" s="12">
         <v>45628</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="33" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="34">
+      <c r="A59" s="31">
         <v>45629</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="30" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="27" t="s">
         <v>70</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -2663,90 +2673,90 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="36" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="31"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="33" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="36" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="33" t="s">
+      <c r="D63" s="37"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="38"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="33" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="38"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="36" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="33" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="38"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="33" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="38"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="41" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="33" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="30" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2754,154 +2764,154 @@
       <c r="A68" s="12">
         <v>45630</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="12">
         <v>45631</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="24" t="s">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="29"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="27"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="12">
         <v>45632</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44" t="s">
+      <c r="D77" s="7"/>
+      <c r="E77" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="25"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="16" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="25"/>
-      <c r="B79" s="45"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="43"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="16" t="s">
+      <c r="D79" s="7"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="25"/>
-      <c r="B80" s="45"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="44" t="s">
+      <c r="D80" s="7"/>
+      <c r="E80" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -2909,26 +2919,26 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="25"/>
-      <c r="B81" s="45"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="16" t="s">
+      <c r="D81" s="7"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="21"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="16" t="s">
+      <c r="D82" s="7"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2936,25 +2946,25 @@
       <c r="A83" s="12">
         <v>45633</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="10">
@@ -3000,98 +3010,98 @@
       <c r="A88" s="12">
         <v>45637</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="24" t="s">
+      <c r="D88" s="13"/>
+      <c r="E88" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F88" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="12">
         <v>45638</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="30" t="s">
+      <c r="D90" s="13"/>
+      <c r="E90" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F90" s="14"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="28"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="28"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="25"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="28"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="23"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="21"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="12">
         <v>45639</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="30" t="s">
+      <c r="D95" s="13"/>
+      <c r="E95" s="27" t="s">
         <v>124</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -3099,21 +3109,21 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="25"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="28"/>
       <c r="F96" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="47"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="43"/>
       <c r="F97" s="4" t="s">
         <v>127</v>
       </c>
@@ -3169,105 +3179,105 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="48">
+      <c r="A102" s="12">
         <v>45644</v>
       </c>
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="51"/>
-      <c r="B103" s="52"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="54"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="12">
         <v>45645</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="43"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="4" t="s">
+      <c r="A105" s="23"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="28"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="4" t="s">
+      <c r="A106" s="23"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="28"/>
+      <c r="D106" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="25"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107" s="36" t="s">
+      <c r="A107" s="23"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E107" s="43"/>
-      <c r="F107" s="28"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="25"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="4" t="s">
+      <c r="A108" s="47"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="23"/>
+      <c r="D108" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="50"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="10">
-        <v>45646</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="51"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="21"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="10">
-        <v>46012</v>
+        <v>45646</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3276,10 +3286,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="10">
-        <v>45648</v>
+        <v>46012</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3288,10 +3298,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="10">
-        <v>45649</v>
+        <v>45648</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3300,10 +3310,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="10">
-        <v>45650</v>
+        <v>45649</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -3312,10 +3322,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10">
-        <v>45651</v>
+        <v>45650</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -3324,10 +3334,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10">
-        <v>45652</v>
+        <v>45651</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -3336,36 +3346,36 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="10">
-        <v>45653</v>
+        <v>45652</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="10">
-        <v>45655</v>
+        <v>45654</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -3374,10 +3384,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="10">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -3386,24 +3396,29 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="10">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>139</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="13.5" spans="1:5">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
+    <row r="121" spans="1:6">
+      <c r="A121" s="10">
+        <v>45657</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" ht="13.5" spans="1:5">
       <c r="A122"/>
@@ -3482,8 +3497,15 @@
       <c r="D132"/>
       <c r="E132"/>
     </row>
+    <row r="133" ht="13.5" spans="1:5">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="102">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -3503,7 +3525,7 @@
     <mergeCell ref="A90:A94"/>
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A104:A109"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -3523,7 +3545,7 @@
     <mergeCell ref="B90:B94"/>
     <mergeCell ref="B95:B97"/>
     <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B104:B109"/>
     <mergeCell ref="C27:C35"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C57:C58"/>
@@ -3549,8 +3571,9 @@
     <mergeCell ref="D90:D94"/>
     <mergeCell ref="D95:D97"/>
     <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D108:D109"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
@@ -3570,7 +3593,7 @@
     <mergeCell ref="E90:E94"/>
     <mergeCell ref="E95:E97"/>
     <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="E104:E109"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F14"/>
@@ -3584,7 +3607,7 @@
     <mergeCell ref="F88:F89"/>
     <mergeCell ref="F90:F94"/>
     <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="F104:F109"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3596,7 +3619,7 @@
   <sheetPr/>
   <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
@@ -3640,7 +3663,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -3650,7 +3673,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -3664,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3678,7 +3701,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3692,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3754,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3836,13 +3859,13 @@
       <c r="A18" s="12">
         <v>45673</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="10">
@@ -3936,7 +3959,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -4027,27 +4050,27 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" ht="18.75" spans="1:6">
-      <c r="A34" s="15">
+      <c r="A34" s="2">
         <v>45689</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" ht="18.75" spans="1:6">
       <c r="A35" s="12">
         <v>45690</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" ht="18.75" spans="1:6">
@@ -4288,7 +4311,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="16"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" ht="18.75" spans="1:6">
       <c r="A56" s="10">
@@ -4322,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4365,7 +4388,7 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" ht="18.75" spans="1:6">
-      <c r="A62" s="17">
+      <c r="A62" s="15">
         <v>45717</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -4398,7 +4421,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" ht="18.75" spans="1:6">
       <c r="A65" s="10">
@@ -4434,7 +4457,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="16"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" ht="18.75" spans="1:6">
       <c r="A68" s="10">
@@ -4482,7 +4505,7 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="16"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" ht="18.75" spans="1:6">
       <c r="A72" s="10">
@@ -4518,7 +4541,7 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="16"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" ht="18.75" spans="1:6">
       <c r="A75" s="10">
@@ -4530,7 +4553,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" ht="18.75" spans="1:6">
       <c r="A76" s="10">
@@ -4614,7 +4637,7 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="16"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="10">
@@ -4674,7 +4697,7 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="16"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" ht="18.75" spans="1:6">
       <c r="A88" s="10">
@@ -4722,7 +4745,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="16"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" ht="18.75" spans="1:6">
       <c r="A92" s="10">
@@ -4737,7 +4760,7 @@
       <c r="F92" s="4"/>
     </row>
     <row r="93" ht="18.75" spans="1:6">
-      <c r="A93" s="17">
+      <c r="A93" s="15">
         <v>45748</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -4782,7 +4805,7 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="16"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" ht="18.75" spans="1:6">
       <c r="A97" s="10">
@@ -4818,7 +4841,7 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="16"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="10">
@@ -4854,7 +4877,7 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="16"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" ht="18.75" spans="1:6">
       <c r="A103" s="10">
@@ -4866,7 +4889,7 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="16"/>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" ht="18.75" spans="1:6">
       <c r="A104" s="10">
@@ -4938,7 +4961,7 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="16"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" ht="18.75" spans="1:6">
       <c r="A110" s="10">
@@ -4974,7 +4997,7 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="16"/>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" ht="18.75" spans="1:6">
       <c r="A113" s="10">
@@ -4998,7 +5021,7 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="16"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="10">
@@ -5034,7 +5057,7 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="16"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" ht="18.75" spans="1:6">
       <c r="A118" s="10">
@@ -5088,16 +5111,16 @@
       <c r="A122" s="12">
         <v>45777</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="16"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" ht="18.75" spans="1:6">
-      <c r="A123" s="17">
+      <c r="A123" s="15">
         <v>45778</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -5130,7 +5153,7 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="16"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" ht="18.75" spans="1:6">
       <c r="A126" s="10">
@@ -5190,7 +5213,7 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="16"/>
+      <c r="F130" s="14"/>
     </row>
     <row r="131" ht="18.75" spans="1:6">
       <c r="A131" s="10">
@@ -5310,7 +5333,7 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="16"/>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" ht="18.75" spans="1:6">
       <c r="A141" s="10">
@@ -5346,7 +5369,7 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="16"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="10">
@@ -5412,13 +5435,13 @@
       <c r="A149" s="12">
         <v>45804</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="16"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" ht="18.75" spans="1:6">
       <c r="A150" s="10">
@@ -5466,19 +5489,19 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="16"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" ht="18.75" spans="1:6">
       <c r="A154" s="12">
         <v>45809</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="16"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" ht="18.75" spans="1:6">
       <c r="A155" s="10">
@@ -5574,7 +5597,7 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="16"/>
+      <c r="F162" s="14"/>
     </row>
     <row r="163" ht="18.75" spans="1:6">
       <c r="A163" s="10">
@@ -5658,7 +5681,7 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="16"/>
+      <c r="F169" s="14"/>
     </row>
     <row r="170" ht="18.75" spans="1:6">
       <c r="A170" s="10">
@@ -5718,7 +5741,7 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="16"/>
+      <c r="F174" s="14"/>
     </row>
     <row r="175" ht="18.75" spans="1:6">
       <c r="A175" s="10">
@@ -5742,7 +5765,7 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="16"/>
+      <c r="F176" s="14"/>
     </row>
     <row r="177" ht="18.75" spans="1:6">
       <c r="A177" s="10">
@@ -5778,7 +5801,7 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="16"/>
+      <c r="F179" s="14"/>
     </row>
     <row r="180" ht="18.75" spans="1:6">
       <c r="A180" s="10">
@@ -5790,7 +5813,7 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="16"/>
+      <c r="F180" s="14"/>
     </row>
     <row r="181" ht="18.75" spans="1:6">
       <c r="A181" s="10">
@@ -5886,7 +5909,7 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="16"/>
+      <c r="F188" s="14"/>
     </row>
     <row r="189" ht="18.75" spans="1:6">
       <c r="A189" s="10">
@@ -5934,7 +5957,7 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="16"/>
+      <c r="F192" s="14"/>
     </row>
     <row r="193" ht="18.75" spans="1:6">
       <c r="A193" s="10">
@@ -5994,7 +6017,7 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="16"/>
+      <c r="F197" s="14"/>
     </row>
     <row r="198" ht="18.75" spans="1:6">
       <c r="A198" s="10">
@@ -6006,7 +6029,7 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="16"/>
+      <c r="F198" s="14"/>
     </row>
     <row r="199" ht="18.75" spans="1:6">
       <c r="A199" s="10">
@@ -6066,7 +6089,7 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="16"/>
+      <c r="F203" s="14"/>
     </row>
     <row r="204" ht="18.75" spans="1:6">
       <c r="A204" s="10">
@@ -6114,7 +6137,7 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="16"/>
+      <c r="F207" s="14"/>
     </row>
     <row r="208" ht="18.75" spans="1:6">
       <c r="A208" s="10">
@@ -6144,13 +6167,13 @@
       <c r="A210" s="12">
         <v>45865</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="16"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="14"/>
     </row>
     <row r="211" ht="18.75" spans="1:6">
       <c r="A211" s="10">
@@ -6162,7 +6185,7 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="16"/>
+      <c r="F211" s="14"/>
     </row>
     <row r="212" ht="18.75" spans="1:6">
       <c r="A212" s="10">
@@ -6234,7 +6257,7 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="16"/>
+      <c r="F217" s="14"/>
     </row>
     <row r="218" ht="18.75" spans="1:6">
       <c r="A218" s="10">
@@ -6312,13 +6335,13 @@
       <c r="A224" s="12">
         <v>45879</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="16"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="14"/>
     </row>
     <row r="225" ht="18.75" spans="1:6">
       <c r="A225" s="10">
@@ -6330,7 +6353,7 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="16"/>
+      <c r="F225" s="14"/>
     </row>
     <row r="226" ht="18.75" spans="1:6">
       <c r="A226" s="10">
@@ -6390,7 +6413,7 @@
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="16"/>
+      <c r="F230" s="14"/>
     </row>
     <row r="231" ht="18.75" spans="1:6">
       <c r="A231" s="10">
@@ -6402,7 +6425,7 @@
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="16"/>
+      <c r="F231" s="14"/>
     </row>
     <row r="232" ht="18.75" spans="1:6">
       <c r="A232" s="10">
@@ -6438,7 +6461,7 @@
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="16"/>
+      <c r="F234" s="14"/>
     </row>
     <row r="235" ht="18.75" spans="1:6">
       <c r="A235" s="10">
@@ -6462,7 +6485,7 @@
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="16"/>
+      <c r="F236" s="14"/>
     </row>
     <row r="237" ht="18.75" spans="1:6">
       <c r="A237" s="10">
@@ -6510,7 +6533,7 @@
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="16"/>
+      <c r="F240" s="14"/>
     </row>
     <row r="241" ht="18.75" spans="1:6">
       <c r="A241" s="10">
@@ -6570,7 +6593,7 @@
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
-      <c r="F245" s="16"/>
+      <c r="F245" s="14"/>
     </row>
     <row r="246" ht="18.75" spans="1:6">
       <c r="A246" s="10">
@@ -6654,7 +6677,7 @@
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
-      <c r="F252" s="16"/>
+      <c r="F252" s="14"/>
     </row>
     <row r="253" ht="18.75" spans="1:6">
       <c r="A253" s="10">
@@ -6678,7 +6701,7 @@
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
-      <c r="F254" s="16"/>
+      <c r="F254" s="14"/>
     </row>
     <row r="255" ht="18.75" spans="1:6">
       <c r="A255" s="10">
@@ -6726,7 +6749,7 @@
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
-      <c r="F258" s="16"/>
+      <c r="F258" s="14"/>
     </row>
     <row r="259" ht="18.75" spans="1:6">
       <c r="A259" s="10">
@@ -6810,7 +6833,7 @@
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
-      <c r="F265" s="16"/>
+      <c r="F265" s="14"/>
     </row>
     <row r="266" ht="18.75" spans="1:6">
       <c r="A266" s="10">
@@ -6834,18 +6857,18 @@
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
-      <c r="F267" s="16"/>
+      <c r="F267" s="14"/>
     </row>
     <row r="268" ht="18.75" spans="1:6">
       <c r="A268" s="12">
         <v>45923</v>
       </c>
-      <c r="B268" s="13" t="s">
+      <c r="B268" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-      <c r="E268" s="14"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
       <c r="F268" s="4"/>
     </row>
     <row r="269" ht="18.75" spans="1:6">
@@ -6858,7 +6881,7 @@
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
-      <c r="F269" s="16"/>
+      <c r="F269" s="14"/>
     </row>
     <row r="270" ht="18.75" spans="1:6">
       <c r="A270" s="10">
@@ -6906,7 +6929,7 @@
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
-      <c r="F273" s="16"/>
+      <c r="F273" s="14"/>
     </row>
     <row r="274" ht="18.75" spans="1:6">
       <c r="A274" s="10">
@@ -7038,7 +7061,7 @@
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
-      <c r="F284" s="16"/>
+      <c r="F284" s="14"/>
     </row>
     <row r="285" ht="18.75" spans="1:6">
       <c r="A285" s="10">
@@ -7086,7 +7109,7 @@
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
-      <c r="F288" s="16"/>
+      <c r="F288" s="14"/>
     </row>
     <row r="289" ht="18.75" spans="1:6">
       <c r="A289" s="10">
@@ -7122,7 +7145,7 @@
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
-      <c r="F291" s="16"/>
+      <c r="F291" s="14"/>
     </row>
     <row r="292" ht="18.75" spans="1:6">
       <c r="A292" s="10">
@@ -7158,7 +7181,7 @@
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
-      <c r="F294" s="16"/>
+      <c r="F294" s="14"/>
     </row>
     <row r="295" ht="18.75" spans="1:6">
       <c r="A295" s="10">
@@ -7230,7 +7253,7 @@
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
-      <c r="F300" s="16"/>
+      <c r="F300" s="14"/>
     </row>
     <row r="301" ht="18.75" spans="1:6">
       <c r="A301" s="10">
@@ -7254,7 +7277,7 @@
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
-      <c r="F302" s="16"/>
+      <c r="F302" s="14"/>
     </row>
     <row r="303" ht="18.75" spans="1:6">
       <c r="A303" s="10">
@@ -7278,7 +7301,7 @@
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
-      <c r="F304" s="16"/>
+      <c r="F304" s="14"/>
     </row>
     <row r="305" ht="18.75" spans="1:6">
       <c r="A305" s="10">
@@ -7326,7 +7349,7 @@
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="F308" s="16"/>
+      <c r="F308" s="14"/>
     </row>
     <row r="309" ht="18.75" spans="1:6">
       <c r="A309" s="10">
@@ -7428,12 +7451,12 @@
       <c r="A317" s="12">
         <v>45972</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
-      <c r="E317" s="14"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
       <c r="F317" s="4"/>
     </row>
     <row r="318" ht="18.75" spans="1:6">
@@ -7446,7 +7469,7 @@
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="18"/>
+      <c r="F318" s="16"/>
     </row>
     <row r="319" ht="18.75" spans="1:6">
       <c r="A319" s="10">
@@ -7470,7 +7493,7 @@
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="18"/>
+      <c r="F320" s="16"/>
     </row>
     <row r="321" ht="18.75" spans="1:6">
       <c r="A321" s="10">
@@ -7566,7 +7589,7 @@
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
-      <c r="F328" s="19"/>
+      <c r="F328" s="17"/>
     </row>
     <row r="329" ht="18.75" spans="1:6">
       <c r="A329" s="10">
@@ -7674,7 +7697,7 @@
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
-      <c r="F337" s="19"/>
+      <c r="F337" s="17"/>
     </row>
     <row r="338" ht="18.75" spans="1:6">
       <c r="A338" s="10">
@@ -7794,7 +7817,7 @@
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
-      <c r="F347" s="19"/>
+      <c r="F347" s="17"/>
     </row>
     <row r="348" ht="18.75" spans="1:6">
       <c r="A348" s="10">
@@ -7908,12 +7931,12 @@
       <c r="A357" s="12">
         <v>46012</v>
       </c>
-      <c r="B357" s="13" t="s">
+      <c r="B357" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C357" s="14"/>
-      <c r="D357" s="14"/>
-      <c r="E357" s="14"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
       <c r="F357" s="11"/>
     </row>
     <row r="358" ht="18.75" spans="1:6">

--- a/doc/手游大事件日历.xlsx
+++ b/doc/手游大事件日历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673"/>
+    <workbookView windowWidth="23040" windowHeight="9180" tabRatio="673" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大事件日历2024" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="155">
   <si>
     <t>日期</t>
   </si>
@@ -420,6 +420,9 @@
     <t>《绝区零》1.4版本更新</t>
   </si>
   <si>
+    <t>《RE：记忆碎片 白色阴影》韩服公测</t>
+  </si>
+  <si>
     <t>《星塔旅人》「启明测试」招募开启</t>
   </si>
   <si>
@@ -429,10 +432,13 @@
     <t>《绝区零》韩服iphone联动</t>
   </si>
   <si>
+    <t>《无限暖暖》更新后出现拍照闪退、商城服装缺啥配件等bug。修复后道歉并发放100钻石</t>
+  </si>
+  <si>
     <t>《诛仙世界》公测</t>
   </si>
   <si>
-    <t>《女神异闻录夜幕魅影》3.1版本更新</t>
+    <t>《最终幻想14：水晶世界》「拂晓测试」</t>
   </si>
   <si>
     <t>《无限暖暖》第一个新四星卡池</t>
@@ -450,6 +456,12 @@
     <t>《星痕共鸣》星启测试招募结束</t>
   </si>
   <si>
+    <t>《星痕共鸣》星启测试预下载</t>
+  </si>
+  <si>
+    <t>《星痕共鸣》星启测试</t>
+  </si>
+  <si>
     <t>《燕云十六声》PC公测</t>
   </si>
   <si>
@@ -457,6 +469,9 @@
   </si>
   <si>
     <t>《原神》5.3版本更新</t>
+  </si>
+  <si>
+    <t>《星痕共鸣》星启测试结束</t>
   </si>
   <si>
     <t>《星塔旅人》「启明测试」招募结束</t>
@@ -1230,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1276,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1366,26 +1387,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1912,21 +1915,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.225" style="18" customWidth="1"/>
-    <col min="3" max="3" width="51.1083333333333" style="18" customWidth="1"/>
-    <col min="4" max="4" width="41.3833333333333" style="18" customWidth="1"/>
-    <col min="5" max="5" width="56.1083333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.6666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.22222222222222" style="20" customWidth="1"/>
+    <col min="3" max="3" width="51.1111111111111" style="20" customWidth="1"/>
+    <col min="4" max="4" width="41.3796296296296" style="20" customWidth="1"/>
+    <col min="5" max="5" width="56.1111111111111" style="20" customWidth="1"/>
     <col min="6" max="6" width="84.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1951,10 +1954,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>45595</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1965,10 +1968,10 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>45596</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1979,7 +1982,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>45597</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1988,25 +1991,25 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>45598</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -2015,10 +2018,10 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>45599</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
@@ -2027,10 +2030,10 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>45600</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2041,10 +2044,10 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>45601</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4"/>
@@ -2053,7 +2056,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>45602</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2062,65 +2065,65 @@
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>45603</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>45604</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4"/>
@@ -2131,10 +2134,10 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>45605</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4"/>
@@ -2143,10 +2146,10 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>45606</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4"/>
@@ -2155,10 +2158,10 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>45607</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4"/>
@@ -2167,10 +2170,10 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>45608</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4"/>
@@ -2179,10 +2182,10 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>45609</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="4"/>
@@ -2191,10 +2194,10 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10">
+      <c r="A21" s="12">
         <v>45610</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2205,7 +2208,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12">
+      <c r="A22" s="14">
         <v>45611</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2214,27 +2217,27 @@
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>45612</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2245,10 +2248,10 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10">
+      <c r="A25" s="12">
         <v>45613</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="4"/>
@@ -2257,10 +2260,10 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="12">
         <v>45614</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="4"/>
@@ -2269,101 +2272,101 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12">
+      <c r="A27" s="14">
         <v>45615</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="23"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="23"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="23"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="23"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="23"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="23"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="23"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="23"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12">
+      <c r="A36" s="14">
         <v>45616</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2377,8 +2380,8 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2390,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <v>45617</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2396,54 +2399,54 @@
       <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="23"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="25"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="23"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="23"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="23"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="25"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12">
+      <c r="A43" s="14">
         <v>45618</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2452,47 +2455,47 @@
       <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="27" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="23"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="23"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="23"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="10">
+      <c r="A47" s="12">
         <v>45619</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2505,10 +2508,10 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10">
+      <c r="A48" s="12">
         <v>45620</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="4"/>
@@ -2517,17 +2520,17 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="12">
+      <c r="A49" s="14">
         <v>45621</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="22" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="24" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -2535,32 +2538,32 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="23"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12">
+      <c r="A51" s="14">
         <v>45622</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="29"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="10">
+      <c r="A52" s="12">
         <v>45623</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2573,10 +2576,10 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="10">
+      <c r="A53" s="12">
         <v>45624</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -2587,10 +2590,10 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="10">
+      <c r="A54" s="12">
         <v>45625</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2603,10 +2606,10 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="10">
+      <c r="A55" s="12">
         <v>45626</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="4"/>
@@ -2615,10 +2618,10 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10">
+      <c r="A56" s="12">
         <v>45627</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2631,41 +2634,41 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="12">
+      <c r="A57" s="14">
         <v>45628</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="23"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="30" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="32" t="s">
         <v>68</